--- a/_files/requirements/master_data/master-template.xlsx
+++ b/_files/requirements/master_data/master-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Data Refresh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{50E44667-CF60-42B7-9308-D1DA21B2B361}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1B7AA2C6-2D14-496A-9E72-E934EBA62CC9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1121,15 +1121,6 @@
 11.code postal:${PostalCode}
 12.Numéro de portable:${Mobile}
 13.Email:${Email}</t>
-  </si>
-  <si>
-    <t>&lt;html&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.previewPhoto{float:right;position:absolute;top:220px;}.photo{float:right;position:absolute;top:280px;}.applicantPhoto{position:absolute;top:-35px;left:540px;}.applicantPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:560px;}.parentPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:665px;}.applicantPhotoLabel2{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:690px;}.parentPhoto{position:absolute;top:-35px;left:670px;}.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:10px;}td,p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:90px;}.leftRing{top:3px;left:103px;}.leftMiddle{top:-7px;left:119px;}.leftIndex{top:3px;left:132px;}.rightIndex{top:3px;left:105px;}.rightMiddle{top:-7px;left:119px;}.rightRing{top:3px;left:132px;}.rightLittle{top:15px;left:146px;}.leftThumb{top:-4px;left:105px;}.rightThumb{top:-4px;left:130px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.modify{float:right;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;}
-input[type="radio"] {display: none;}
-input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}
-input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}
-*,*:before,*:after { box-sizing: border-box;}
-.consent-block label { display: inline-flex; align-items: center;}
-&lt;/style&gt;&lt;/head&gt;</t>
   </si>
   <si>
     <t>&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;img src="${CapturedLeftSlap}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;img src="${CapturedRightSlap}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;img src="${CapturedThumbs}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;p ${MissingLeftFingers} class="headings"&gt;${LeftSlapExceptionPrim} / ${LeftSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p ${MissingRightFingers} class="headings"&gt;${RightSlapExceptionPrim} / ${RightSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p ${MissingThumbs} class="headings"&gt;${ThumbsExceptionPrim} / ${ThumbsExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;p ${MissingLeftFingers} class="headings"&gt;${LeftSlapExceptionPrim} / ${LeftSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;p ${MissingRightFingers} class="headings"&gt;${RightSlapExceptionPrim} / ${RightSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;p ${MissingThumbs} class="headings"&gt;${ThumbsExceptionPrim} / ${ThumbsExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
@@ -1694,6 +1685,15 @@
 ${PostalCode}: الرمز البريدي.11_x000D_
 ${Mobile}: رقم الهاتف المحمول.12_x000D_
 ${Email}: البريد الإلكتروني.13</t>
+  </si>
+  <si>
+    <t>&lt;html&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.previewPhoto{float:right;position:absolute;top:220px;}.photo{float:right;position:absolute;top:280px;}.applicantPhoto{position:absolute;top:-35px;left:540px;}.applicantPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:560px;}.parentPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:665px;}.applicantPhotoLabel2{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:690px;}.parentPhoto{position:absolute;top:-35px;left:670px;}.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:10px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:90px;}.leftRing{top:3px;left:103px;}.leftMiddle{top:-7px;left:119px;}.leftIndex{top:3px;left:132px;}.rightIndex{top:3px;left:105px;}.rightMiddle{top:-7px;left:119px;}.rightRing{top:3px;left:132px;}.rightLittle{top:15px;left:146px;}.leftThumb{top:-4px;left:105px;}.rightThumb{top:-4px;left:130px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.modify{float:right;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;}
+input[type="radio"] {display: none;}
+input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}
+input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}
+*,*:before,*:after { box-sizing: border-box;}
+.consent-block label { display: inline-flex; align-items: center;}
+&lt;/style&gt;&lt;script&gt;document.onreadystatechange = function () {if(document.readyState === 'complete'){var images = document.getElementsByTagName('img');for (var imageIndex = 0; imageIndex &lt; images.length; imageIndex++) {images[imageIndex].addEventListener("mousedown", function(event) {event.preventDefault();});}}}&lt;/script&gt;&lt;/head&gt;</t>
   </si>
 </sst>
 </file>
@@ -2545,7 +2545,7 @@
   <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+      <selection activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2959,7 +2959,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G11" s="1">
         <v>10003</v>
@@ -2997,7 +2997,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G12" s="1">
         <v>10003</v>
@@ -3035,7 +3035,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G13" s="1">
         <v>10003</v>
@@ -3073,7 +3073,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G14" s="1">
         <v>10003</v>
@@ -3111,7 +3111,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G15" s="1">
         <v>10003</v>
@@ -3149,7 +3149,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G16" s="1">
         <v>10003</v>
@@ -3187,7 +3187,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G17" s="1">
         <v>10003</v>
@@ -3225,7 +3225,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G18" s="1">
         <v>10003</v>
@@ -3263,7 +3263,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G19" s="1">
         <v>10003</v>
@@ -3301,7 +3301,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G20" s="1">
         <v>10003</v>
@@ -3339,7 +3339,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G21" s="1">
         <v>10003</v>
@@ -3377,7 +3377,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G22" s="1">
         <v>10003</v>
@@ -3415,7 +3415,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G23" s="1">
         <v>10003</v>
@@ -3453,7 +3453,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G24" s="1">
         <v>10003</v>
@@ -3491,7 +3491,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G25" s="1">
         <v>10003</v>
@@ -3529,7 +3529,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G26" s="1">
         <v>10003</v>
@@ -5695,7 +5695,7 @@
         <v>206</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G83" s="1">
         <v>10003</v>
@@ -5733,7 +5733,7 @@
         <v>206</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G84" s="1">
         <v>10003</v>
@@ -5771,7 +5771,7 @@
         <v>206</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G85" s="1">
         <v>10003</v>
@@ -5809,7 +5809,7 @@
         <v>14</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G86" s="1">
         <v>10003</v>
@@ -5847,7 +5847,7 @@
         <v>14</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G87" s="1">
         <v>10003</v>
@@ -5885,7 +5885,7 @@
         <v>14</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G88" s="1">
         <v>10003</v>
@@ -5923,7 +5923,7 @@
         <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G89" s="1">
         <v>10003</v>
@@ -5961,7 +5961,7 @@
         <v>14</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G90" s="1">
         <v>10003</v>
@@ -5999,7 +5999,7 @@
         <v>14</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G91" s="1">
         <v>10003</v>
@@ -6075,7 +6075,7 @@
         <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G93" s="1">
         <v>10003</v>
@@ -6113,7 +6113,7 @@
         <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G94" s="1">
         <v>10003</v>
@@ -6189,7 +6189,7 @@
         <v>14</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G96" s="1">
         <v>10003</v>
@@ -6227,7 +6227,7 @@
         <v>14</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G97" s="1">
         <v>10003</v>
@@ -6292,7 +6292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="156" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" ht="156" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>1136</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>226</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G99" s="1">
         <v>10005</v>
@@ -6415,7 +6415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>1137</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>226</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G102" s="1">
         <v>10005</v>
@@ -6497,7 +6497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>1138</v>
       </c>
@@ -6513,8 +6513,8 @@
       <c r="E104" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>326</v>
+      <c r="F104" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="G104" s="1">
         <v>10005</v>
@@ -6538,7 +6538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>1138</v>
       </c>
@@ -6554,8 +6554,8 @@
       <c r="E105" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>326</v>
+      <c r="F105" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="G105" s="1">
         <v>10005</v>
@@ -6579,7 +6579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>1138</v>
       </c>
@@ -6595,8 +6595,8 @@
       <c r="E106" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>326</v>
+      <c r="F106" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="G106" s="1">
         <v>10005</v>
@@ -6637,7 +6637,7 @@
         <v>226</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G107" s="1">
         <v>10005</v>
@@ -6678,7 +6678,7 @@
         <v>226</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G108" s="1">
         <v>10005</v>
@@ -6719,7 +6719,7 @@
         <v>226</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G109" s="1">
         <v>10005</v>
@@ -7047,7 +7047,7 @@
         <v>226</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G117" s="1">
         <v>10005</v>
@@ -7088,7 +7088,7 @@
         <v>226</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G118" s="1">
         <v>10005</v>
@@ -7129,7 +7129,7 @@
         <v>226</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G119" s="1">
         <v>10005</v>
@@ -8869,7 +8869,7 @@
         <v>1156</v>
       </c>
       <c r="B162" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C162" t="s">
         <v>310</v>
@@ -9238,10 +9238,10 @@
         <v>1159</v>
       </c>
       <c r="B171" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C171" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D171" t="s">
         <v>14</v>
@@ -9250,7 +9250,7 @@
         <v>226</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G171" s="1">
         <v>10001</v>
@@ -9259,7 +9259,7 @@
         <v>158</v>
       </c>
       <c r="I171" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>18</v>
@@ -9279,10 +9279,10 @@
         <v>1159</v>
       </c>
       <c r="B172" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C172" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D172" t="s">
         <v>14</v>
@@ -9291,7 +9291,7 @@
         <v>226</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G172" s="1">
         <v>10001</v>
@@ -9300,7 +9300,7 @@
         <v>176</v>
       </c>
       <c r="I172" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>34</v>
@@ -9320,10 +9320,10 @@
         <v>1159</v>
       </c>
       <c r="B173" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C173" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D173" t="s">
         <v>14</v>
@@ -9332,7 +9332,7 @@
         <v>226</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G173" s="1">
         <v>10001</v>
@@ -9341,7 +9341,7 @@
         <v>188</v>
       </c>
       <c r="I173" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>43</v>
@@ -9361,10 +9361,10 @@
         <v>1160</v>
       </c>
       <c r="B174" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C174" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D174" t="s">
         <v>14</v>
@@ -9373,10 +9373,10 @@
         <v>226</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>18</v>
@@ -9396,10 +9396,10 @@
         <v>1160</v>
       </c>
       <c r="B175" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C175" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D175" t="s">
         <v>14</v>
@@ -9408,10 +9408,10 @@
         <v>226</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>34</v>
@@ -9431,10 +9431,10 @@
         <v>1160</v>
       </c>
       <c r="B176" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C176" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D176" t="s">
         <v>14</v>
@@ -9443,10 +9443,10 @@
         <v>226</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>43</v>
@@ -9466,10 +9466,10 @@
         <v>1161</v>
       </c>
       <c r="B177" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C177" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D177" t="s">
         <v>14</v>
@@ -9478,10 +9478,10 @@
         <v>226</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>18</v>
@@ -9501,10 +9501,10 @@
         <v>1161</v>
       </c>
       <c r="B178" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C178" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D178" t="s">
         <v>14</v>
@@ -9513,10 +9513,10 @@
         <v>226</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>34</v>
@@ -9536,10 +9536,10 @@
         <v>1161</v>
       </c>
       <c r="B179" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C179" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D179" t="s">
         <v>14</v>
@@ -9548,10 +9548,10 @@
         <v>226</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>43</v>
@@ -9575,13 +9575,7 @@
     </filterColumn>
     <filterColumn colId="8">
       <filters>
-        <filter val="reg-email-notification"/>
-        <filter val="reg-sms-notification"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="ara"/>
+        <filter val="reg-ack-template-part1"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/_files/requirements/master_data/master-template.xlsx
+++ b/_files/requirements/master_data/master-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Data Refresh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1B7AA2C6-2D14-496A-9E72-E934EBA62CC9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4C202387-92FC-413C-83AE-D2AE77FFA79E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1121,17 +1121,6 @@
 11.code postal:${PostalCode}
 12.Numéro de portable:${Mobile}
 13.Email:${Email}</t>
-  </si>
-  <si>
-    <t>&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;img src="${CapturedLeftSlap}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;img src="${CapturedRightSlap}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;img src="${CapturedThumbs}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;p ${MissingLeftFingers} class="headings"&gt;${LeftSlapExceptionPrim} / ${LeftSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p ${MissingRightFingers} class="headings"&gt;${RightSlapExceptionPrim} / ${RightSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p ${MissingThumbs} class="headings"&gt;${ThumbsExceptionPrim} / ${ThumbsExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;p ${MissingLeftFingers} class="headings"&gt;${LeftSlapExceptionPrim} / ${LeftSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;p ${MissingRightFingers} class="headings"&gt;${RightSlapExceptionPrim} / ${RightSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;p ${MissingThumbs} class="headings"&gt;${ThumbsExceptionPrim} / ${ThumbsExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
-&lt;br/&gt;&lt;div ${Preview}&gt;&lt;p class="head"&gt;&lt;b&gt;${Consent}&lt;/b&gt;&lt;/p&gt;&lt;hr/&gt;&lt;div class="consent-block"&gt;${ConsentData}&lt;br/&gt;
-&lt;input type="radio" name="consent" id="consent-yes" ${SelectedYes}&gt;&lt;label for="consent-yes"&gt;${Yes}&lt;/label&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;
-&lt;input type="radio" name="consent" id="consent-no" ${SelectedNo}&gt;&lt;label for="consent-no"&gt;${No}&lt;/label&gt;&lt;/div&gt;&lt;/div&gt;&lt;hr/&gt;
-&lt;table class="dataTable"&gt;&lt;tr&gt;&lt;td ${ROImage}&gt;&lt;img src="${ROImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RONamePrimLabel} / ${RONameSecLabel}&lt;/p&gt;&lt;br/&gt;${ROName}&lt;br/&gt;${RONameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RegCenterPrimLabel} / ${RegCenterSecLabel}&lt;/p&gt;&lt;br/&gt;${RegCenter}&lt;br/&gt;${RegCenterSec}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
-&lt;hr/&gt;&lt;br/&gt;&lt;/div&gt;
-&lt;div ${parentPhotoCaptured}&gt;&lt;div ${FaceCaptureEnabled} ${AckReceipt} class="photo"&gt;&lt;p class="applicantPhotoLabel"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="applicantPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${AckReceipt} class="photo"&gt;&lt;p class="parentPhotoLabel"&gt;${ParentPhotoPrim} / ${ParentPhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ParentImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${FaceCaptureEnabled} ${Preview} class="previewPhoto"&gt;&lt;p class="applicantPhotoLabel"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="applicantPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${Preview} class="previewPhoto"&gt;&lt;p class="parentPhotoLabel"&gt;${ParentPhotoPrim} / ${ParentPhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ParentImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;/div&gt;
-&lt;div ${parentPhotoNotCaptured}&gt;&lt;div ${FaceCaptureEnabled} ${AckReceipt} class="photo"&gt;&lt;p class="applicantPhotoLabel2"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${FaceCaptureEnabled} ${Preview} class="previewPhoto"&gt;&lt;p class="applicantPhotoLabel2"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;/div&gt;
-&lt;div ${AckReceipt}&gt;&lt;p&gt;${ImportantGuidelines}&lt;/p&gt;&lt;ul&gt;${Guidelines}&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
   </si>
   <si>
     <t>Template for Cancel Appointment</t>
@@ -1687,13 +1676,33 @@
 ${Email}: البريد الإلكتروني.13</t>
   </si>
   <si>
-    <t>&lt;html&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.previewPhoto{float:right;position:absolute;top:220px;}.photo{float:right;position:absolute;top:280px;}.applicantPhoto{position:absolute;top:-35px;left:540px;}.applicantPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:560px;}.parentPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:665px;}.applicantPhotoLabel2{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:690px;}.parentPhoto{position:absolute;top:-35px;left:670px;}.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:10px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:90px;}.leftRing{top:3px;left:103px;}.leftMiddle{top:-7px;left:119px;}.leftIndex{top:3px;left:132px;}.rightIndex{top:3px;left:105px;}.rightMiddle{top:-7px;left:119px;}.rightRing{top:3px;left:132px;}.rightLittle{top:15px;left:146px;}.leftThumb{top:-4px;left:105px;}.rightThumb{top:-4px;left:130px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.modify{float:right;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;}
+    <t>&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;img src="${CapturedLeftSlap}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;img src="${CapturedRightSlap}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;img src="${CapturedThumbs}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;p ${MissingLeftFingers} class="headings"&gt;${LeftSlapExceptionPrim} / ${LeftSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p ${MissingRightFingers} class="headings"&gt;${RightSlapExceptionPrim} / ${RightSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p ${MissingThumbs} class="headings"&gt;${ThumbsExceptionPrim} / ${ThumbsExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;p ${MissingLeftFingers} class="headings"&gt;${LeftSlapExceptionPrim} / ${LeftSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;p ${MissingRightFingers} class="headings"&gt;${RightSlapExceptionPrim} / ${RightSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;p ${MissingThumbs} class="headings"&gt;${ThumbsExceptionPrim} / ${ThumbsExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;br/&gt;&lt;div ${Preview}&gt;&lt;p class="head"&gt;&lt;b&gt;${Consent}&lt;/b&gt;&lt;/p&gt;&lt;div class="consent-block" id="radioId"&gt;&lt;div class="consent-text"&gt;${ConsentData}&lt;/div&gt;
+&lt;input type="radio" name="consent" id="consent-yes" value="yes" ${SelectedYes} onchange="changeColour(this)"&gt;&lt;label for="consent-yes"&gt;${Yes}&lt;/label&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;
+&lt;input type="radio" name="consent" id="consent-no" value="no" ${SelectedNo} onchange="changeColour(this)"&gt;&lt;label for="consent-no"&gt;${No}&lt;/label&gt;&lt;/div&gt;&lt;/div&gt;
+&lt;table class="dataTable"&gt;&lt;tr&gt;&lt;td ${ROImage}&gt;&lt;img src="${ROImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RONamePrimLabel} / ${RONameSecLabel}&lt;/p&gt;&lt;br/&gt;${ROName}&lt;br/&gt;${RONameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RegCenterPrimLabel} / ${RegCenterSecLabel}&lt;/p&gt;&lt;br/&gt;${RegCenter}&lt;br/&gt;${RegCenterSec}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;hr/&gt;&lt;br/&gt;&lt;/div&gt;
+&lt;div ${parentPhotoCaptured}&gt;&lt;div ${FaceCaptureEnabled} ${AckReceipt} class="photo"&gt;&lt;p class="applicantPhotoLabel"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="applicantPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${AckReceipt} class="photo"&gt;&lt;p class="parentPhotoLabel"&gt;${ParentPhotoPrim} / ${ParentPhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ParentImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${FaceCaptureEnabled} ${Preview} class="previewPhoto"&gt;&lt;p class="applicantPhotoLabel"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="applicantPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${Preview} class="previewPhoto"&gt;&lt;p class="parentPhotoLabel"&gt;${ParentPhotoPrim} / ${ParentPhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ParentImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;/div&gt;
+&lt;div ${parentPhotoNotCaptured}&gt;&lt;div ${FaceCaptureEnabled} ${AckReceipt} class="photo"&gt;&lt;p class="applicantPhotoLabel2"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${FaceCaptureEnabled} ${Preview} class="previewPhoto"&gt;&lt;p class="applicantPhotoLabel2"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;/div&gt;
+&lt;div ${AckReceipt}&gt;&lt;p&gt;${ImportantGuidelines}&lt;/p&gt;&lt;ul&gt;${Guidelines}&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.previewPhoto{float:right;position:absolute;top:220px;}.photo{float:right;position:absolute;top:280px;}
+.applicantPhoto{position:absolute;top:-35px;left:500px;}
+.applicantPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:520px;}
+.parentPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:625px;}
+.applicantPhotoLabel2{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:650px;}
+.parentPhoto{position:absolute;top:-35px;left:630px;}
+.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:10px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:90px;}.leftRing{top:3px;left:103px;}.leftMiddle{top:-7px;left:119px;}.leftIndex{top:3px;left:132px;}.rightIndex{top:3px;left:105px;}.rightMiddle{top:-7px;left:119px;}.rightRing{top:3px;left:132px;}.rightLittle{top:15px;left:146px;}.leftThumb{top:-4px;left:105px;}.rightThumb{top:-4px;left:130px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.modify{float:right;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;}
+.consent-text{margin-left: 7px;margin-bottom: 4px;}
 input[type="radio"] {display: none;}
 input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}
 input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}
 *,*:before,*:after { box-sizing: border-box;}
 .consent-block label { display: inline-flex; align-items: center;}
-&lt;/style&gt;&lt;script&gt;document.onreadystatechange = function () {if(document.readyState === 'complete'){var images = document.getElementsByTagName('img');for (var imageIndex = 0; imageIndex &lt; images.length; imageIndex++) {images[imageIndex].addEventListener("mousedown", function(event) {event.preventDefault();});}}}&lt;/script&gt;&lt;/head&gt;</t>
+&lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";}
+if(element.value == "no"){div.style = "border: 2px solid #FF0000";}}
+document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;/head&gt;</t>
   </si>
 </sst>
 </file>
@@ -2541,11 +2550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2603,7 +2611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1101</v>
       </c>
@@ -2641,7 +2649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1102</v>
       </c>
@@ -2679,7 +2687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1103</v>
       </c>
@@ -2717,7 +2725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1101</v>
       </c>
@@ -2755,7 +2763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1102</v>
       </c>
@@ -2793,7 +2801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1103</v>
       </c>
@@ -2831,7 +2839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1101</v>
       </c>
@@ -2869,7 +2877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1102</v>
       </c>
@@ -2907,7 +2915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1103</v>
       </c>
@@ -2945,7 +2953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1107</v>
       </c>
@@ -2959,7 +2967,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G11" s="1">
         <v>10003</v>
@@ -2983,7 +2991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1108</v>
       </c>
@@ -2997,7 +3005,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G12" s="1">
         <v>10003</v>
@@ -3021,7 +3029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1109</v>
       </c>
@@ -3035,7 +3043,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G13" s="1">
         <v>10003</v>
@@ -3059,7 +3067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1110</v>
       </c>
@@ -3073,7 +3081,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G14" s="1">
         <v>10003</v>
@@ -3097,7 +3105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1111</v>
       </c>
@@ -3111,7 +3119,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G15" s="1">
         <v>10003</v>
@@ -3135,7 +3143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1112</v>
       </c>
@@ -3149,7 +3157,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G16" s="1">
         <v>10003</v>
@@ -3173,7 +3181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="145" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1113</v>
       </c>
@@ -3187,7 +3195,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G17" s="1">
         <v>10003</v>
@@ -3211,7 +3219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1114</v>
       </c>
@@ -3225,7 +3233,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G18" s="1">
         <v>10003</v>
@@ -3249,7 +3257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1107</v>
       </c>
@@ -3263,7 +3271,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G19" s="1">
         <v>10003</v>
@@ -3287,7 +3295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1108</v>
       </c>
@@ -3301,7 +3309,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G20" s="1">
         <v>10003</v>
@@ -3325,7 +3333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1109</v>
       </c>
@@ -3339,7 +3347,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G21" s="1">
         <v>10003</v>
@@ -3363,7 +3371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1110</v>
       </c>
@@ -3377,7 +3385,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G22" s="1">
         <v>10003</v>
@@ -3401,7 +3409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1111</v>
       </c>
@@ -3415,7 +3423,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G23" s="1">
         <v>10003</v>
@@ -3439,7 +3447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1112</v>
       </c>
@@ -3453,7 +3461,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G24" s="1">
         <v>10003</v>
@@ -3477,7 +3485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1113</v>
       </c>
@@ -3491,7 +3499,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G25" s="1">
         <v>10003</v>
@@ -3515,7 +3523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1114</v>
       </c>
@@ -3529,7 +3537,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G26" s="1">
         <v>10003</v>
@@ -3553,7 +3561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1107</v>
       </c>
@@ -3591,7 +3599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1108</v>
       </c>
@@ -3629,7 +3637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1109</v>
       </c>
@@ -3667,7 +3675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1110</v>
       </c>
@@ -3705,7 +3713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1111</v>
       </c>
@@ -3743,7 +3751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1112</v>
       </c>
@@ -3781,7 +3789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1113</v>
       </c>
@@ -3819,7 +3827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1114</v>
       </c>
@@ -3857,7 +3865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1115</v>
       </c>
@@ -3895,7 +3903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1116</v>
       </c>
@@ -3933,7 +3941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1117</v>
       </c>
@@ -3971,7 +3979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1118</v>
       </c>
@@ -4009,7 +4017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1119</v>
       </c>
@@ -4047,7 +4055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1120</v>
       </c>
@@ -4085,7 +4093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1121</v>
       </c>
@@ -4123,7 +4131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1122</v>
       </c>
@@ -4161,7 +4169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1123</v>
       </c>
@@ -4199,7 +4207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1115</v>
       </c>
@@ -4237,7 +4245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1116</v>
       </c>
@@ -4275,7 +4283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>1117</v>
       </c>
@@ -4313,7 +4321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>1118</v>
       </c>
@@ -4351,7 +4359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>1119</v>
       </c>
@@ -4389,7 +4397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1120</v>
       </c>
@@ -4427,7 +4435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1121</v>
       </c>
@@ -4465,7 +4473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>1122</v>
       </c>
@@ -4503,7 +4511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>1123</v>
       </c>
@@ -4541,7 +4549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>1115</v>
       </c>
@@ -4579,7 +4587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>1116</v>
       </c>
@@ -4617,7 +4625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>1117</v>
       </c>
@@ -4655,7 +4663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>1118</v>
       </c>
@@ -4693,7 +4701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>1119</v>
       </c>
@@ -4731,7 +4739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>1120</v>
       </c>
@@ -4769,7 +4777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>1121</v>
       </c>
@@ -4807,7 +4815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>1122</v>
       </c>
@@ -4845,7 +4853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>1123</v>
       </c>
@@ -4883,7 +4891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>1124</v>
       </c>
@@ -4921,7 +4929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>1125</v>
       </c>
@@ -4959,7 +4967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>1126</v>
       </c>
@@ -4997,7 +5005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>1127</v>
       </c>
@@ -5035,7 +5043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>1128</v>
       </c>
@@ -5073,7 +5081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>1129</v>
       </c>
@@ -5111,7 +5119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>1124</v>
       </c>
@@ -5149,7 +5157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>1125</v>
       </c>
@@ -5187,7 +5195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>1126</v>
       </c>
@@ -5225,7 +5233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>1127</v>
       </c>
@@ -5263,7 +5271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>1128</v>
       </c>
@@ -5301,7 +5309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>1129</v>
       </c>
@@ -5339,7 +5347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>1124</v>
       </c>
@@ -5377,7 +5385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>1125</v>
       </c>
@@ -5415,7 +5423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>1126</v>
       </c>
@@ -5453,7 +5461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>1127</v>
       </c>
@@ -5491,7 +5499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>1128</v>
       </c>
@@ -5529,7 +5537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>1129</v>
       </c>
@@ -5567,7 +5575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>1130</v>
       </c>
@@ -5605,7 +5613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>1130</v>
       </c>
@@ -5643,7 +5651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>1130</v>
       </c>
@@ -5681,7 +5689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>1131</v>
       </c>
@@ -5695,7 +5703,7 @@
         <v>206</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G83" s="1">
         <v>10003</v>
@@ -5719,7 +5727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>1131</v>
       </c>
@@ -5733,7 +5741,7 @@
         <v>206</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G84" s="1">
         <v>10003</v>
@@ -5757,7 +5765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>1131</v>
       </c>
@@ -5771,7 +5779,7 @@
         <v>206</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G85" s="1">
         <v>10003</v>
@@ -5795,7 +5803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>1132</v>
       </c>
@@ -5809,7 +5817,7 @@
         <v>14</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G86" s="1">
         <v>10003</v>
@@ -5833,7 +5841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>1132</v>
       </c>
@@ -5847,7 +5855,7 @@
         <v>14</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G87" s="1">
         <v>10003</v>
@@ -5871,7 +5879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>1132</v>
       </c>
@@ -5885,7 +5893,7 @@
         <v>14</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G88" s="1">
         <v>10003</v>
@@ -5909,7 +5917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>1133</v>
       </c>
@@ -5923,7 +5931,7 @@
         <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G89" s="1">
         <v>10003</v>
@@ -5947,7 +5955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>1133</v>
       </c>
@@ -5961,7 +5969,7 @@
         <v>14</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G90" s="1">
         <v>10003</v>
@@ -5985,7 +5993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>1133</v>
       </c>
@@ -5999,7 +6007,7 @@
         <v>14</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G91" s="1">
         <v>10003</v>
@@ -6023,7 +6031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>1134</v>
       </c>
@@ -6061,7 +6069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>1134</v>
       </c>
@@ -6075,7 +6083,7 @@
         <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G93" s="1">
         <v>10003</v>
@@ -6099,7 +6107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="65" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>1134</v>
       </c>
@@ -6113,7 +6121,7 @@
         <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G94" s="1">
         <v>10003</v>
@@ -6137,7 +6145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>1135</v>
       </c>
@@ -6175,7 +6183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="169" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" ht="169" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>1135</v>
       </c>
@@ -6189,7 +6197,7 @@
         <v>14</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G96" s="1">
         <v>10003</v>
@@ -6213,7 +6221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>1135</v>
       </c>
@@ -6227,7 +6235,7 @@
         <v>14</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G97" s="1">
         <v>10003</v>
@@ -6251,7 +6259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>1136</v>
       </c>
@@ -6292,7 +6300,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="156" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" ht="156" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>1136</v>
       </c>
@@ -6309,7 +6317,7 @@
         <v>226</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G99" s="1">
         <v>10005</v>
@@ -6333,7 +6341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>1136</v>
       </c>
@@ -6374,7 +6382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>1137</v>
       </c>
@@ -6415,7 +6423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>1137</v>
       </c>
@@ -6432,7 +6440,7 @@
         <v>226</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G102" s="1">
         <v>10005</v>
@@ -6456,7 +6464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>1137</v>
       </c>
@@ -6497,7 +6505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>1138</v>
       </c>
@@ -6513,7 +6521,7 @@
       <c r="E104" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="F104" s="1" t="s">
         <v>376</v>
       </c>
       <c r="G104" s="1">
@@ -6538,7 +6546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>1138</v>
       </c>
@@ -6554,7 +6562,7 @@
       <c r="E105" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="F105" s="1" t="s">
         <v>376</v>
       </c>
       <c r="G105" s="1">
@@ -6579,7 +6587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>1138</v>
       </c>
@@ -6595,7 +6603,7 @@
       <c r="E106" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F106" s="1" t="s">
         <v>376</v>
       </c>
       <c r="G106" s="1">
@@ -6620,7 +6628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>1139</v>
       </c>
@@ -6637,7 +6645,7 @@
         <v>226</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G107" s="1">
         <v>10005</v>
@@ -6661,7 +6669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>1139</v>
       </c>
@@ -6678,7 +6686,7 @@
         <v>226</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G108" s="1">
         <v>10005</v>
@@ -6702,7 +6710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>1139</v>
       </c>
@@ -6719,7 +6727,7 @@
         <v>226</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G109" s="1">
         <v>10005</v>
@@ -6743,7 +6751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>1140</v>
       </c>
@@ -6784,7 +6792,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>1140</v>
       </c>
@@ -6825,7 +6833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>1140</v>
       </c>
@@ -6866,7 +6874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>259</v>
       </c>
@@ -6907,7 +6915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>266</v>
       </c>
@@ -6948,7 +6956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>267</v>
       </c>
@@ -6989,7 +6997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>268</v>
       </c>
@@ -7030,7 +7038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>1141</v>
       </c>
@@ -7047,7 +7055,7 @@
         <v>226</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="G117" s="1">
         <v>10005</v>
@@ -7071,7 +7079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>1141</v>
       </c>
@@ -7088,7 +7096,7 @@
         <v>226</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="G118" s="1">
         <v>10005</v>
@@ -7112,7 +7120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>1141</v>
       </c>
@@ -7129,7 +7137,7 @@
         <v>226</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="G119" s="1">
         <v>10005</v>
@@ -7153,7 +7161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>1142</v>
       </c>
@@ -7194,7 +7202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1142</v>
       </c>
@@ -7235,7 +7243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1142</v>
       </c>
@@ -7276,7 +7284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>1143</v>
       </c>
@@ -7317,7 +7325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>1143</v>
       </c>
@@ -7358,7 +7366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1143</v>
       </c>
@@ -7399,7 +7407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1144</v>
       </c>
@@ -7440,7 +7448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>1144</v>
       </c>
@@ -7481,7 +7489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>1144</v>
       </c>
@@ -7522,7 +7530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1145</v>
       </c>
@@ -7563,7 +7571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1145</v>
       </c>
@@ -7604,7 +7612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>1145</v>
       </c>
@@ -7645,7 +7653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>1146</v>
       </c>
@@ -7686,7 +7694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1146</v>
       </c>
@@ -7727,7 +7735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>1146</v>
       </c>
@@ -7768,7 +7776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>1147</v>
       </c>
@@ -7809,7 +7817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>1147</v>
       </c>
@@ -7850,7 +7858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>1147</v>
       </c>
@@ -7891,7 +7899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>1148</v>
       </c>
@@ -7932,7 +7940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>1148</v>
       </c>
@@ -7973,7 +7981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>1148</v>
       </c>
@@ -8014,7 +8022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>1149</v>
       </c>
@@ -8055,7 +8063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>1149</v>
       </c>
@@ -8096,7 +8104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>1149</v>
       </c>
@@ -8137,7 +8145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>1150</v>
       </c>
@@ -8178,7 +8186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>1150</v>
       </c>
@@ -8219,7 +8227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>1150</v>
       </c>
@@ -8260,7 +8268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>1151</v>
       </c>
@@ -8301,7 +8309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>1151</v>
       </c>
@@ -8342,7 +8350,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>1151</v>
       </c>
@@ -8381,7 +8389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>1152</v>
       </c>
@@ -8422,7 +8430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>1152</v>
       </c>
@@ -8463,7 +8471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>1152</v>
       </c>
@@ -8504,7 +8512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>1153</v>
       </c>
@@ -8545,7 +8553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>1153</v>
       </c>
@@ -8586,7 +8594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>1153</v>
       </c>
@@ -8627,7 +8635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>1154</v>
       </c>
@@ -8665,7 +8673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>1154</v>
       </c>
@@ -8703,7 +8711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>1154</v>
       </c>
@@ -8741,7 +8749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>1155</v>
       </c>
@@ -8782,7 +8790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1155</v>
       </c>
@@ -8823,7 +8831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>1155</v>
       </c>
@@ -8864,12 +8872,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>1156</v>
       </c>
       <c r="B162" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C162" t="s">
         <v>310</v>
@@ -8905,7 +8913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>1156</v>
       </c>
@@ -8946,7 +8954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>1156</v>
       </c>
@@ -8987,7 +8995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>1157</v>
       </c>
@@ -9028,7 +9036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>1157</v>
       </c>
@@ -9069,7 +9077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>1157</v>
       </c>
@@ -9110,7 +9118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1158</v>
       </c>
@@ -9151,7 +9159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>1158</v>
       </c>
@@ -9192,7 +9200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1158</v>
       </c>
@@ -9233,15 +9241,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>1159</v>
       </c>
       <c r="B171" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C171" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D171" t="s">
         <v>14</v>
@@ -9250,7 +9258,7 @@
         <v>226</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G171" s="1">
         <v>10001</v>
@@ -9259,7 +9267,7 @@
         <v>158</v>
       </c>
       <c r="I171" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>18</v>
@@ -9274,15 +9282,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>1159</v>
       </c>
       <c r="B172" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C172" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D172" t="s">
         <v>14</v>
@@ -9291,7 +9299,7 @@
         <v>226</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G172" s="1">
         <v>10001</v>
@@ -9300,7 +9308,7 @@
         <v>176</v>
       </c>
       <c r="I172" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>34</v>
@@ -9315,15 +9323,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>1159</v>
       </c>
       <c r="B173" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C173" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D173" t="s">
         <v>14</v>
@@ -9332,7 +9340,7 @@
         <v>226</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G173" s="1">
         <v>10001</v>
@@ -9341,7 +9349,7 @@
         <v>188</v>
       </c>
       <c r="I173" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>43</v>
@@ -9356,15 +9364,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>1160</v>
       </c>
       <c r="B174" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C174" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D174" t="s">
         <v>14</v>
@@ -9373,10 +9381,10 @@
         <v>226</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>18</v>
@@ -9391,15 +9399,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>1160</v>
       </c>
       <c r="B175" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C175" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D175" t="s">
         <v>14</v>
@@ -9408,10 +9416,10 @@
         <v>226</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>34</v>
@@ -9426,15 +9434,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>1160</v>
       </c>
       <c r="B176" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C176" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D176" t="s">
         <v>14</v>
@@ -9443,10 +9451,10 @@
         <v>226</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>43</v>
@@ -9461,15 +9469,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>1161</v>
       </c>
       <c r="B177" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C177" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D177" t="s">
         <v>14</v>
@@ -9478,10 +9486,10 @@
         <v>226</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>18</v>
@@ -9496,15 +9504,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>1161</v>
       </c>
       <c r="B178" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C178" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D178" t="s">
         <v>14</v>
@@ -9513,10 +9521,10 @@
         <v>226</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>34</v>
@@ -9531,15 +9539,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>1161</v>
       </c>
       <c r="B179" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C179" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D179" t="s">
         <v>14</v>
@@ -9548,10 +9556,10 @@
         <v>226</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>43</v>
@@ -9567,18 +9575,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M179" xr:uid="{606D01AB-69AF-42F0-9A8A-DE1226555770}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="10005"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="reg-ack-template-part1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M179" xr:uid="{606D01AB-69AF-42F0-9A8A-DE1226555770}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/_files/requirements/master_data/master-template.xlsx
+++ b/_files/requirements/master_data/master-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Data Refresh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4C202387-92FC-413C-83AE-D2AE77FFA79E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5EE2B6-6FB6-4061-B1CB-2CB6BC2B8618}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,21 @@
     <sheet name="master-template" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'master-template'!$A$1:$M$179</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'master-template'!$A$1:$M$182</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="384">
   <si>
     <t>id</t>
   </si>
@@ -267,72 +274,28 @@
     <t>Modèle de courrier didentité en double</t>
   </si>
   <si>
-    <t>Bonjour $name_fra,
-Votre demande d'enregistrement $RID a échoué car un UIN a été trouvé contre vos coordonnées. Veuillez visiter votre bureau d'inscription le plus proche.
-Et visitez https://mosip.io/grievances
-Merci et salutations,
-Équipe MOSIP</t>
-  </si>
-  <si>
     <t>Processeur dinscription</t>
   </si>
   <si>
     <t>Modèle de message didentité en double</t>
   </si>
   <si>
-    <t>Bonjour $name_fra,
-Votre demande d'enregistrement $RID a échoué car un UIN a été trouvé contre vos coordonnées. Veuillez visiter votre bureau d'inscription le plus proche.
-Et visitez https://mosip.io/grievances</t>
-  </si>
-  <si>
     <t>Modèle pour courrier électronique de problème technique</t>
   </si>
   <si>
-    <t>Bonjour $name_fra,
-Votre demande d'enregistrement $RID a échoué à cause d'un problème technique, veuillez vous rendre au bureau d'inscription le plus proche.
-Et visitez https://mosip.io/grievances
-Merci et salutations,
-Équipe MOSIP</t>
-  </si>
-  <si>
     <t>Modèle de message de problème technique</t>
   </si>
   <si>
-    <t>Bonjour $name_fra,
-Votre demande d'enregistrement $RID a échoué à cause d'un problème technique, veuillez vous rendre au bureau d'inscription le plus proche.
-Et visitez https://mosip.io/grievances</t>
-  </si>
-  <si>
     <t>Modèle de courrier électronique de génération didentité</t>
   </si>
   <si>
-    <t>Bonjour $name_fra,
-Votre UIN pour l'enregistrement $RID a été généré avec succès et vous parviendra sous peu à votre adresse postale.
-Merci et salutations,
-Équipe MOSIP</t>
-  </si>
-  <si>
     <t>Modèle de message de génération didentité</t>
   </si>
   <si>
-    <t>Bonjour $name_fra,
-Votre UIN pour l'enregistrement $RID a été généré avec succès et vous parviendra sous peu à votre adresse postale.</t>
-  </si>
-  <si>
     <t>Modèle pour les détails de la mise à jour Email</t>
   </si>
   <si>
-    <t>Bonjour $name_fra,
-Les détails de votre UIN correspondant au numéro d’enregistrement $RID ont été mis à jour et une copie physique de votre UIN vous parviendra sous peu à votre adresse postale.
-Merci et salutations,
-Équipe MOSIP</t>
-  </si>
-  <si>
     <t>Modèle pour la mise à jour Détails Message</t>
-  </si>
-  <si>
-    <t>Bonjour $name_fra,
-Les détails de votre UIN correspondant au numéro d’enregistrement $RID ont été mis à jour et une copie physique de votre UIN vous parviendra sous peu à votre adresse postale.</t>
   </si>
   <si>
     <t>Template for new registration Email Content</t>
@@ -758,11 +721,6 @@
     <t>Template for UIN Reactivate SMS</t>
   </si>
   <si>
-    <t>Hi $name_eng,
-Your UIN $UIN has been re-activated. 
-If you have any conserns please visit the nearest Registration Center.</t>
-  </si>
-  <si>
     <t>RPR_UIN_REAC_SMS</t>
   </si>
   <si>
@@ -770,13 +728,6 @@
   </si>
   <si>
     <t>Template for UIN Reactivate Email</t>
-  </si>
-  <si>
-    <t>Hi $name_eng,
-Your UIN $UIN has been re-activated. 
-If you have any conserns please visit the nearest Registration Center.
-Thanks
-Team MOSIP</t>
   </si>
   <si>
     <t>RPR_UIN_REAC_EMAIL</t>
@@ -1156,21 +1107,6 @@
     <t>RPR_LOST_UIN_EMAIL</t>
   </si>
   <si>
-    <t>Dear $name,
-Your UIN Number is $UIN. You will receive your UIN Card via. our postal service.
-Thanks</t>
-  </si>
-  <si>
-    <t>Cher $name,
-Votre numéro UIN est $UIN. Vous recevrez votre carte UIN via. notre service postal.
-Merci</t>
-  </si>
-  <si>
-    <t>عزيزي $name ،
-رقم UIN الخاص بك هو $UIN. سوف تتلقى بطاقة UIN الخاصة بك عبر. خدمتنا البريدية.
-شكر</t>
-  </si>
-  <si>
     <t>Lost UIN Notification SMS</t>
   </si>
   <si>
@@ -1189,151 +1125,209 @@
     <t>Email de notification UIN perdu</t>
   </si>
   <si>
-    <t>Hi $name_eng,
-Your UIN has been de-activated. 
-If you have any conserns please visit the nearest Registration Center.</t>
-  </si>
-  <si>
-    <t>Hi $name_eng,
-Your UIN has been de-activated. 
-If you have any conserns please visit the nearest Registration Center.
-Thanks</t>
-  </si>
-  <si>
-    <t>Bonjour $name_fra,
-Votre UIN a été désactivé.
-Si vous avez des intérêts, veuillez vous rendre au centre d’inscription le plus proche.</t>
-  </si>
-  <si>
-    <t>$name_ara ،
-الخاص بك لأنه تم العثور على UIN مقابل بياناتك. يرجى زيارة أقرب مكتب تسجيل $RID فشل طلب التسجيل
+    <t>&lt;body&gt;&lt;div class="section"&gt;&lt;div class="form"&gt;
+&lt;table ${AckReceipt} class="${headerTable}"&gt;&lt;tr&gt;&lt;td class="bottom"&gt;&lt;img src="${QRCodeSource}" width="85" height="85"/&gt;&lt;/td&gt;&lt;td class="bottom"&gt;&lt;p class="headings"&gt;${RIDPrimLabel} / ${RIDSecLabel}&lt;/p&gt;&lt;br/&gt;${RID}&lt;/td&gt;&lt;td ${UINUpdate} class="bottom"&gt;&lt;p class="headings"&gt;${UINPrimLabel} / ${UINSecLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt;&lt;td class="bottom"&gt;&lt;p class="headings"&gt;${DatePrimLabel} / ${DateSecLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;table ${Preview} class="headerTable"&gt;&lt;tr&gt;&lt;td ${IsUINUpdate}&gt;&lt;p class="headings"&gt;${PreRegIDPrimLabel} / ${PreRegIDSecLabel}&lt;/p&gt;&lt;br/&gt;${PreRegID}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${DatePrimLabel} / ${DateSecLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;br/&gt;&lt;hr/&gt;&lt;p class="head"&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt;&lt;div ${Preview} class="modify"&gt;&lt;img src="${ModifyImageSource}" border="0" width="15" height="15"/&gt;&lt;button id="modifyDemographicInfo"&gt;${Modify}&lt;/button&gt;&lt;/div&gt;&lt;hr/&gt;
+&lt;table class="dataTable"&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${FullNamePrimLabel} / ${FullNameSecLabel}&lt;/p&gt;&lt;br/&gt;${FullName}&lt;br/&gt;${FullNameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${GenderPrimLabel} / ${GenderSecLabel}&lt;/p&gt;&lt;br/&gt;${Gender}&lt;br/&gt;${GenderSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${DOBPrimLabel} / ${DOBSecLabel}&lt;/p&gt;&lt;br/&gt;${DOB}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${AgePrimLabel} / ${AgeSecLabel}&lt;/p&gt;&lt;br/&gt;${Age} ${YearsPrim} ${YearsSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ForiegnerPrimLabel} / ${ForiegnerSecLabel}&lt;/p&gt;&lt;br/&gt;${ResidenceStatus}&lt;br/&gt;${ResidenceStatusSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${AddressLine1PrimLabel} / ${AddressLine1SecLabel}&lt;/p&gt;&lt;br/&gt;${AddressLine1}&lt;br/&gt;${AddressLine1Sec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${AddressLine2PrimLabel} / ${AddressLine2SecLabel}&lt;/p&gt;&lt;br/&gt;${AddressLine2}&lt;br/&gt;${AddressLine2Sec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RegionPrimLabel} / ${RegionSecLabel}&lt;/p&gt;&lt;br/&gt;${Region}&lt;br/&gt;${RegionSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ProvincePrimLabel} / ${ProvinceSecLabel}&lt;/p&gt;&lt;br/&gt;${Province}&lt;br/&gt;${ProvinceSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${LocalAuthorityPrimLabel} / ${LocalAuthoritySecLabel}&lt;/p&gt;&lt;br/&gt;${LocalAuthority}&lt;br/&gt;${LocalAuthoritySec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${MobilePrimLabel} / ${MobileSecLabel}&lt;/p&gt;&lt;br/&gt;${Mobile}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${PostalCodePrimLabel} / ${PostalCodeSecLabel}&lt;/p&gt;&lt;br/&gt;${PostalCode}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${EmailPrimLabel} / ${EmailSecLabel}&lt;/p&gt;&lt;br/&gt;${Email}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${CNIEPrimLabel} / ${CNIESecLabel}&lt;/p&gt;&lt;br/&gt;${CNIE}&lt;/td&gt;&lt;/tr&gt;&lt;tr ${WithParent}&gt;&lt;td&gt;&lt;p class="headings"&gt;${ParentNamePrimLabel} / ${ParentNameSecLabel}&lt;/p&gt;&lt;br/&gt;${ParentName}&lt;br/&gt;${ParentNameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${ParentUINPrimLabel} / ${ParentUINSecLabel}&lt;/p&gt;&lt;br/&gt;${ParentUIN}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;br/&gt;&lt;p ${DocumentsEnabled} class="head"&gt;&lt;b&gt;${DocumentsPrimLabel}&lt;/b&gt;&lt;/p&gt;&lt;div ${DocumentsEnabled} ${Preview} class="modify"&gt;&lt;img src="${ModifyImageSource}" border="0" width="15" height="15"/&gt;&lt;button id="modifyDocuments"&gt;${Modify}&lt;/button&gt;&lt;/div&gt;&lt;hr ${DocumentsEnabled}/&gt;
+&lt;table ${DocumentsEnabled}&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${DocumentsPrimLabel} / ${DocumentsSecLabel}&lt;/p&gt;&lt;br/&gt;${Documents}&lt;br/&gt;${DocumentsSec}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;br/&gt;&lt;p ${BiometricsEnabled} class="head"&gt;&lt;b&gt;${BiometricsPrimLabel}&lt;/b&gt;&lt;/p&gt;&lt;div ${BiometricsEnabled} ${Preview} class="modify"&gt;&lt;img src="${ModifyImageSource}" border="0" width="15" height="15"/&gt;&lt;button id="modifyBiometrics"&gt;${Modify}&lt;/button&gt;&lt;/div&gt;&lt;hr ${BiometricsEnabled}/&gt;
+&lt;table ${BiometricsEnabled}&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${BiometricsPrimLabel} / ${BiometricsSecLabel}&lt;/p&gt;&lt;br/&gt;${Biometrics}&lt;br/&gt;${BiometricsSec}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;table ${IrisDisabled}&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ExceptionPhotoPrimLabel} / ${ExceptionPhotoSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;img src="${ExceptionImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>قالب الاعتراف</t>
+  </si>
+  <si>
+    <t>العزيز ${ResidentName},_x000D_
+شكرًا لك على التسجيل في نظام الهوية الرقمية. معرف التسجيل الخاص بك هو "${RID}". التفاصيل الديموغرافية هي كما يلي:_x000D_
+${Date}: تاريخ.1_x000D_
+${FullName}: الاسم الكامل.2_x000D_
+${DOB}: تاريخ الولادة.3_x000D_
+${Gender}: جنس.4_x000D_
+${AddressLine1}: 1 خط عنوان.5_x000D_
+${AddressLine2}: 2 خط عنوان.6_x000D_
+${AddressLine3}: 3 خط عنوان.7_x000D_
+${Region}: منطقة.8_x000D_
+${City}: مدينة.9_x000D_
+${Province}: المحافظة.10_x000D_
+${PostalCode}: الرمز البريدي.11_x000D_
+${Mobile}: رقم الهاتف المحمول.12_x000D_
+${Email}: البريد الإلكتروني.13</t>
+  </si>
+  <si>
+    <t>&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;img src="${CapturedLeftSlap}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;img src="${CapturedRightSlap}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;img src="${CapturedThumbs}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;p ${MissingLeftFingers} class="headings"&gt;${LeftSlapExceptionPrim} / ${LeftSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p ${MissingRightFingers} class="headings"&gt;${RightSlapExceptionPrim} / ${RightSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p ${MissingThumbs} class="headings"&gt;${ThumbsExceptionPrim} / ${ThumbsExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;p ${MissingLeftFingers} class="headings"&gt;${LeftSlapExceptionPrim} / ${LeftSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;p ${MissingRightFingers} class="headings"&gt;${RightSlapExceptionPrim} / ${RightSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;p ${MissingThumbs} class="headings"&gt;${ThumbsExceptionPrim} / ${ThumbsExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;br/&gt;&lt;div ${Preview}&gt;&lt;p class="head"&gt;&lt;b&gt;${Consent}&lt;/b&gt;&lt;/p&gt;&lt;div class="consent-block" id="radioId"&gt;&lt;div class="consent-text"&gt;${ConsentData}&lt;/div&gt;
+&lt;input type="radio" name="consent" id="consent-yes" value="yes" ${SelectedYes} onchange="changeColour(this)"&gt;&lt;label for="consent-yes"&gt;${Yes}&lt;/label&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;
+&lt;input type="radio" name="consent" id="consent-no" value="no" ${SelectedNo} onchange="changeColour(this)"&gt;&lt;label for="consent-no"&gt;${No}&lt;/label&gt;&lt;/div&gt;&lt;/div&gt;
+&lt;table class="dataTable"&gt;&lt;tr&gt;&lt;td ${ROImage}&gt;&lt;img src="${ROImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RONamePrimLabel} / ${RONameSecLabel}&lt;/p&gt;&lt;br/&gt;${ROName}&lt;br/&gt;${RONameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RegCenterPrimLabel} / ${RegCenterSecLabel}&lt;/p&gt;&lt;br/&gt;${RegCenter}&lt;br/&gt;${RegCenterSec}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
+&lt;hr/&gt;&lt;br/&gt;&lt;/div&gt;
+&lt;div ${parentPhotoCaptured}&gt;&lt;div ${FaceCaptureEnabled} ${AckReceipt} class="photo"&gt;&lt;p class="applicantPhotoLabel"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="applicantPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${AckReceipt} class="photo"&gt;&lt;p class="parentPhotoLabel"&gt;${ParentPhotoPrim} / ${ParentPhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ParentImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${FaceCaptureEnabled} ${Preview} class="previewPhoto"&gt;&lt;p class="applicantPhotoLabel"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="applicantPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${Preview} class="previewPhoto"&gt;&lt;p class="parentPhotoLabel"&gt;${ParentPhotoPrim} / ${ParentPhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ParentImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;/div&gt;
+&lt;div ${parentPhotoNotCaptured}&gt;&lt;div ${FaceCaptureEnabled} ${AckReceipt} class="photo"&gt;&lt;p class="applicantPhotoLabel2"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${FaceCaptureEnabled} ${Preview} class="previewPhoto"&gt;&lt;p class="applicantPhotoLabel2"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;/div&gt;
+&lt;div ${AckReceipt}&gt;&lt;p&gt;${ImportantGuidelines}&lt;/p&gt;&lt;ul&gt;${Guidelines}&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.previewPhoto{float:right;position:absolute;top:220px;}.photo{float:right;position:absolute;top:280px;}
+.applicantPhoto{position:absolute;top:-35px;left:500px;}
+.applicantPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:520px;}
+.parentPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:625px;}
+.applicantPhotoLabel2{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:650px;}
+.parentPhoto{position:absolute;top:-35px;left:630px;}
+.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:10px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:90px;}.leftRing{top:3px;left:103px;}.leftMiddle{top:-7px;left:119px;}.leftIndex{top:3px;left:132px;}.rightIndex{top:3px;left:105px;}.rightMiddle{top:-7px;left:119px;}.rightRing{top:3px;left:132px;}.rightLittle{top:15px;left:146px;}.leftThumb{top:-4px;left:105px;}.rightThumb{top:-4px;left:130px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.modify{float:right;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;}
+.consent-text{margin-left: 7px;margin-bottom: 4px;}
+input[type="radio"] {display: none;}
+input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}
+input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}
+*,*:before,*:after { box-sizing: border-box;}
+.consent-block label { display: inline-flex; align-items: center;}
+&lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";}
+if(element.value == "no"){div.style = "border: 2px solid #FF0000";}}
+document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;/head&gt;</t>
+  </si>
+  <si>
+    <t>MASKED_UIN_CARD_TEMPLATE</t>
+  </si>
+  <si>
+    <t>Masked UIN card template</t>
+  </si>
+  <si>
+    <t>قالب بطاقة UIN Masked</t>
+  </si>
+  <si>
+    <t>Modèle de carte Masked UIN</t>
+  </si>
+  <si>
+    <t>Hi $!name_eng,
+Your Request for Registration $!RID has failed because an UIN has been found against your details. Please visit your nearest Registration Office.
+And Visit https://mosip.io/grievances
+Thanks and Regards,
+MOSIP Team</t>
+  </si>
+  <si>
+    <t>Hi $!name_eng,
+Your Request for Registration $!RID has failed because an UIN has been found against your details. Please visit your nearest Registration Office.
+And Visit https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>Hi $!name_eng,
+Your Request for Registration $!RID has failed because of an Technical issue please visit your nearest Registration Office.
+And Visit https://mosip.io/grievances
+Thanks and Regards,
+MOSIP Team</t>
+  </si>
+  <si>
+    <t>Hi $!name_eng,
+Your Request for Registration $!RID has failed because of an Technical issue please visit your nearest Registration Office.
+And Visit https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>Hi $!name_eng,
+Your UIN for the Registration $!RID has been successfully generated and will reach soon at your Postal Address.
+Thanks and Regards,
+MOSIP Team</t>
+  </si>
+  <si>
+    <t>Hi $!name_eng,
+Your UIN for the Registration $!RID has been successfully generated and will reach soon at your Postal Address.</t>
+  </si>
+  <si>
+    <t>Hi $!name_eng,
+Your UIN details have been updated corresponding to the Registration Number $!RID and a Physical Copy of your UIN will reach you soon at your Postal Address.
+Thanks and Regards,
+MOSIP Team</t>
+  </si>
+  <si>
+    <t>Hi $!name_eng,
+Your UIN details have been updated corresponding to the Registration Number $!RID and a Physical Copy of your UIN will reach you soon at your Postal Address.</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+الخاص بك لأنه تم العثور على UIN مقابل بياناتك. يرجى زيارة أقرب مكتب تسجيل $!RID فشل طلب التسجيل
 وزيارة https://mosip.io/grievances
 شكرا مع تحياتي،
 فريق MOSIP</t>
   </si>
   <si>
-    <t>$name_ara ،
-فشل طلب التسجيل $RID الخاص بك لأنه تم العثور على UIN مقابل بياناتك. يرجى زيارة أقرب مكتب تسجيل.
+    <t>$!name_ara ،
+فشل طلب التسجيل $!RID الخاص بك لأنه تم العثور على UIN مقابل بياناتك. يرجى زيارة أقرب مكتب تسجيل.
 وزيارة https://mosip.io/grievances</t>
   </si>
   <si>
-    <t>$name_ara ،
-شل طلب التسجيل $RID بسبب مشكلة فنية ، يرجى زيارة أقرب مكتب تسجيل.
+    <t>$!name_ara ،
+شل طلب التسجيل $!RID بسبب مشكلة فنية ، يرجى زيارة أقرب مكتب تسجيل.
 وزيارة https://mosip.io/grievances
 شكرا مع تحياتي،
 فريق MOSIP</t>
   </si>
   <si>
-    <t>$name_ara ،
-فشل طلب التسجيل $RID بسبب مشكلة فنية ، يرجى زيارة أقرب مكتب تسجيل.
+    <t>$!name_ara ،
+فشل طلب التسجيل $!RID بسبب مشكلة فنية ، يرجى زيارة أقرب مكتب تسجيل.
 وزيارة https://mosip.io/grievances</t>
   </si>
   <si>
-    <t>$name_ara ،
-تم إنشاء UIN الخاص بك للتسجيل $RID بنجاح وستصل قريبًا إلى العنوان البريدي الخاص بك.
+    <t>$!name_ara ،
+تم إنشاء UIN الخاص بك للتسجيل $!RID بنجاح وستصل قريبًا إلى العنوان البريدي الخاص بك.
 شكرا مع تحياتي،
 فريق MOSIP</t>
   </si>
   <si>
-    <t>$name_ara ،
-تم إنشاء UIN الخاص بك للتسجيل $RID بنجاح وستصل قريبًا إلى العنوان البريدي الخاص بك.</t>
-  </si>
-  <si>
-    <t>Hi $name_eng,
-Your Request for Registration $RID has failed because an UIN has been found against your details. Please visit your nearest Registration Office.
-And Visit https://mosip.io/grievances
-Thanks and Regards,
-MOSIP Team</t>
-  </si>
-  <si>
-    <t>Hi $name_eng,
-Your Request for Registration $RID has failed because an UIN has been found against your details. Please visit your nearest Registration Office.
-And Visit https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>Hi $name_eng,
-Your Request for Registration $RID has failed because of an Technical issue please visit your nearest Registration Office.
-And Visit https://mosip.io/grievances
-Thanks and Regards,
-MOSIP Team</t>
-  </si>
-  <si>
-    <t>Hi $name_eng,
-Your Request for Registration $RID has failed because of an Technical issue please visit your nearest Registration Office.
-And Visit https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>Hi $name_eng,
-Your UIN for the Registration $RID has been successfully generated and will reach soon at your Postal Address.
-Thanks and Regards,
-MOSIP Team</t>
-  </si>
-  <si>
-    <t>Hi $name_eng,
-Your UIN for the Registration $RID has been successfully generated and will reach soon at your Postal Address.</t>
-  </si>
-  <si>
-    <t>Hi $name_eng,
-Your UIN details have been updated corresponding to the Registration Number $RID and a Physical Copy of your UIN will reach you soon at your Postal Address.
-Thanks and Regards,
-MOSIP Team</t>
-  </si>
-  <si>
-    <t>Hi $name_eng,
-Your UIN details have been updated corresponding to the Registration Number $RID and a Physical Copy of your UIN will reach you soon at your Postal Address.</t>
-  </si>
-  <si>
-    <t>$name_ara ،
-تم تحديث تفاصيل UIN الخاصة بك المقابلة لرقم التسجيل $RID وستصل إليك نسخة فعلية من UIN الخاصة بك على العنوان البريدي الخاص بك.
+    <t>$!name_ara ،
+تم إنشاء UIN الخاص بك للتسجيل $!RID بنجاح وستصل قريبًا إلى العنوان البريدي الخاص بك.</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+تم تحديث تفاصيل UIN الخاصة بك المقابلة لرقم التسجيل $!RID وستصل إليك نسخة فعلية من UIN الخاصة بك على العنوان البريدي الخاص بك.
 شكرا مع تحياتي،
 فريق MOSIP</t>
   </si>
   <si>
-    <t>$name_ara ،
-تم تحديث تفاصيل UIN الخاصة بك المقابلة لرقم التسجيل $RID وستصل إليك نسخة فعلية من UIN الخاصة بك على العنوان البريدي الخاص بك.</t>
-  </si>
-  <si>
-    <t>$name_ara ،
-تم إلغاء تنشيط UIN الخاص بك.
-إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.
-شكرا مع تحياتي ،
-فريق MOSIP</t>
-  </si>
-  <si>
-    <t>$name_ara ،
-تم إلغاء تنشيط UIN الخاص بك.
-إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $name_ara ،
-تمت إعادة تنشيط UIN الخاص بك.
-إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.</t>
-  </si>
-  <si>
-    <t>$name_ara ،
-تمت إعادة تنشيط UIN الخاص بك.
-إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.
-شكرا مع تحياتي ،
-فريق MOSIP</t>
-  </si>
-  <si>
-    <t>Bonjour $name_fra,
-Votre UIN a été désactivé.
-Si vous avez des intérêts, veuillez vous rendre au centre d’inscription le plus proche.
+    <t>$!name_ara ،
+تم تحديث تفاصيل UIN الخاصة بك المقابلة لرقم التسجيل $!RID وستصل إليك نسخة فعلية من UIN الخاصة بك على العنوان البريدي الخاص بك.</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_fra,
+Votre demande d'enregistrement $!RID a échoué car un UIN a été trouvé contre vos coordonnées. Veuillez visiter votre bureau d'inscription le plus proche.
+Et visitez https://mosip.io/grievances
 Merci et salutations,
 Équipe MOSIP</t>
   </si>
   <si>
-    <t>Bonjour $name_fra,
-Votre UIN a été réactivé.
-Si vous avez des intérêts, veuillez vous rendre au centre d’inscription le plus proche.
+    <t>Bonjour $!name_fra,
+Votre demande d'enregistrement $!RID a échoué car un UIN a été trouvé contre vos coordonnées. Veuillez visiter votre bureau d'inscription le plus proche.
+Et visitez https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_fra,
+Votre demande d'enregistrement $!RID a échoué à cause d'un problème technique, veuillez vous rendre au bureau d'inscription le plus proche.
+Et visitez https://mosip.io/grievances
 Merci et salutations,
 Équipe MOSIP</t>
   </si>
   <si>
-    <t>Bonjour $name_fra,
-Votre UIN a été réactivé.
-Si vous avez des intérêts, veuillez vous rendre au centre d’inscription le plus proche.</t>
+    <t>Bonjour $!name_fra,
+Votre demande d'enregistrement $!RID a échoué à cause d'un problème technique, veuillez vous rendre au bureau d'inscription le plus proche.
+Et visitez https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_fra,
+Votre UIN pour l'enregistrement $!RID a été généré avec succès et vous parviendra sous peu à votre adresse postale.
+Merci et salutations,
+Équipe MOSIP</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_fra,
+Votre UIN pour l'enregistrement $!RID a été généré avec succès et vous parviendra sous peu à votre adresse postale.</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_fra,
+Les détails de votre UIN correspondant au numéro d’enregistrement $!RID ont été mis à jour et une copie physique de votre UIN vous parviendra sous peu à votre adresse postale.
+Merci et salutations,
+Équipe MOSIP</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_fra,
+Les détails de votre UIN correspondant au numéro d’enregistrement $!RID ont été mis à jour et une copie physique de votre UIN vous parviendra sous peu à votre adresse postale.</t>
   </si>
   <si>
     <t>&lt;!DOCTYPE html&gt;
@@ -1386,7 +1380,7 @@
 				&lt;div&gt;
 					&lt;div
 						style="border: solid black 1px; height: 150px; width: 120px; margin-right: -30px;"&gt;
-						&lt;img src = $ApplicantPhoto style="width: 150px; height: 150px"&gt;
+						&lt;img src = $!ApplicantPhoto style="width: 150px; height: 150px"&gt;
 					&lt;/div&gt;
 				&lt;/div&gt;
 			&lt;/td&gt;
@@ -1395,15 +1389,15 @@
 			&lt;td rowspan="1"&gt;
 				&lt;div class="block top-buffer"&gt;
 					&lt;label class="name-head-color"&gt;&lt;b&gt;UIN&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
-						class="name-color"&gt; $UIN &lt;/span&gt;
+						class="name-color"&gt; $!UIN &lt;/span&gt;
 				&lt;/div&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
 			&lt;td rowspan="1"&gt;
 				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;prénom&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
-						class="name-color"&gt; $name_fra&lt;/span&gt;
+					&lt;label class="name-head-color"&gt;&lt;b&gt;Name&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
+						class="name-color"&gt; $!name_eng&lt;/span&gt;
 				&lt;/div&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
@@ -1411,24 +1405,24 @@
 			&lt;td rowspan="1"&gt;
 				&lt;div class="block top-buffer"&gt;
 					&lt;label class="name-head-color"&gt;&lt;b&gt;اسم&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;
-						$name_ara&lt;/span&gt;
+						$!name_ara&lt;/span&gt;
 				&lt;/div&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
 			&lt;td rowspan="1"&gt;
 				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;Rendez-vous amoureux/تاريخ&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-					&lt;span&gt;$dob&lt;/span&gt;
+					&lt;label class="name-head-color"&gt;&lt;b&gt;Date/تاريخ&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+					&lt;span&gt;$!dob&lt;/span&gt;
 				&lt;/div&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
 			&lt;td colspan="2"&gt;
 				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;Le sexe&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$gender_fra&lt;/span&gt;
+					&lt;label class="name-head-color"&gt;&lt;b&gt;Gender&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$!gender_eng&lt;/span&gt;
 					&amp;nbsp;&amp;nbsp; &lt;label class="name-head-color"&gt;&lt;b&gt;جنس&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-					&lt;span&gt;$gender_ara&lt;/span&gt;
+					&lt;span&gt;$!gender_ara&lt;/span&gt;
 				&lt;/div&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
@@ -1439,18 +1433,18 @@
 						&lt;div class="block top-buffer"&gt;
 							&lt;table&gt;
 								&lt;tr&gt;
-									&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;Adresse&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+									&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;Address&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
 									&lt;/td&gt;
-									&lt;td&gt;&lt;span&gt;$addressLine1_fra, $addressLine2_fra,
-											$addressLine3_fra, $region_fra, $province_fra, $city_fra,
-											$postalCode &lt;/span&gt;&lt;/td&gt;
+									&lt;td&gt;&lt;span&gt;$!addressLine1_eng, $!addressLine2_eng,
+											$!addressLine3_eng, $!region_eng, $!province_eng, $!city_eng,
+											$!postalCode &lt;/span&gt;&lt;/td&gt;
 								&lt;/tr&gt;
 								&lt;tr&gt;
 									&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;عنوان&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
 									&lt;/td&gt;
-									&lt;td&gt;&lt;span&gt;$addressLine1_ara, $addressLine2_ara,
-											$addressLine3_ara, $region_ara, $province_ara, $city_ara,
-											$postalCode &lt;/span&gt;
+									&lt;td&gt;&lt;span&gt;$!addressLine1_ara, $!addressLine2_ara,
+											$!addressLine3_ara, $!region_ara, $!province_ara, $!city_ara,
+											$!postalCode &lt;/span&gt;
 									&lt;/td&gt;
 								&lt;/tr&gt;
 							&lt;/table&gt;
@@ -1468,16 +1462,16 @@
 					style="margin-left: 10px; margin-right: 10px; border: solid black 1px; height: 250px; width: 250px;"&gt;
 					&lt;div class="col-md-6"&gt;
 						&lt;div class="bar-code-padding"&gt;&lt;/div&gt;
-						&lt;img src=$QrCode
+						&lt;img src=$!QrCode
 							style="width: 250px; height: 250px; margin-top: -20px"&gt;
 					&lt;/div&gt;
 				&lt;/div&gt;
 			&lt;/td&gt;
 			&lt;td&gt;
 				&lt;div class="name-head-color col-md-6"&gt;
-					&lt;br&gt; Pour toute question s'il vous plaît contactez-nous au&lt;br&gt;
-					&lt;br&gt; Inscription Processor, Hanging Gardens, Global Village
-					Parc technologique, Mysore Rd, RVCE, Bangalore, Karnataka 560059&lt;br&gt;
+					&lt;br&gt; For any issues please contact us at&lt;br&gt;
+					&lt;br&gt; Registration Proccessor,Hanging Gardens,Global Village
+					Tech Park, Mysore Rd,RVCE,Bengaluru, Karnataka 560059&lt;br&gt;
 					&lt;br&gt; لأية مشاكل يرجى الاتصال بنا على &lt;br&gt;التسجيل المعالج،
 					الحدائق المعلقة ، القرية العالمية Tech Park, Mysore Rd,RVCE 560059
 					بنغالورو، كارناتاكا &lt;br&gt;
@@ -1540,7 +1534,7 @@
 				&lt;div&gt;
 					&lt;div
 						style="border: solid black 1px; height: 150px; width: 120px; margin-right: -30px;"&gt;
-						&lt;img src = $ApplicantPhoto style="width: 150px; height: 150px"&gt;
+						&lt;img src = $!ApplicantPhoto style="width: 150px; height: 150px"&gt;
 					&lt;/div&gt;
 				&lt;/div&gt;
 			&lt;/td&gt;
@@ -1549,15 +1543,15 @@
 			&lt;td rowspan="1"&gt;
 				&lt;div class="block top-buffer"&gt;
 					&lt;label class="name-head-color"&gt;&lt;b&gt;UIN&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
-						class="name-color"&gt; $UIN &lt;/span&gt;
+						class="name-color"&gt; $!UIN &lt;/span&gt;
 				&lt;/div&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
 			&lt;td rowspan="1"&gt;
 				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;Name&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
-						class="name-color"&gt; $name_eng&lt;/span&gt;
+					&lt;label class="name-head-color"&gt;&lt;b&gt;prénom&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
+						class="name-color"&gt; $!name_fra&lt;/span&gt;
 				&lt;/div&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
@@ -1565,24 +1559,24 @@
 			&lt;td rowspan="1"&gt;
 				&lt;div class="block top-buffer"&gt;
 					&lt;label class="name-head-color"&gt;&lt;b&gt;اسم&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;
-						$name_ara&lt;/span&gt;
+						$!name_ara&lt;/span&gt;
 				&lt;/div&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
 			&lt;td rowspan="1"&gt;
 				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;Date/تاريخ&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-					&lt;span&gt;$dob&lt;/span&gt;
+					&lt;label class="name-head-color"&gt;&lt;b&gt;Rendez-vous amoureux/تاريخ&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+					&lt;span&gt;$!dob&lt;/span&gt;
 				&lt;/div&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
 		&lt;tr&gt;
 			&lt;td colspan="2"&gt;
 				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;Gender&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$gender_eng&lt;/span&gt;
+					&lt;label class="name-head-color"&gt;&lt;b&gt;Le sexe&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$!gender_fra&lt;/span&gt;
 					&amp;nbsp;&amp;nbsp; &lt;label class="name-head-color"&gt;&lt;b&gt;جنس&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-					&lt;span&gt;$gender_ara&lt;/span&gt;
+					&lt;span&gt;$!gender_ara&lt;/span&gt;
 				&lt;/div&gt;
 			&lt;/td&gt;
 		&lt;/tr&gt;
@@ -1593,18 +1587,18 @@
 						&lt;div class="block top-buffer"&gt;
 							&lt;table&gt;
 								&lt;tr&gt;
-									&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;Address&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+									&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;Adresse&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
 									&lt;/td&gt;
-									&lt;td&gt;&lt;span&gt;$addressLine1_eng, $addressLine2_eng,
-											$addressLine3_eng, $region_eng, $province_eng, $city_eng,
-											$postalCode &lt;/span&gt;&lt;/td&gt;
+									&lt;td&gt;&lt;span&gt;$!addressLine1_fra, $!addressLine2_fra,
+											$!addressLine3_fra, $!region_fra, $!province_fra, $!city_fra,
+											$!postalCode &lt;/span&gt;&lt;/td&gt;
 								&lt;/tr&gt;
 								&lt;tr&gt;
 									&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;عنوان&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
 									&lt;/td&gt;
-									&lt;td&gt;&lt;span&gt;$addressLine1_ara, $addressLine2_ara,
-											$addressLine3_ara, $region_ara, $province_ara, $city_ara,
-											$postalCode &lt;/span&gt;
+									&lt;td&gt;&lt;span&gt;$!addressLine1_ara, $!addressLine2_ara,
+											$!addressLine3_ara, $!region_ara, $!province_ara, $!city_ara,
+											$!postalCode &lt;/span&gt;
 									&lt;/td&gt;
 								&lt;/tr&gt;
 							&lt;/table&gt;
@@ -1622,7 +1616,258 @@
 					style="margin-left: 10px; margin-right: 10px; border: solid black 1px; height: 250px; width: 250px;"&gt;
 					&lt;div class="col-md-6"&gt;
 						&lt;div class="bar-code-padding"&gt;&lt;/div&gt;
-						&lt;img src=$QrCode
+						&lt;img src=$!QrCode
+							style="width: 250px; height: 250px; margin-top: -20px"&gt;
+					&lt;/div&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+			&lt;td&gt;
+				&lt;div class="name-head-color col-md-6"&gt;
+					&lt;br&gt; Pour toute question s'il vous plaît contactez-nous au&lt;br&gt;
+					&lt;br&gt; Inscription Processor, Hanging Gardens, Global Village
+					Parc technologique, Mysore Rd, RVCE, Bangalore, Karnataka 560059&lt;br&gt;
+					&lt;br&gt; لأية مشاكل يرجى الاتصال بنا على &lt;br&gt;التسجيل المعالج،
+					الحدائق المعلقة ، القرية العالمية Tech Park, Mysore Rd,RVCE 560059
+					بنغالورو، كارناتاكا &lt;br&gt;
+					&lt;br&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/table&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>Hi $!name_eng,
+Your UIN has been de-activated. 
+If you have any conserns please visit the nearest Registration Center.</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+تم إلغاء تنشيط UIN الخاص بك.
+إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_fra,
+Votre UIN a été désactivé.
+Si vous avez des intérêts, veuillez vous rendre au centre d’inscription le plus proche.</t>
+  </si>
+  <si>
+    <t>Hi $!name_eng,
+Your UIN has been de-activated. 
+If you have any conserns please visit the nearest Registration Center.
+Thanks</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+تم إلغاء تنشيط UIN الخاص بك.
+إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.
+شكرا مع تحياتي ،
+فريق MOSIP</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_fra,
+Votre UIN a été désactivé.
+Si vous avez des intérêts, veuillez vous rendre au centre d’inscription le plus proche.
+Merci et salutations,
+Équipe MOSIP</t>
+  </si>
+  <si>
+    <t>Hi $!name_eng,
+Your UIN $!UIN has been re-activated. 
+If you have any conserns please visit the nearest Registration Center.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $!name_ara ،
+تمت إعادة تنشيط UIN الخاص بك.
+إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_fra,
+Votre UIN a été réactivé.
+Si vous avez des intérêts, veuillez vous rendre au centre d’inscription le plus proche.</t>
+  </si>
+  <si>
+    <t>Hi $!name_eng,
+Your UIN $!UIN has been re-activated. 
+If you have any conserns please visit the nearest Registration Center.
+Thanks
+Team MOSIP</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+تمت إعادة تنشيط UIN الخاص بك.
+إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.
+شكرا مع تحياتي ،
+فريق MOSIP</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_fra,
+Votre UIN a été réactivé.
+Si vous avez des intérêts, veuillez vous rendre au centre d’inscription le plus proche.
+Merci et salutations,
+Équipe MOSIP</t>
+  </si>
+  <si>
+    <t>Please find the OTP $!otp</t>
+  </si>
+  <si>
+    <t>Dear $!name,
+Your UIN Number is $!UIN. You will receive your UIN Card via. our postal service.
+Thanks</t>
+  </si>
+  <si>
+    <t>عزيزي $!name ،
+رقم UIN الخاص بك هو $!UIN. سوف تتلقى بطاقة UIN الخاصة بك عبر. خدمتنا البريدية.
+شكر</t>
+  </si>
+  <si>
+    <t>Cher $!name,
+Votre numéro UIN est $!UIN. Vous recevrez votre carte UIN via. notre service postal.
+Merci</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+&lt;head&gt;
+	&lt;meta charset="utf-8"&gt;
+	&lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+	&lt;title&gt;UIN Card&lt;/title&gt;
+&lt;style&gt;
+.main-table {
+	margin-left: 60px;;
+	width: 600px;
+	height: 350px;
+	border: 1px solid black;
+}
+.cir {
+	display: inline-block;
+	border-radius: 60px;
+	box-shadow: 0px 0px 2px #000000;
+	padding: 0.5em 0.6em;
+}
+.name-head-color {
+	color: black;
+}
+.head-title {
+	margin-left: -85px;
+}
+.bar-code-padding {
+	margin-top: 20px;
+	margin-left: 20px;
+}
+.top-buffer {
+	margin-left:10px;
+}
+&lt;/style&gt;
+&lt;/head&gt;
+&lt;body&gt;
+	&lt;table class="main-table"&gt;
+		&lt;tr&gt;
+			&lt;td&gt;&amp;nbsp;
+				&lt;div class="cir"&gt;
+					&lt;font size="1"&gt;Logo&lt;/font&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+			&lt;td&gt;&lt;label class="name-head-color"&gt; &lt;font size="5"
+					class=" head-title"&gt; &amp;nbsp;&amp;nbsp; Kingdom of Morocco
+						&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/font&gt;
+			&lt;/label&gt;&lt;/td&gt;
+			&lt;td rowspan="4"&gt;
+				&lt;div&gt;
+					&lt;div
+						style="border: solid black 1px; height: 150px; width: 120px; margin-right: -30px;"&gt;
+						&lt;img src = $!ApplicantPhoto style="width: 120px; height: 150px"&gt;
+					&lt;/div&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td rowspan="1"&gt;
+				&lt;div class="block top-buffer"&gt;
+					&lt;label class="name-head-color"&gt;&lt;b&gt;UIN&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
+						class="name-color"&gt; $!UIN &lt;/span&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td rowspan="1"&gt;
+				&lt;div class="block top-buffer"&gt;
+					&lt;label class="name-head-color"&gt;&lt;b&gt;VID&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
+						class="name-color"&gt; $!VID &lt;/span&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td rowspan="1"&gt;
+				&lt;div class="block top-buffer"&gt;
+					&lt;label class="name-head-color"&gt;&lt;b&gt;Name&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
+						class="name-color"&gt; $!name_eng&lt;/span&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td rowspan="1"&gt;
+				&lt;div class="block top-buffer"&gt;
+					&lt;label class="name-head-color"&gt;&lt;b&gt;اسم&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;
+						$!name_ara&lt;/span&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td rowspan="1"&gt;
+				&lt;div class="block top-buffer"&gt;
+					&lt;label class="name-head-color"&gt;&lt;b&gt;Date/تاريخ&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+					&lt;span&gt;$!dob&lt;/span&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2"&gt;
+				&lt;div class="block top-buffer"&gt;
+					&lt;label class="name-head-color"&gt;&lt;b&gt;Gender&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$!gender_eng&lt;/span&gt;
+					&amp;nbsp;&amp;nbsp; &lt;label class="name-head-color"&gt;&lt;b&gt;جنس&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+					&lt;span&gt;$!gender_ara&lt;/span&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="3"&gt;
+				&lt;div class="row" style="margin-right: 0px; margin-left: -10px;"&gt;
+					&lt;div class="col-md-2 top-buffer"&gt;
+						&lt;div class="block top-buffer"&gt;
+							&lt;table&gt;
+								&lt;tr&gt;
+									&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;Address&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+									&lt;/td&gt;
+									&lt;td&gt;&lt;span&gt;$!addressLine1_eng, $!addressLine2_eng,
+											$!addressLine3_eng, $!region_eng, $!province_eng, $!city_eng,
+											$!postalCode &lt;/span&gt;&lt;/td&gt;
+								&lt;/tr&gt;
+								&lt;tr&gt;
+									&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;عنوان&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+									&lt;/td&gt;
+									&lt;td&gt;&lt;span&gt;$!addressLine1_ara, $!addressLine2_ara,
+											$!addressLine3_ara, $!region_ara, $!province_ara, $!city_ara,
+											$!postalCode &lt;/span&gt;
+									&lt;/td&gt;
+								&lt;/tr&gt;
+							&lt;/table&gt;
+						&lt;/div&gt;
+					&lt;/div&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/table&gt;
+	&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+	&lt;table class="main-table" style="height: 300px"&gt;
+		&lt;tr&gt;
+			&lt;td&gt;
+				&lt;div
+					style="margin-left: 10px; margin-right: 10px; border: solid black 1px; height: 250px; width: 250px;"&gt;
+					&lt;div class="col-md-6"&gt;
+						&lt;div class="bar-code-padding"&gt;&lt;/div&gt;
+						&lt;img src=$!QrCode
 							style="width: 250px; height: 250px; margin-top: -20px"&gt;
 					&lt;/div&gt;
 				&lt;/div&gt;
@@ -1644,65 +1889,166 @@
 &lt;/html&gt;</t>
   </si>
   <si>
-    <t>&lt;body&gt;&lt;div class="section"&gt;&lt;div class="form"&gt;
-&lt;table ${AckReceipt} class="${headerTable}"&gt;&lt;tr&gt;&lt;td class="bottom"&gt;&lt;img src="${QRCodeSource}" width="85" height="85"/&gt;&lt;/td&gt;&lt;td class="bottom"&gt;&lt;p class="headings"&gt;${RIDPrimLabel} / ${RIDSecLabel}&lt;/p&gt;&lt;br/&gt;${RID}&lt;/td&gt;&lt;td ${UINUpdate} class="bottom"&gt;&lt;p class="headings"&gt;${UINPrimLabel} / ${UINSecLabel}&lt;/p&gt;&lt;br/&gt;${UIN}&lt;/td&gt;&lt;td class="bottom"&gt;&lt;p class="headings"&gt;${DatePrimLabel} / ${DateSecLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
-&lt;table ${Preview} class="headerTable"&gt;&lt;tr&gt;&lt;td ${IsUINUpdate}&gt;&lt;p class="headings"&gt;${PreRegIDPrimLabel} / ${PreRegIDSecLabel}&lt;/p&gt;&lt;br/&gt;${PreRegID}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${DatePrimLabel} / ${DateSecLabel}&lt;/p&gt;&lt;br/&gt;${Date}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
-&lt;br/&gt;&lt;hr/&gt;&lt;p class="head"&gt;&lt;b&gt;${DemographicInfo}&lt;/b&gt;&lt;/p&gt;&lt;div ${Preview} class="modify"&gt;&lt;img src="${ModifyImageSource}" border="0" width="15" height="15"/&gt;&lt;button id="modifyDemographicInfo"&gt;${Modify}&lt;/button&gt;&lt;/div&gt;&lt;hr/&gt;
-&lt;table class="dataTable"&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${FullNamePrimLabel} / ${FullNameSecLabel}&lt;/p&gt;&lt;br/&gt;${FullName}&lt;br/&gt;${FullNameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${GenderPrimLabel} / ${GenderSecLabel}&lt;/p&gt;&lt;br/&gt;${Gender}&lt;br/&gt;${GenderSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${DOBPrimLabel} / ${DOBSecLabel}&lt;/p&gt;&lt;br/&gt;${DOB}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${AgePrimLabel} / ${AgeSecLabel}&lt;/p&gt;&lt;br/&gt;${Age} ${YearsPrim} ${YearsSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ForiegnerPrimLabel} / ${ForiegnerSecLabel}&lt;/p&gt;&lt;br/&gt;${ResidenceStatus}&lt;br/&gt;${ResidenceStatusSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${AddressLine1PrimLabel} / ${AddressLine1SecLabel}&lt;/p&gt;&lt;br/&gt;${AddressLine1}&lt;br/&gt;${AddressLine1Sec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${AddressLine2PrimLabel} / ${AddressLine2SecLabel}&lt;/p&gt;&lt;br/&gt;${AddressLine2}&lt;br/&gt;${AddressLine2Sec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RegionPrimLabel} / ${RegionSecLabel}&lt;/p&gt;&lt;br/&gt;${Region}&lt;br/&gt;${RegionSec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ProvincePrimLabel} / ${ProvinceSecLabel}&lt;/p&gt;&lt;br/&gt;${Province}&lt;br/&gt;${ProvinceSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${LocalAuthorityPrimLabel} / ${LocalAuthoritySecLabel}&lt;/p&gt;&lt;br/&gt;${LocalAuthority}&lt;br/&gt;${LocalAuthoritySec}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${MobilePrimLabel} / ${MobileSecLabel}&lt;/p&gt;&lt;br/&gt;${Mobile}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${PostalCodePrimLabel} / ${PostalCodeSecLabel}&lt;/p&gt;&lt;br/&gt;${PostalCode}&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${EmailPrimLabel} / ${EmailSecLabel}&lt;/p&gt;&lt;br/&gt;${Email}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${CNIEPrimLabel} / ${CNIESecLabel}&lt;/p&gt;&lt;br/&gt;${CNIE}&lt;/td&gt;&lt;/tr&gt;&lt;tr ${WithParent}&gt;&lt;td&gt;&lt;p class="headings"&gt;${ParentNamePrimLabel} / ${ParentNameSecLabel}&lt;/p&gt;&lt;br/&gt;${ParentName}&lt;br/&gt;${ParentNameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${ParentUINPrimLabel} / ${ParentUINSecLabel}&lt;/p&gt;&lt;br/&gt;${ParentUIN}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
-&lt;br/&gt;&lt;p ${DocumentsEnabled} class="head"&gt;&lt;b&gt;${DocumentsPrimLabel}&lt;/b&gt;&lt;/p&gt;&lt;div ${DocumentsEnabled} ${Preview} class="modify"&gt;&lt;img src="${ModifyImageSource}" border="0" width="15" height="15"/&gt;&lt;button id="modifyDocuments"&gt;${Modify}&lt;/button&gt;&lt;/div&gt;&lt;hr ${DocumentsEnabled}/&gt;
-&lt;table ${DocumentsEnabled}&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${DocumentsPrimLabel} / ${DocumentsSecLabel}&lt;/p&gt;&lt;br/&gt;${Documents}&lt;br/&gt;${DocumentsSec}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
-&lt;br/&gt;&lt;p ${BiometricsEnabled} class="head"&gt;&lt;b&gt;${BiometricsPrimLabel}&lt;/b&gt;&lt;/p&gt;&lt;div ${BiometricsEnabled} ${Preview} class="modify"&gt;&lt;img src="${ModifyImageSource}" border="0" width="15" height="15"/&gt;&lt;button id="modifyBiometrics"&gt;${Modify}&lt;/button&gt;&lt;/div&gt;&lt;hr ${BiometricsEnabled}/&gt;
-&lt;table ${BiometricsEnabled}&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${BiometricsPrimLabel} / ${BiometricsSecLabel}&lt;/p&gt;&lt;br/&gt;${Biometrics}&lt;br/&gt;${BiometricsSec}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
-&lt;table ${IrisDisabled}&gt;&lt;tr&gt;&lt;td&gt;&lt;p class="headings"&gt;${ExceptionPhotoPrimLabel} / ${ExceptionPhotoSecLabel}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;img src="${ExceptionImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
-  </si>
-  <si>
-    <t>قالب الاعتراف</t>
-  </si>
-  <si>
-    <t>العزيز ${ResidentName},_x000D_
-شكرًا لك على التسجيل في نظام الهوية الرقمية. معرف التسجيل الخاص بك هو "${RID}". التفاصيل الديموغرافية هي كما يلي:_x000D_
-${Date}: تاريخ.1_x000D_
-${FullName}: الاسم الكامل.2_x000D_
-${DOB}: تاريخ الولادة.3_x000D_
-${Gender}: جنس.4_x000D_
-${AddressLine1}: 1 خط عنوان.5_x000D_
-${AddressLine2}: 2 خط عنوان.6_x000D_
-${AddressLine3}: 3 خط عنوان.7_x000D_
-${Region}: منطقة.8_x000D_
-${City}: مدينة.9_x000D_
-${Province}: المحافظة.10_x000D_
-${PostalCode}: الرمز البريدي.11_x000D_
-${Mobile}: رقم الهاتف المحمول.12_x000D_
-${Email}: البريد الإلكتروني.13</t>
-  </si>
-  <si>
-    <t>&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;img src="${CapturedLeftSlap}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;img src="${CapturedRightSlap}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;img src="${CapturedThumbs}" border="0" width="85" height="80"/&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${AckReceipt}&gt;&lt;td&gt;&lt;p ${MissingLeftFingers} class="headings"&gt;${LeftSlapExceptionPrim} / ${LeftSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p ${MissingRightFingers} class="headings"&gt;${RightSlapExceptionPrim} / ${RightSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p ${MissingThumbs} class="headings"&gt;${ThumbsExceptionPrim} / ${ThumbsExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr ${Preview}&gt;&lt;td ${leftSlapCaptured}&gt;&lt;p ${MissingLeftFingers} class="headings"&gt;${LeftSlapExceptionPrim} / ${LeftSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td ${rightSlapCaptured}&gt;&lt;p ${MissingRightFingers} class="headings"&gt;${RightSlapExceptionPrim} / ${RightSlapExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;td ${thumbsCaptured}&gt;&lt;p ${MissingThumbs} class="headings"&gt;${ThumbsExceptionPrim} / ${ThumbsExceptionSec}&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
-&lt;br/&gt;&lt;div ${Preview}&gt;&lt;p class="head"&gt;&lt;b&gt;${Consent}&lt;/b&gt;&lt;/p&gt;&lt;div class="consent-block" id="radioId"&gt;&lt;div class="consent-text"&gt;${ConsentData}&lt;/div&gt;
-&lt;input type="radio" name="consent" id="consent-yes" value="yes" ${SelectedYes} onchange="changeColour(this)"&gt;&lt;label for="consent-yes"&gt;${Yes}&lt;/label&gt; &amp;nbsp;&amp;nbsp;&amp;nbsp;
-&lt;input type="radio" name="consent" id="consent-no" value="no" ${SelectedNo} onchange="changeColour(this)"&gt;&lt;label for="consent-no"&gt;${No}&lt;/label&gt;&lt;/div&gt;&lt;/div&gt;
-&lt;table class="dataTable"&gt;&lt;tr&gt;&lt;td ${ROImage}&gt;&lt;img src="${ROImageSource}" border="0" width="80" height="80"/&gt;&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RONamePrimLabel} / ${RONameSecLabel}&lt;/p&gt;&lt;br/&gt;${ROName}&lt;br/&gt;${RONameSec}&lt;/td&gt;&lt;td&gt;&lt;p class="headings"&gt;${RegCenterPrimLabel} / ${RegCenterSecLabel}&lt;/p&gt;&lt;br/&gt;${RegCenter}&lt;br/&gt;${RegCenterSec}&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;
-&lt;hr/&gt;&lt;br/&gt;&lt;/div&gt;
-&lt;div ${parentPhotoCaptured}&gt;&lt;div ${FaceCaptureEnabled} ${AckReceipt} class="photo"&gt;&lt;p class="applicantPhotoLabel"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="applicantPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${AckReceipt} class="photo"&gt;&lt;p class="parentPhotoLabel"&gt;${ParentPhotoPrim} / ${ParentPhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ParentImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${FaceCaptureEnabled} ${Preview} class="previewPhoto"&gt;&lt;p class="applicantPhotoLabel"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="applicantPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${Preview} class="previewPhoto"&gt;&lt;p class="parentPhotoLabel"&gt;${ParentPhotoPrim} / ${ParentPhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ParentImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;/div&gt;
-&lt;div ${parentPhotoNotCaptured}&gt;&lt;div ${FaceCaptureEnabled} ${AckReceipt} class="photo"&gt;&lt;p class="applicantPhotoLabel2"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${FaceCaptureEnabled} ${Preview} class="previewPhoto"&gt;&lt;p class="applicantPhotoLabel2"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;/div&gt;
-&lt;div ${AckReceipt}&gt;&lt;p&gt;${ImportantGuidelines}&lt;/p&gt;&lt;ul&gt;${Guidelines}&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.previewPhoto{float:right;position:absolute;top:220px;}.photo{float:right;position:absolute;top:280px;}
-.applicantPhoto{position:absolute;top:-35px;left:500px;}
-.applicantPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:520px;}
-.parentPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:625px;}
-.applicantPhotoLabel2{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:650px;}
-.parentPhoto{position:absolute;top:-35px;left:630px;}
-.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:10px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:90px;}.leftRing{top:3px;left:103px;}.leftMiddle{top:-7px;left:119px;}.leftIndex{top:3px;left:132px;}.rightIndex{top:3px;left:105px;}.rightMiddle{top:-7px;left:119px;}.rightRing{top:3px;left:132px;}.rightLittle{top:15px;left:146px;}.leftThumb{top:-4px;left:105px;}.rightThumb{top:-4px;left:130px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.modify{float:right;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;}
-.consent-text{margin-left: 7px;margin-bottom: 4px;}
-input[type="radio"] {display: none;}
-input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}
-input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}
-*,*:before,*:after { box-sizing: border-box;}
-.consent-block label { display: inline-flex; align-items: center;}
-&lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";}
-if(element.value == "no"){div.style = "border: 2px solid #FF0000";}}
-document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;/head&gt;</t>
+    <t>&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+&lt;head&gt;
+	&lt;meta charset="utf-8"&gt;
+	&lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+	&lt;title&gt;UIN Card&lt;/title&gt;
+&lt;style&gt;
+.main-table {
+	margin-left: 60px;;
+	width: 600px;
+	height: 350px;
+	border: 1px solid black;
+}
+.cir {
+	display: inline-block;
+	border-radius: 60px;
+	box-shadow: 0px 0px 2px #000000;
+	padding: 0.5em 0.6em;
+}
+.name-head-color {
+	color: black;
+}
+.head-title {
+	margin-left: -85px;
+}
+.bar-code-padding {
+	margin-top: 20px;
+	margin-left: 20px;
+}
+.top-buffer {
+	margin-left:10px;
+}
+&lt;/style&gt;
+&lt;/head&gt;
+&lt;body&gt;
+	&lt;table class="main-table"&gt;
+		&lt;tr&gt;
+			&lt;td&gt;&amp;nbsp;
+				&lt;div class="cir"&gt;
+					&lt;font size="1"&gt;Logo&lt;/font&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+			&lt;td&gt;&lt;label class="name-head-color"&gt; &lt;font size="5"
+					class=" head-title"&gt; &amp;nbsp;&amp;nbsp; Kingdom of Morocco
+						&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/font&gt;
+			&lt;/label&gt;&lt;/td&gt;
+			&lt;td rowspan="4"&gt;
+				&lt;div&gt;
+					&lt;div
+						style="border: solid black 1px; height: 150px; width: 120px; margin-right: -30px;"&gt;
+						&lt;img src = $!ApplicantPhoto style="width: 150px; height: 150px"&gt;
+					&lt;/div&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td rowspan="1"&gt;
+				&lt;div class="block top-buffer"&gt;
+					&lt;label class="name-head-color"&gt;&lt;b&gt;UIN&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
+						class="name-color"&gt; $!UIN &lt;/span&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td rowspan="1"&gt;
+				&lt;div class="block top-buffer"&gt;
+					&lt;label class="name-head-color"&gt;&lt;b&gt;VID&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
+						class="name-color"&gt; $!VID &lt;/span&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td rowspan="1"&gt;
+				&lt;div class="block top-buffer"&gt;
+					&lt;label class="name-head-color"&gt;&lt;b&gt;prénom&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
+						class="name-color"&gt; $!name_fra&lt;/span&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td rowspan="1"&gt;
+				&lt;div class="block top-buffer"&gt;
+					&lt;label class="name-head-color"&gt;&lt;b&gt;اسم&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;
+						$!name_ara&lt;/span&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td rowspan="1"&gt;
+				&lt;div class="block top-buffer"&gt;
+					&lt;label class="name-head-color"&gt;&lt;b&gt;Rendez-vous amoureux/تاريخ&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+					&lt;span&gt;$!dob&lt;/span&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="2"&gt;
+				&lt;div class="block top-buffer"&gt;
+					&lt;label class="name-head-color"&gt;&lt;b&gt;Le sexe&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$!gender_fra&lt;/span&gt;
+					&amp;nbsp;&amp;nbsp; &lt;label class="name-head-color"&gt;&lt;b&gt;جنس&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+					&lt;span&gt;$!gender_ara&lt;/span&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+		&lt;tr&gt;
+			&lt;td colspan="3"&gt;
+				&lt;div class="row" style="margin-right: 0px; margin-left: -10px;"&gt;
+					&lt;div class="col-md-2 top-buffer"&gt;
+						&lt;div class="block top-buffer"&gt;
+							&lt;table&gt;
+								&lt;tr&gt;
+									&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;Adresse&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+									&lt;/td&gt;
+									&lt;td&gt;&lt;span&gt;$!addressLine1_fra, $!addressLine2_fra,
+											$!addressLine3_fra, $!region_fra, $!province_fra, $!city_fra,
+											$!postalCode &lt;/span&gt;&lt;/td&gt;
+								&lt;/tr&gt;
+								&lt;tr&gt;
+									&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;عنوان&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+									&lt;/td&gt;
+									&lt;td&gt;&lt;span&gt;$!addressLine1_ara, $!addressLine2_ara,
+											$!addressLine3_ara, $!region_ara, $!province_ara, $!city_ara,
+											$!postalCode &lt;/span&gt;
+									&lt;/td&gt;
+								&lt;/tr&gt;
+							&lt;/table&gt;
+						&lt;/div&gt;
+					&lt;/div&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/table&gt;
+	&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+	&lt;table class="main-table" style="height: 300px"&gt;
+		&lt;tr&gt;
+			&lt;td&gt;
+				&lt;div
+					style="margin-left: 10px; margin-right: 10px; border: solid black 1px; height: 250px; width: 250px;"&gt;
+					&lt;div class="col-md-6"&gt;
+						&lt;div class="bar-code-padding"&gt;&lt;/div&gt;
+						&lt;img src=$!QrCode
+							style="width: 250px; height: 250px; margin-top: -20px"&gt;
+					&lt;/div&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+			&lt;td&gt;
+				&lt;div class="name-head-color col-md-6"&gt;
+					&lt;br&gt; Pour toute question s'il vous plaît contactez-nous au&lt;br&gt;
+					&lt;br&gt; Inscription Processor, Hanging Gardens, Global Village
+					Parc technologique, Mysore Rd, RVCE, Bangalore, Karnataka 560059&lt;br&gt;
+					&lt;br&gt; لأية مشاكل يرجى الاتصال بنا على &lt;br&gt;التسجيل المعالج،
+					الحدائق المعلقة ، القرية العالمية Tech Park, Mysore Rd,RVCE 560059
+					بنغالورو، كارناتاكا &lt;br&gt;
+					&lt;br&gt;
+				&lt;/div&gt;
+			&lt;/td&gt;
+		&lt;/tr&gt;
+	&lt;/table&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
   </si>
 </sst>
 </file>
@@ -2550,10 +2896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M179"/>
+  <dimension ref="A1:M182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F180" sqref="F180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2739,7 +3085,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G5" s="1">
         <v>10004</v>
@@ -2777,7 +3123,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G6" s="1">
         <v>10004</v>
@@ -2815,7 +3161,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G7" s="1">
         <v>10004</v>
@@ -2967,7 +3313,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="G11" s="1">
         <v>10003</v>
@@ -3005,7 +3351,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="G12" s="1">
         <v>10003</v>
@@ -3043,7 +3389,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="G13" s="1">
         <v>10003</v>
@@ -3081,7 +3427,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="G14" s="1">
         <v>10003</v>
@@ -3119,7 +3465,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="G15" s="1">
         <v>10003</v>
@@ -3157,7 +3503,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="G16" s="1">
         <v>10003</v>
@@ -3195,7 +3541,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="G17" s="1">
         <v>10003</v>
@@ -3233,7 +3579,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="G18" s="1">
         <v>10003</v>
@@ -3271,7 +3617,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G19" s="1">
         <v>10003</v>
@@ -3309,7 +3655,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G20" s="1">
         <v>10003</v>
@@ -3347,7 +3693,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G21" s="1">
         <v>10003</v>
@@ -3385,7 +3731,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G22" s="1">
         <v>10003</v>
@@ -3423,7 +3769,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G23" s="1">
         <v>10003</v>
@@ -3461,7 +3807,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G24" s="1">
         <v>10003</v>
@@ -3499,7 +3845,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G25" s="1">
         <v>10003</v>
@@ -3537,7 +3883,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="G26" s="1">
         <v>10003</v>
@@ -3561,7 +3907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1107</v>
       </c>
@@ -3574,14 +3920,14 @@
       <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>80</v>
+      <c r="F27" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="G27" s="1">
         <v>10003</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>55</v>
@@ -3599,27 +3945,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1108</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>83</v>
+      <c r="F28" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="G28" s="1">
         <v>10003</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>57</v>
@@ -3637,27 +3983,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1109</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>85</v>
+      <c r="F29" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="G29" s="1">
         <v>10003</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>59</v>
@@ -3675,27 +4021,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1110</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>87</v>
+      <c r="F30" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="G30" s="1">
         <v>10003</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>61</v>
@@ -3713,27 +4059,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1111</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>89</v>
+      <c r="F31" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="G31" s="1">
         <v>10003</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>63</v>
@@ -3751,27 +4097,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1112</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>91</v>
+      <c r="F32" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="G32" s="1">
         <v>10003</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>65</v>
@@ -3794,22 +4140,22 @@
         <v>1113</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>93</v>
+        <v>362</v>
       </c>
       <c r="G33" s="1">
         <v>10003</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>67</v>
@@ -3827,27 +4173,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1114</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>95</v>
+      <c r="F34" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="G34" s="1">
         <v>10003</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>69</v>
@@ -3870,25 +4216,25 @@
         <v>1115</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G35" s="1">
         <v>10002</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>18</v>
@@ -3908,25 +4254,25 @@
         <v>1116</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G36" s="1">
         <v>10002</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>18</v>
@@ -3946,25 +4292,25 @@
         <v>1117</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G37" s="1">
         <v>10002</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>18</v>
@@ -3984,25 +4330,25 @@
         <v>1118</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G38" s="1">
         <v>10002</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>18</v>
@@ -4022,25 +4368,25 @@
         <v>1119</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G39" s="1">
         <v>10002</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>18</v>
@@ -4060,25 +4406,25 @@
         <v>1120</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G40" s="1">
         <v>10002</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>18</v>
@@ -4098,25 +4444,25 @@
         <v>1121</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G41" s="1">
         <v>10002</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>18</v>
@@ -4136,25 +4482,25 @@
         <v>1122</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G42" s="1">
         <v>10002</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>18</v>
@@ -4174,25 +4520,25 @@
         <v>1123</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G43" s="1">
         <v>10002</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>18</v>
@@ -4212,25 +4558,25 @@
         <v>1115</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G44" s="1">
         <v>10002</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>34</v>
@@ -4250,25 +4596,25 @@
         <v>1116</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G45" s="1">
         <v>10002</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>34</v>
@@ -4288,25 +4634,25 @@
         <v>1117</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G46" s="1">
         <v>10002</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>34</v>
@@ -4326,25 +4672,25 @@
         <v>1118</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G47" s="1">
         <v>10002</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>34</v>
@@ -4364,25 +4710,25 @@
         <v>1119</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G48" s="1">
         <v>10002</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>34</v>
@@ -4402,25 +4748,25 @@
         <v>1120</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G49" s="1">
         <v>10002</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>34</v>
@@ -4440,25 +4786,25 @@
         <v>1121</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="G50" s="1">
         <v>10002</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>34</v>
@@ -4478,25 +4824,25 @@
         <v>1122</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G51" s="1">
         <v>10002</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>34</v>
@@ -4516,25 +4862,25 @@
         <v>1123</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G52" s="1">
         <v>10002</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>34</v>
@@ -4554,25 +4900,25 @@
         <v>1115</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G53" s="1">
         <v>10002</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>43</v>
@@ -4592,25 +4938,25 @@
         <v>1116</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G54" s="1">
         <v>10002</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>43</v>
@@ -4630,25 +4976,25 @@
         <v>1117</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G55" s="1">
         <v>10002</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>43</v>
@@ -4668,25 +5014,25 @@
         <v>1118</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G56" s="1">
         <v>10002</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>43</v>
@@ -4706,25 +5052,25 @@
         <v>1119</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G57" s="1">
         <v>10002</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>43</v>
@@ -4744,25 +5090,25 @@
         <v>1120</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G58" s="1">
         <v>10002</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>43</v>
@@ -4782,25 +5128,25 @@
         <v>1121</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G59" s="1">
         <v>10002</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>43</v>
@@ -4820,25 +5166,25 @@
         <v>1122</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G60" s="1">
         <v>10002</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>43</v>
@@ -4858,25 +5204,25 @@
         <v>1123</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G61" s="1">
         <v>10002</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>43</v>
@@ -4896,25 +5242,25 @@
         <v>1124</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G62" s="1">
         <v>10001</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>18</v>
@@ -4934,25 +5280,25 @@
         <v>1125</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G63" s="1">
         <v>10001</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>18</v>
@@ -4972,25 +5318,25 @@
         <v>1126</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G64" s="1">
         <v>10001</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>18</v>
@@ -5010,25 +5356,25 @@
         <v>1127</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G65" s="1">
         <v>10001</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>18</v>
@@ -5048,25 +5394,25 @@
         <v>1128</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G66" s="1">
         <v>10001</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>18</v>
@@ -5086,25 +5432,25 @@
         <v>1129</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G67" s="1">
         <v>10001</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>18</v>
@@ -5124,25 +5470,25 @@
         <v>1124</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G68" s="1">
         <v>10001</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>34</v>
@@ -5162,25 +5508,25 @@
         <v>1125</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G69" s="1">
         <v>10001</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>34</v>
@@ -5200,25 +5546,25 @@
         <v>1126</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G70" s="1">
         <v>10001</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>34</v>
@@ -5238,25 +5584,25 @@
         <v>1127</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G71" s="1">
         <v>10001</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>34</v>
@@ -5276,25 +5622,25 @@
         <v>1128</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G72" s="1">
         <v>10001</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>34</v>
@@ -5314,25 +5660,25 @@
         <v>1129</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G73" s="1">
         <v>10001</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>34</v>
@@ -5352,25 +5698,25 @@
         <v>1124</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G74" s="1">
         <v>10001</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>43</v>
@@ -5390,25 +5736,25 @@
         <v>1125</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G75" s="1">
         <v>10001</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>43</v>
@@ -5428,25 +5774,25 @@
         <v>1126</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G76" s="1">
         <v>10001</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>43</v>
@@ -5466,25 +5812,25 @@
         <v>1127</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G77" s="1">
         <v>10001</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>43</v>
@@ -5504,25 +5850,25 @@
         <v>1128</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G78" s="1">
         <v>10001</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>43</v>
@@ -5542,25 +5888,25 @@
         <v>1129</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G79" s="1">
         <v>10001</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>43</v>
@@ -5580,25 +5926,25 @@
         <v>1130</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G80" s="1">
         <v>10001</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>18</v>
@@ -5618,25 +5964,25 @@
         <v>1130</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G81" s="1">
         <v>10001</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>43</v>
@@ -5656,25 +6002,25 @@
         <v>1130</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G82" s="1">
         <v>10001</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>34</v>
@@ -5694,16 +6040,16 @@
         <v>1131</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G83" s="1">
         <v>10003</v>
@@ -5712,7 +6058,7 @@
         <v>54</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>18</v>
@@ -5732,16 +6078,16 @@
         <v>1131</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G84" s="1">
         <v>10003</v>
@@ -5750,7 +6096,7 @@
         <v>71</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>34</v>
@@ -5765,30 +6111,30 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>1131</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>370</v>
+        <v>198</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="G85" s="1">
         <v>10003</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>43</v>
@@ -5808,16 +6154,16 @@
         <v>1132</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="G86" s="1">
         <v>10003</v>
@@ -5826,7 +6172,7 @@
         <v>54</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>18</v>
@@ -5846,16 +6192,16 @@
         <v>1132</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G87" s="1">
         <v>10003</v>
@@ -5864,7 +6210,7 @@
         <v>71</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>34</v>
@@ -5884,25 +6230,25 @@
         <v>1132</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="G88" s="1">
         <v>10003</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>43</v>
@@ -5922,16 +6268,16 @@
         <v>1133</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="G89" s="1">
         <v>10003</v>
@@ -5940,7 +6286,7 @@
         <v>54</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>18</v>
@@ -5960,16 +6306,16 @@
         <v>1133</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G90" s="1">
         <v>10003</v>
@@ -5978,7 +6324,7 @@
         <v>71</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>34</v>
@@ -5998,25 +6344,25 @@
         <v>1133</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G91" s="1">
         <v>10003</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>43</v>
@@ -6031,21 +6377,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>1134</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>217</v>
+      <c r="F92" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="G92" s="1">
         <v>10003</v>
@@ -6054,7 +6400,7 @@
         <v>54</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>18</v>
@@ -6074,16 +6420,16 @@
         <v>1134</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="G93" s="1">
         <v>10003</v>
@@ -6092,7 +6438,7 @@
         <v>71</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>34</v>
@@ -6112,25 +6458,25 @@
         <v>1134</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="G94" s="1">
         <v>10003</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>43</v>
@@ -6150,16 +6496,16 @@
         <v>1135</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>221</v>
+        <v>375</v>
       </c>
       <c r="G95" s="1">
         <v>10003</v>
@@ -6168,7 +6514,7 @@
         <v>54</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>18</v>
@@ -6188,16 +6534,16 @@
         <v>1135</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="G96" s="1">
         <v>10003</v>
@@ -6206,7 +6552,7 @@
         <v>71</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>34</v>
@@ -6226,25 +6572,25 @@
         <v>1135</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="G97" s="1">
         <v>10003</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>43</v>
@@ -6264,28 +6610,28 @@
         <v>1136</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G98" s="1">
         <v>10005</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>18</v>
@@ -6305,28 +6651,28 @@
         <v>1136</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="G99" s="1">
         <v>10005</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>34</v>
@@ -6346,28 +6692,28 @@
         <v>1136</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G100" s="1">
         <v>10005</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>43</v>
@@ -6387,28 +6733,28 @@
         <v>1137</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G101" s="1">
         <v>10005</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>18</v>
@@ -6428,28 +6774,28 @@
         <v>1137</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="G102" s="1">
         <v>10005</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>34</v>
@@ -6469,28 +6815,28 @@
         <v>1137</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G103" s="1">
         <v>10005</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>43</v>
@@ -6510,28 +6856,28 @@
         <v>1138</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="G104" s="1">
         <v>10005</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>18</v>
@@ -6551,28 +6897,28 @@
         <v>1138</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="G105" s="1">
         <v>10005</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>34</v>
@@ -6592,28 +6938,28 @@
         <v>1138</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="G106" s="1">
         <v>10005</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>43</v>
@@ -6633,28 +6979,28 @@
         <v>1139</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="G107" s="1">
         <v>10005</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>18</v>
@@ -6674,28 +7020,28 @@
         <v>1139</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="G108" s="1">
         <v>10005</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>34</v>
@@ -6715,28 +7061,28 @@
         <v>1139</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="G109" s="1">
         <v>10005</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>43</v>
@@ -6756,28 +7102,28 @@
         <v>1140</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G110" s="1">
         <v>10005</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>18</v>
@@ -6797,28 +7143,28 @@
         <v>1140</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G111" s="1">
         <v>10005</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>34</v>
@@ -6838,28 +7184,28 @@
         <v>1140</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G112" s="1">
         <v>10005</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>43</v>
@@ -6876,34 +7222,34 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B113" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C113" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F113" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G113">
         <v>10001</v>
       </c>
       <c r="H113" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="I113" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="K113" s="1" t="b">
         <v>1</v>
@@ -6917,34 +7263,34 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B114" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C114" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F114" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G114">
         <v>10002</v>
       </c>
       <c r="H114" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="I114" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="K114" s="1" t="b">
         <v>1</v>
@@ -6958,34 +7304,34 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B115" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C115" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F115" t="s">
-        <v>263</v>
+        <v>378</v>
       </c>
       <c r="G115">
         <v>10003</v>
       </c>
       <c r="H115" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="I115" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="K115" s="1" t="b">
         <v>1</v>
@@ -6999,22 +7345,22 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B116" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C116" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F116" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="G116">
         <v>10004</v>
@@ -7023,10 +7369,10 @@
         <v>16</v>
       </c>
       <c r="I116" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="K116" s="1" t="b">
         <v>1</v>
@@ -7043,31 +7389,31 @@
         <v>1141</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="G117" s="1">
         <v>10005</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="K117" s="1" t="b">
         <v>1</v>
@@ -7084,28 +7430,28 @@
         <v>1141</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="G118" s="1">
         <v>10005</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>34</v>
@@ -7125,28 +7471,28 @@
         <v>1141</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="G119" s="1">
         <v>10005</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>43</v>
@@ -7166,28 +7512,28 @@
         <v>1142</v>
       </c>
       <c r="B120" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C120" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D120" t="s">
         <v>14</v>
       </c>
       <c r="E120" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F120" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G120">
         <v>10001</v>
       </c>
       <c r="H120" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I120" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J120" t="s">
         <v>34</v>
@@ -7207,28 +7553,28 @@
         <v>1142</v>
       </c>
       <c r="B121" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C121" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D121" t="s">
         <v>14</v>
       </c>
       <c r="E121" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F121" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G121">
         <v>10001</v>
       </c>
       <c r="H121" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I121" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J121" t="s">
         <v>18</v>
@@ -7248,28 +7594,28 @@
         <v>1142</v>
       </c>
       <c r="B122" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C122" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D122" t="s">
         <v>14</v>
       </c>
       <c r="E122" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F122" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G122">
         <v>10001</v>
       </c>
       <c r="H122" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I122" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J122" t="s">
         <v>43</v>
@@ -7289,28 +7635,28 @@
         <v>1143</v>
       </c>
       <c r="B123" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C123" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D123" t="s">
         <v>14</v>
       </c>
       <c r="E123" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F123" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G123">
         <v>10001</v>
       </c>
       <c r="H123" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I123" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="J123" t="s">
         <v>34</v>
@@ -7330,28 +7676,28 @@
         <v>1143</v>
       </c>
       <c r="B124" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C124" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D124" t="s">
         <v>14</v>
       </c>
       <c r="E124" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F124" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G124">
         <v>10001</v>
       </c>
       <c r="H124" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I124" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="J124" t="s">
         <v>18</v>
@@ -7371,28 +7717,28 @@
         <v>1143</v>
       </c>
       <c r="B125" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C125" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D125" t="s">
         <v>14</v>
       </c>
       <c r="E125" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F125" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G125">
         <v>10001</v>
       </c>
       <c r="H125" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I125" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="J125" t="s">
         <v>43</v>
@@ -7412,28 +7758,28 @@
         <v>1144</v>
       </c>
       <c r="B126" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C126" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D126" t="s">
         <v>14</v>
       </c>
       <c r="E126" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F126" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G126">
         <v>10001</v>
       </c>
       <c r="H126" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I126" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="J126" t="s">
         <v>34</v>
@@ -7453,28 +7799,28 @@
         <v>1144</v>
       </c>
       <c r="B127" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C127" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D127" t="s">
         <v>14</v>
       </c>
       <c r="E127" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F127" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G127">
         <v>10001</v>
       </c>
       <c r="H127" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I127" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="J127" t="s">
         <v>18</v>
@@ -7494,28 +7840,28 @@
         <v>1144</v>
       </c>
       <c r="B128" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C128" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D128" t="s">
         <v>14</v>
       </c>
       <c r="E128" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F128" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G128">
         <v>10001</v>
       </c>
       <c r="H128" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I128" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="J128" t="s">
         <v>43</v>
@@ -7535,28 +7881,28 @@
         <v>1145</v>
       </c>
       <c r="B129" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C129" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D129" t="s">
         <v>14</v>
       </c>
       <c r="E129" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F129" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G129">
         <v>10002</v>
       </c>
       <c r="H129" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I129" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J129" t="s">
         <v>34</v>
@@ -7576,28 +7922,28 @@
         <v>1145</v>
       </c>
       <c r="B130" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C130" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D130" t="s">
         <v>14</v>
       </c>
       <c r="E130" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F130" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="G130">
         <v>10002</v>
       </c>
       <c r="H130" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I130" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J130" t="s">
         <v>43</v>
@@ -7617,28 +7963,28 @@
         <v>1145</v>
       </c>
       <c r="B131" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C131" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D131" t="s">
         <v>14</v>
       </c>
       <c r="E131" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F131" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G131">
         <v>10002</v>
       </c>
       <c r="H131" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I131" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J131" t="s">
         <v>18</v>
@@ -7658,28 +8004,28 @@
         <v>1146</v>
       </c>
       <c r="B132" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C132" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D132" t="s">
         <v>14</v>
       </c>
       <c r="E132" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F132" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G132">
         <v>10002</v>
       </c>
       <c r="H132" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I132" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="J132" t="s">
         <v>34</v>
@@ -7699,28 +8045,28 @@
         <v>1146</v>
       </c>
       <c r="B133" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C133" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D133" t="s">
         <v>14</v>
       </c>
       <c r="E133" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F133" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G133">
         <v>10002</v>
       </c>
       <c r="H133" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I133" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="J133" t="s">
         <v>43</v>
@@ -7740,28 +8086,28 @@
         <v>1146</v>
       </c>
       <c r="B134" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C134" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D134" t="s">
         <v>14</v>
       </c>
       <c r="E134" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F134" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G134">
         <v>10002</v>
       </c>
       <c r="H134" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I134" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="J134" t="s">
         <v>18</v>
@@ -7781,28 +8127,28 @@
         <v>1147</v>
       </c>
       <c r="B135" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C135" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D135" t="s">
         <v>14</v>
       </c>
       <c r="E135" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F135" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G135">
         <v>10002</v>
       </c>
       <c r="H135" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I135" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="J135" t="s">
         <v>34</v>
@@ -7822,28 +8168,28 @@
         <v>1147</v>
       </c>
       <c r="B136" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C136" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D136" t="s">
         <v>14</v>
       </c>
       <c r="E136" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F136" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G136">
         <v>10002</v>
       </c>
       <c r="H136" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I136" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="J136" t="s">
         <v>18</v>
@@ -7863,28 +8209,28 @@
         <v>1147</v>
       </c>
       <c r="B137" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C137" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D137" t="s">
         <v>14</v>
       </c>
       <c r="E137" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F137" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="G137">
         <v>10002</v>
       </c>
       <c r="H137" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I137" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="J137" t="s">
         <v>43</v>
@@ -7904,28 +8250,28 @@
         <v>1148</v>
       </c>
       <c r="B138" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C138" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D138" t="s">
         <v>14</v>
       </c>
       <c r="E138" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F138" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G138">
-        <v>10003</v>
-      </c>
-      <c r="H138" t="s">
-        <v>54</v>
+        <v>10004</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I138" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J138" t="s">
         <v>34</v>
@@ -7945,28 +8291,28 @@
         <v>1148</v>
       </c>
       <c r="B139" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C139" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D139" t="s">
         <v>14</v>
       </c>
       <c r="E139" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F139" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="G139">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="H139" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I139" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J139" t="s">
         <v>43</v>
@@ -7986,28 +8332,28 @@
         <v>1148</v>
       </c>
       <c r="B140" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C140" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D140" t="s">
         <v>14</v>
       </c>
       <c r="E140" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F140" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G140">
-        <v>10003</v>
-      </c>
-      <c r="H140" t="s">
-        <v>54</v>
+        <v>10004</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I140" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J140" t="s">
         <v>18</v>
@@ -8027,28 +8373,28 @@
         <v>1149</v>
       </c>
       <c r="B141" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C141" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D141" t="s">
         <v>14</v>
       </c>
       <c r="E141" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F141" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G141">
-        <v>10003</v>
-      </c>
-      <c r="H141" t="s">
-        <v>54</v>
+        <v>10004</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I141" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="J141" t="s">
         <v>34</v>
@@ -8068,28 +8414,28 @@
         <v>1149</v>
       </c>
       <c r="B142" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C142" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D142" t="s">
         <v>14</v>
       </c>
       <c r="E142" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F142" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="G142">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="H142" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I142" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="J142" t="s">
         <v>43</v>
@@ -8109,28 +8455,28 @@
         <v>1149</v>
       </c>
       <c r="B143" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C143" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D143" t="s">
         <v>14</v>
       </c>
       <c r="E143" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F143" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G143">
-        <v>10003</v>
-      </c>
-      <c r="H143" t="s">
-        <v>54</v>
+        <v>10004</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I143" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="J143" t="s">
         <v>18</v>
@@ -8150,28 +8496,28 @@
         <v>1150</v>
       </c>
       <c r="B144" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C144" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D144" t="s">
         <v>14</v>
       </c>
       <c r="E144" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F144" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G144">
-        <v>10003</v>
-      </c>
-      <c r="H144" t="s">
-        <v>54</v>
+        <v>10004</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I144" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="J144" t="s">
         <v>34</v>
@@ -8191,28 +8537,28 @@
         <v>1150</v>
       </c>
       <c r="B145" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C145" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D145" t="s">
         <v>14</v>
       </c>
       <c r="E145" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F145" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G145">
-        <v>10003</v>
-      </c>
-      <c r="H145" t="s">
-        <v>54</v>
+        <v>10004</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I145" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="J145" t="s">
         <v>18</v>
@@ -8232,28 +8578,28 @@
         <v>1150</v>
       </c>
       <c r="B146" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C146" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D146" t="s">
         <v>14</v>
       </c>
       <c r="E146" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F146" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="G146">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="H146" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I146" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="J146" t="s">
         <v>43</v>
@@ -8285,7 +8631,7 @@
         <v>4</v>
       </c>
       <c r="F147" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G147">
         <v>10004</v>
@@ -8294,7 +8640,7 @@
         <v>16</v>
       </c>
       <c r="I147" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J147" t="s">
         <v>18</v>
@@ -8326,7 +8672,7 @@
         <v>4</v>
       </c>
       <c r="F148" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G148">
         <v>10004</v>
@@ -8335,7 +8681,7 @@
         <v>33</v>
       </c>
       <c r="I148" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J148" t="s">
         <v>34</v>
@@ -8365,7 +8711,7 @@
       </c>
       <c r="E149"/>
       <c r="F149" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G149">
         <v>10004</v>
@@ -8374,7 +8720,7 @@
         <v>42</v>
       </c>
       <c r="I149" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J149" t="s">
         <v>43</v>
@@ -8415,7 +8761,7 @@
         <v>16</v>
       </c>
       <c r="I150" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="J150" t="s">
         <v>18</v>
@@ -8447,7 +8793,7 @@
         <v>4</v>
       </c>
       <c r="F151" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="G151">
         <v>10004</v>
@@ -8456,7 +8802,7 @@
         <v>33</v>
       </c>
       <c r="I151" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="J151" t="s">
         <v>34</v>
@@ -8497,7 +8843,7 @@
         <v>42</v>
       </c>
       <c r="I152" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="J152" t="s">
         <v>43</v>
@@ -8529,7 +8875,7 @@
         <v>4</v>
       </c>
       <c r="F153" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G153">
         <v>10004</v>
@@ -8538,7 +8884,7 @@
         <v>16</v>
       </c>
       <c r="I153" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="J153" t="s">
         <v>18</v>
@@ -8579,7 +8925,7 @@
         <v>33</v>
       </c>
       <c r="I154" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="J154" t="s">
         <v>34</v>
@@ -8620,7 +8966,7 @@
         <v>42</v>
       </c>
       <c r="I155" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="J155" t="s">
         <v>43</v>
@@ -8640,28 +8986,28 @@
         <v>1154</v>
       </c>
       <c r="B156" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C156" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G156" s="1">
         <v>10001</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="K156" s="1" t="b">
         <v>1</v>
@@ -8678,25 +9024,25 @@
         <v>1154</v>
       </c>
       <c r="B157" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C157" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="G157" s="1">
         <v>10001</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>34</v>
@@ -8716,25 +9062,25 @@
         <v>1154</v>
       </c>
       <c r="B158" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C158" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G158" s="1">
         <v>10001</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>43</v>
@@ -8754,28 +9100,28 @@
         <v>1155</v>
       </c>
       <c r="B159" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C159" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D159" t="s">
         <v>14</v>
       </c>
       <c r="E159" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G159">
         <v>10005</v>
       </c>
       <c r="H159" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I159" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="J159" t="s">
         <v>34</v>
@@ -8795,28 +9141,28 @@
         <v>1155</v>
       </c>
       <c r="B160" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C160" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D160" t="s">
         <v>14</v>
       </c>
       <c r="E160" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G160">
         <v>10005</v>
       </c>
       <c r="H160" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I160" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="J160" t="s">
         <v>18</v>
@@ -8836,28 +9182,28 @@
         <v>1155</v>
       </c>
       <c r="B161" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C161" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D161" t="s">
         <v>14</v>
       </c>
       <c r="E161" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G161">
         <v>10005</v>
       </c>
       <c r="H161" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I161" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="J161" t="s">
         <v>43</v>
@@ -8877,28 +9223,28 @@
         <v>1156</v>
       </c>
       <c r="B162" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="C162" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D162" t="s">
         <v>14</v>
       </c>
       <c r="E162" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G162">
         <v>10005</v>
       </c>
       <c r="H162" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I162" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="J162" t="s">
         <v>34</v>
@@ -8918,28 +9264,28 @@
         <v>1156</v>
       </c>
       <c r="B163" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C163" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D163" t="s">
         <v>14</v>
       </c>
       <c r="E163" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G163">
         <v>10005</v>
       </c>
       <c r="H163" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I163" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="J163" t="s">
         <v>18</v>
@@ -8959,28 +9305,28 @@
         <v>1156</v>
       </c>
       <c r="B164" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C164" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D164" t="s">
         <v>14</v>
       </c>
       <c r="E164" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G164">
         <v>10005</v>
       </c>
       <c r="H164" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I164" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="J164" t="s">
         <v>43</v>
@@ -9000,28 +9346,28 @@
         <v>1157</v>
       </c>
       <c r="B165" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C165" t="s">
+        <v>300</v>
+      </c>
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" t="s">
+        <v>216</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="D165" t="s">
-        <v>14</v>
-      </c>
-      <c r="E165" t="s">
-        <v>226</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="G165">
         <v>10005</v>
       </c>
       <c r="H165" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I165" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="J165" t="s">
         <v>34</v>
@@ -9041,28 +9387,28 @@
         <v>1157</v>
       </c>
       <c r="B166" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C166" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D166" t="s">
         <v>14</v>
       </c>
       <c r="E166" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G166">
         <v>10005</v>
       </c>
       <c r="H166" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I166" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="J166" t="s">
         <v>18</v>
@@ -9082,28 +9428,28 @@
         <v>1157</v>
       </c>
       <c r="B167" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C167" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D167" t="s">
         <v>14</v>
       </c>
       <c r="E167" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G167">
         <v>10005</v>
       </c>
       <c r="H167" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I167" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="J167" t="s">
         <v>43</v>
@@ -9123,28 +9469,28 @@
         <v>1158</v>
       </c>
       <c r="B168" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C168" t="s">
+        <v>300</v>
+      </c>
+      <c r="D168" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168" t="s">
+        <v>216</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="D168" t="s">
-        <v>14</v>
-      </c>
-      <c r="E168" t="s">
-        <v>226</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="G168">
         <v>10005</v>
       </c>
       <c r="H168" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I168" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="J168" t="s">
         <v>34</v>
@@ -9164,28 +9510,28 @@
         <v>1158</v>
       </c>
       <c r="B169" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C169" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D169" t="s">
         <v>14</v>
       </c>
       <c r="E169" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G169">
         <v>10005</v>
       </c>
       <c r="H169" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I169" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="J169" t="s">
         <v>18</v>
@@ -9205,28 +9551,28 @@
         <v>1158</v>
       </c>
       <c r="B170" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C170" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="D170" t="s">
         <v>14</v>
       </c>
       <c r="E170" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G170">
         <v>10005</v>
       </c>
       <c r="H170" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I170" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="J170" t="s">
         <v>43</v>
@@ -9246,28 +9592,28 @@
         <v>1159</v>
       </c>
       <c r="B171" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C171" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D171" t="s">
         <v>14</v>
       </c>
       <c r="E171" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G171" s="1">
         <v>10001</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I171" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>18</v>
@@ -9287,28 +9633,28 @@
         <v>1159</v>
       </c>
       <c r="B172" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C172" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D172" t="s">
         <v>14</v>
       </c>
       <c r="E172" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="G172" s="1">
         <v>10001</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I172" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>34</v>
@@ -9328,28 +9674,28 @@
         <v>1159</v>
       </c>
       <c r="B173" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C173" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D173" t="s">
         <v>14</v>
       </c>
       <c r="E173" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="G173" s="1">
         <v>10001</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I173" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>43</v>
@@ -9364,27 +9710,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>1160</v>
       </c>
       <c r="B174" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="C174" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="D174" t="s">
         <v>14</v>
       </c>
       <c r="E174" t="s">
-        <v>226</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>335</v>
+        <v>216</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G174" s="1">
+        <v>10003</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>18</v>
@@ -9399,27 +9751,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>1160</v>
       </c>
       <c r="B175" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="C175" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="D175" t="s">
         <v>14</v>
       </c>
       <c r="E175" t="s">
-        <v>226</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>337</v>
+        <v>216</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G175" s="1">
+        <v>10003</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>34</v>
@@ -9434,27 +9792,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>1160</v>
       </c>
       <c r="B176" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="C176" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D176" t="s">
         <v>14</v>
       </c>
       <c r="E176" t="s">
-        <v>226</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>336</v>
+        <v>216</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G176" s="1">
+        <v>10003</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>43</v>
@@ -9469,27 +9833,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>1161</v>
       </c>
       <c r="B177" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="C177" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="D177" t="s">
         <v>14</v>
       </c>
       <c r="E177" t="s">
-        <v>226</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>335</v>
+        <v>216</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G177" s="1">
+        <v>10003</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>18</v>
@@ -9504,27 +9874,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>1161</v>
       </c>
       <c r="B178" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C178" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="D178" t="s">
         <v>14</v>
       </c>
       <c r="E178" t="s">
-        <v>226</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>337</v>
+        <v>216</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="G178" s="1">
+        <v>10003</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>34</v>
@@ -9539,27 +9915,33 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>1161</v>
       </c>
       <c r="B179" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="C179" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="D179" t="s">
         <v>14</v>
       </c>
       <c r="E179" t="s">
-        <v>226</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>336</v>
+        <v>216</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G179" s="1">
+        <v>10003</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>43</v>
@@ -9574,8 +9956,131 @@
         <v>20</v>
       </c>
     </row>
+    <row r="180" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A180" s="1">
+        <v>1162</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E180" t="s">
+        <v>216</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G180" s="1">
+        <v>10003</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M180" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="1">
+        <v>1162</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E181" t="s">
+        <v>216</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G181" s="1">
+        <v>10003</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>1162</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182" t="s">
+        <v>216</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G182" s="1">
+        <v>10003</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M182" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M179" xr:uid="{606D01AB-69AF-42F0-9A8A-DE1226555770}"/>
+  <autoFilter ref="A1:M182" xr:uid="{606D01AB-69AF-42F0-9A8A-DE1226555770}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/_files/requirements/master_data/master-template.xlsx
+++ b/_files/requirements/master_data/master-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5EE2B6-6FB6-4061-B1CB-2CB6BC2B8618}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303BF0D4-3B87-4A86-9485-3E5BE589EABB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1184,9 +1184,6 @@
 &lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";}
 if(element.value == "no"){div.style = "border: 2px solid #FF0000";}}
 document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;/head&gt;</t>
-  </si>
-  <si>
-    <t>MASKED_UIN_CARD_TEMPLATE</t>
   </si>
   <si>
     <t>Masked UIN card template</t>
@@ -2049,6 +2046,9 @@
 	&lt;/table&gt;
 &lt;/body&gt;
 &lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>RPR_MASKED_UIN_CARD_TEMPLATE</t>
   </si>
 </sst>
 </file>
@@ -2898,8 +2898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F180" sqref="F180"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3313,7 +3313,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G11" s="1">
         <v>10003</v>
@@ -3351,7 +3351,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G12" s="1">
         <v>10003</v>
@@ -3389,7 +3389,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G13" s="1">
         <v>10003</v>
@@ -3427,7 +3427,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G14" s="1">
         <v>10003</v>
@@ -3465,7 +3465,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G15" s="1">
         <v>10003</v>
@@ -3503,7 +3503,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G16" s="1">
         <v>10003</v>
@@ -3541,7 +3541,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G17" s="1">
         <v>10003</v>
@@ -3579,7 +3579,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G18" s="1">
         <v>10003</v>
@@ -3617,7 +3617,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G19" s="1">
         <v>10003</v>
@@ -3655,7 +3655,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G20" s="1">
         <v>10003</v>
@@ -3693,7 +3693,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G21" s="1">
         <v>10003</v>
@@ -3731,7 +3731,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G22" s="1">
         <v>10003</v>
@@ -3769,7 +3769,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G23" s="1">
         <v>10003</v>
@@ -3807,7 +3807,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G24" s="1">
         <v>10003</v>
@@ -3845,7 +3845,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G25" s="1">
         <v>10003</v>
@@ -3883,7 +3883,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G26" s="1">
         <v>10003</v>
@@ -3921,7 +3921,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G27" s="1">
         <v>10003</v>
@@ -3959,7 +3959,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G28" s="1">
         <v>10003</v>
@@ -3997,7 +3997,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G29" s="1">
         <v>10003</v>
@@ -4035,7 +4035,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G30" s="1">
         <v>10003</v>
@@ -4073,7 +4073,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G31" s="1">
         <v>10003</v>
@@ -4111,7 +4111,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G32" s="1">
         <v>10003</v>
@@ -4149,7 +4149,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G33" s="1">
         <v>10003</v>
@@ -4187,7 +4187,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G34" s="1">
         <v>10003</v>
@@ -6049,7 +6049,7 @@
         <v>198</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G83" s="1">
         <v>10003</v>
@@ -6087,7 +6087,7 @@
         <v>198</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G84" s="1">
         <v>10003</v>
@@ -6125,7 +6125,7 @@
         <v>198</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G85" s="1">
         <v>10003</v>
@@ -6163,7 +6163,7 @@
         <v>14</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G86" s="1">
         <v>10003</v>
@@ -6201,7 +6201,7 @@
         <v>14</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G87" s="1">
         <v>10003</v>
@@ -6239,7 +6239,7 @@
         <v>14</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G88" s="1">
         <v>10003</v>
@@ -6277,7 +6277,7 @@
         <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G89" s="1">
         <v>10003</v>
@@ -6315,7 +6315,7 @@
         <v>14</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G90" s="1">
         <v>10003</v>
@@ -6353,7 +6353,7 @@
         <v>14</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G91" s="1">
         <v>10003</v>
@@ -6391,7 +6391,7 @@
         <v>14</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G92" s="1">
         <v>10003</v>
@@ -6429,7 +6429,7 @@
         <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G93" s="1">
         <v>10003</v>
@@ -6467,7 +6467,7 @@
         <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G94" s="1">
         <v>10003</v>
@@ -6505,7 +6505,7 @@
         <v>14</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G95" s="1">
         <v>10003</v>
@@ -6543,7 +6543,7 @@
         <v>14</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G96" s="1">
         <v>10003</v>
@@ -6581,7 +6581,7 @@
         <v>14</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G97" s="1">
         <v>10003</v>
@@ -7319,7 +7319,7 @@
         <v>252</v>
       </c>
       <c r="F115" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G115">
         <v>10003</v>
@@ -9727,7 +9727,7 @@
         <v>216</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G174" s="1">
         <v>10003</v>
@@ -9768,7 +9768,7 @@
         <v>216</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G175" s="1">
         <v>10003</v>
@@ -9809,7 +9809,7 @@
         <v>216</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G176" s="1">
         <v>10003</v>
@@ -9850,7 +9850,7 @@
         <v>216</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G177" s="1">
         <v>10003</v>
@@ -9891,7 +9891,7 @@
         <v>216</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G178" s="1">
         <v>10003</v>
@@ -9932,7 +9932,7 @@
         <v>216</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G179" s="1">
         <v>10003</v>
@@ -9961,10 +9961,10 @@
         <v>1162</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>14</v>
@@ -9973,7 +9973,7 @@
         <v>216</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G180" s="1">
         <v>10003</v>
@@ -9982,7 +9982,7 @@
         <v>54</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>18</v>
@@ -10002,10 +10002,10 @@
         <v>1162</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>14</v>
@@ -10014,7 +10014,7 @@
         <v>216</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G181" s="1">
         <v>10003</v>
@@ -10023,7 +10023,7 @@
         <v>71</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>34</v>
@@ -10043,10 +10043,10 @@
         <v>1162</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>14</v>
@@ -10055,7 +10055,7 @@
         <v>216</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G182" s="1">
         <v>10003</v>
@@ -10064,7 +10064,7 @@
         <v>80</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>43</v>

--- a/_files/requirements/master_data/master-template.xlsx
+++ b/_files/requirements/master_data/master-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303BF0D4-3B87-4A86-9485-3E5BE589EABB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B69E0A4-0D7B-4E34-858C-63E1CE0E39C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1197,21 +1197,7 @@
   <si>
     <t>Hi $!name_eng,
 Your Request for Registration $!RID has failed because an UIN has been found against your details. Please visit your nearest Registration Office.
-And Visit https://mosip.io/grievances
-Thanks and Regards,
-MOSIP Team</t>
-  </si>
-  <si>
-    <t>Hi $!name_eng,
-Your Request for Registration $!RID has failed because an UIN has been found against your details. Please visit your nearest Registration Office.
 And Visit https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>Hi $!name_eng,
-Your Request for Registration $!RID has failed because of an Technical issue please visit your nearest Registration Office.
-And Visit https://mosip.io/grievances
-Thanks and Regards,
-MOSIP Team</t>
   </si>
   <si>
     <t>Hi $!name_eng,
@@ -1220,30 +1206,11 @@
   </si>
   <si>
     <t>Hi $!name_eng,
-Your UIN for the Registration $!RID has been successfully generated and will reach soon at your Postal Address.
-Thanks and Regards,
-MOSIP Team</t>
-  </si>
-  <si>
-    <t>Hi $!name_eng,
 Your UIN for the Registration $!RID has been successfully generated and will reach soon at your Postal Address.</t>
-  </si>
-  <si>
-    <t>Hi $!name_eng,
-Your UIN details have been updated corresponding to the Registration Number $!RID and a Physical Copy of your UIN will reach you soon at your Postal Address.
-Thanks and Regards,
-MOSIP Team</t>
   </si>
   <si>
     <t>Hi $!name_eng,
 Your UIN details have been updated corresponding to the Registration Number $!RID and a Physical Copy of your UIN will reach you soon at your Postal Address.</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
-الخاص بك لأنه تم العثور على UIN مقابل بياناتك. يرجى زيارة أقرب مكتب تسجيل $!RID فشل طلب التسجيل
-وزيارة https://mosip.io/grievances
-شكرا مع تحياتي،
-فريق MOSIP</t>
   </si>
   <si>
     <t>$!name_ara ،
@@ -1252,79 +1219,62 @@
   </si>
   <si>
     <t>$!name_ara ،
-شل طلب التسجيل $!RID بسبب مشكلة فنية ، يرجى زيارة أقرب مكتب تسجيل.
-وزيارة https://mosip.io/grievances
-شكرا مع تحياتي،
-فريق MOSIP</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
 فشل طلب التسجيل $!RID بسبب مشكلة فنية ، يرجى زيارة أقرب مكتب تسجيل.
 وزيارة https://mosip.io/grievances</t>
   </si>
   <si>
     <t>$!name_ara ،
-تم إنشاء UIN الخاص بك للتسجيل $!RID بنجاح وستصل قريبًا إلى العنوان البريدي الخاص بك.
-شكرا مع تحياتي،
-فريق MOSIP</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
 تم إنشاء UIN الخاص بك للتسجيل $!RID بنجاح وستصل قريبًا إلى العنوان البريدي الخاص بك.</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
-تم تحديث تفاصيل UIN الخاصة بك المقابلة لرقم التسجيل $!RID وستصل إليك نسخة فعلية من UIN الخاصة بك على العنوان البريدي الخاص بك.
-شكرا مع تحياتي،
-فريق MOSIP</t>
   </si>
   <si>
     <t>$!name_ara ،
 تم تحديث تفاصيل UIN الخاصة بك المقابلة لرقم التسجيل $!RID وستصل إليك نسخة فعلية من UIN الخاصة بك على العنوان البريدي الخاص بك.</t>
   </si>
   <si>
+    <t>Hi $!name_eng,
+Your UIN has been de-activated. 
+If you have any conserns please visit the nearest Registration Center.</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+تم إلغاء تنشيط UIN الخاص بك.
+إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.</t>
+  </si>
+  <si>
     <t>Bonjour $!name_fra,
-Votre demande d'enregistrement $!RID a échoué car un UIN a été trouvé contre vos coordonnées. Veuillez visiter votre bureau d'inscription le plus proche.
-Et visitez https://mosip.io/grievances
-Merci et salutations,
-Équipe MOSIP</t>
+Votre UIN a été désactivé.
+Si vous avez des intérêts, veuillez vous rendre au centre d’inscription le plus proche.</t>
+  </si>
+  <si>
+    <t>Hi $!name_eng,
+Your UIN $!UIN has been re-activated. 
+If you have any conserns please visit the nearest Registration Center.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $!name_ara ،
+تمت إعادة تنشيط UIN الخاص بك.
+إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.</t>
   </si>
   <si>
     <t>Bonjour $!name_fra,
-Votre demande d'enregistrement $!RID a échoué car un UIN a été trouvé contre vos coordonnées. Veuillez visiter votre bureau d'inscription le plus proche.
-Et visitez https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_fra,
-Votre demande d'enregistrement $!RID a échoué à cause d'un problème technique, veuillez vous rendre au bureau d'inscription le plus proche.
-Et visitez https://mosip.io/grievances
-Merci et salutations,
-Équipe MOSIP</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_fra,
-Votre demande d'enregistrement $!RID a échoué à cause d'un problème technique, veuillez vous rendre au bureau d'inscription le plus proche.
-Et visitez https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_fra,
-Votre UIN pour l'enregistrement $!RID a été généré avec succès et vous parviendra sous peu à votre adresse postale.
-Merci et salutations,
-Équipe MOSIP</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_fra,
-Votre UIN pour l'enregistrement $!RID a été généré avec succès et vous parviendra sous peu à votre adresse postale.</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_fra,
-Les détails de votre UIN correspondant au numéro d’enregistrement $!RID ont été mis à jour et une copie physique de votre UIN vous parviendra sous peu à votre adresse postale.
-Merci et salutations,
-Équipe MOSIP</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_fra,
-Les détails de votre UIN correspondant au numéro d’enregistrement $!RID ont été mis à jour et une copie physique de votre UIN vous parviendra sous peu à votre adresse postale.</t>
+Votre UIN a été réactivé.
+Si vous avez des intérêts, veuillez vous rendre au centre d’inscription le plus proche.</t>
+  </si>
+  <si>
+    <t>Please find the OTP $!otp</t>
+  </si>
+  <si>
+    <t>عزيزي $!name ،
+رقم UIN الخاص بك هو $!UIN. سوف تتلقى بطاقة UIN الخاصة بك عبر. خدمتنا البريدية.
+شكر</t>
+  </si>
+  <si>
+    <t>Cher $!name,
+Votre numéro UIN est $!UIN. Vous recevrez votre carte UIN via. notre service postal.
+Merci</t>
+  </si>
+  <si>
+    <t>RPR_MASKED_UIN_CARD_TEMPLATE</t>
   </si>
   <si>
     <t>&lt;!DOCTYPE html&gt;
@@ -1362,121 +1312,113 @@
 &lt;/style&gt;
 &lt;/head&gt;
 &lt;body&gt;
-	&lt;table class="main-table"&gt;
-		&lt;tr&gt;
-			&lt;td&gt;&amp;nbsp;
-				&lt;div class="cir"&gt;
-					&lt;font size="1"&gt;Logo&lt;/font&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-			&lt;td&gt;&lt;label class="name-head-color"&gt; &lt;font size="5"
-					class=" head-title"&gt; &amp;nbsp;&amp;nbsp; Kingdom of Morocco
-						&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/font&gt;
-			&lt;/label&gt;&lt;/td&gt;
-			&lt;td rowspan="4"&gt;
-				&lt;div&gt;
-					&lt;div
-						style="border: solid black 1px; height: 150px; width: 120px; margin-right: -30px;"&gt;
-						&lt;img src = $!ApplicantPhoto style="width: 150px; height: 150px"&gt;
-					&lt;/div&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td rowspan="1"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;UIN&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
-						class="name-color"&gt; $!UIN &lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td rowspan="1"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;Name&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
-						class="name-color"&gt; $!name_eng&lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td rowspan="1"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;اسم&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;
-						$!name_ara&lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td rowspan="1"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;Date/تاريخ&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-					&lt;span&gt;$!dob&lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td colspan="2"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;Gender&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$!gender_eng&lt;/span&gt;
-					&amp;nbsp;&amp;nbsp; &lt;label class="name-head-color"&gt;&lt;b&gt;جنس&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-					&lt;span&gt;$!gender_ara&lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td colspan="3"&gt;
-				&lt;div class="row" style="margin-right: 0px; margin-left: -10px;"&gt;
-					&lt;div class="col-md-2 top-buffer"&gt;
-						&lt;div class="block top-buffer"&gt;
-							&lt;table&gt;
-								&lt;tr&gt;
-									&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;Address&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-									&lt;/td&gt;
-									&lt;td&gt;&lt;span&gt;$!addressLine1_eng, $!addressLine2_eng,
-											$!addressLine3_eng, $!region_eng, $!province_eng, $!city_eng,
-											$!postalCode &lt;/span&gt;&lt;/td&gt;
-								&lt;/tr&gt;
-								&lt;tr&gt;
-									&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;عنوان&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-									&lt;/td&gt;
-									&lt;td&gt;&lt;span&gt;$!addressLine1_ara, $!addressLine2_ara,
-											$!addressLine3_ara, $!region_ara, $!province_ara, $!city_ara,
-											$!postalCode &lt;/span&gt;
-									&lt;/td&gt;
-								&lt;/tr&gt;
-							&lt;/table&gt;
-						&lt;/div&gt;
-					&lt;/div&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-	&lt;/table&gt;
-	&lt;div&gt;&amp;nbsp;&lt;/div&gt;
-	&lt;table class="main-table" style="height: 300px"&gt;
-		&lt;tr&gt;
-			&lt;td&gt;
-				&lt;div
-					style="margin-left: 10px; margin-right: 10px; border: solid black 1px; height: 250px; width: 250px;"&gt;
-					&lt;div class="col-md-6"&gt;
-						&lt;div class="bar-code-padding"&gt;&lt;/div&gt;
-						&lt;img src=$!QrCode
-							style="width: 250px; height: 250px; margin-top: -20px"&gt;
-					&lt;/div&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-			&lt;td&gt;
-				&lt;div class="name-head-color col-md-6"&gt;
-					&lt;br&gt; For any issues please contact us at&lt;br&gt;
-					&lt;br&gt; Registration Proccessor,Hanging Gardens,Global Village
-					Tech Park, Mysore Rd,RVCE,Bengaluru, Karnataka 560059&lt;br&gt;
-					&lt;br&gt; لأية مشاكل يرجى الاتصال بنا على &lt;br&gt;التسجيل المعالج،
-					الحدائق المعلقة ، القرية العالمية Tech Park, Mysore Rd,RVCE 560059
-					بنغالورو، كارناتاكا &lt;br&gt;
-					&lt;br&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-	&lt;/table&gt;
+&lt;table class="main-table"&gt;
+&lt;tr&gt;
+&lt;td&gt;&amp;nbsp;
+&lt;div class="cir"&gt;&lt;font size="1"&gt;Logo&lt;/font&gt;&lt;/div&gt;
+&lt;/td&gt;
+&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;font size="5"class=" head-title"&gt; &amp;nbsp;&amp;nbsp; Kingdom of Morocco &amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/font&gt;
+&lt;/label&gt;&lt;/td&gt;
+&lt;td rowspan="4"&gt;
+&lt;div&gt;
+&lt;div style="border: solid black 1px; height: 150px; width: 120px;"&gt;
+&lt;img src = $!ApplicantPhoto style="width: 120px; height: 150px"&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td rowspan="1"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;UIN&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span class="name-color"&gt; $!UIN &lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td rowspan="1"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;Name&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; 
+&lt;span class="name-color"&gt; $!name_eng&lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td rowspan="1"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;اسم&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; 
+&lt;span&gt;$!name_ara&lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td rowspan="1"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;Date/تاريخ&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+&lt;span&gt;$!dob&lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td colspan="2"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;Gender&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$!gender_eng&lt;/span&gt;
+&amp;nbsp;&amp;nbsp; &lt;label class="name-head-color"&gt;&lt;b&gt;جنس&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+&lt;span&gt;$!gender_ara&lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td colspan="3"&gt;
+&lt;div class="row" style="margin-right: 0px; margin-left: -10px;"&gt;
+&lt;div class="col-md-2 top-buffer"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;table&gt;
+&lt;tr&gt;
+&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;Address&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+&lt;/td&gt;
+&lt;td&gt;&lt;span&gt;$!addressLine1_eng, $!addressLine2_eng,
+		$!addressLine3_eng, $!region_eng, $!province_eng, $!city_eng,
+		$!postalCode &lt;/span&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;عنوان&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+&lt;/td&gt;
+&lt;td&gt;&lt;span&gt;$!addressLine1_ara, $!addressLine2_ara,
+		$!addressLine3_ara, $!region_ara, $!province_ara, $!city_ara,
+		$!postalCode &lt;/span&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/table&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;table class="main-table" style="height: 300px"&gt;
+&lt;tr&gt;
+&lt;td&gt;
+&lt;div style="margin-left: 10px; margin-right: 10px; border: solid black 1px; height: 250px; width: 250px;"&gt;
+&lt;div class="col-md-6"&gt;
+&lt;div class="bar-code-padding"&gt;&lt;/div&gt;
+&lt;img src=$!QrCode style="width: 250px; height: 250px; margin-top: -20px"&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;td&gt;
+&lt;div class="name-head-color col-md-6"&gt;
+&lt;br&gt; For any issues please contact us at&lt;br&gt;
+&lt;br&gt; Registration Proccessor,Hanging Gardens,Global Village
+Tech Park, Mysore Rd,RVCE,Bengaluru, Karnataka 560059&lt;br&gt;
+&lt;br&gt; لأية مشاكل يرجى الاتصال بنا على &lt;br&gt;التسجيل المعالج،
+الحدائق المعلقة ، القرية العالمية Tech Park, Mysore Rd,RVCE 560059
+بنغالورو، كارناتاكا &lt;br&gt;
+&lt;br&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/table&gt;
 &lt;/body&gt;
 &lt;/html&gt;</t>
   </si>
@@ -1516,212 +1458,115 @@
 &lt;/style&gt;
 &lt;/head&gt;
 &lt;body&gt;
-	&lt;table class="main-table"&gt;
-		&lt;tr&gt;
-			&lt;td&gt;&amp;nbsp;
-				&lt;div class="cir"&gt;
-					&lt;font size="1"&gt;Logo&lt;/font&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-			&lt;td&gt;&lt;label class="name-head-color"&gt; &lt;font size="5"
-					class=" head-title"&gt; &amp;nbsp;&amp;nbsp; Kingdom of Morocco
-						&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/font&gt;
-			&lt;/label&gt;&lt;/td&gt;
-			&lt;td rowspan="4"&gt;
-				&lt;div&gt;
-					&lt;div
-						style="border: solid black 1px; height: 150px; width: 120px; margin-right: -30px;"&gt;
-						&lt;img src = $!ApplicantPhoto style="width: 150px; height: 150px"&gt;
-					&lt;/div&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td rowspan="1"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;UIN&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
-						class="name-color"&gt; $!UIN &lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td rowspan="1"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;prénom&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
-						class="name-color"&gt; $!name_fra&lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td rowspan="1"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;اسم&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;
-						$!name_ara&lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td rowspan="1"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;Rendez-vous amoureux/تاريخ&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-					&lt;span&gt;$!dob&lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td colspan="2"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;Le sexe&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$!gender_fra&lt;/span&gt;
-					&amp;nbsp;&amp;nbsp; &lt;label class="name-head-color"&gt;&lt;b&gt;جنس&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-					&lt;span&gt;$!gender_ara&lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td colspan="3"&gt;
-				&lt;div class="row" style="margin-right: 0px; margin-left: -10px;"&gt;
-					&lt;div class="col-md-2 top-buffer"&gt;
-						&lt;div class="block top-buffer"&gt;
-							&lt;table&gt;
-								&lt;tr&gt;
-									&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;Adresse&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-									&lt;/td&gt;
-									&lt;td&gt;&lt;span&gt;$!addressLine1_fra, $!addressLine2_fra,
-											$!addressLine3_fra, $!region_fra, $!province_fra, $!city_fra,
-											$!postalCode &lt;/span&gt;&lt;/td&gt;
-								&lt;/tr&gt;
-								&lt;tr&gt;
-									&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;عنوان&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-									&lt;/td&gt;
-									&lt;td&gt;&lt;span&gt;$!addressLine1_ara, $!addressLine2_ara,
-											$!addressLine3_ara, $!region_ara, $!province_ara, $!city_ara,
-											$!postalCode &lt;/span&gt;
-									&lt;/td&gt;
-								&lt;/tr&gt;
-							&lt;/table&gt;
-						&lt;/div&gt;
-					&lt;/div&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-	&lt;/table&gt;
-	&lt;div&gt;&amp;nbsp;&lt;/div&gt;
-	&lt;table class="main-table" style="height: 300px"&gt;
-		&lt;tr&gt;
-			&lt;td&gt;
-				&lt;div
-					style="margin-left: 10px; margin-right: 10px; border: solid black 1px; height: 250px; width: 250px;"&gt;
-					&lt;div class="col-md-6"&gt;
-						&lt;div class="bar-code-padding"&gt;&lt;/div&gt;
-						&lt;img src=$!QrCode
-							style="width: 250px; height: 250px; margin-top: -20px"&gt;
-					&lt;/div&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-			&lt;td&gt;
-				&lt;div class="name-head-color col-md-6"&gt;
-					&lt;br&gt; Pour toute question s'il vous plaît contactez-nous au&lt;br&gt;
-					&lt;br&gt; Inscription Processor, Hanging Gardens, Global Village
-					Parc technologique, Mysore Rd, RVCE, Bangalore, Karnataka 560059&lt;br&gt;
-					&lt;br&gt; لأية مشاكل يرجى الاتصال بنا على &lt;br&gt;التسجيل المعالج،
-					الحدائق المعلقة ، القرية العالمية Tech Park, Mysore Rd,RVCE 560059
-					بنغالورو، كارناتاكا &lt;br&gt;
-					&lt;br&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-	&lt;/table&gt;
+&lt;table class="main-table"&gt;
+&lt;tr&gt;
+&lt;td&gt;&amp;nbsp;
+&lt;div class="cir"&gt;&lt;font size="1"&gt;Logo&lt;/font&gt;&lt;/div&gt;
+&lt;/td&gt;
+&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;font size="5"class=" head-title"&gt; &amp;nbsp;&amp;nbsp; Kingdom of Morocco &amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/font&gt;
+&lt;/label&gt;&lt;/td&gt;
+&lt;td rowspan="4"&gt;
+&lt;div&gt;
+&lt;div style="border: solid black 1px; height: 150px; width: 120px;"&gt;
+&lt;img src = $!ApplicantPhoto style="width: 120px; height: 150px"&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td rowspan="1"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;UIN&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span class="name-color"&gt; $!UIN &lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td rowspan="1"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;Prénom&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; 
+&lt;span class="name-color"&gt; $!name_eng&lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td rowspan="1"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;اسم&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; 
+&lt;span&gt;$!name_ara&lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td rowspan="1"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;Rendez-vous amoureux/تاريخ&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+&lt;span&gt;$!dob&lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td colspan="2"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;Le sexe&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$!gender_eng&lt;/span&gt;
+&amp;nbsp;&amp;nbsp; &lt;label class="name-head-color"&gt;&lt;b&gt;جنس&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+&lt;span&gt;$!gender_ara&lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td colspan="3"&gt;
+&lt;div class="row" style="margin-right: 0px; margin-left: -10px;"&gt;
+&lt;div class="col-md-2 top-buffer"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;table&gt;
+&lt;tr&gt;
+&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;Adresse&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+&lt;/td&gt;
+&lt;td&gt;&lt;span&gt;$!addressLine1_eng, $!addressLine2_eng,
+		$!addressLine3_eng, $!region_eng, $!province_eng, $!city_eng,
+		$!postalCode &lt;/span&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;عنوان&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+&lt;/td&gt;
+&lt;td&gt;&lt;span&gt;$!addressLine1_ara, $!addressLine2_ara,
+		$!addressLine3_ara, $!region_ara, $!province_ara, $!city_ara,
+		$!postalCode &lt;/span&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/table&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;table class="main-table" style="height: 300px"&gt;
+&lt;tr&gt;
+&lt;td&gt;
+&lt;div style="margin-left: 10px; margin-right: 10px; border: solid black 1px; height: 250px; width: 250px;"&gt;
+&lt;div class="col-md-6"&gt;
+&lt;div class="bar-code-padding"&gt;&lt;/div&gt;
+&lt;img src=$!QrCode style="width: 250px; height: 250px; margin-top: -20px"&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;td&gt;
+&lt;div class="name-head-color col-md-6"&gt;
+&lt;br&gt; Pour toute question s'il vous plaît contactez-nous au&lt;br&gt;
+&lt;br&gt; Inscription Processor, Hanging Gardens, Global Village
+Parc technologique, Mysore Rd, RVCE, Bangalore, Karnataka 560059&lt;br&gt;
+&lt;br&gt; لأية مشاكل يرجى الاتصال بنا على &lt;br&gt;التسجيل المعالج،
+الحدائق المعلقة ، القرية العالمية Tech Park, Mysore Rd,RVCE 560059
+بنغالورو، كارناتاكا &lt;br&gt;
+&lt;br&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/table&gt;
 &lt;/body&gt;
 &lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>Hi $!name_eng,
-Your UIN has been de-activated. 
-If you have any conserns please visit the nearest Registration Center.</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
-تم إلغاء تنشيط UIN الخاص بك.
-إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_fra,
-Votre UIN a été désactivé.
-Si vous avez des intérêts, veuillez vous rendre au centre d’inscription le plus proche.</t>
-  </si>
-  <si>
-    <t>Hi $!name_eng,
-Your UIN has been de-activated. 
-If you have any conserns please visit the nearest Registration Center.
-Thanks</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
-تم إلغاء تنشيط UIN الخاص بك.
-إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.
-شكرا مع تحياتي ،
-فريق MOSIP</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_fra,
-Votre UIN a été désactivé.
-Si vous avez des intérêts, veuillez vous rendre au centre d’inscription le plus proche.
-Merci et salutations,
-Équipe MOSIP</t>
-  </si>
-  <si>
-    <t>Hi $!name_eng,
-Your UIN $!UIN has been re-activated. 
-If you have any conserns please visit the nearest Registration Center.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $!name_ara ،
-تمت إعادة تنشيط UIN الخاص بك.
-إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_fra,
-Votre UIN a été réactivé.
-Si vous avez des intérêts, veuillez vous rendre au centre d’inscription le plus proche.</t>
-  </si>
-  <si>
-    <t>Hi $!name_eng,
-Your UIN $!UIN has been re-activated. 
-If you have any conserns please visit the nearest Registration Center.
-Thanks
-Team MOSIP</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
-تمت إعادة تنشيط UIN الخاص بك.
-إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.
-شكرا مع تحياتي ،
-فريق MOSIP</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_fra,
-Votre UIN a été réactivé.
-Si vous avez des intérêts, veuillez vous rendre au centre d’inscription le plus proche.
-Merci et salutations,
-Équipe MOSIP</t>
-  </si>
-  <si>
-    <t>Please find the OTP $!otp</t>
-  </si>
-  <si>
-    <t>Dear $!name,
-Your UIN Number is $!UIN. You will receive your UIN Card via. our postal service.
-Thanks</t>
-  </si>
-  <si>
-    <t>عزيزي $!name ،
-رقم UIN الخاص بك هو $!UIN. سوف تتلقى بطاقة UIN الخاصة بك عبر. خدمتنا البريدية.
-شكر</t>
-  </si>
-  <si>
-    <t>Cher $!name,
-Votre numéro UIN est $!UIN. Vous recevrez votre carte UIN via. notre service postal.
-Merci</t>
   </si>
   <si>
     <t>&lt;!DOCTYPE html&gt;
@@ -1729,7 +1574,7 @@
 &lt;head&gt;
 	&lt;meta charset="utf-8"&gt;
 	&lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
-	&lt;title&gt;UIN Card&lt;/title&gt;
+	&lt;title&gt;Masked UIN Card&lt;/title&gt;
 &lt;style&gt;
 .main-table {
 	margin-left: 60px;;
@@ -1759,129 +1604,118 @@
 &lt;/style&gt;
 &lt;/head&gt;
 &lt;body&gt;
-	&lt;table class="main-table"&gt;
-		&lt;tr&gt;
-			&lt;td&gt;&amp;nbsp;
-				&lt;div class="cir"&gt;
-					&lt;font size="1"&gt;Logo&lt;/font&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-			&lt;td&gt;&lt;label class="name-head-color"&gt; &lt;font size="5"
-					class=" head-title"&gt; &amp;nbsp;&amp;nbsp; Kingdom of Morocco
-						&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/font&gt;
-			&lt;/label&gt;&lt;/td&gt;
-			&lt;td rowspan="4"&gt;
-				&lt;div&gt;
-					&lt;div
-						style="border: solid black 1px; height: 150px; width: 120px; margin-right: -30px;"&gt;
-						&lt;img src = $!ApplicantPhoto style="width: 120px; height: 150px"&gt;
-					&lt;/div&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td rowspan="1"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;UIN&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
-						class="name-color"&gt; $!UIN &lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td rowspan="1"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;VID&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
-						class="name-color"&gt; $!VID &lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td rowspan="1"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;Name&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
-						class="name-color"&gt; $!name_eng&lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td rowspan="1"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;اسم&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;
-						$!name_ara&lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td rowspan="1"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;Date/تاريخ&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-					&lt;span&gt;$!dob&lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td colspan="2"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;Gender&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$!gender_eng&lt;/span&gt;
-					&amp;nbsp;&amp;nbsp; &lt;label class="name-head-color"&gt;&lt;b&gt;جنس&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-					&lt;span&gt;$!gender_ara&lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td colspan="3"&gt;
-				&lt;div class="row" style="margin-right: 0px; margin-left: -10px;"&gt;
-					&lt;div class="col-md-2 top-buffer"&gt;
-						&lt;div class="block top-buffer"&gt;
-							&lt;table&gt;
-								&lt;tr&gt;
-									&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;Address&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-									&lt;/td&gt;
-									&lt;td&gt;&lt;span&gt;$!addressLine1_eng, $!addressLine2_eng,
-											$!addressLine3_eng, $!region_eng, $!province_eng, $!city_eng,
-											$!postalCode &lt;/span&gt;&lt;/td&gt;
-								&lt;/tr&gt;
-								&lt;tr&gt;
-									&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;عنوان&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-									&lt;/td&gt;
-									&lt;td&gt;&lt;span&gt;$!addressLine1_ara, $!addressLine2_ara,
-											$!addressLine3_ara, $!region_ara, $!province_ara, $!city_ara,
-											$!postalCode &lt;/span&gt;
-									&lt;/td&gt;
-								&lt;/tr&gt;
-							&lt;/table&gt;
-						&lt;/div&gt;
-					&lt;/div&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-	&lt;/table&gt;
-	&lt;div&gt;&amp;nbsp;&lt;/div&gt;
-	&lt;table class="main-table" style="height: 300px"&gt;
-		&lt;tr&gt;
-			&lt;td&gt;
-				&lt;div
-					style="margin-left: 10px; margin-right: 10px; border: solid black 1px; height: 250px; width: 250px;"&gt;
-					&lt;div class="col-md-6"&gt;
-						&lt;div class="bar-code-padding"&gt;&lt;/div&gt;
-						&lt;img src=$!QrCode
-							style="width: 250px; height: 250px; margin-top: -20px"&gt;
-					&lt;/div&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-			&lt;td&gt;
-				&lt;div class="name-head-color col-md-6"&gt;
-					&lt;br&gt; For any issues please contact us at&lt;br&gt;
-					&lt;br&gt; Registration Proccessor,Hanging Gardens,Global Village
-					Tech Park, Mysore Rd,RVCE,Bengaluru, Karnataka 560059&lt;br&gt;
-					&lt;br&gt; لأية مشاكل يرجى الاتصال بنا على &lt;br&gt;التسجيل المعالج،
-					الحدائق المعلقة ، القرية العالمية Tech Park, Mysore Rd,RVCE 560059
-					بنغالورو، كارناتاكا &lt;br&gt;
-					&lt;br&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-	&lt;/table&gt;
+&lt;table class="main-table"&gt;
+&lt;tr&gt;
+&lt;td&gt;&amp;nbsp;
+&lt;div class="cir"&gt;
+&lt;font size="1"&gt;Logo&lt;/font&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;td&gt;&lt;label class="name-head-color"&gt; &lt;font size="5" class=" head-title"&gt; &amp;nbsp;&amp;nbsp; Kingdom of Morocco&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/font&gt;
+&lt;/label&gt;&lt;/td&gt;
+&lt;td rowspan="4"&gt;
+&lt;div&gt;
+&lt;div style="border: solid black 1px; height: 150px; width: 120px;"&gt;
+&lt;img src = $!ApplicantPhoto style="width: 120px; height: 150px"&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td rowspan="1"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;UIN&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span class="name-color"&gt; $!UIN &lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td rowspan="1"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;VID&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span class="name-color"&gt; $!VID &lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td rowspan="1"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;Name&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span class="name-color"&gt; $!name_eng&lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td rowspan="1"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;اسم&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt; $!name_ara&lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td rowspan="1"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;Date/تاريخ&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+&lt;span&gt;$!dob&lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td colspan="2"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;Gender&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$!gender_eng&lt;/span&gt;
+&amp;nbsp;&amp;nbsp; &lt;label class="name-head-color"&gt;&lt;b&gt;جنس&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+&lt;span&gt;$!gender_ara&lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td colspan="3"&gt;
+&lt;div class="row" style="margin-right: 0px; margin-left: -10px;"&gt;
+&lt;div class="col-md-2 top-buffer"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;table&gt;
+&lt;tr&gt;
+&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;Address&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+&lt;/td&gt;
+&lt;td&gt;&lt;span&gt;$!addressLine1_eng, $!addressLine2_eng,
+$!addressLine3_eng, $!region_eng, $!province_eng, $!city_eng,
+$!postalCode &lt;/span&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;عنوان&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+&lt;/td&gt;
+&lt;td&gt;&lt;span&gt;$!addressLine1_ara, $!addressLine2_ara, $!addressLine3_ara, $!region_ara, $!province_ara, $!city_ara, $!postalCode &lt;/span&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/table&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;table class="main-table" style="height: 300px"&gt;
+&lt;tr&gt;
+&lt;td&gt;
+&lt;div style="margin-left: 10px; margin-right: 10px; border: solid black 1px; height: 250px; width: 250px;"&gt;
+&lt;div class="col-md-6"&gt;
+&lt;div class="bar-code-padding"&gt;&lt;/div&gt;
+&lt;img src=$!QrCode style="width: 250px; height: 250px; margin-top: -20px"&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;td&gt;
+&lt;div class="name-head-color col-md-6"&gt;
+&lt;br&gt; For any issues please contact us at&lt;br&gt;
+&lt;br&gt; Registration Proccessor,Hanging Gardens,Global Village
+Tech Park, Mysore Rd,RVCE,Bengaluru, Karnataka 560059&lt;br&gt;
+&lt;br&gt; لأية مشاكل يرجى الاتصال بنا على &lt;br&gt;التسجيل المعالج،
+الحدائق المعلقة ، القرية العالمية Tech Park, Mysore Rd,RVCE 560059
+بنغالورو، كارناتاكا &lt;br&gt;
+&lt;br&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/table&gt;
 &lt;/body&gt;
 &lt;/html&gt;</t>
   </si>
@@ -1891,7 +1725,7 @@
 &lt;head&gt;
 	&lt;meta charset="utf-8"&gt;
 	&lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
-	&lt;title&gt;UIN Card&lt;/title&gt;
+	&lt;title&gt;Masked UIN Card&lt;/title&gt;
 &lt;style&gt;
 .main-table {
 	margin-left: 60px;;
@@ -1921,134 +1755,247 @@
 &lt;/style&gt;
 &lt;/head&gt;
 &lt;body&gt;
-	&lt;table class="main-table"&gt;
-		&lt;tr&gt;
-			&lt;td&gt;&amp;nbsp;
-				&lt;div class="cir"&gt;
-					&lt;font size="1"&gt;Logo&lt;/font&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-			&lt;td&gt;&lt;label class="name-head-color"&gt; &lt;font size="5"
-					class=" head-title"&gt; &amp;nbsp;&amp;nbsp; Kingdom of Morocco
-						&amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/font&gt;
-			&lt;/label&gt;&lt;/td&gt;
-			&lt;td rowspan="4"&gt;
-				&lt;div&gt;
-					&lt;div
-						style="border: solid black 1px; height: 150px; width: 120px; margin-right: -30px;"&gt;
-						&lt;img src = $!ApplicantPhoto style="width: 150px; height: 150px"&gt;
-					&lt;/div&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td rowspan="1"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;UIN&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
-						class="name-color"&gt; $!UIN &lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td rowspan="1"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;VID&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
-						class="name-color"&gt; $!VID &lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td rowspan="1"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;prénom&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span
-						class="name-color"&gt; $!name_fra&lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td rowspan="1"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;اسم&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;
-						$!name_ara&lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td rowspan="1"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;Rendez-vous amoureux/تاريخ&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-					&lt;span&gt;$!dob&lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td colspan="2"&gt;
-				&lt;div class="block top-buffer"&gt;
-					&lt;label class="name-head-color"&gt;&lt;b&gt;Le sexe&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$!gender_fra&lt;/span&gt;
-					&amp;nbsp;&amp;nbsp; &lt;label class="name-head-color"&gt;&lt;b&gt;جنس&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-					&lt;span&gt;$!gender_ara&lt;/span&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-		&lt;tr&gt;
-			&lt;td colspan="3"&gt;
-				&lt;div class="row" style="margin-right: 0px; margin-left: -10px;"&gt;
-					&lt;div class="col-md-2 top-buffer"&gt;
-						&lt;div class="block top-buffer"&gt;
-							&lt;table&gt;
-								&lt;tr&gt;
-									&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;Adresse&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-									&lt;/td&gt;
-									&lt;td&gt;&lt;span&gt;$!addressLine1_fra, $!addressLine2_fra,
-											$!addressLine3_fra, $!region_fra, $!province_fra, $!city_fra,
-											$!postalCode &lt;/span&gt;&lt;/td&gt;
-								&lt;/tr&gt;
-								&lt;tr&gt;
-									&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;عنوان&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-									&lt;/td&gt;
-									&lt;td&gt;&lt;span&gt;$!addressLine1_ara, $!addressLine2_ara,
-											$!addressLine3_ara, $!region_ara, $!province_ara, $!city_ara,
-											$!postalCode &lt;/span&gt;
-									&lt;/td&gt;
-								&lt;/tr&gt;
-							&lt;/table&gt;
-						&lt;/div&gt;
-					&lt;/div&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-	&lt;/table&gt;
-	&lt;div&gt;&amp;nbsp;&lt;/div&gt;
-	&lt;table class="main-table" style="height: 300px"&gt;
-		&lt;tr&gt;
-			&lt;td&gt;
-				&lt;div
-					style="margin-left: 10px; margin-right: 10px; border: solid black 1px; height: 250px; width: 250px;"&gt;
-					&lt;div class="col-md-6"&gt;
-						&lt;div class="bar-code-padding"&gt;&lt;/div&gt;
-						&lt;img src=$!QrCode
-							style="width: 250px; height: 250px; margin-top: -20px"&gt;
-					&lt;/div&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-			&lt;td&gt;
-				&lt;div class="name-head-color col-md-6"&gt;
-					&lt;br&gt; Pour toute question s'il vous plaît contactez-nous au&lt;br&gt;
-					&lt;br&gt; Inscription Processor, Hanging Gardens, Global Village
-					Parc technologique, Mysore Rd, RVCE, Bangalore, Karnataka 560059&lt;br&gt;
-					&lt;br&gt; لأية مشاكل يرجى الاتصال بنا على &lt;br&gt;التسجيل المعالج،
-					الحدائق المعلقة ، القرية العالمية Tech Park, Mysore Rd,RVCE 560059
-					بنغالورو، كارناتاكا &lt;br&gt;
-					&lt;br&gt;
-				&lt;/div&gt;
-			&lt;/td&gt;
-		&lt;/tr&gt;
-	&lt;/table&gt;
+&lt;table class="main-table"&gt;
+&lt;tr&gt;
+&lt;td&gt;&amp;nbsp;
+&lt;div class="cir"&gt;&lt;font size="1"&gt;Logo&lt;/font&gt;&lt;/div&gt;
+&lt;/td&gt;
+&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;font size="5"class=" head-title"&gt; &amp;nbsp;&amp;nbsp; Kingdom of Morocco &amp;nbsp;&amp;nbsp;&amp;nbsp; &lt;/font&gt;
+&lt;/label&gt;&lt;/td&gt;
+&lt;td rowspan="4"&gt;
+&lt;div&gt;
+&lt;div style="border: solid black 1px; height: 150px; width: 120px;"&gt;
+&lt;img src = $!ApplicantPhoto style="width: 120px; height: 150px"&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td rowspan="1"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;UIN&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span class="name-color"&gt; $!UIN &lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td rowspan="1"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;VID&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span class="name-color"&gt; $!VID &lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td rowspan="1"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;Prénom&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; 
+&lt;span class="name-color"&gt; $!name_eng&lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td rowspan="1"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;اسم&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; 
+&lt;span&gt;$!name_ara&lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td rowspan="1"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;Rendez-vous amoureux/تاريخ&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+&lt;span&gt;$!dob&lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td colspan="2"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;Le sexe&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$!gender_eng&lt;/span&gt;
+&amp;nbsp;&amp;nbsp; &lt;label class="name-head-color"&gt;&lt;b&gt;جنس&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+&lt;span&gt;$!gender_ara&lt;/span&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td colspan="3"&gt;
+&lt;div class="row" style="margin-right: 0px; margin-left: -10px;"&gt;
+&lt;div class="col-md-2 top-buffer"&gt;
+&lt;div class="block top-buffer"&gt;
+&lt;table&gt;
+&lt;tr&gt;
+&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;Adresse&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+&lt;/td&gt;
+&lt;td&gt;&lt;span&gt;$!addressLine1_eng, $!addressLine2_eng,
+		$!addressLine3_eng, $!region_eng, $!province_eng, $!city_eng,
+		$!postalCode &lt;/span&gt;&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;عنوان&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+&lt;/td&gt;
+&lt;td&gt;&lt;span&gt;$!addressLine1_ara, $!addressLine2_ara,
+		$!addressLine3_ara, $!region_ara, $!province_ara, $!city_ara,
+		$!postalCode &lt;/span&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/table&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;table class="main-table" style="height: 300px"&gt;
+&lt;tr&gt;
+&lt;td&gt;
+&lt;div style="margin-left: 10px; margin-right: 10px; border: solid black 1px; height: 250px; width: 250px;"&gt;
+&lt;div class="col-md-6"&gt;
+&lt;div class="bar-code-padding"&gt;&lt;/div&gt;
+&lt;img src=$!QrCode style="width: 250px; height: 250px; margin-top: -20px"&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;td&gt;
+&lt;div class="name-head-color col-md-6"&gt;
+&lt;br&gt; Pour toute question s'il vous plaît contactez-nous au&lt;br&gt;
+&lt;br&gt; Inscription Processor, Hanging Gardens, Global Village
+Parc technologique, Mysore Rd, RVCE, Bangalore, Karnataka 560059&lt;br&gt;
+&lt;br&gt; لأية مشاكل يرجى الاتصال بنا على &lt;br&gt;التسجيل المعالج،
+الحدائق المعلقة ، القرية العالمية Tech Park, Mysore Rd,RVCE 560059
+بنغالورو، كارناتاكا &lt;br&gt;
+&lt;br&gt;
+&lt;/div&gt;
+&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/table&gt;
 &lt;/body&gt;
 &lt;/html&gt;</t>
   </si>
   <si>
-    <t>RPR_MASKED_UIN_CARD_TEMPLATE</t>
+    <t>Hi $!name_eng,
+Your Request for Registration $!RID has failed because an UIN has been found against your details. Please visit your nearest Registration Office.
+And Visit https://mosip.io/grievances
+Thank You</t>
+  </si>
+  <si>
+    <t>Hi $!name_eng,
+Your Request for Registration $!RID has failed because of an Technical issue please visit your nearest Registration Office.
+And Visit https://mosip.io/grievances
+Thank You</t>
+  </si>
+  <si>
+    <t>Hi $!name_eng,
+Your UIN for the Registration $!RID has been successfully generated and will reach soon at your Postal Address.
+Thank You</t>
+  </si>
+  <si>
+    <t>Hi $!name_eng,
+Your UIN details have been updated corresponding to the Registration Number $!RID and a Physical Copy of your UIN will reach you soon at your Postal Address.
+Thank You</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+الخاص بك لأنه تم العثور على UIN مقابل بياناتك. يرجى زيارة أقرب مكتب تسجيل $!RID فشل طلب التسجيل
+وزيارة https://mosip.io/grievances
+شكرا</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+شل طلب التسجيل $!RID بسبب مشكلة فنية ، يرجى زيارة أقرب مكتب تسجيل.
+وزيارة https://mosip.io/grievances
+شكرا</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+تم إنشاء UIN الخاص بك للتسجيل $!RID بنجاح وستصل قريبًا إلى العنوان البريدي الخاص بك.
+شكرا</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+تم تحديث تفاصيل UIN الخاصة بك المقابلة لرقم التسجيل $!RID وستصل إليك نسخة فعلية من UIN الخاصة بك على العنوان البريدي الخاص بك.
+شكرا</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_fra,
+Votre demande d'enregistrement $!RID a échoué à cause d'un problème technique, veuillez vous rendre au bureau d'inscription le plus proche.
+Et visitez https://mosip.io/grievances
+Merci</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_fra,
+Votre UIN pour l'enregistrement $!RID a été généré avec succès et vous parviendra sous peu à votre adresse postale.
+Merci</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_fra,
+Votre demande d'enregistrement $!RID a échoué à cause d'un problème technique, veuillez vous rendre au bureau d'inscription le plus proche.
+Et visitez https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_fra,
+Votre demande d'enregistrement $!RID a échoué car un UIN a été trouvé contre vos coordonnées. Veuillez visiter votre bureau d'inscription le plus proche.
+Et visitez https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_fra,
+Votre demande d'enregistrement $!RID a échoué car un UIN a été trouvé contre vos coordonnées. Veuillez visiter votre bureau d'inscription le plus proche.
+Et visitez https://mosip.io/grievances
+Merci</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_fra,
+Les détails de votre UIN correspondant au numéro d’enregistrement $!RID ont été mis à jour et une copie physique de votre UIN vous parviendra sous peu à votre adresse postale.
+Merci</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_fra,
+Votre UIN pour l'enregistrement $!RID a été généré avec succès et vous parviendra sous peu à votre adresse postale.</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_fra,
+Les détails de votre UIN correspondant au numéro d’enregistrement $!RID ont été mis à jour et une copie physique de votre UIN vous parviendra sous peu à votre adresse postale.</t>
+  </si>
+  <si>
+    <t>Hi $!name_eng,
+Your UIN has been de-activated. 
+If you have any conserns please visit the nearest Registration Center.
+Thank You</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+تم إلغاء تنشيط UIN الخاص بك.
+إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.
+شكرا</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_fra,
+Votre UIN a été désactivé.
+Si vous avez des intérêts, veuillez vous rendre au centre d’inscription le plus proche.
+Merci</t>
+  </si>
+  <si>
+    <t>Hi $!name_eng,
+Your UIN $!UIN has been re-activated. 
+If you have any conserns please visit the nearest Registration Center.
+Thank You</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+تمت إعادة تنشيط UIN الخاص بك.
+إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.
+شكرا</t>
+  </si>
+  <si>
+    <t>Bonjour $!name_fra,
+Votre UIN a été réactivé.
+Si vous avez des intérêts, veuillez vous rendre au centre d’inscription le plus proche.
+Merci</t>
+  </si>
+  <si>
+    <t>Dear $!name,
+Your UIN Number is $!UIN. You will receive your UIN Card via. our postal service.
+Thank You</t>
   </si>
 </sst>
 </file>
@@ -2898,13 +2845,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="81" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" style="1" customWidth="1"/>
     <col min="2" max="3" width="55.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.7265625" style="1"/>
     <col min="6" max="6" width="36" style="1" customWidth="1"/>
@@ -3299,7 +3246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="145" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1107</v>
       </c>
@@ -3313,7 +3260,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="G11" s="1">
         <v>10003</v>
@@ -3351,7 +3298,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G12" s="1">
         <v>10003</v>
@@ -3375,7 +3322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="145" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1109</v>
       </c>
@@ -3389,7 +3336,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="G13" s="1">
         <v>10003</v>
@@ -3427,7 +3374,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G14" s="1">
         <v>10003</v>
@@ -3451,7 +3398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1111</v>
       </c>
@@ -3465,7 +3412,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="G15" s="1">
         <v>10003</v>
@@ -3503,7 +3450,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G16" s="1">
         <v>10003</v>
@@ -3527,7 +3474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="145" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1113</v>
       </c>
@@ -3541,7 +3488,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="G17" s="1">
         <v>10003</v>
@@ -3579,7 +3526,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G18" s="1">
         <v>10003</v>
@@ -3603,7 +3550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1107</v>
       </c>
@@ -3617,7 +3564,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="G19" s="1">
         <v>10003</v>
@@ -3655,7 +3602,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G20" s="1">
         <v>10003</v>
@@ -3679,7 +3626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1109</v>
       </c>
@@ -3693,7 +3640,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="G21" s="1">
         <v>10003</v>
@@ -3731,7 +3678,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G22" s="1">
         <v>10003</v>
@@ -3755,7 +3702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1111</v>
       </c>
@@ -3769,7 +3716,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="G23" s="1">
         <v>10003</v>
@@ -3807,7 +3754,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G24" s="1">
         <v>10003</v>
@@ -3831,7 +3778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1113</v>
       </c>
@@ -3845,7 +3792,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="G25" s="1">
         <v>10003</v>
@@ -3883,7 +3830,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G26" s="1">
         <v>10003</v>
@@ -3921,7 +3868,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="G27" s="1">
         <v>10003</v>
@@ -3945,7 +3892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1108</v>
       </c>
@@ -3959,7 +3906,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="G28" s="1">
         <v>10003</v>
@@ -3983,7 +3930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1109</v>
       </c>
@@ -3997,7 +3944,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="G29" s="1">
         <v>10003</v>
@@ -4021,7 +3968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1110</v>
       </c>
@@ -4035,7 +3982,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="G30" s="1">
         <v>10003</v>
@@ -4073,7 +4020,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="G31" s="1">
         <v>10003</v>
@@ -4097,7 +4044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1112</v>
       </c>
@@ -4111,7 +4058,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="G32" s="1">
         <v>10003</v>
@@ -4149,7 +4096,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="G33" s="1">
         <v>10003</v>
@@ -4173,7 +4120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1114</v>
       </c>
@@ -4187,7 +4134,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="G34" s="1">
         <v>10003</v>
@@ -4211,7 +4158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1115</v>
       </c>
@@ -4224,7 +4171,7 @@
       <c r="D35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G35" s="1">
@@ -6035,7 +5982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>1131</v>
       </c>
@@ -6049,7 +5996,7 @@
         <v>198</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G83" s="1">
         <v>10003</v>
@@ -6073,7 +6020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>1131</v>
       </c>
@@ -6087,7 +6034,7 @@
         <v>198</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G84" s="1">
         <v>10003</v>
@@ -6125,7 +6072,7 @@
         <v>198</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G85" s="1">
         <v>10003</v>
@@ -6149,7 +6096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>1132</v>
       </c>
@@ -6163,7 +6110,7 @@
         <v>14</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="G86" s="1">
         <v>10003</v>
@@ -6187,7 +6134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>1132</v>
       </c>
@@ -6201,7 +6148,7 @@
         <v>14</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="G87" s="1">
         <v>10003</v>
@@ -6239,7 +6186,7 @@
         <v>14</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="G88" s="1">
         <v>10003</v>
@@ -6263,7 +6210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>1133</v>
       </c>
@@ -6277,7 +6224,7 @@
         <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="G89" s="1">
         <v>10003</v>
@@ -6301,7 +6248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>1133</v>
       </c>
@@ -6315,7 +6262,7 @@
         <v>14</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="G90" s="1">
         <v>10003</v>
@@ -6339,7 +6286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>1133</v>
       </c>
@@ -6353,7 +6300,7 @@
         <v>14</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="G91" s="1">
         <v>10003</v>
@@ -6391,7 +6338,7 @@
         <v>14</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="G92" s="1">
         <v>10003</v>
@@ -6415,7 +6362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>1134</v>
       </c>
@@ -6429,7 +6376,7 @@
         <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="G93" s="1">
         <v>10003</v>
@@ -6453,7 +6400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>1134</v>
       </c>
@@ -6467,7 +6414,7 @@
         <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="G94" s="1">
         <v>10003</v>
@@ -6491,7 +6438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>1135</v>
       </c>
@@ -6505,7 +6452,7 @@
         <v>14</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G95" s="1">
         <v>10003</v>
@@ -6529,7 +6476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="169" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>1135</v>
       </c>
@@ -6543,7 +6490,7 @@
         <v>14</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="G96" s="1">
         <v>10003</v>
@@ -6567,7 +6514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>1135</v>
       </c>
@@ -6581,7 +6528,7 @@
         <v>14</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="G97" s="1">
         <v>10003</v>
@@ -6605,7 +6552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>1136</v>
       </c>
@@ -6646,7 +6593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="156" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>1136</v>
       </c>
@@ -6687,7 +6634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>1136</v>
       </c>
@@ -7319,7 +7266,7 @@
         <v>252</v>
       </c>
       <c r="F115" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="G115">
         <v>10003</v>
@@ -9727,7 +9674,7 @@
         <v>216</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="G174" s="1">
         <v>10003</v>
@@ -9768,7 +9715,7 @@
         <v>216</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="G175" s="1">
         <v>10003</v>
@@ -9809,7 +9756,7 @@
         <v>216</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="G176" s="1">
         <v>10003</v>
@@ -9850,7 +9797,7 @@
         <v>216</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="G177" s="1">
         <v>10003</v>
@@ -9891,7 +9838,7 @@
         <v>216</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="G178" s="1">
         <v>10003</v>
@@ -9932,7 +9879,7 @@
         <v>216</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="G179" s="1">
         <v>10003</v>
@@ -9973,7 +9920,7 @@
         <v>216</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="G180" s="1">
         <v>10003</v>
@@ -9982,7 +9929,7 @@
         <v>54</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>18</v>
@@ -9997,7 +9944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>1162</v>
       </c>
@@ -10014,7 +9961,7 @@
         <v>216</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="G181" s="1">
         <v>10003</v>
@@ -10023,7 +9970,7 @@
         <v>71</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>34</v>
@@ -10038,7 +9985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>1162</v>
       </c>
@@ -10055,7 +10002,7 @@
         <v>216</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="G182" s="1">
         <v>10003</v>
@@ -10064,7 +10011,7 @@
         <v>80</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>43</v>

--- a/_files/requirements/master_data/master-template.xlsx
+++ b/_files/requirements/master_data/master-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B69E0A4-0D7B-4E34-858C-63E1CE0E39C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CB4F34-1B2F-4AD3-8AEC-F201A18391B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1195,55 +1195,13 @@
     <t>Modèle de carte Masked UIN</t>
   </si>
   <si>
-    <t>Hi $!name_eng,
-Your Request for Registration $!RID has failed because an UIN has been found against your details. Please visit your nearest Registration Office.
-And Visit https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>Hi $!name_eng,
-Your Request for Registration $!RID has failed because of an Technical issue please visit your nearest Registration Office.
-And Visit https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>Hi $!name_eng,
-Your UIN for the Registration $!RID has been successfully generated and will reach soon at your Postal Address.</t>
-  </si>
-  <si>
-    <t>Hi $!name_eng,
-Your UIN details have been updated corresponding to the Registration Number $!RID and a Physical Copy of your UIN will reach you soon at your Postal Address.</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
-فشل طلب التسجيل $!RID الخاص بك لأنه تم العثور على UIN مقابل بياناتك. يرجى زيارة أقرب مكتب تسجيل.
-وزيارة https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
-فشل طلب التسجيل $!RID بسبب مشكلة فنية ، يرجى زيارة أقرب مكتب تسجيل.
-وزيارة https://mosip.io/grievances</t>
-  </si>
-  <si>
     <t>$!name_ara ،
 تم إنشاء UIN الخاص بك للتسجيل $!RID بنجاح وستصل قريبًا إلى العنوان البريدي الخاص بك.</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
-تم تحديث تفاصيل UIN الخاصة بك المقابلة لرقم التسجيل $!RID وستصل إليك نسخة فعلية من UIN الخاصة بك على العنوان البريدي الخاص بك.</t>
-  </si>
-  <si>
-    <t>Hi $!name_eng,
-Your UIN has been de-activated. 
-If you have any conserns please visit the nearest Registration Center.</t>
   </si>
   <si>
     <t>$!name_ara ،
 تم إلغاء تنشيط UIN الخاص بك.
 إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_fra,
-Votre UIN a été désactivé.
-Si vous avez des intérêts, veuillez vous rendre au centre d’inscription le plus proche.</t>
   </si>
   <si>
     <t>Hi $!name_eng,
@@ -1873,88 +1831,9 @@
 &lt;/html&gt;</t>
   </si>
   <si>
-    <t>Hi $!name_eng,
-Your Request for Registration $!RID has failed because an UIN has been found against your details. Please visit your nearest Registration Office.
-And Visit https://mosip.io/grievances
-Thank You</t>
-  </si>
-  <si>
-    <t>Hi $!name_eng,
-Your Request for Registration $!RID has failed because of an Technical issue please visit your nearest Registration Office.
-And Visit https://mosip.io/grievances
-Thank You</t>
-  </si>
-  <si>
-    <t>Hi $!name_eng,
-Your UIN for the Registration $!RID has been successfully generated and will reach soon at your Postal Address.
-Thank You</t>
-  </si>
-  <si>
-    <t>Hi $!name_eng,
-Your UIN details have been updated corresponding to the Registration Number $!RID and a Physical Copy of your UIN will reach you soon at your Postal Address.
-Thank You</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
-الخاص بك لأنه تم العثور على UIN مقابل بياناتك. يرجى زيارة أقرب مكتب تسجيل $!RID فشل طلب التسجيل
-وزيارة https://mosip.io/grievances
-شكرا</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
-شل طلب التسجيل $!RID بسبب مشكلة فنية ، يرجى زيارة أقرب مكتب تسجيل.
-وزيارة https://mosip.io/grievances
-شكرا</t>
-  </si>
-  <si>
     <t>$!name_ara ،
 تم إنشاء UIN الخاص بك للتسجيل $!RID بنجاح وستصل قريبًا إلى العنوان البريدي الخاص بك.
 شكرا</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
-تم تحديث تفاصيل UIN الخاصة بك المقابلة لرقم التسجيل $!RID وستصل إليك نسخة فعلية من UIN الخاصة بك على العنوان البريدي الخاص بك.
-شكرا</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_fra,
-Votre demande d'enregistrement $!RID a échoué à cause d'un problème technique, veuillez vous rendre au bureau d'inscription le plus proche.
-Et visitez https://mosip.io/grievances
-Merci</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_fra,
-Votre UIN pour l'enregistrement $!RID a été généré avec succès et vous parviendra sous peu à votre adresse postale.
-Merci</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_fra,
-Votre demande d'enregistrement $!RID a échoué à cause d'un problème technique, veuillez vous rendre au bureau d'inscription le plus proche.
-Et visitez https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_fra,
-Votre demande d'enregistrement $!RID a échoué car un UIN a été trouvé contre vos coordonnées. Veuillez visiter votre bureau d'inscription le plus proche.
-Et visitez https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_fra,
-Votre demande d'enregistrement $!RID a échoué car un UIN a été trouvé contre vos coordonnées. Veuillez visiter votre bureau d'inscription le plus proche.
-Et visitez https://mosip.io/grievances
-Merci</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_fra,
-Les détails de votre UIN correspondant au numéro d’enregistrement $!RID ont été mis à jour et une copie physique de votre UIN vous parviendra sous peu à votre adresse postale.
-Merci</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_fra,
-Votre UIN pour l'enregistrement $!RID a été généré avec succès et vous parviendra sous peu à votre adresse postale.</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_fra,
-Les détails de votre UIN correspondant au numéro d’enregistrement $!RID ont été mis à jour et une copie physique de votre UIN vous parviendra sous peu à votre adresse postale.</t>
   </si>
   <si>
     <t>Hi $!name_eng,
@@ -1996,6 +1875,127 @@
     <t>Dear $!name,
 Your UIN Number is $!UIN. You will receive your UIN Card via. our postal service.
 Thank You</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your Request for Registration $!RID has failed because an UIN has been found against your details. Please visit your nearest Registration Office.
+And Visit https://mosip.io/grievances
+Thank You</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your Request for Registration $!RID has failed because of a Technical issue. Please visit your nearest Registration Office.
+And Visit https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your Request for Registration $!RID has failed because an UIN has been found against your details. Please visit your nearest Registration Office.
+And Visit https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your Request for Registration $!RID has failed because of a Technical issue. Please visit your nearest Registration Office.
+And Visit https://mosip.io/grievances
+Thank You</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+أخفق طلبك للتسجيل  $!RID نظرًا لأنه تم العثور على UIN مقابل تفاصيلك. يرجى زيارة أقرب مكتب تسجيل.
+وزيارة https://mosip.io/grievances
+شكرا</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+أخفق طلبك للتسجيل  $!RID نظرًا لأنه تم العثور على UIN مقابل تفاصيلك. يرجى زيارة أقرب مكتب تسجيل.
+وزيارة https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+فشل طلب التسجيل $!RID بسبب مشكلة فنية. يرجى زيارة أقرب مكتب تسجيل.
+وزيارة https://mosip.io/grievances
+شكرا</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+فشل طلب التسجيل $!RID بسبب مشكلة فنية. يرجى زيارة أقرب مكتب تسجيل.
+وزيارة https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>Dear $name_eng,
+Your UIN for Registration ID: $!RID has been successfully generated and will reach soon at your postal address.
+Thank You</t>
+  </si>
+  <si>
+    <t>Dear $name_eng,
+Your UIN for Registration ID: $!RID has been successfully generated and will reach soon at your postal address.</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your UIN details have been updated corresponding to the Registration ID: $!RID and a physical copy of your UIN will reach you soon at your postal address.
+Thank You</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your UIN details have been updated corresponding to the Registration ID: $!RID and a physical copy of your UIN will reach you soon at your postal address.</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+تم تحديث تفاصيل UIN المطابقة لمعرف التسجيل: $!RID وسوف تصل إليك نسخة مادية من UIN في عنوانك البريدي قريبًا.
+شكرا</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+تم تحديث تفاصيل UIN المطابقة لمعرف التسجيل: $!RID وسوف تصل إليك نسخة مادية من UIN في عنوانك البريدي قريبًا.</t>
+  </si>
+  <si>
+    <t>Cher $!name_eng,
+Votre demande d'enregistrement $!RID a échoué car un UIN a été trouvé contre vos coordonnées. Veuillez vous rendre au bureau d'inscription le plus proche.
+Et visitez https://mosip.io/grievances
+Merci</t>
+  </si>
+  <si>
+    <t>Cher $!name_eng,
+Votre demande d'enregistrement $!RID a échoué car un UIN a été trouvé contre vos coordonnées. Veuillez vous rendre au bureau d'inscription le plus proche.
+Et visitez https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>Cher $!name_eng,
+Votre demande d'enregistrement $!RID a échoué à cause d'un problème technique. Veuillez vous rendre au bureau d'inscription le plus proche.
+Et visitez https://mosip.io/grievances
+Merci</t>
+  </si>
+  <si>
+    <t>Cher $!name_eng,
+Votre demande d'enregistrement $!RID a échoué à cause d'un problème technique. Veuillez vous rendre au bureau d'inscription le plus proche.
+Et visitez https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>Cher $!name_eng,
+Votre UIN pour ID d’enregistrement: $!RID a été généré avec succès et vous parviendra sous peu à votre adresse postale.
+Merci</t>
+  </si>
+  <si>
+    <t>Cher $!name_eng,
+Votre UIN pour ID d’enregistrement: $!RID a été généré avec succès et vous parviendra sous peu à votre adresse postale.</t>
+  </si>
+  <si>
+    <t>Cher $!name_eng,
+Les détails de votre UIN correspondant à l’ID d’enregistrement: $!RID ont été mis à jour. Une copie physique de votre UIN vous parviendra sous peu à votre adresse postale.
+Merci</t>
+  </si>
+  <si>
+    <t>Cher $!name_eng,
+Les détails de votre UIN correspondant à l’ID d’enregistrement: $!RID ont été mis à jour. Une copie physique de votre UIN vous parviendra sous peu à votre adresse postale.</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Votre UIN a été désactivé.
+Si vous avez des intérêts, veuillez vous rendre au centre d’enregistrement le plus proche.</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your UIN has been de-activated. 
+If you have any conserns please visit the nearest Registration Center.</t>
   </si>
 </sst>
 </file>
@@ -2843,10 +2843,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="81" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E168" sqref="E168"/>
+    <sheetView tabSelected="1" topLeftCell="C86" zoomScale="81" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2904,7 +2905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1101</v>
       </c>
@@ -2942,7 +2943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1102</v>
       </c>
@@ -2980,7 +2981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1103</v>
       </c>
@@ -3018,7 +3019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1101</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1102</v>
       </c>
@@ -3094,7 +3095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1103</v>
       </c>
@@ -3132,7 +3133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1101</v>
       </c>
@@ -3170,7 +3171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1102</v>
       </c>
@@ -3208,7 +3209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1103</v>
       </c>
@@ -3260,7 +3261,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G11" s="1">
         <v>10003</v>
@@ -3298,7 +3299,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="G12" s="1">
         <v>10003</v>
@@ -3336,7 +3337,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G13" s="1">
         <v>10003</v>
@@ -3374,7 +3375,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="G14" s="1">
         <v>10003</v>
@@ -3412,7 +3413,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G15" s="1">
         <v>10003</v>
@@ -3450,7 +3451,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="G16" s="1">
         <v>10003</v>
@@ -3488,7 +3489,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="G17" s="1">
         <v>10003</v>
@@ -3526,7 +3527,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="G18" s="1">
         <v>10003</v>
@@ -3564,7 +3565,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G19" s="1">
         <v>10003</v>
@@ -3602,7 +3603,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="G20" s="1">
         <v>10003</v>
@@ -3678,7 +3679,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="G22" s="1">
         <v>10003</v>
@@ -3716,7 +3717,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="G23" s="1">
         <v>10003</v>
@@ -3754,7 +3755,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G24" s="1">
         <v>10003</v>
@@ -3792,7 +3793,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G25" s="1">
         <v>10003</v>
@@ -3830,7 +3831,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="G26" s="1">
         <v>10003</v>
@@ -3868,7 +3869,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G27" s="1">
         <v>10003</v>
@@ -3906,7 +3907,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G28" s="1">
         <v>10003</v>
@@ -3930,7 +3931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1109</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="G29" s="1">
         <v>10003</v>
@@ -3982,7 +3983,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="G30" s="1">
         <v>10003</v>
@@ -4020,7 +4021,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="G31" s="1">
         <v>10003</v>
@@ -4058,7 +4059,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G32" s="1">
         <v>10003</v>
@@ -4096,7 +4097,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G33" s="1">
         <v>10003</v>
@@ -4134,7 +4135,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="G34" s="1">
         <v>10003</v>
@@ -4158,7 +4159,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1115</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1116</v>
       </c>
@@ -4234,7 +4235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1117</v>
       </c>
@@ -4272,7 +4273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1118</v>
       </c>
@@ -4310,7 +4311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1119</v>
       </c>
@@ -4348,7 +4349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1120</v>
       </c>
@@ -4386,7 +4387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1121</v>
       </c>
@@ -4424,7 +4425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1122</v>
       </c>
@@ -4462,7 +4463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1123</v>
       </c>
@@ -4500,7 +4501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1115</v>
       </c>
@@ -4538,7 +4539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1116</v>
       </c>
@@ -4576,7 +4577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>1117</v>
       </c>
@@ -4614,7 +4615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>1118</v>
       </c>
@@ -4652,7 +4653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>1119</v>
       </c>
@@ -4690,7 +4691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1120</v>
       </c>
@@ -4728,7 +4729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1121</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>1122</v>
       </c>
@@ -4804,7 +4805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>1123</v>
       </c>
@@ -4842,7 +4843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>1115</v>
       </c>
@@ -4880,7 +4881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>1116</v>
       </c>
@@ -4918,7 +4919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>1117</v>
       </c>
@@ -4956,7 +4957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>1118</v>
       </c>
@@ -4994,7 +4995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>1119</v>
       </c>
@@ -5032,7 +5033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>1120</v>
       </c>
@@ -5070,7 +5071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>1121</v>
       </c>
@@ -5108,7 +5109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>1122</v>
       </c>
@@ -5146,7 +5147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>1123</v>
       </c>
@@ -5184,7 +5185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>1124</v>
       </c>
@@ -5222,7 +5223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>1125</v>
       </c>
@@ -5260,7 +5261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>1126</v>
       </c>
@@ -5298,7 +5299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>1127</v>
       </c>
@@ -5336,7 +5337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>1128</v>
       </c>
@@ -5374,7 +5375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>1129</v>
       </c>
@@ -5412,7 +5413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>1124</v>
       </c>
@@ -5450,7 +5451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>1125</v>
       </c>
@@ -5488,7 +5489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>1126</v>
       </c>
@@ -5526,7 +5527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>1127</v>
       </c>
@@ -5564,7 +5565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>1128</v>
       </c>
@@ -5602,7 +5603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>1129</v>
       </c>
@@ -5640,7 +5641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>1124</v>
       </c>
@@ -5678,7 +5679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>1125</v>
       </c>
@@ -5716,7 +5717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>1126</v>
       </c>
@@ -5754,7 +5755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>1127</v>
       </c>
@@ -5792,7 +5793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>1128</v>
       </c>
@@ -5830,7 +5831,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>1129</v>
       </c>
@@ -5868,7 +5869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>1130</v>
       </c>
@@ -5906,7 +5907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>1130</v>
       </c>
@@ -5944,7 +5945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>1130</v>
       </c>
@@ -5996,7 +5997,7 @@
         <v>198</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="G83" s="1">
         <v>10003</v>
@@ -6034,7 +6035,7 @@
         <v>198</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G84" s="1">
         <v>10003</v>
@@ -6072,7 +6073,7 @@
         <v>198</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G85" s="1">
         <v>10003</v>
@@ -6110,7 +6111,7 @@
         <v>14</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="G86" s="1">
         <v>10003</v>
@@ -6148,7 +6149,7 @@
         <v>14</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G87" s="1">
         <v>10003</v>
@@ -6186,7 +6187,7 @@
         <v>14</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="G88" s="1">
         <v>10003</v>
@@ -6224,7 +6225,7 @@
         <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="G89" s="1">
         <v>10003</v>
@@ -6262,7 +6263,7 @@
         <v>14</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="G90" s="1">
         <v>10003</v>
@@ -6300,7 +6301,7 @@
         <v>14</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="G91" s="1">
         <v>10003</v>
@@ -6338,7 +6339,7 @@
         <v>14</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G92" s="1">
         <v>10003</v>
@@ -6376,7 +6377,7 @@
         <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="G93" s="1">
         <v>10003</v>
@@ -6414,7 +6415,7 @@
         <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G94" s="1">
         <v>10003</v>
@@ -6452,7 +6453,7 @@
         <v>14</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="G95" s="1">
         <v>10003</v>
@@ -6490,7 +6491,7 @@
         <v>14</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="G96" s="1">
         <v>10003</v>
@@ -6528,7 +6529,7 @@
         <v>14</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="G97" s="1">
         <v>10003</v>
@@ -6552,7 +6553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>1136</v>
       </c>
@@ -6593,7 +6594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>1136</v>
       </c>
@@ -6634,7 +6635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>1136</v>
       </c>
@@ -6675,7 +6676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>1137</v>
       </c>
@@ -6716,7 +6717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>1137</v>
       </c>
@@ -6757,7 +6758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>1137</v>
       </c>
@@ -6798,7 +6799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>1138</v>
       </c>
@@ -6839,7 +6840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>1138</v>
       </c>
@@ -6880,7 +6881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>1138</v>
       </c>
@@ -6921,7 +6922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>1139</v>
       </c>
@@ -6962,7 +6963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>1139</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>1139</v>
       </c>
@@ -7044,7 +7045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>1140</v>
       </c>
@@ -7085,7 +7086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>1140</v>
       </c>
@@ -7126,7 +7127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>1140</v>
       </c>
@@ -7167,7 +7168,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>249</v>
       </c>
@@ -7208,7 +7209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>256</v>
       </c>
@@ -7266,7 +7267,7 @@
         <v>252</v>
       </c>
       <c r="F115" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="G115">
         <v>10003</v>
@@ -7290,7 +7291,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>258</v>
       </c>
@@ -7331,7 +7332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>1141</v>
       </c>
@@ -7372,7 +7373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>1141</v>
       </c>
@@ -7413,7 +7414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>1141</v>
       </c>
@@ -7454,7 +7455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>1142</v>
       </c>
@@ -7495,7 +7496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1142</v>
       </c>
@@ -7536,7 +7537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1142</v>
       </c>
@@ -7577,7 +7578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>1143</v>
       </c>
@@ -7618,7 +7619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>1143</v>
       </c>
@@ -7659,7 +7660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1143</v>
       </c>
@@ -7700,7 +7701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1144</v>
       </c>
@@ -7741,7 +7742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>1144</v>
       </c>
@@ -7782,7 +7783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>1144</v>
       </c>
@@ -7823,7 +7824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1145</v>
       </c>
@@ -7864,7 +7865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1145</v>
       </c>
@@ -7905,7 +7906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>1145</v>
       </c>
@@ -7946,7 +7947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>1146</v>
       </c>
@@ -7987,7 +7988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1146</v>
       </c>
@@ -8028,7 +8029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>1146</v>
       </c>
@@ -8069,7 +8070,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>1147</v>
       </c>
@@ -8110,7 +8111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>1147</v>
       </c>
@@ -8151,7 +8152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>1147</v>
       </c>
@@ -8192,7 +8193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>1148</v>
       </c>
@@ -8233,7 +8234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>1148</v>
       </c>
@@ -8274,7 +8275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>1148</v>
       </c>
@@ -8315,7 +8316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>1149</v>
       </c>
@@ -8356,7 +8357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>1149</v>
       </c>
@@ -8397,7 +8398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>1149</v>
       </c>
@@ -8438,7 +8439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>1150</v>
       </c>
@@ -8479,7 +8480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>1150</v>
       </c>
@@ -8520,7 +8521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>1150</v>
       </c>
@@ -8561,7 +8562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>1151</v>
       </c>
@@ -8602,7 +8603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>1151</v>
       </c>
@@ -8643,7 +8644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>1151</v>
       </c>
@@ -8682,7 +8683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>1152</v>
       </c>
@@ -8723,7 +8724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>1152</v>
       </c>
@@ -8764,7 +8765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>1152</v>
       </c>
@@ -8805,7 +8806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>1153</v>
       </c>
@@ -8846,7 +8847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>1153</v>
       </c>
@@ -8887,7 +8888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>1153</v>
       </c>
@@ -8928,7 +8929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>1154</v>
       </c>
@@ -8966,7 +8967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>1154</v>
       </c>
@@ -9004,7 +9005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>1154</v>
       </c>
@@ -9042,7 +9043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>1155</v>
       </c>
@@ -9083,7 +9084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1155</v>
       </c>
@@ -9124,7 +9125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>1155</v>
       </c>
@@ -9165,7 +9166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>1156</v>
       </c>
@@ -9206,7 +9207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>1156</v>
       </c>
@@ -9247,7 +9248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>1156</v>
       </c>
@@ -9288,7 +9289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>1157</v>
       </c>
@@ -9329,7 +9330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>1157</v>
       </c>
@@ -9370,7 +9371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>1157</v>
       </c>
@@ -9411,7 +9412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1158</v>
       </c>
@@ -9452,7 +9453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>1158</v>
       </c>
@@ -9493,7 +9494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1158</v>
       </c>
@@ -9534,7 +9535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>1159</v>
       </c>
@@ -9575,7 +9576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>1159</v>
       </c>
@@ -9616,7 +9617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>1159</v>
       </c>
@@ -9674,7 +9675,7 @@
         <v>216</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="G174" s="1">
         <v>10003</v>
@@ -9715,7 +9716,7 @@
         <v>216</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G175" s="1">
         <v>10003</v>
@@ -9756,7 +9757,7 @@
         <v>216</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="G176" s="1">
         <v>10003</v>
@@ -9797,7 +9798,7 @@
         <v>216</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="G177" s="1">
         <v>10003</v>
@@ -9838,7 +9839,7 @@
         <v>216</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G178" s="1">
         <v>10003</v>
@@ -9879,7 +9880,7 @@
         <v>216</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="G179" s="1">
         <v>10003</v>
@@ -9920,7 +9921,7 @@
         <v>216</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G180" s="1">
         <v>10003</v>
@@ -9929,7 +9930,7 @@
         <v>54</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>18</v>
@@ -9961,7 +9962,7 @@
         <v>216</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G181" s="1">
         <v>10003</v>
@@ -9970,7 +9971,7 @@
         <v>71</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>34</v>
@@ -10002,7 +10003,7 @@
         <v>216</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G182" s="1">
         <v>10003</v>
@@ -10011,7 +10012,7 @@
         <v>80</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>43</v>
@@ -10027,7 +10028,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M182" xr:uid="{606D01AB-69AF-42F0-9A8A-DE1226555770}"/>
+  <autoFilter ref="A1:M182" xr:uid="{606D01AB-69AF-42F0-9A8A-DE1226555770}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="10003"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/_files/requirements/master_data/master-template.xlsx
+++ b/_files/requirements/master_data/master-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CB4F34-1B2F-4AD3-8AEC-F201A18391B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B9CA68-E7A5-41D0-8889-575425AB43F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="385">
   <si>
     <t>id</t>
   </si>
@@ -1204,32 +1204,7 @@
 إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.</t>
   </si>
   <si>
-    <t>Hi $!name_eng,
-Your UIN $!UIN has been re-activated. 
-If you have any conserns please visit the nearest Registration Center.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> $!name_ara ،
-تمت إعادة تنشيط UIN الخاص بك.
-إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.</t>
-  </si>
-  <si>
-    <t>Bonjour $!name_fra,
-Votre UIN a été réactivé.
-Si vous avez des intérêts, veuillez vous rendre au centre d’inscription le plus proche.</t>
-  </si>
-  <si>
     <t>Please find the OTP $!otp</t>
-  </si>
-  <si>
-    <t>عزيزي $!name ،
-رقم UIN الخاص بك هو $!UIN. سوف تتلقى بطاقة UIN الخاصة بك عبر. خدمتنا البريدية.
-شكر</t>
-  </si>
-  <si>
-    <t>Cher $!name,
-Votre numéro UIN est $!UIN. Vous recevrez votre carte UIN via. notre service postal.
-Merci</t>
   </si>
   <si>
     <t>RPR_MASKED_UIN_CARD_TEMPLATE</t>
@@ -1836,42 +1811,18 @@
 شكرا</t>
   </si>
   <si>
-    <t>Hi $!name_eng,
-Your UIN has been de-activated. 
-If you have any conserns please visit the nearest Registration Center.
-Thank You</t>
-  </si>
-  <si>
     <t>$!name_ara ،
 تم إلغاء تنشيط UIN الخاص بك.
 إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.
 شكرا</t>
   </si>
   <si>
-    <t>Bonjour $!name_fra,
-Votre UIN a été désactivé.
-Si vous avez des intérêts, veuillez vous rendre au centre d’inscription le plus proche.
-Merci</t>
-  </si>
-  <si>
-    <t>Hi $!name_eng,
-Your UIN $!UIN has been re-activated. 
-If you have any conserns please visit the nearest Registration Center.
-Thank You</t>
-  </si>
-  <si>
     <t>$!name_ara ،
 تمت إعادة تنشيط UIN الخاص بك.
 إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.
 شكرا</t>
   </si>
   <si>
-    <t>Bonjour $!name_fra,
-Votre UIN a été réactivé.
-Si vous avez des intérêts, veuillez vous rendre au centre d’inscription le plus proche.
-Merci</t>
-  </si>
-  <si>
     <t>Dear $!name,
 Your UIN Number is $!UIN. You will receive your UIN Card via. our postal service.
 Thank You</t>
@@ -1948,54 +1899,108 @@
 تم تحديث تفاصيل UIN المطابقة لمعرف التسجيل: $!RID وسوف تصل إليك نسخة مادية من UIN في عنوانك البريدي قريبًا.</t>
   </si>
   <si>
-    <t>Cher $!name_eng,
+    <t>Cher $!name_fra,
+Votre UIN a été désactivé.
+Si vous avez des intérêts, veuillez vous rendre au centre d’enregistrement le plus proche.</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your UIN has been de-activated. 
+If you have any conserns please visit the nearest Registration Center.</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your UIN has been de-activated. 
+If you have any conserns please visit the nearest Registration Center.
+Thank You</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Votre UIN a été désactivé.
+Si vous avez des intérêts, veuillez vous rendre au centre d’enregistrement le plus proche.
+Merci</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your UIN $!UIN has been re-activated. 
+If you have any conserns please visit the nearest Registration Center.</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your UIN has been re-activated. 
+If you have any conserns please visit the nearest Registration Center.
+Thank You</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Votre UIN a été réactivé.
+Si vous avez des intérêts, veuillez vous rendre au centre d’enregistrement le plus proche.</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+تمت إعادة تنشيط UIN الخاص بك.
+إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.</t>
+  </si>
+  <si>
+    <t>Dear $name_eng,
+Your UIN is Found. You will receive your UIN Card soon at your Postal Address.
+Thank You</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Votre UIN est trouvé. Vous recevrez bientôt votre carte UIN à votre adresse postale.
+Merci</t>
+  </si>
+  <si>
+    <t>$!name_ara،
+تم العثور على UIN الخاص بك. ستتلقى بطاقة UIN الخاصة بك قريبًا على عنوانك البريدي.
+شكرا</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
 Votre demande d'enregistrement $!RID a échoué car un UIN a été trouvé contre vos coordonnées. Veuillez vous rendre au bureau d'inscription le plus proche.
 Et visitez https://mosip.io/grievances
 Merci</t>
   </si>
   <si>
-    <t>Cher $!name_eng,
+    <t>Cher $!name_fra,
 Votre demande d'enregistrement $!RID a échoué car un UIN a été trouvé contre vos coordonnées. Veuillez vous rendre au bureau d'inscription le plus proche.
 Et visitez https://mosip.io/grievances</t>
   </si>
   <si>
-    <t>Cher $!name_eng,
+    <t>Cher $!name_fra,
 Votre demande d'enregistrement $!RID a échoué à cause d'un problème technique. Veuillez vous rendre au bureau d'inscription le plus proche.
 Et visitez https://mosip.io/grievances
 Merci</t>
   </si>
   <si>
-    <t>Cher $!name_eng,
+    <t>Cher $!name_fra,
 Votre demande d'enregistrement $!RID a échoué à cause d'un problème technique. Veuillez vous rendre au bureau d'inscription le plus proche.
 Et visitez https://mosip.io/grievances</t>
   </si>
   <si>
-    <t>Cher $!name_eng,
+    <t>Cher $!name_fra,
 Votre UIN pour ID d’enregistrement: $!RID a été généré avec succès et vous parviendra sous peu à votre adresse postale.
 Merci</t>
   </si>
   <si>
-    <t>Cher $!name_eng,
+    <t>Cher $!name_fra,
 Votre UIN pour ID d’enregistrement: $!RID a été généré avec succès et vous parviendra sous peu à votre adresse postale.</t>
   </si>
   <si>
-    <t>Cher $!name_eng,
+    <t>Cher $!name_fra,
 Les détails de votre UIN correspondant à l’ID d’enregistrement: $!RID ont été mis à jour. Une copie physique de votre UIN vous parviendra sous peu à votre adresse postale.
 Merci</t>
   </si>
   <si>
-    <t>Cher $!name_eng,
+    <t>Cher $!name_fra,
 Les détails de votre UIN correspondant à l’ID d’enregistrement: $!RID ont été mis à jour. Une copie physique de votre UIN vous parviendra sous peu à votre adresse postale.</t>
   </si>
   <si>
     <t>Cher $!name_fra,
-Votre UIN a été désactivé.
-Si vous avez des intérêts, veuillez vous rendre au centre d’enregistrement le plus proche.</t>
-  </si>
-  <si>
-    <t>Dear $!name_eng,
-Your UIN has been de-activated. 
-If you have any conserns please visit the nearest Registration Center.</t>
+Votre UIN a été réactivé.
+Si vous avez des intérêts, veuillez vous rendre au centre d’enregistrement le plus proche.
+Merci</t>
   </si>
 </sst>
 </file>
@@ -2846,8 +2851,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C86" zoomScale="81" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="81" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3261,7 +3266,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G11" s="1">
         <v>10003</v>
@@ -3299,7 +3304,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="G12" s="1">
         <v>10003</v>
@@ -3323,7 +3328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="114.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1109</v>
       </c>
@@ -3337,7 +3342,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="G13" s="1">
         <v>10003</v>
@@ -3361,7 +3366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1110</v>
       </c>
@@ -3375,7 +3380,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="G14" s="1">
         <v>10003</v>
@@ -3413,7 +3418,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G15" s="1">
         <v>10003</v>
@@ -3451,7 +3456,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="G16" s="1">
         <v>10003</v>
@@ -3475,7 +3480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="113" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1113</v>
       </c>
@@ -3489,7 +3494,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G17" s="1">
         <v>10003</v>
@@ -3513,7 +3518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1114</v>
       </c>
@@ -3527,7 +3532,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="G18" s="1">
         <v>10003</v>
@@ -3565,7 +3570,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="G19" s="1">
         <v>10003</v>
@@ -3603,7 +3608,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="G20" s="1">
         <v>10003</v>
@@ -3641,7 +3646,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G21" s="1">
         <v>10003</v>
@@ -3679,7 +3684,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G22" s="1">
         <v>10003</v>
@@ -3717,7 +3722,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G23" s="1">
         <v>10003</v>
@@ -3793,7 +3798,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G25" s="1">
         <v>10003</v>
@@ -3831,7 +3836,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="G26" s="1">
         <v>10003</v>
@@ -3869,7 +3874,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G27" s="1">
         <v>10003</v>
@@ -3907,7 +3912,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G28" s="1">
         <v>10003</v>
@@ -3945,7 +3950,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G29" s="1">
         <v>10003</v>
@@ -3983,7 +3988,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G30" s="1">
         <v>10003</v>
@@ -4021,7 +4026,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G31" s="1">
         <v>10003</v>
@@ -4059,7 +4064,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G32" s="1">
         <v>10003</v>
@@ -4097,7 +4102,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G33" s="1">
         <v>10003</v>
@@ -4135,7 +4140,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G34" s="1">
         <v>10003</v>
@@ -5997,7 +6002,7 @@
         <v>198</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G83" s="1">
         <v>10003</v>
@@ -6035,7 +6040,7 @@
         <v>198</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G84" s="1">
         <v>10003</v>
@@ -6073,7 +6078,7 @@
         <v>198</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G85" s="1">
         <v>10003</v>
@@ -6111,7 +6116,7 @@
         <v>14</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="G86" s="1">
         <v>10003</v>
@@ -6187,7 +6192,7 @@
         <v>14</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="G88" s="1">
         <v>10003</v>
@@ -6225,7 +6230,7 @@
         <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="G89" s="1">
         <v>10003</v>
@@ -6263,7 +6268,7 @@
         <v>14</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G90" s="1">
         <v>10003</v>
@@ -6301,7 +6306,7 @@
         <v>14</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="G91" s="1">
         <v>10003</v>
@@ -6339,7 +6344,7 @@
         <v>14</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="G92" s="1">
         <v>10003</v>
@@ -6377,7 +6382,7 @@
         <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="G93" s="1">
         <v>10003</v>
@@ -6415,7 +6420,7 @@
         <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="G94" s="1">
         <v>10003</v>
@@ -6453,7 +6458,7 @@
         <v>14</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="G95" s="1">
         <v>10003</v>
@@ -6491,7 +6496,7 @@
         <v>14</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G96" s="1">
         <v>10003</v>
@@ -6529,7 +6534,7 @@
         <v>14</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="G97" s="1">
         <v>10003</v>
@@ -7267,7 +7272,7 @@
         <v>252</v>
       </c>
       <c r="F115" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G115">
         <v>10003</v>
@@ -9658,7 +9663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>1160</v>
       </c>
@@ -9675,7 +9680,7 @@
         <v>216</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="G174" s="1">
         <v>10003</v>
@@ -9716,7 +9721,7 @@
         <v>216</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="G175" s="1">
         <v>10003</v>
@@ -9757,7 +9762,7 @@
         <v>216</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="G176" s="1">
         <v>10003</v>
@@ -9798,7 +9803,7 @@
         <v>216</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G177" s="1">
         <v>10003</v>
@@ -9839,7 +9844,7 @@
         <v>216</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="G178" s="1">
         <v>10003</v>
@@ -9880,7 +9885,7 @@
         <v>216</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="G179" s="1">
         <v>10003</v>
@@ -9921,7 +9926,7 @@
         <v>216</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G180" s="1">
         <v>10003</v>
@@ -9930,7 +9935,7 @@
         <v>54</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>18</v>
@@ -9962,7 +9967,7 @@
         <v>216</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G181" s="1">
         <v>10003</v>
@@ -9971,7 +9976,7 @@
         <v>71</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>34</v>
@@ -10003,7 +10008,7 @@
         <v>216</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G182" s="1">
         <v>10003</v>
@@ -10012,7 +10017,7 @@
         <v>80</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>43</v>

--- a/_files/requirements/master_data/master-template.xlsx
+++ b/_files/requirements/master_data/master-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B9CA68-E7A5-41D0-8889-575425AB43F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607D97F6-81C6-49E8-B693-F325B4C7AC94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1828,28 +1828,6 @@
 Thank You</t>
   </si>
   <si>
-    <t>Dear $!name_eng,
-Your Request for Registration $!RID has failed because an UIN has been found against your details. Please visit your nearest Registration Office.
-And Visit https://mosip.io/grievances
-Thank You</t>
-  </si>
-  <si>
-    <t>Dear $!name_eng,
-Your Request for Registration $!RID has failed because of a Technical issue. Please visit your nearest Registration Office.
-And Visit https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>Dear $!name_eng,
-Your Request for Registration $!RID has failed because an UIN has been found against your details. Please visit your nearest Registration Office.
-And Visit https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>Dear $!name_eng,
-Your Request for Registration $!RID has failed because of a Technical issue. Please visit your nearest Registration Office.
-And Visit https://mosip.io/grievances
-Thank You</t>
-  </si>
-  <si>
     <t>$!name_ara ،
 أخفق طلبك للتسجيل  $!RID نظرًا لأنه تم العثور على UIN مقابل تفاصيلك. يرجى زيارة أقرب مكتب تسجيل.
 وزيارة https://mosip.io/grievances
@@ -1881,15 +1859,6 @@
 Your UIN for Registration ID: $!RID has been successfully generated and will reach soon at your postal address.</t>
   </si>
   <si>
-    <t>Dear $!name_eng,
-Your UIN details have been updated corresponding to the Registration ID: $!RID and a physical copy of your UIN will reach you soon at your postal address.
-Thank You</t>
-  </si>
-  <si>
-    <t>Dear $!name_eng,
-Your UIN details have been updated corresponding to the Registration ID: $!RID and a physical copy of your UIN will reach you soon at your postal address.</t>
-  </si>
-  <si>
     <t>$!name_ara ،
 تم تحديث تفاصيل UIN المطابقة لمعرف التسجيل: $!RID وسوف تصل إليك نسخة مادية من UIN في عنوانك البريدي قريبًا.
 شكرا</t>
@@ -1922,11 +1891,6 @@
   </si>
   <si>
     <t>Dear $!name_eng,
-Your UIN $!UIN has been re-activated. 
-If you have any conserns please visit the nearest Registration Center.</t>
-  </si>
-  <si>
-    <t>Dear $!name_eng,
 Your UIN has been re-activated. 
 If you have any conserns please visit the nearest Registration Center.
 Thank You</t>
@@ -2001,6 +1965,38 @@
 Votre UIN a été réactivé.
 Si vous avez des intérêts, veuillez vous rendre au centre d’enregistrement le plus proche.
 Merci</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your request for UIN for Registration ID: $!RID has failed because a duplicate UIN has been found against your details. Please visit your nearest Registration office or visit https://mosip.io/grievances
+Thank You</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your request for UIN for Registration ID: $!RID has failed because a duplicate UIN has been found against your details. Please visit your nearest Registration office or visit https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your request for UIN for Registration $!RID has failed because of a technical issue. Please visit your nearest Registration office or visit https://mosip.io/grievances
+Thank You</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your request for UIN for Registration $!RID has failed because of a technical issue. Please visit your nearest Registration office or visit https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your UIN details for the Registration ID: $!RID have been updated and a physical copy of your UIN card will reach you soon at your postal address.
+Thank You</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your UIN details for the Registration ID: $!RID have been updated and a physical copy of your UIN card will reach you soon at your postal address.</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your UIN has been re-activated. 
+If you have any conserns please visit the nearest Registration Center.</t>
   </si>
 </sst>
 </file>
@@ -2851,8 +2847,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="81" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="81" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3266,7 +3262,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="G11" s="1">
         <v>10003</v>
@@ -3304,7 +3300,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="G12" s="1">
         <v>10003</v>
@@ -3342,7 +3338,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="G13" s="1">
         <v>10003</v>
@@ -3366,7 +3362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="99.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1110</v>
       </c>
@@ -3380,7 +3376,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="G14" s="1">
         <v>10003</v>
@@ -3418,7 +3414,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G15" s="1">
         <v>10003</v>
@@ -3456,7 +3452,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G16" s="1">
         <v>10003</v>
@@ -3494,7 +3490,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="G17" s="1">
         <v>10003</v>
@@ -3532,7 +3528,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="G18" s="1">
         <v>10003</v>
@@ -3556,7 +3552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1107</v>
       </c>
@@ -3570,7 +3566,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G19" s="1">
         <v>10003</v>
@@ -3594,7 +3590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1108</v>
       </c>
@@ -3608,7 +3604,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G20" s="1">
         <v>10003</v>
@@ -3632,7 +3628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1109</v>
       </c>
@@ -3646,7 +3642,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G21" s="1">
         <v>10003</v>
@@ -3670,7 +3666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1110</v>
       </c>
@@ -3684,7 +3680,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G22" s="1">
         <v>10003</v>
@@ -3708,7 +3704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1111</v>
       </c>
@@ -3746,7 +3742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1112</v>
       </c>
@@ -3784,7 +3780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1113</v>
       </c>
@@ -3798,7 +3794,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G25" s="1">
         <v>10003</v>
@@ -3822,7 +3818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1114</v>
       </c>
@@ -3836,7 +3832,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G26" s="1">
         <v>10003</v>
@@ -3860,7 +3856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1107</v>
       </c>
@@ -3874,7 +3870,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="G27" s="1">
         <v>10003</v>
@@ -3898,7 +3894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1108</v>
       </c>
@@ -3912,7 +3908,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G28" s="1">
         <v>10003</v>
@@ -3936,7 +3932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1109</v>
       </c>
@@ -3950,7 +3946,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="G29" s="1">
         <v>10003</v>
@@ -3974,7 +3970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1110</v>
       </c>
@@ -3988,7 +3984,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G30" s="1">
         <v>10003</v>
@@ -4012,7 +4008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1111</v>
       </c>
@@ -4026,7 +4022,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="G31" s="1">
         <v>10003</v>
@@ -4050,7 +4046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1112</v>
       </c>
@@ -4064,7 +4060,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="G32" s="1">
         <v>10003</v>
@@ -4088,7 +4084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1113</v>
       </c>
@@ -4102,7 +4098,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G33" s="1">
         <v>10003</v>
@@ -4126,7 +4122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1114</v>
       </c>
@@ -4140,7 +4136,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="G34" s="1">
         <v>10003</v>
@@ -6026,7 +6022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>1131</v>
       </c>
@@ -6064,7 +6060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>1131</v>
       </c>
@@ -6116,7 +6112,7 @@
         <v>14</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G86" s="1">
         <v>10003</v>
@@ -6140,7 +6136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>1132</v>
       </c>
@@ -6178,7 +6174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>1132</v>
       </c>
@@ -6192,7 +6188,7 @@
         <v>14</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G88" s="1">
         <v>10003</v>
@@ -6230,7 +6226,7 @@
         <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G89" s="1">
         <v>10003</v>
@@ -6254,7 +6250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>1133</v>
       </c>
@@ -6292,7 +6288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>1133</v>
       </c>
@@ -6306,7 +6302,7 @@
         <v>14</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G91" s="1">
         <v>10003</v>
@@ -6344,7 +6340,7 @@
         <v>14</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="G92" s="1">
         <v>10003</v>
@@ -6368,7 +6364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>1134</v>
       </c>
@@ -6382,7 +6378,7 @@
         <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G93" s="1">
         <v>10003</v>
@@ -6406,7 +6402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>1134</v>
       </c>
@@ -6420,7 +6416,7 @@
         <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G94" s="1">
         <v>10003</v>
@@ -6458,7 +6454,7 @@
         <v>14</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G95" s="1">
         <v>10003</v>
@@ -6482,7 +6478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>1135</v>
       </c>
@@ -6520,7 +6516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" ht="116" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>1135</v>
       </c>
@@ -6534,7 +6530,7 @@
         <v>14</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="G97" s="1">
         <v>10003</v>
@@ -7255,7 +7251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>257</v>
       </c>
@@ -9680,7 +9676,7 @@
         <v>216</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="G174" s="1">
         <v>10003</v>
@@ -9704,7 +9700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>1160</v>
       </c>
@@ -9721,7 +9717,7 @@
         <v>216</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G175" s="1">
         <v>10003</v>
@@ -9745,7 +9741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>1160</v>
       </c>
@@ -9762,7 +9758,7 @@
         <v>216</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G176" s="1">
         <v>10003</v>
@@ -9827,7 +9823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>1161</v>
       </c>
@@ -9844,7 +9840,7 @@
         <v>216</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G178" s="1">
         <v>10003</v>
@@ -9868,7 +9864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>1161</v>
       </c>
@@ -9885,7 +9881,7 @@
         <v>216</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G179" s="1">
         <v>10003</v>
@@ -9950,7 +9946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>1162</v>
       </c>
@@ -9991,7 +9987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>1162</v>
       </c>
@@ -10039,6 +10035,11 @@
         <filter val="10003"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Registration Processor"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/_files/requirements/master_data/master-template.xlsx
+++ b/_files/requirements/master_data/master-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\master_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Data Refresh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607D97F6-81C6-49E8-B693-F325B4C7AC94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5E0F933D-72AF-4823-B428-F9B929252CE6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'master-template'!$A$1:$M$182</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -932,15 +925,6 @@
     <t>consent</t>
   </si>
   <si>
-    <t>To provide consent for storage and utilization of personal information as given</t>
-  </si>
-  <si>
-    <t>لتقديم موافقة لتخزين واستخدام المعلومات الشخصية على النحو الوارد</t>
-  </si>
-  <si>
-    <t>Donner son ement pour le stockage et l'utilisation des informations personnelles telles qu'elles sont données</t>
-  </si>
-  <si>
     <t>auth otp service</t>
   </si>
   <si>
@@ -978,15 +962,6 @@
   </si>
   <si>
     <t>Message Otp</t>
-  </si>
-  <si>
-    <t>Cher $name,OTP pour UIN $uin est $otp et est valide pour $validTime minutes. (Généré le $date à $time Hrs)</t>
-  </si>
-  <si>
-    <t>عزيزي $name ،\nOTP لـ UIN $uin هو $otp وهو صالح لمدة $validTime دقيقة. (التي تم إنشاؤها على $date في $time ساعات)</t>
-  </si>
-  <si>
-    <t>Dear $name\nOTP for UIN  $uin is $otp and is valid for $validTime minutes. (Generated on $date at $time Hrs)</t>
   </si>
   <si>
     <t>OTP for UIN  $uin is $otp and is valid for $validTime minutes. (Generated on $date at $time Hrs)</t>
@@ -1166,24 +1141,6 @@
 &lt;div ${parentPhotoCaptured}&gt;&lt;div ${FaceCaptureEnabled} ${AckReceipt} class="photo"&gt;&lt;p class="applicantPhotoLabel"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="applicantPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${AckReceipt} class="photo"&gt;&lt;p class="parentPhotoLabel"&gt;${ParentPhotoPrim} / ${ParentPhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ParentImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${FaceCaptureEnabled} ${Preview} class="previewPhoto"&gt;&lt;p class="applicantPhotoLabel"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="applicantPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${Preview} class="previewPhoto"&gt;&lt;p class="parentPhotoLabel"&gt;${ParentPhotoPrim} / ${ParentPhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ParentImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;/div&gt;
 &lt;div ${parentPhotoNotCaptured}&gt;&lt;div ${FaceCaptureEnabled} ${AckReceipt} class="photo"&gt;&lt;p class="applicantPhotoLabel2"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;div ${FaceCaptureEnabled} ${Preview} class="previewPhoto"&gt;&lt;p class="applicantPhotoLabel2"&gt;${PhotoPrim} / ${PhotoSec}&lt;/p&gt;&lt;img class="parentPhoto" src="${ApplicantImageSource}" border="0" width="100" height="100"/&gt;&lt;/div&gt;&lt;/div&gt;
 &lt;div ${AckReceipt}&gt;&lt;p&gt;${ImportantGuidelines}&lt;/p&gt;&lt;ul&gt;${Guidelines}&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.previewPhoto{float:right;position:absolute;top:220px;}.photo{float:right;position:absolute;top:280px;}
-.applicantPhoto{position:absolute;top:-35px;left:500px;}
-.applicantPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:520px;}
-.parentPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:625px;}
-.applicantPhotoLabel2{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:650px;}
-.parentPhoto{position:absolute;top:-35px;left:630px;}
-.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:10px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:90px;}.leftRing{top:3px;left:103px;}.leftMiddle{top:-7px;left:119px;}.leftIndex{top:3px;left:132px;}.rightIndex{top:3px;left:105px;}.rightMiddle{top:-7px;left:119px;}.rightRing{top:3px;left:132px;}.rightLittle{top:15px;left:146px;}.leftThumb{top:-4px;left:105px;}.rightThumb{top:-4px;left:130px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.modify{float:right;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;}
-.consent-text{margin-left: 7px;margin-bottom: 4px;}
-input[type="radio"] {display: none;}
-input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}
-input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}
-*,*:before,*:after { box-sizing: border-box;}
-.consent-block label { display: inline-flex; align-items: center;}
-&lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";}
-if(element.value == "no"){div.style = "border: 2px solid #FF0000";}}
-document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;/head&gt;</t>
   </si>
   <si>
     <t>Masked UIN card template</t>
@@ -1997,6 +1954,51 @@
     <t>Dear $!name_eng,
 Your UIN has been re-activated. 
 If you have any conserns please visit the nearest Registration Center.</t>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.previewPhoto{float:right;position:absolute;top:220px;}.photo{float:right;position:absolute;top:280px;} .applicantPhoto{position:absolute;top:-35px;left:500px;} .applicantPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:520px;} .parentPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:625px;} .applicantPhotoLabel2{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:650px;} .parentPhoto{position:absolute;top:-35px;left:630px;} .form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:10px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:90px;}.leftRing{top:3px;left:103px;}.leftMiddle{top:-7px;left:119px;}.leftIndex{top:3px;left:132px;}.rightIndex{top:3px;left:105px;}.rightMiddle{top:-7px;left:119px;}.rightRing{top:3px;left:132px;}.rightLittle{top:15px;left:146px;}.leftThumb{top:-4px;left:105px;}.rightThumb{top:-4px;left:130px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.modify{float:right;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;} .consent-text{margin-left: 7px;margin-bottom: 4px;} input[type="radio"] {display: none;} input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;} input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;} *,*:before,*:after { box-sizing: border-box;} .consent-block label { display: inline-flex; align-items: center;} &lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";} if(element.value == "no"){div.style = "border: 2px solid #FF0000";}} document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"/&gt;&lt;/head&gt;</t>
+  </si>
+  <si>
+    <t>Dear $name
+OTP for UIN  $uin is $otp and is valid for $validTime minutes. (Generated on $date at $time Hrs)</t>
+  </si>
+  <si>
+    <t>Cher $name,
+OTP pour UIN $uin est $otp et est valide pour $validTime minutes. (Généré le $date à $time Hrs)</t>
+  </si>
+  <si>
+    <t>عزيزي $name ،
+OTP لـ UIN $uin هو $otp وهو صالح لمدة $validTime دقيقة. (التي تم إنشاؤها على $date في $time ساعات)</t>
+  </si>
+  <si>
+    <t>I understand that the data collected about me during pre-registration by the said authority includes my -  
+•                     Name
+•                     Date of birth
+•                     Gender
+•                     Address
+•                     Contact details
+•                     Documents
+I also understand that this information will be stored and processed for the purpose of verifying my identity in order to access various services, or to comply with a legal obligation. I give my consent for the collection of this data for this purpose.</t>
+  </si>
+  <si>
+    <t>وأنا أفهم أن البيانات التي تم جمعها عني خلال التسجيل المسبق من قبل السلطة المذكورة تشمل بلدي -
+• الاسم
+• تاريخ الميلاد
+• نوع الجنس
+• العنوان
+• تفاصيل الاتصال
+• الوثائق
+كما أفهم أنه سيتم تخزين هذه المعلومات ومعالجتها بغرض التحقق من هويتي من أجل الوصول إلى خدمات مختلفة، أو الامتثال لالتزام قانوني. وأوافق على جمع هذه البيانات لهذا الغرض.</t>
+  </si>
+  <si>
+    <t>Je comprends que les données recueillies à mon sujet lors de la pré-enregistrèrent par ladite autorité comprennent mon -
+•                     nom
+•                     Date de naissance
+•                     genre
+•                     adresse
+•                     coordonnées
+•                     Documents
+Je comprends également que ces informations seront stockées et traitées dans le but de vérifier mon identité afin d'accéder à divers services, ou de se conformer à une obligation légale. Je donne mon consentement pour la collecte de ces données à cette fin.</t>
   </si>
 </sst>
 </file>
@@ -2487,7 +2489,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2844,11 +2846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="81" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2856,7 +2857,7 @@
     <col min="1" max="1" width="6.453125" style="1" customWidth="1"/>
     <col min="2" max="3" width="55.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.7265625" style="1"/>
-    <col min="6" max="6" width="36" style="1" customWidth="1"/>
+    <col min="6" max="6" width="99.08984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.1796875" style="1" bestFit="1" customWidth="1"/>
@@ -2906,7 +2907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1101</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1102</v>
       </c>
@@ -2982,7 +2983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1103</v>
       </c>
@@ -3020,7 +3021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1101</v>
       </c>
@@ -3033,7 +3034,7 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>259</v>
       </c>
       <c r="G5" s="1">
@@ -3058,7 +3059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1102</v>
       </c>
@@ -3096,7 +3097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1103</v>
       </c>
@@ -3134,7 +3135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1101</v>
       </c>
@@ -3172,7 +3173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1102</v>
       </c>
@@ -3210,7 +3211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1103</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1107</v>
       </c>
@@ -3261,8 +3262,8 @@
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>378</v>
+      <c r="F11" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="G11" s="1">
         <v>10003</v>
@@ -3286,7 +3287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1108</v>
       </c>
@@ -3299,8 +3300,8 @@
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>379</v>
+      <c r="F12" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="G12" s="1">
         <v>10003</v>
@@ -3337,8 +3338,8 @@
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>380</v>
+      <c r="F13" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="G13" s="1">
         <v>10003</v>
@@ -3375,8 +3376,8 @@
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>381</v>
+      <c r="F14" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="G14" s="1">
         <v>10003</v>
@@ -3400,7 +3401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1111</v>
       </c>
@@ -3413,8 +3414,8 @@
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>355</v>
+      <c r="F15" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="G15" s="1">
         <v>10003</v>
@@ -3438,7 +3439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1112</v>
       </c>
@@ -3451,8 +3452,8 @@
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>356</v>
+      <c r="F16" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="G16" s="1">
         <v>10003</v>
@@ -3489,8 +3490,8 @@
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>382</v>
+      <c r="F17" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="G17" s="1">
         <v>10003</v>
@@ -3527,8 +3528,8 @@
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>383</v>
+      <c r="F18" s="1" t="s">
+        <v>376</v>
       </c>
       <c r="G18" s="1">
         <v>10003</v>
@@ -3552,7 +3553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1107</v>
       </c>
@@ -3565,8 +3566,8 @@
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>351</v>
+      <c r="F19" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="G19" s="1">
         <v>10003</v>
@@ -3590,7 +3591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1108</v>
       </c>
@@ -3603,8 +3604,8 @@
       <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>352</v>
+      <c r="F20" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="G20" s="1">
         <v>10003</v>
@@ -3628,7 +3629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1109</v>
       </c>
@@ -3641,8 +3642,8 @@
       <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>353</v>
+      <c r="F21" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="G21" s="1">
         <v>10003</v>
@@ -3666,7 +3667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1110</v>
       </c>
@@ -3679,8 +3680,8 @@
       <c r="D22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>354</v>
+      <c r="F22" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="G22" s="1">
         <v>10003</v>
@@ -3704,7 +3705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1111</v>
       </c>
@@ -3717,8 +3718,8 @@
       <c r="D23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>347</v>
+      <c r="F23" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="G23" s="1">
         <v>10003</v>
@@ -3742,7 +3743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="58" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1112</v>
       </c>
@@ -3755,8 +3756,8 @@
       <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>339</v>
+      <c r="F24" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="G24" s="1">
         <v>10003</v>
@@ -3780,7 +3781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1113</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="G25" s="1">
         <v>10003</v>
@@ -3818,7 +3819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1114</v>
       </c>
@@ -3831,8 +3832,8 @@
       <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>358</v>
+      <c r="F26" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="G26" s="1">
         <v>10003</v>
@@ -3856,7 +3857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1107</v>
       </c>
@@ -3869,8 +3870,8 @@
       <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>369</v>
+      <c r="F27" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="G27" s="1">
         <v>10003</v>
@@ -3894,7 +3895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1108</v>
       </c>
@@ -3907,8 +3908,8 @@
       <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>370</v>
+      <c r="F28" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="G28" s="1">
         <v>10003</v>
@@ -3932,7 +3933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1109</v>
       </c>
@@ -3945,8 +3946,8 @@
       <c r="D29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>371</v>
+      <c r="F29" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="G29" s="1">
         <v>10003</v>
@@ -3970,7 +3971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1110</v>
       </c>
@@ -3983,8 +3984,8 @@
       <c r="D30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>372</v>
+      <c r="F30" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="G30" s="1">
         <v>10003</v>
@@ -4008,7 +4009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1111</v>
       </c>
@@ -4021,8 +4022,8 @@
       <c r="D31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>373</v>
+      <c r="F31" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="G31" s="1">
         <v>10003</v>
@@ -4046,7 +4047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1112</v>
       </c>
@@ -4059,8 +4060,8 @@
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>374</v>
+      <c r="F32" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="G32" s="1">
         <v>10003</v>
@@ -4084,7 +4085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="130.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1113</v>
       </c>
@@ -4097,8 +4098,8 @@
       <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>375</v>
+      <c r="F33" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="G33" s="1">
         <v>10003</v>
@@ -4122,7 +4123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1114</v>
       </c>
@@ -4135,8 +4136,8 @@
       <c r="D34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>376</v>
+      <c r="F34" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="G34" s="1">
         <v>10003</v>
@@ -4160,7 +4161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1115</v>
       </c>
@@ -4173,7 +4174,7 @@
       <c r="D35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>89</v>
       </c>
       <c r="G35" s="1">
@@ -4198,7 +4199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1116</v>
       </c>
@@ -4236,7 +4237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1117</v>
       </c>
@@ -4274,7 +4275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1118</v>
       </c>
@@ -4312,7 +4313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1119</v>
       </c>
@@ -4350,7 +4351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1120</v>
       </c>
@@ -4388,7 +4389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1121</v>
       </c>
@@ -4426,7 +4427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1122</v>
       </c>
@@ -4464,7 +4465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1123</v>
       </c>
@@ -4502,7 +4503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1115</v>
       </c>
@@ -4540,7 +4541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1116</v>
       </c>
@@ -4578,7 +4579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>1117</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>1118</v>
       </c>
@@ -4654,7 +4655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>1119</v>
       </c>
@@ -4692,7 +4693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1120</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1121</v>
       </c>
@@ -4768,7 +4769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>1122</v>
       </c>
@@ -4806,7 +4807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>1123</v>
       </c>
@@ -4844,7 +4845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>1115</v>
       </c>
@@ -4882,7 +4883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>1116</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>1117</v>
       </c>
@@ -4958,7 +4959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>1118</v>
       </c>
@@ -4996,7 +4997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>1119</v>
       </c>
@@ -5034,7 +5035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>1120</v>
       </c>
@@ -5072,7 +5073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>1121</v>
       </c>
@@ -5110,7 +5111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>1122</v>
       </c>
@@ -5148,7 +5149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>1123</v>
       </c>
@@ -5186,7 +5187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>1124</v>
       </c>
@@ -5224,7 +5225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>1125</v>
       </c>
@@ -5262,7 +5263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>1126</v>
       </c>
@@ -5300,7 +5301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>1127</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>1128</v>
       </c>
@@ -5376,7 +5377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>1129</v>
       </c>
@@ -5414,7 +5415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>1124</v>
       </c>
@@ -5452,7 +5453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>1125</v>
       </c>
@@ -5490,7 +5491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>1126</v>
       </c>
@@ -5528,7 +5529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>1127</v>
       </c>
@@ -5566,7 +5567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>1128</v>
       </c>
@@ -5604,7 +5605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>1129</v>
       </c>
@@ -5642,7 +5643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>1124</v>
       </c>
@@ -5680,7 +5681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>1125</v>
       </c>
@@ -5718,7 +5719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>1126</v>
       </c>
@@ -5756,7 +5757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>1127</v>
       </c>
@@ -5794,7 +5795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>1128</v>
       </c>
@@ -5832,7 +5833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>1129</v>
       </c>
@@ -5870,7 +5871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>1130</v>
       </c>
@@ -5908,7 +5909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>1130</v>
       </c>
@@ -5946,7 +5947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>1130</v>
       </c>
@@ -5984,7 +5985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>1131</v>
       </c>
@@ -5997,8 +5998,8 @@
       <c r="D83" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>343</v>
+      <c r="F83" s="1" t="s">
+        <v>336</v>
       </c>
       <c r="G83" s="1">
         <v>10003</v>
@@ -6022,7 +6023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>1131</v>
       </c>
@@ -6035,8 +6036,8 @@
       <c r="D84" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>344</v>
+      <c r="F84" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="G84" s="1">
         <v>10003</v>
@@ -6060,7 +6061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>1131</v>
       </c>
@@ -6073,8 +6074,8 @@
       <c r="D85" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>344</v>
+      <c r="F85" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="G85" s="1">
         <v>10003</v>
@@ -6098,7 +6099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>1132</v>
       </c>
@@ -6111,8 +6112,8 @@
       <c r="D86" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>360</v>
+      <c r="F86" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="G86" s="1">
         <v>10003</v>
@@ -6136,7 +6137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>1132</v>
       </c>
@@ -6149,8 +6150,8 @@
       <c r="D87" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>340</v>
+      <c r="F87" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="G87" s="1">
         <v>10003</v>
@@ -6174,7 +6175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>1132</v>
       </c>
@@ -6187,8 +6188,8 @@
       <c r="D88" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>359</v>
+      <c r="F88" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="G88" s="1">
         <v>10003</v>
@@ -6212,7 +6213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>1133</v>
       </c>
@@ -6225,8 +6226,8 @@
       <c r="D89" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>361</v>
+      <c r="F89" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="G89" s="1">
         <v>10003</v>
@@ -6250,7 +6251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>1133</v>
       </c>
@@ -6263,8 +6264,8 @@
       <c r="D90" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>348</v>
+      <c r="F90" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="G90" s="1">
         <v>10003</v>
@@ -6288,7 +6289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>1133</v>
       </c>
@@ -6301,8 +6302,8 @@
       <c r="D91" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>362</v>
+      <c r="F91" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="G91" s="1">
         <v>10003</v>
@@ -6326,7 +6327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>1134</v>
       </c>
@@ -6339,8 +6340,8 @@
       <c r="D92" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>384</v>
+      <c r="F92" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="G92" s="1">
         <v>10003</v>
@@ -6364,7 +6365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>1134</v>
       </c>
@@ -6377,8 +6378,8 @@
       <c r="D93" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>365</v>
+      <c r="F93" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="G93" s="1">
         <v>10003</v>
@@ -6402,7 +6403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>1134</v>
       </c>
@@ -6415,8 +6416,8 @@
       <c r="D94" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>364</v>
+      <c r="F94" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="G94" s="1">
         <v>10003</v>
@@ -6440,7 +6441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>1135</v>
       </c>
@@ -6453,8 +6454,8 @@
       <c r="D95" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>363</v>
+      <c r="F95" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="G95" s="1">
         <v>10003</v>
@@ -6478,7 +6479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>1135</v>
       </c>
@@ -6491,8 +6492,8 @@
       <c r="D96" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>349</v>
+      <c r="F96" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="G96" s="1">
         <v>10003</v>
@@ -6516,7 +6517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="116" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>1135</v>
       </c>
@@ -6529,8 +6530,8 @@
       <c r="D97" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>377</v>
+      <c r="F97" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="G97" s="1">
         <v>10003</v>
@@ -6554,7 +6555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>1136</v>
       </c>
@@ -6571,7 +6572,7 @@
         <v>216</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G98" s="1">
         <v>10005</v>
@@ -6595,7 +6596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>1136</v>
       </c>
@@ -6611,8 +6612,8 @@
       <c r="E99" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>333</v>
+      <c r="F99" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="G99" s="1">
         <v>10005</v>
@@ -6636,7 +6637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>1136</v>
       </c>
@@ -6653,7 +6654,7 @@
         <v>216</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G100" s="1">
         <v>10005</v>
@@ -6677,7 +6678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>1137</v>
       </c>
@@ -6694,7 +6695,7 @@
         <v>216</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G101" s="1">
         <v>10005</v>
@@ -6718,7 +6719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>1137</v>
       </c>
@@ -6734,8 +6735,8 @@
       <c r="E102" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>333</v>
+      <c r="F102" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="G102" s="1">
         <v>10005</v>
@@ -6759,7 +6760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>1137</v>
       </c>
@@ -6776,7 +6777,7 @@
         <v>216</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G103" s="1">
         <v>10005</v>
@@ -6800,7 +6801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>1138</v>
       </c>
@@ -6817,7 +6818,7 @@
         <v>216</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="G104" s="1">
         <v>10005</v>
@@ -6841,7 +6842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>1138</v>
       </c>
@@ -6858,7 +6859,7 @@
         <v>216</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="G105" s="1">
         <v>10005</v>
@@ -6882,7 +6883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>1138</v>
       </c>
@@ -6899,7 +6900,7 @@
         <v>216</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="G106" s="1">
         <v>10005</v>
@@ -6923,7 +6924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>1139</v>
       </c>
@@ -6940,7 +6941,7 @@
         <v>216</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G107" s="1">
         <v>10005</v>
@@ -6964,7 +6965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>1139</v>
       </c>
@@ -6981,7 +6982,7 @@
         <v>216</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G108" s="1">
         <v>10005</v>
@@ -7005,7 +7006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>1139</v>
       </c>
@@ -7022,7 +7023,7 @@
         <v>216</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G109" s="1">
         <v>10005</v>
@@ -7046,7 +7047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>1140</v>
       </c>
@@ -7087,7 +7088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>1140</v>
       </c>
@@ -7128,7 +7129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>1140</v>
       </c>
@@ -7169,14 +7170,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -7185,16 +7186,16 @@
       <c r="E113" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="1">
         <v>10001</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H113" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" s="1" t="s">
         <v>162</v>
       </c>
       <c r="J113" s="1" t="s">
@@ -7210,14 +7211,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -7226,16 +7227,16 @@
       <c r="E114" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="1">
         <v>10002</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H114" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" s="1" t="s">
         <v>162</v>
       </c>
       <c r="J114" s="1" t="s">
@@ -7251,14 +7252,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -7267,16 +7268,16 @@
       <c r="E115" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F115" t="s">
-        <v>341</v>
-      </c>
-      <c r="G115">
+      <c r="F115" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G115" s="1">
         <v>10003</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" s="1" t="s">
         <v>162</v>
       </c>
       <c r="J115" s="1" t="s">
@@ -7292,14 +7293,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -7308,16 +7309,16 @@
       <c r="E116" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="1">
         <v>10004</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" s="1" t="s">
         <v>162</v>
       </c>
       <c r="J116" s="1" t="s">
@@ -7333,7 +7334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>1141</v>
       </c>
@@ -7350,7 +7351,7 @@
         <v>216</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G117" s="1">
         <v>10005</v>
@@ -7374,7 +7375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>1141</v>
       </c>
@@ -7391,7 +7392,7 @@
         <v>216</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G118" s="1">
         <v>10005</v>
@@ -7415,7 +7416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>1141</v>
       </c>
@@ -7432,7 +7433,7 @@
         <v>216</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G119" s="1">
         <v>10005</v>
@@ -7456,773 +7457,773 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A120">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A120" s="1">
         <v>1142</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G120" s="1">
+        <v>10001</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I120" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C120" t="s">
+      <c r="J120" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K120" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A121" s="1">
+        <v>1142</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G121" s="1">
+        <v>10001</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K121" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A122" s="1">
+        <v>1142</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G122" s="1">
+        <v>10001</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K122" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A123" s="1">
+        <v>1143</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G123" s="1">
+        <v>10001</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K123" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A124" s="1">
+        <v>1143</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G124" s="1">
+        <v>10001</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K124" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>1143</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G125" s="1">
+        <v>10001</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K125" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A126" s="1">
+        <v>1144</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G126" s="1">
+        <v>10001</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K126" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A127" s="1">
+        <v>1144</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G127" s="1">
+        <v>10001</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K127" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A128" s="1">
+        <v>1144</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G128" s="1">
+        <v>10001</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K128" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A129" s="1">
+        <v>1145</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G129" s="1">
+        <v>10002</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K129" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A130" s="1">
+        <v>1145</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D120" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="G130" s="1">
+        <v>10002</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K130" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A131" s="1">
+        <v>1145</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F131" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G120">
-        <v>10001</v>
-      </c>
-      <c r="H120" t="s">
+      <c r="G131" s="1">
+        <v>10002</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K131" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A132" s="1">
+        <v>1146</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G132" s="1">
+        <v>10002</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I132" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="I120" t="s">
-        <v>284</v>
-      </c>
-      <c r="J120" t="s">
+      <c r="J132" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K120" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M120" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A121">
-        <v>1142</v>
-      </c>
-      <c r="B121" t="s">
-        <v>281</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="K132" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>1146</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G133" s="1">
+        <v>10002</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K133" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A134" s="1">
+        <v>1146</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G134" s="1">
+        <v>10002</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K134" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A135" s="1">
+        <v>1147</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G135" s="1">
+        <v>10002</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K135" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A136" s="1">
+        <v>1147</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G136" s="1">
+        <v>10002</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K136" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>1147</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D121" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="G137" s="1">
+        <v>10002</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K137" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A138" s="1">
+        <v>1148</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F121" t="s">
-        <v>286</v>
-      </c>
-      <c r="G121">
-        <v>10001</v>
-      </c>
-      <c r="H121" t="s">
-        <v>287</v>
-      </c>
-      <c r="I121" t="s">
-        <v>284</v>
-      </c>
-      <c r="J121" t="s">
-        <v>18</v>
-      </c>
-      <c r="K121" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M121" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A122">
-        <v>1142</v>
-      </c>
-      <c r="B122" t="s">
-        <v>281</v>
-      </c>
-      <c r="C122" t="s">
-        <v>282</v>
-      </c>
-      <c r="D122" t="s">
-        <v>14</v>
-      </c>
-      <c r="E122" t="s">
-        <v>216</v>
-      </c>
-      <c r="F122" t="s">
-        <v>286</v>
-      </c>
-      <c r="G122">
-        <v>10001</v>
-      </c>
-      <c r="H122" t="s">
-        <v>287</v>
-      </c>
-      <c r="I122" t="s">
-        <v>284</v>
-      </c>
-      <c r="J122" t="s">
-        <v>43</v>
-      </c>
-      <c r="K122" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M122" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A123">
-        <v>1143</v>
-      </c>
-      <c r="B123" t="s">
-        <v>288</v>
-      </c>
-      <c r="C123" t="s">
-        <v>288</v>
-      </c>
-      <c r="D123" t="s">
-        <v>14</v>
-      </c>
-      <c r="E123" t="s">
-        <v>216</v>
-      </c>
-      <c r="F123" t="s">
-        <v>289</v>
-      </c>
-      <c r="G123">
-        <v>10001</v>
-      </c>
-      <c r="H123" t="s">
-        <v>287</v>
-      </c>
-      <c r="I123" t="s">
-        <v>290</v>
-      </c>
-      <c r="J123" t="s">
-        <v>34</v>
-      </c>
-      <c r="K123" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M123" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A124">
-        <v>1143</v>
-      </c>
-      <c r="B124" t="s">
-        <v>288</v>
-      </c>
-      <c r="C124" t="s">
-        <v>288</v>
-      </c>
-      <c r="D124" t="s">
-        <v>14</v>
-      </c>
-      <c r="E124" t="s">
-        <v>216</v>
-      </c>
-      <c r="F124" t="s">
-        <v>291</v>
-      </c>
-      <c r="G124">
-        <v>10001</v>
-      </c>
-      <c r="H124" t="s">
-        <v>287</v>
-      </c>
-      <c r="I124" t="s">
-        <v>290</v>
-      </c>
-      <c r="J124" t="s">
-        <v>18</v>
-      </c>
-      <c r="K124" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A125">
-        <v>1143</v>
-      </c>
-      <c r="B125" t="s">
-        <v>288</v>
-      </c>
-      <c r="C125" t="s">
-        <v>288</v>
-      </c>
-      <c r="D125" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" t="s">
-        <v>216</v>
-      </c>
-      <c r="F125" t="s">
-        <v>291</v>
-      </c>
-      <c r="G125">
-        <v>10001</v>
-      </c>
-      <c r="H125" t="s">
-        <v>287</v>
-      </c>
-      <c r="I125" t="s">
-        <v>290</v>
-      </c>
-      <c r="J125" t="s">
-        <v>43</v>
-      </c>
-      <c r="K125" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M125" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A126">
-        <v>1144</v>
-      </c>
-      <c r="B126" t="s">
-        <v>288</v>
-      </c>
-      <c r="C126" t="s">
-        <v>288</v>
-      </c>
-      <c r="D126" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" t="s">
-        <v>216</v>
-      </c>
-      <c r="F126" t="s">
-        <v>283</v>
-      </c>
-      <c r="G126">
-        <v>10001</v>
-      </c>
-      <c r="H126" t="s">
-        <v>287</v>
-      </c>
-      <c r="I126" t="s">
-        <v>292</v>
-      </c>
-      <c r="J126" t="s">
-        <v>34</v>
-      </c>
-      <c r="K126" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A127">
-        <v>1144</v>
-      </c>
-      <c r="B127" t="s">
-        <v>288</v>
-      </c>
-      <c r="C127" t="s">
-        <v>288</v>
-      </c>
-      <c r="D127" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" t="s">
-        <v>216</v>
-      </c>
-      <c r="F127" t="s">
-        <v>286</v>
-      </c>
-      <c r="G127">
-        <v>10001</v>
-      </c>
-      <c r="H127" t="s">
-        <v>287</v>
-      </c>
-      <c r="I127" t="s">
-        <v>292</v>
-      </c>
-      <c r="J127" t="s">
-        <v>18</v>
-      </c>
-      <c r="K127" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M127" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A128">
-        <v>1144</v>
-      </c>
-      <c r="B128" t="s">
-        <v>288</v>
-      </c>
-      <c r="C128" t="s">
-        <v>288</v>
-      </c>
-      <c r="D128" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" t="s">
-        <v>216</v>
-      </c>
-      <c r="F128" t="s">
-        <v>286</v>
-      </c>
-      <c r="G128">
-        <v>10001</v>
-      </c>
-      <c r="H128" t="s">
-        <v>287</v>
-      </c>
-      <c r="I128" t="s">
-        <v>292</v>
-      </c>
-      <c r="J128" t="s">
-        <v>43</v>
-      </c>
-      <c r="K128" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M128" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A129">
-        <v>1145</v>
-      </c>
-      <c r="B129" t="s">
-        <v>281</v>
-      </c>
-      <c r="C129" t="s">
-        <v>282</v>
-      </c>
-      <c r="D129" t="s">
-        <v>14</v>
-      </c>
-      <c r="E129" t="s">
-        <v>216</v>
-      </c>
-      <c r="F129" t="s">
-        <v>283</v>
-      </c>
-      <c r="G129">
-        <v>10002</v>
-      </c>
-      <c r="H129" t="s">
-        <v>90</v>
-      </c>
-      <c r="I129" t="s">
-        <v>284</v>
-      </c>
-      <c r="J129" t="s">
-        <v>34</v>
-      </c>
-      <c r="K129" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M129" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A130">
-        <v>1145</v>
-      </c>
-      <c r="B130" t="s">
-        <v>281</v>
-      </c>
-      <c r="C130" t="s">
-        <v>282</v>
-      </c>
-      <c r="D130" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" t="s">
-        <v>216</v>
-      </c>
-      <c r="F130" t="s">
-        <v>285</v>
-      </c>
-      <c r="G130">
-        <v>10002</v>
-      </c>
-      <c r="H130" t="s">
-        <v>90</v>
-      </c>
-      <c r="I130" t="s">
-        <v>284</v>
-      </c>
-      <c r="J130" t="s">
-        <v>43</v>
-      </c>
-      <c r="K130" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M130" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A131">
-        <v>1145</v>
-      </c>
-      <c r="B131" t="s">
-        <v>281</v>
-      </c>
-      <c r="C131" t="s">
-        <v>282</v>
-      </c>
-      <c r="D131" t="s">
-        <v>14</v>
-      </c>
-      <c r="E131" t="s">
-        <v>216</v>
-      </c>
-      <c r="F131" t="s">
-        <v>286</v>
-      </c>
-      <c r="G131">
-        <v>10002</v>
-      </c>
-      <c r="H131" t="s">
-        <v>90</v>
-      </c>
-      <c r="I131" t="s">
-        <v>284</v>
-      </c>
-      <c r="J131" t="s">
-        <v>18</v>
-      </c>
-      <c r="K131" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M131" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A132">
-        <v>1146</v>
-      </c>
-      <c r="B132" t="s">
-        <v>288</v>
-      </c>
-      <c r="C132" t="s">
-        <v>288</v>
-      </c>
-      <c r="D132" t="s">
-        <v>14</v>
-      </c>
-      <c r="E132" t="s">
-        <v>216</v>
-      </c>
-      <c r="F132" t="s">
-        <v>289</v>
-      </c>
-      <c r="G132">
-        <v>10002</v>
-      </c>
-      <c r="H132" t="s">
-        <v>90</v>
-      </c>
-      <c r="I132" t="s">
-        <v>290</v>
-      </c>
-      <c r="J132" t="s">
-        <v>34</v>
-      </c>
-      <c r="K132" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M132" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A133">
-        <v>1146</v>
-      </c>
-      <c r="B133" t="s">
-        <v>288</v>
-      </c>
-      <c r="C133" t="s">
-        <v>288</v>
-      </c>
-      <c r="D133" t="s">
-        <v>14</v>
-      </c>
-      <c r="E133" t="s">
-        <v>216</v>
-      </c>
-      <c r="F133" t="s">
-        <v>293</v>
-      </c>
-      <c r="G133">
-        <v>10002</v>
-      </c>
-      <c r="H133" t="s">
-        <v>90</v>
-      </c>
-      <c r="I133" t="s">
-        <v>290</v>
-      </c>
-      <c r="J133" t="s">
-        <v>43</v>
-      </c>
-      <c r="K133" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M133" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A134">
-        <v>1146</v>
-      </c>
-      <c r="B134" t="s">
-        <v>288</v>
-      </c>
-      <c r="C134" t="s">
-        <v>288</v>
-      </c>
-      <c r="D134" t="s">
-        <v>14</v>
-      </c>
-      <c r="E134" t="s">
-        <v>216</v>
-      </c>
-      <c r="F134" t="s">
-        <v>291</v>
-      </c>
-      <c r="G134">
-        <v>10002</v>
-      </c>
-      <c r="H134" t="s">
-        <v>90</v>
-      </c>
-      <c r="I134" t="s">
-        <v>290</v>
-      </c>
-      <c r="J134" t="s">
-        <v>18</v>
-      </c>
-      <c r="K134" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M134" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A135">
-        <v>1147</v>
-      </c>
-      <c r="B135" t="s">
-        <v>288</v>
-      </c>
-      <c r="C135" t="s">
-        <v>288</v>
-      </c>
-      <c r="D135" t="s">
-        <v>14</v>
-      </c>
-      <c r="E135" t="s">
-        <v>216</v>
-      </c>
-      <c r="F135" t="s">
-        <v>283</v>
-      </c>
-      <c r="G135">
-        <v>10002</v>
-      </c>
-      <c r="H135" t="s">
-        <v>90</v>
-      </c>
-      <c r="I135" t="s">
-        <v>292</v>
-      </c>
-      <c r="J135" t="s">
-        <v>34</v>
-      </c>
-      <c r="K135" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A136">
-        <v>1147</v>
-      </c>
-      <c r="B136" t="s">
-        <v>288</v>
-      </c>
-      <c r="C136" t="s">
-        <v>288</v>
-      </c>
-      <c r="D136" t="s">
-        <v>14</v>
-      </c>
-      <c r="E136" t="s">
-        <v>216</v>
-      </c>
-      <c r="F136" t="s">
-        <v>286</v>
-      </c>
-      <c r="G136">
-        <v>10002</v>
-      </c>
-      <c r="H136" t="s">
-        <v>90</v>
-      </c>
-      <c r="I136" t="s">
-        <v>292</v>
-      </c>
-      <c r="J136" t="s">
-        <v>18</v>
-      </c>
-      <c r="K136" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M136" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A137">
-        <v>1147</v>
-      </c>
-      <c r="B137" t="s">
-        <v>288</v>
-      </c>
-      <c r="C137" t="s">
-        <v>288</v>
-      </c>
-      <c r="D137" t="s">
-        <v>14</v>
-      </c>
-      <c r="E137" t="s">
-        <v>216</v>
-      </c>
-      <c r="F137" t="s">
-        <v>285</v>
-      </c>
-      <c r="G137">
-        <v>10002</v>
-      </c>
-      <c r="H137" t="s">
-        <v>90</v>
-      </c>
-      <c r="I137" t="s">
-        <v>292</v>
-      </c>
-      <c r="J137" t="s">
-        <v>43</v>
-      </c>
-      <c r="K137" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L137" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M137" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A138">
-        <v>1148</v>
-      </c>
-      <c r="B138" t="s">
-        <v>281</v>
-      </c>
-      <c r="C138" t="s">
-        <v>282</v>
-      </c>
-      <c r="D138" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" t="s">
-        <v>216</v>
-      </c>
-      <c r="F138" t="s">
-        <v>283</v>
-      </c>
-      <c r="G138">
+      <c r="F138" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G138" s="1">
         <v>10004</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I138" t="s">
-        <v>284</v>
-      </c>
-      <c r="J138" t="s">
+      <c r="I138" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J138" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K138" s="1" t="b">
@@ -8235,76 +8236,76 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A139">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
         <v>1148</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G139" s="1">
+        <v>10004</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I139" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C139" t="s">
-        <v>282</v>
-      </c>
-      <c r="D139" t="s">
-        <v>14</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="J139" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K139" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A140" s="1">
+        <v>1148</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F139" t="s">
-        <v>285</v>
-      </c>
-      <c r="G139">
-        <v>10004</v>
-      </c>
-      <c r="H139" t="s">
-        <v>42</v>
-      </c>
-      <c r="I139" t="s">
-        <v>284</v>
-      </c>
-      <c r="J139" t="s">
-        <v>43</v>
-      </c>
-      <c r="K139" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L139" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M139" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A140">
-        <v>1148</v>
-      </c>
-      <c r="B140" t="s">
-        <v>281</v>
-      </c>
-      <c r="C140" t="s">
-        <v>282</v>
-      </c>
-      <c r="D140" t="s">
-        <v>14</v>
-      </c>
-      <c r="E140" t="s">
-        <v>216</v>
-      </c>
-      <c r="F140" t="s">
-        <v>286</v>
-      </c>
-      <c r="G140">
+      <c r="F140" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G140" s="1">
         <v>10004</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I140" t="s">
-        <v>284</v>
-      </c>
-      <c r="J140" t="s">
+      <c r="I140" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J140" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K140" s="1" t="b">
@@ -8317,117 +8318,117 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A141">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A141" s="1">
         <v>1149</v>
       </c>
-      <c r="B141" t="s">
-        <v>288</v>
-      </c>
-      <c r="C141" t="s">
-        <v>288</v>
-      </c>
-      <c r="D141" t="s">
-        <v>14</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="B141" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F141" t="s">
-        <v>289</v>
-      </c>
-      <c r="G141">
+      <c r="F141" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G141" s="1">
         <v>10004</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I141" t="s">
+      <c r="I141" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K141" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A142" s="1">
+        <v>1149</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="J141" t="s">
-        <v>34</v>
-      </c>
-      <c r="K141" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M141" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A142">
+      <c r="G142" s="1">
+        <v>10004</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K142" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A143" s="1">
         <v>1149</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C142" t="s">
-        <v>288</v>
-      </c>
-      <c r="D142" t="s">
-        <v>14</v>
-      </c>
-      <c r="E142" t="s">
-        <v>216</v>
-      </c>
-      <c r="F142" t="s">
-        <v>293</v>
-      </c>
-      <c r="G142">
-        <v>10004</v>
-      </c>
-      <c r="H142" t="s">
-        <v>42</v>
-      </c>
-      <c r="I142" t="s">
-        <v>290</v>
-      </c>
-      <c r="J142" t="s">
-        <v>43</v>
-      </c>
-      <c r="K142" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M142" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A143">
-        <v>1149</v>
-      </c>
-      <c r="B143" t="s">
-        <v>288</v>
-      </c>
-      <c r="C143" t="s">
-        <v>288</v>
-      </c>
-      <c r="D143" t="s">
-        <v>14</v>
-      </c>
-      <c r="E143" t="s">
-        <v>216</v>
-      </c>
-      <c r="F143" t="s">
-        <v>291</v>
-      </c>
-      <c r="G143">
+      <c r="G143" s="1">
         <v>10004</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I143" t="s">
-        <v>290</v>
-      </c>
-      <c r="J143" t="s">
+      <c r="I143" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J143" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K143" s="1" t="b">
@@ -8440,35 +8441,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A144">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A144" s="1">
         <v>1150</v>
       </c>
-      <c r="B144" t="s">
-        <v>288</v>
-      </c>
-      <c r="C144" t="s">
-        <v>288</v>
-      </c>
-      <c r="D144" t="s">
-        <v>14</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="B144" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F144" t="s">
-        <v>283</v>
-      </c>
-      <c r="G144">
+      <c r="F144" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G144" s="1">
         <v>10004</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I144" t="s">
-        <v>292</v>
-      </c>
-      <c r="J144" t="s">
+      <c r="I144" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J144" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K144" s="1" t="b">
@@ -8481,35 +8482,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A145">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A145" s="1">
         <v>1150</v>
       </c>
-      <c r="B145" t="s">
-        <v>288</v>
-      </c>
-      <c r="C145" t="s">
-        <v>288</v>
-      </c>
-      <c r="D145" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" t="s">
+      <c r="B145" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F145" t="s">
-        <v>286</v>
-      </c>
-      <c r="G145">
+      <c r="F145" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G145" s="1">
         <v>10004</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I145" t="s">
-        <v>292</v>
-      </c>
-      <c r="J145" t="s">
+      <c r="I145" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J145" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K145" s="1" t="b">
@@ -8522,35 +8523,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A146">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A146" s="1">
         <v>1150</v>
       </c>
-      <c r="B146" t="s">
-        <v>288</v>
-      </c>
-      <c r="C146" t="s">
-        <v>288</v>
-      </c>
-      <c r="D146" t="s">
-        <v>14</v>
-      </c>
-      <c r="E146" t="s">
+      <c r="B146" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F146" t="s">
-        <v>285</v>
-      </c>
-      <c r="G146">
+      <c r="F146" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G146" s="1">
         <v>10004</v>
       </c>
-      <c r="H146" t="s">
+      <c r="H146" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I146" t="s">
-        <v>292</v>
-      </c>
-      <c r="J146" t="s">
+      <c r="I146" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="J146" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K146" s="1" t="b">
@@ -8563,35 +8564,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>1151</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D147" t="s">
-        <v>14</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="D147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F147" t="s">
-        <v>296</v>
-      </c>
-      <c r="G147">
+      <c r="F147" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G147" s="1">
         <v>10004</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H147" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I147" t="s">
+      <c r="I147" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J147" t="s">
+      <c r="J147" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K147" s="1" t="b">
@@ -8604,35 +8605,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>1151</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D148" t="s">
-        <v>14</v>
-      </c>
-      <c r="E148" t="s">
+      <c r="D148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F148" t="s">
-        <v>295</v>
-      </c>
-      <c r="G148">
+      <c r="F148" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G148" s="1">
         <v>10004</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I148" t="s">
+      <c r="I148" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J148" t="s">
+      <c r="J148" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K148" s="1" t="b">
@@ -8645,33 +8646,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>1151</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D149" t="s">
-        <v>14</v>
-      </c>
-      <c r="E149"/>
-      <c r="F149" t="s">
-        <v>294</v>
-      </c>
-      <c r="G149">
+      <c r="D149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G149" s="1">
         <v>10004</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H149" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I149" t="s">
+      <c r="I149" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J149" t="s">
+      <c r="J149" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K149" s="1" t="b">
@@ -8684,35 +8684,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>1152</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D150" t="s">
-        <v>14</v>
-      </c>
-      <c r="E150" t="s">
+      <c r="D150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="1">
         <v>10004</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H150" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I150" t="s">
+      <c r="I150" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="J150" t="s">
+      <c r="J150" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K150" s="1" t="b">
@@ -8725,35 +8725,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>1152</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D151" t="s">
-        <v>14</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="D151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="1">
         <v>10004</v>
       </c>
-      <c r="H151" t="s">
+      <c r="H151" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I151" t="s">
+      <c r="I151" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="J151" t="s">
+      <c r="J151" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K151" s="1" t="b">
@@ -8766,35 +8766,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>1152</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D152" t="s">
-        <v>14</v>
-      </c>
-      <c r="E152" t="s">
+      <c r="D152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="1">
         <v>10004</v>
       </c>
-      <c r="H152" t="s">
+      <c r="H152" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I152" t="s">
+      <c r="I152" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="J152" t="s">
+      <c r="J152" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K152" s="1" t="b">
@@ -8807,35 +8807,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A153">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A153" s="1">
         <v>1153</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D153" t="s">
-        <v>14</v>
-      </c>
-      <c r="E153" t="s">
+      <c r="D153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F153" t="s">
-        <v>297</v>
-      </c>
-      <c r="G153">
+      <c r="F153" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G153" s="1">
         <v>10004</v>
       </c>
-      <c r="H153" t="s">
+      <c r="H153" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I153" t="s">
+      <c r="I153" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J153" t="s">
+      <c r="J153" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K153" s="1" t="b">
@@ -8848,35 +8848,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>1153</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D154" t="s">
-        <v>14</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="D154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="1">
         <v>10004</v>
       </c>
-      <c r="H154" t="s">
+      <c r="H154" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I154" t="s">
+      <c r="I154" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J154" t="s">
+      <c r="J154" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K154" s="1" t="b">
@@ -8889,35 +8889,35 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>1153</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D155" t="s">
-        <v>14</v>
-      </c>
-      <c r="E155" t="s">
+      <c r="D155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="1">
         <v>10004</v>
       </c>
-      <c r="H155" t="s">
+      <c r="H155" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I155" t="s">
+      <c r="I155" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J155" t="s">
+      <c r="J155" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K155" s="1" t="b">
@@ -8930,21 +8930,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>1154</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="1" t="s">
         <v>274</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>278</v>
+      <c r="F156" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="G156" s="1">
         <v>10001</v>
@@ -8968,21 +8968,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>1154</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="1" t="s">
         <v>275</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>279</v>
+      <c r="F157" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="G157" s="1">
         <v>10001</v>
@@ -9006,21 +9006,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>1154</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="1" t="s">
         <v>276</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>280</v>
+      <c r="F158" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="G158" s="1">
         <v>10001</v>
@@ -9044,489 +9044,489 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A159">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A159" s="1">
         <v>1155</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G159" s="1">
+        <v>10005</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K159" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A160" s="1">
+        <v>1155</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G160" s="1">
+        <v>10005</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K160" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A161" s="1">
+        <v>1155</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D159" t="s">
-        <v>14</v>
-      </c>
-      <c r="E159" t="s">
+      <c r="G161" s="1">
+        <v>10005</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K161" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A162" s="1">
+        <v>1156</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="F162" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G162" s="1">
+        <v>10005</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K162" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A163" s="1">
+        <v>1156</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G163" s="1">
+        <v>10005</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K163" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A164" s="1">
+        <v>1156</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G164" s="1">
+        <v>10005</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K164" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A165" s="1">
+        <v>1157</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G165" s="1">
+        <v>10005</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K165" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A166" s="1">
+        <v>1157</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G166" s="1">
+        <v>10005</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K166" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A167" s="1">
+        <v>1157</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G167" s="1">
+        <v>10005</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K167" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A168" s="1">
+        <v>1158</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G159">
+      <c r="C168" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G168" s="1">
         <v>10005</v>
       </c>
-      <c r="H159" t="s">
+      <c r="H168" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I159" t="s">
-        <v>302</v>
-      </c>
-      <c r="J159" t="s">
+      <c r="I168" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J168" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K159" t="b">
-        <v>1</v>
-      </c>
-      <c r="L159" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M159" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A160">
-        <v>1155</v>
-      </c>
-      <c r="B160" t="s">
-        <v>223</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="K168" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A169" s="1">
+        <v>1158</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D160" t="s">
-        <v>14</v>
-      </c>
-      <c r="E160" t="s">
+      <c r="D169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F169" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G169" s="1">
+        <v>10005</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K169" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A170" s="1">
+        <v>1158</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G160">
+      <c r="C170" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G170" s="1">
         <v>10005</v>
       </c>
-      <c r="H160" t="s">
+      <c r="H170" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I160" t="s">
-        <v>302</v>
-      </c>
-      <c r="J160" t="s">
-        <v>18</v>
-      </c>
-      <c r="K160" t="b">
-        <v>1</v>
-      </c>
-      <c r="L160" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M160" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A161">
-        <v>1155</v>
-      </c>
-      <c r="B161" t="s">
-        <v>304</v>
-      </c>
-      <c r="C161" t="s">
-        <v>305</v>
-      </c>
-      <c r="D161" t="s">
-        <v>14</v>
-      </c>
-      <c r="E161" t="s">
-        <v>216</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G161">
-        <v>10005</v>
-      </c>
-      <c r="H161" t="s">
-        <v>217</v>
-      </c>
-      <c r="I161" t="s">
-        <v>302</v>
-      </c>
-      <c r="J161" t="s">
+      <c r="I170" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J170" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K161" t="b">
-        <v>1</v>
-      </c>
-      <c r="L161" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M161" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A162">
-        <v>1156</v>
-      </c>
-      <c r="B162" t="s">
-        <v>332</v>
-      </c>
-      <c r="C162" t="s">
-        <v>300</v>
-      </c>
-      <c r="D162" t="s">
-        <v>14</v>
-      </c>
-      <c r="E162" t="s">
-        <v>216</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G162">
-        <v>10005</v>
-      </c>
-      <c r="H162" t="s">
-        <v>217</v>
-      </c>
-      <c r="I162" t="s">
-        <v>308</v>
-      </c>
-      <c r="J162" t="s">
-        <v>34</v>
-      </c>
-      <c r="K162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L162" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M162" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A163">
-        <v>1156</v>
-      </c>
-      <c r="B163" t="s">
-        <v>214</v>
-      </c>
-      <c r="C163" t="s">
-        <v>215</v>
-      </c>
-      <c r="D163" t="s">
-        <v>14</v>
-      </c>
-      <c r="E163" t="s">
-        <v>216</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G163">
-        <v>10005</v>
-      </c>
-      <c r="H163" t="s">
-        <v>217</v>
-      </c>
-      <c r="I163" t="s">
-        <v>308</v>
-      </c>
-      <c r="J163" t="s">
-        <v>18</v>
-      </c>
-      <c r="K163" t="b">
-        <v>1</v>
-      </c>
-      <c r="L163" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M163" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A164">
-        <v>1156</v>
-      </c>
-      <c r="B164" t="s">
-        <v>309</v>
-      </c>
-      <c r="C164" t="s">
-        <v>305</v>
-      </c>
-      <c r="D164" t="s">
-        <v>14</v>
-      </c>
-      <c r="E164" t="s">
-        <v>216</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G164">
-        <v>10005</v>
-      </c>
-      <c r="H164" t="s">
-        <v>217</v>
-      </c>
-      <c r="I164" t="s">
-        <v>308</v>
-      </c>
-      <c r="J164" t="s">
-        <v>43</v>
-      </c>
-      <c r="K164" t="b">
-        <v>1</v>
-      </c>
-      <c r="L164" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M164" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A165">
-        <v>1157</v>
-      </c>
-      <c r="B165" t="s">
-        <v>299</v>
-      </c>
-      <c r="C165" t="s">
-        <v>300</v>
-      </c>
-      <c r="D165" t="s">
-        <v>14</v>
-      </c>
-      <c r="E165" t="s">
-        <v>216</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G165">
-        <v>10005</v>
-      </c>
-      <c r="H165" t="s">
-        <v>217</v>
-      </c>
-      <c r="I165" t="s">
-        <v>311</v>
-      </c>
-      <c r="J165" t="s">
-        <v>34</v>
-      </c>
-      <c r="K165" t="b">
-        <v>1</v>
-      </c>
-      <c r="L165" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M165" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A166">
-        <v>1157</v>
-      </c>
-      <c r="B166" t="s">
-        <v>223</v>
-      </c>
-      <c r="C166" t="s">
-        <v>215</v>
-      </c>
-      <c r="D166" t="s">
-        <v>14</v>
-      </c>
-      <c r="E166" t="s">
-        <v>216</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G166">
-        <v>10005</v>
-      </c>
-      <c r="H166" t="s">
-        <v>217</v>
-      </c>
-      <c r="I166" t="s">
-        <v>311</v>
-      </c>
-      <c r="J166" t="s">
-        <v>18</v>
-      </c>
-      <c r="K166" t="b">
-        <v>1</v>
-      </c>
-      <c r="L166" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M166" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A167">
-        <v>1157</v>
-      </c>
-      <c r="B167" t="s">
-        <v>304</v>
-      </c>
-      <c r="C167" t="s">
-        <v>305</v>
-      </c>
-      <c r="D167" t="s">
-        <v>14</v>
-      </c>
-      <c r="E167" t="s">
-        <v>216</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G167">
-        <v>10005</v>
-      </c>
-      <c r="H167" t="s">
-        <v>217</v>
-      </c>
-      <c r="I167" t="s">
-        <v>311</v>
-      </c>
-      <c r="J167" t="s">
-        <v>43</v>
-      </c>
-      <c r="K167" t="b">
-        <v>1</v>
-      </c>
-      <c r="L167" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M167" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A168">
-        <v>1158</v>
-      </c>
-      <c r="B168" t="s">
-        <v>307</v>
-      </c>
-      <c r="C168" t="s">
-        <v>300</v>
-      </c>
-      <c r="D168" t="s">
-        <v>14</v>
-      </c>
-      <c r="E168" t="s">
-        <v>216</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G168">
-        <v>10005</v>
-      </c>
-      <c r="H168" t="s">
-        <v>217</v>
-      </c>
-      <c r="I168" t="s">
-        <v>314</v>
-      </c>
-      <c r="J168" t="s">
-        <v>34</v>
-      </c>
-      <c r="K168" t="b">
-        <v>1</v>
-      </c>
-      <c r="L168" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M168" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A169">
-        <v>1158</v>
-      </c>
-      <c r="B169" t="s">
-        <v>214</v>
-      </c>
-      <c r="C169" t="s">
-        <v>215</v>
-      </c>
-      <c r="D169" t="s">
-        <v>14</v>
-      </c>
-      <c r="E169" t="s">
-        <v>216</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G169">
-        <v>10005</v>
-      </c>
-      <c r="H169" t="s">
-        <v>217</v>
-      </c>
-      <c r="I169" t="s">
-        <v>314</v>
-      </c>
-      <c r="J169" t="s">
-        <v>18</v>
-      </c>
-      <c r="K169" t="b">
-        <v>1</v>
-      </c>
-      <c r="L169" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M169" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A170">
-        <v>1158</v>
-      </c>
-      <c r="B170" t="s">
-        <v>309</v>
-      </c>
-      <c r="C170" t="s">
-        <v>305</v>
-      </c>
-      <c r="D170" t="s">
-        <v>14</v>
-      </c>
-      <c r="E170" t="s">
-        <v>216</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G170">
-        <v>10005</v>
-      </c>
-      <c r="H170" t="s">
-        <v>217</v>
-      </c>
-      <c r="I170" t="s">
-        <v>314</v>
-      </c>
-      <c r="J170" t="s">
-        <v>43</v>
-      </c>
-      <c r="K170" t="b">
+      <c r="K170" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L170" s="1" t="s">
@@ -9536,24 +9536,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>1159</v>
       </c>
-      <c r="B171" t="s">
-        <v>316</v>
-      </c>
-      <c r="C171" t="s">
-        <v>316</v>
-      </c>
-      <c r="D171" t="s">
-        <v>14</v>
-      </c>
-      <c r="E171" t="s">
+      <c r="B171" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>216</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G171" s="1">
         <v>10001</v>
@@ -9561,13 +9561,13 @@
       <c r="H171" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I171" t="s">
-        <v>319</v>
+      <c r="I171" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K171" t="b">
+      <c r="K171" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L171" s="1" t="s">
@@ -9577,24 +9577,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>1159</v>
       </c>
-      <c r="B172" t="s">
-        <v>317</v>
-      </c>
-      <c r="C172" t="s">
-        <v>317</v>
-      </c>
-      <c r="D172" t="s">
-        <v>14</v>
-      </c>
-      <c r="E172" t="s">
+      <c r="B172" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>216</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G172" s="1">
         <v>10001</v>
@@ -9602,13 +9602,13 @@
       <c r="H172" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I172" t="s">
-        <v>319</v>
+      <c r="I172" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K172" t="b">
+      <c r="K172" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L172" s="1" t="s">
@@ -9618,24 +9618,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>1159</v>
       </c>
-      <c r="B173" t="s">
-        <v>318</v>
-      </c>
-      <c r="C173" t="s">
-        <v>318</v>
-      </c>
-      <c r="D173" t="s">
-        <v>14</v>
-      </c>
-      <c r="E173" t="s">
+      <c r="B173" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>216</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G173" s="1">
         <v>10001</v>
@@ -9643,13 +9643,13 @@
       <c r="H173" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I173" t="s">
-        <v>319</v>
+      <c r="I173" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K173" t="b">
+      <c r="K173" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L173" s="1" t="s">
@@ -9659,24 +9659,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>1160</v>
       </c>
-      <c r="B174" t="s">
-        <v>325</v>
-      </c>
-      <c r="C174" t="s">
-        <v>325</v>
-      </c>
-      <c r="D174" t="s">
-        <v>14</v>
-      </c>
-      <c r="E174" t="s">
+      <c r="B174" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F174" s="2" t="s">
-        <v>366</v>
+      <c r="F174" s="1" t="s">
+        <v>359</v>
       </c>
       <c r="G174" s="1">
         <v>10003</v>
@@ -9685,12 +9685,12 @@
         <v>54</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K174" t="b">
+      <c r="K174" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L174" s="1" t="s">
@@ -9700,24 +9700,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>1160</v>
       </c>
-      <c r="B175" t="s">
-        <v>326</v>
-      </c>
-      <c r="C175" t="s">
-        <v>326</v>
-      </c>
-      <c r="D175" t="s">
-        <v>14</v>
-      </c>
-      <c r="E175" t="s">
+      <c r="B175" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F175" s="2" t="s">
-        <v>368</v>
+      <c r="F175" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="G175" s="1">
         <v>10003</v>
@@ -9726,12 +9726,12 @@
         <v>71</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K175" t="b">
+      <c r="K175" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L175" s="1" t="s">
@@ -9741,24 +9741,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>1160</v>
       </c>
-      <c r="B176" t="s">
-        <v>327</v>
-      </c>
-      <c r="C176" t="s">
-        <v>327</v>
-      </c>
-      <c r="D176" t="s">
-        <v>14</v>
-      </c>
-      <c r="E176" t="s">
+      <c r="B176" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E176" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F176" s="2" t="s">
-        <v>367</v>
+      <c r="F176" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="G176" s="1">
         <v>10003</v>
@@ -9767,12 +9767,12 @@
         <v>80</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K176" t="b">
+      <c r="K176" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L176" s="1" t="s">
@@ -9782,24 +9782,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>1161</v>
       </c>
-      <c r="B177" t="s">
-        <v>328</v>
-      </c>
-      <c r="C177" t="s">
-        <v>328</v>
-      </c>
-      <c r="D177" t="s">
-        <v>14</v>
-      </c>
-      <c r="E177" t="s">
+      <c r="B177" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F177" s="2" t="s">
-        <v>350</v>
+      <c r="F177" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="G177" s="1">
         <v>10003</v>
@@ -9808,12 +9808,12 @@
         <v>54</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K177" t="b">
+      <c r="K177" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L177" s="1" t="s">
@@ -9823,24 +9823,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="87" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>1161</v>
       </c>
-      <c r="B178" t="s">
-        <v>329</v>
-      </c>
-      <c r="C178" t="s">
-        <v>329</v>
-      </c>
-      <c r="D178" t="s">
-        <v>14</v>
-      </c>
-      <c r="E178" t="s">
+      <c r="B178" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E178" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F178" s="2" t="s">
-        <v>368</v>
+      <c r="F178" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="G178" s="1">
         <v>10003</v>
@@ -9849,12 +9849,12 @@
         <v>71</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K178" t="b">
+      <c r="K178" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L178" s="1" t="s">
@@ -9864,24 +9864,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>1161</v>
       </c>
-      <c r="B179" t="s">
-        <v>330</v>
-      </c>
-      <c r="C179" t="s">
-        <v>330</v>
-      </c>
-      <c r="D179" t="s">
-        <v>14</v>
-      </c>
-      <c r="E179" t="s">
+      <c r="B179" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F179" s="2" t="s">
-        <v>367</v>
+      <c r="F179" s="1" t="s">
+        <v>360</v>
       </c>
       <c r="G179" s="1">
         <v>10003</v>
@@ -9890,12 +9890,12 @@
         <v>80</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K179" t="b">
+      <c r="K179" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L179" s="1" t="s">
@@ -9905,24 +9905,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>1162</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F180" s="2" t="s">
-        <v>345</v>
+      <c r="F180" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="G180" s="1">
         <v>10003</v>
@@ -9931,12 +9931,12 @@
         <v>54</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K180" t="b">
+      <c r="K180" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L180" s="1" t="s">
@@ -9946,24 +9946,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>1162</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E181" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F181" s="2" t="s">
-        <v>346</v>
+      <c r="F181" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="G181" s="1">
         <v>10003</v>
@@ -9972,12 +9972,12 @@
         <v>71</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K181" t="b">
+      <c r="K181" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L181" s="1" t="s">
@@ -9987,24 +9987,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="409.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>1162</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E182" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F182" s="2" t="s">
-        <v>346</v>
+      <c r="F182" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="G182" s="1">
         <v>10003</v>
@@ -10013,12 +10013,12 @@
         <v>80</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K182" t="b">
+      <c r="K182" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L182" s="1" t="s">
@@ -10029,18 +10029,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M182" xr:uid="{606D01AB-69AF-42F0-9A8A-DE1226555770}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="10003"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Registration Processor"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M182" xr:uid="{606D01AB-69AF-42F0-9A8A-DE1226555770}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/_files/requirements/master_data/master-template.xlsx
+++ b/_files/requirements/master_data/master-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Data Refresh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5E0F933D-72AF-4823-B428-F9B929252CE6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1681A9-30B1-4E79-BF96-F4E355E9F071}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'master-template'!$A$1:$M$182</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="389">
   <si>
     <t>id</t>
   </si>
@@ -738,9 +745,6 @@
     <t>velocity</t>
   </si>
   <si>
-    <t>registration</t>
-  </si>
-  <si>
     <t>reg-sms-notification</t>
   </si>
   <si>
@@ -864,14 +868,7 @@
     <t>registrationclient</t>
   </si>
   <si>
-    <t>عزيزي $name ،
-تقوم مصادقة UIN باستخدام $authType بتعيينها على $time Hours $status على جهاز تم نشره بواسطة "خدمات MOSIP".</t>
-  </si>
-  <si>
     <t>UIN $uin: مصادقة $status</t>
-  </si>
-  <si>
-    <t>مصادقة UIN باستخدام $authType هي $date إلى $time hours $status على جهاز تم نشره بواسطة "خدمات MOSIP".</t>
   </si>
   <si>
     <t>UIN $uin: طلب OTP</t>
@@ -925,6 +922,15 @@
     <t>consent</t>
   </si>
   <si>
+    <t>To provide consent for storage and utilization of personal information as given</t>
+  </si>
+  <si>
+    <t>لتقديم موافقة لتخزين واستخدام المعلومات الشخصية على النحو الوارد</t>
+  </si>
+  <si>
+    <t>Donner son ement pour le stockage et l'utilisation des informations personnelles telles qu'elles sont données</t>
+  </si>
+  <si>
     <t>auth otp service</t>
   </si>
   <si>
@@ -943,9 +949,6 @@
     <t>Please find the otp $otp</t>
   </si>
   <si>
-    <t>Pre Registration</t>
-  </si>
-  <si>
     <t>auth otp email service subject</t>
   </si>
   <si>
@@ -962,6 +965,15 @@
   </si>
   <si>
     <t>Message Otp</t>
+  </si>
+  <si>
+    <t>Cher $name,OTP pour UIN $uin est $otp et est valide pour $validTime minutes. (Généré le $date à $time Hrs)</t>
+  </si>
+  <si>
+    <t>عزيزي $name ،\nOTP لـ UIN $uin هو $otp وهو صالح لمدة $validTime دقيقة. (التي تم إنشاؤها على $date في $time ساعات)</t>
+  </si>
+  <si>
+    <t>Dear $name\nOTP for UIN  $uin is $otp and is valid for $validTime minutes. (Generated on $date at $time Hrs)</t>
   </si>
   <si>
     <t>OTP for UIN  $uin is $otp and is valid for $validTime minutes. (Generated on $date at $time Hrs)</t>
@@ -1143,6 +1155,24 @@
 &lt;div ${AckReceipt}&gt;&lt;p&gt;${ImportantGuidelines}&lt;/p&gt;&lt;ul&gt;${Guidelines}&lt;/ul&gt;&lt;/div&gt;&lt;/div&gt;&lt;/body&gt;&lt;/html&gt;</t>
   </si>
   <si>
+    <t>&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.previewPhoto{float:right;position:absolute;top:220px;}.photo{float:right;position:absolute;top:280px;}
+.applicantPhoto{position:absolute;top:-35px;left:500px;}
+.applicantPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:520px;}
+.parentPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:625px;}
+.applicantPhotoLabel2{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:650px;}
+.parentPhoto{position:absolute;top:-35px;left:630px;}
+.form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:10px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:90px;}.leftRing{top:3px;left:103px;}.leftMiddle{top:-7px;left:119px;}.leftIndex{top:3px;left:132px;}.rightIndex{top:3px;left:105px;}.rightMiddle{top:-7px;left:119px;}.rightRing{top:3px;left:132px;}.rightLittle{top:15px;left:146px;}.leftThumb{top:-4px;left:105px;}.rightThumb{top:-4px;left:130px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.modify{float:right;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;}
+.consent-text{margin-left: 7px;margin-bottom: 4px;}
+input[type="radio"] {display: none;}
+input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;}
+input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;}
+*,*:before,*:after { box-sizing: border-box;}
+.consent-block label { display: inline-flex; align-items: center;}
+&lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";}
+if(element.value == "no"){div.style = "border: 2px solid #FF0000";}}
+document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;/head&gt;</t>
+  </si>
+  <si>
     <t>Masked UIN card template</t>
   </si>
   <si>
@@ -1150,10 +1180,6 @@
   </si>
   <si>
     <t>Modèle de carte Masked UIN</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
-تم إنشاء UIN الخاص بك للتسجيل $!RID بنجاح وستصل قريبًا إلى العنوان البريدي الخاص بك.</t>
   </si>
   <si>
     <t>$!name_ara ،
@@ -1764,11 +1790,6 @@
   </si>
   <si>
     <t>$!name_ara ،
-تم إنشاء UIN الخاص بك للتسجيل $!RID بنجاح وستصل قريبًا إلى العنوان البريدي الخاص بك.
-شكرا</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
 تم إلغاء تنشيط UIN الخاص بك.
 إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.
 شكرا</t>
@@ -1780,33 +1801,6 @@
 شكرا</t>
   </si>
   <si>
-    <t>Dear $!name,
-Your UIN Number is $!UIN. You will receive your UIN Card via. our postal service.
-Thank You</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
-أخفق طلبك للتسجيل  $!RID نظرًا لأنه تم العثور على UIN مقابل تفاصيلك. يرجى زيارة أقرب مكتب تسجيل.
-وزيارة https://mosip.io/grievances
-شكرا</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
-أخفق طلبك للتسجيل  $!RID نظرًا لأنه تم العثور على UIN مقابل تفاصيلك. يرجى زيارة أقرب مكتب تسجيل.
-وزيارة https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
-فشل طلب التسجيل $!RID بسبب مشكلة فنية. يرجى زيارة أقرب مكتب تسجيل.
-وزيارة https://mosip.io/grievances
-شكرا</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
-فشل طلب التسجيل $!RID بسبب مشكلة فنية. يرجى زيارة أقرب مكتب تسجيل.
-وزيارة https://mosip.io/grievances</t>
-  </si>
-  <si>
     <t>Dear $name_eng,
 Your UIN for Registration ID: $!RID has been successfully generated and will reach soon at your postal address.
 Thank You</t>
@@ -1879,28 +1873,6 @@
   </si>
   <si>
     <t>Cher $!name_fra,
-Votre demande d'enregistrement $!RID a échoué car un UIN a été trouvé contre vos coordonnées. Veuillez vous rendre au bureau d'inscription le plus proche.
-Et visitez https://mosip.io/grievances
-Merci</t>
-  </si>
-  <si>
-    <t>Cher $!name_fra,
-Votre demande d'enregistrement $!RID a échoué car un UIN a été trouvé contre vos coordonnées. Veuillez vous rendre au bureau d'inscription le plus proche.
-Et visitez https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>Cher $!name_fra,
-Votre demande d'enregistrement $!RID a échoué à cause d'un problème technique. Veuillez vous rendre au bureau d'inscription le plus proche.
-Et visitez https://mosip.io/grievances
-Merci</t>
-  </si>
-  <si>
-    <t>Cher $!name_fra,
-Votre demande d'enregistrement $!RID a échoué à cause d'un problème technique. Veuillez vous rendre au bureau d'inscription le plus proche.
-Et visitez https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>Cher $!name_fra,
 Votre UIN pour ID d’enregistrement: $!RID a été généré avec succès et vous parviendra sous peu à votre adresse postale.
 Merci</t>
   </si>
@@ -1934,15 +1906,6 @@
   </si>
   <si>
     <t>Dear $!name_eng,
-Your request for UIN for Registration $!RID has failed because of a technical issue. Please visit your nearest Registration office or visit https://mosip.io/grievances
-Thank You</t>
-  </si>
-  <si>
-    <t>Dear $!name_eng,
-Your request for UIN for Registration $!RID has failed because of a technical issue. Please visit your nearest Registration office or visit https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>Dear $!name_eng,
 Your UIN details for the Registration ID: $!RID have been updated and a physical copy of your UIN card will reach you soon at your postal address.
 Thank You</t>
   </si>
@@ -1956,49 +1919,89 @@
 If you have any conserns please visit the nearest Registration Center.</t>
   </si>
   <si>
-    <t>&lt;!DOCTYPE html&gt;&lt;html&gt;&lt;head&gt;&lt;style&gt;body{font-family:"Roboto";}table, .head{font-size:13px;}.previewPhoto{float:right;position:absolute;top:220px;}.photo{float:right;position:absolute;top:280px;} .applicantPhoto{position:absolute;top:-35px;left:500px;} .applicantPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:520px;} .parentPhotoLabel{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:625px;} .applicantPhotoLabel2{color:#808080;font-size:10px;position:absolute;white-space:nowrap;top:-70px;left:650px;} .parentPhoto{position:absolute;top:-35px;left:630px;} .form{display:inline-block;}.section{align:center;padding:30px;width:800px;margin:auto;}.headings{color:#808080;font-size:10px;}p{display:inline;}.dataTable{word-wrap:break-word;table-layout:fixed;width:70%;}.headerTable{width:90%;}.uinHeaderTable{width:100%;}h5{display:inline;position:absolute;}.iris{top:-15px;left:152px;}.irisWithoutException{top:-15px;left:114px;}.tableWithoutException{width:50%;text-align:center;table-layout:fixed;margin:0 auto;}.biometricsTable{width:100%;text-align:center;table-layout:fixed;}.biometrics{position:relative;}.leftLittle{top:15px;left:90px;}.leftRing{top:3px;left:103px;}.leftMiddle{top:-7px;left:119px;}.leftIndex{top:3px;left:132px;}.rightIndex{top:3px;left:105px;}.rightMiddle{top:-7px;left:119px;}.rightRing{top:3px;left:132px;}.rightLittle{top:15px;left:146px;}.leftThumb{top:-4px;left:105px;}.rightThumb{top:-4px;left:130px;}.parentStyle{top:-15px;left:152px;}.parentIris1{top:-15px;left:212px;}.parentIris2{top:-15px;left:214px;}li span{color:black;font-size:12px;} li{color:lightgrey}button{float:right;font-size:12px;border:none;background-color:transparent;outline:none;}button:active{background-color:black;color:white;}.modify{float:right;}.bottom{vertical-align:bottom;}.consent-block{font-size:13px;border-radius: 8px;margin-top: 10px;margin-bottom: 10px;border: 2px solid #E88E3F;padding-top: -50px;padding:10px;} .consent-text{margin-left: 7px;margin-bottom: 4px;} input[type="radio"] {display: none;} input[type="radio"] + label:before { content: ""; display: inline-block; width: 15px; height: 15px; padding: 3px; margin-right: 5px; background-clip: content-box; border: 1px solid grey; background-color: #fff; border-radius: 50%;} input[type="radio"]:checked + label:before { background-color: #FF4081; border-color:#FF4081;} *,*:before,*:after { box-sizing: border-box;} .consent-block label { display: inline-flex; align-items: center;} &lt;/style&gt;&lt;script&gt;function changeColour(element) { var div = document.getElementById("radioId"); if(element.value == "yes"){div.style = "border: 2px solid #68A933";} if(element.value == "no"){div.style = "border: 2px solid #FF0000";}} document.onreadystatechange = function () {if(document.readyState === "complete"){var body = document.getElementsByTagName("body")[0]; body.addEventListener("dragstart", function(event) {event.preventDefault();}); body.addEventListener("selectstart", function(event) {event.preventDefault();});}}&lt;/script&gt;&lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"/&gt;&lt;/head&gt;</t>
-  </si>
-  <si>
-    <t>Dear $name
-OTP for UIN  $uin is $otp and is valid for $validTime minutes. (Generated on $date at $time Hrs)</t>
-  </si>
-  <si>
-    <t>Cher $name,
-OTP pour UIN $uin est $otp et est valide pour $validTime minutes. (Généré le $date à $time Hrs)</t>
+    <t>Dear $!name_eng,
+Your request for UIN for Registration ID: $!RID has failed because of a technical issue. Please visit your nearest Registration office or visit https://mosip.io/grievances
+Thank You</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your request for UIN for Registration ID: $!RID has failed because of a technical issue. Please visit your nearest Registration office or visit https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>Dear $name_eng,
+Your UIN is Found. You will receive your UIN Card soon at your Postal Address.</t>
+  </si>
+  <si>
+    <t>$!name_ara،
+لقد فشل طلبك الخاص بـ UIN لمعرف التسجيل: $!RID لأنه تم العثور على UIN مكرر مقابل تفاصيلك. يرجى زيارة أقرب مكتب للتسجيل أو زيارة https://mosip.io/grievances
+شكرا جزيلا</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Votre demande d'UIN pour l'ID d'enregistrement: $!RID a échoué car un duplicata d'UIN a été trouvé par rapport à vos informations. Veuillez vous rendre au bureau d’enregistrement le plus proche ou sur https://mosip.io/grievances
+Merci</t>
+  </si>
+  <si>
+    <t>$!name_ara،
+لقد فشل طلبك الخاص بـ UIN لمعرف التسجيل: $!RID لأنه تم العثور على UIN مكرر مقابل تفاصيلك. يرجى زيارة أقرب مكتب للتسجيل أو زيارة https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Votre demande d'UIN pour l'ID d'enregistrement: $!RID a échoué car un duplicata d'UIN a été trouvé par rapport à vos informations. Veuillez vous rendre au bureau d’enregistrement le plus proche ou sur https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Votre UIN est trouvé. Vous recevrez bientôt votre carte UIN à votre adresse postale.</t>
+  </si>
+  <si>
+    <t>$!name_ara،
+تم العثور على UIN الخاص بك. ستتلقى بطاقة UIN الخاصة بك قريبًا على عنوانك البريدي.</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Votre demande d'UIN pour l'ID d'enregistrement: $!RID a échoué en raison d'un problème technique. Veuillez vous rendre au bureau d’enregistrement le plus proche ou sur https://mosip.io/grievances
+Merci</t>
+  </si>
+  <si>
+    <t>$!name_ara،
+طلبك لـ UIN لمعرف التسجيل: $!RID فشل بسبب مشكلة فنية. يرجى زيارة أقرب مكتب للتسجيل أو زيارة https://mosip.io/grievances
+شكرا جزيلا</t>
+  </si>
+  <si>
+    <t>$!name_ara،
+طلبك لـ UIN لمعرف التسجيل: $!RID فشل بسبب مشكلة فنية. يرجى زيارة أقرب مكتب للتسجيل أو زيارة https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Votre demande d'UIN pour l'ID d'enregistrement: $!RID a échoué en raison d'un problème technique. Veuillez vous rendre au bureau d’enregistrement le plus proche ou sur https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>$name_ara،
+تم إنشاء رقم UIN الخاص بك لمعرف التسجيل: $!RID بنجاح وسيصل قريباً إلى عنوانك البريدي.
+شكرا جزيلا</t>
+  </si>
+  <si>
+    <t>$name_ara،
+تم إنشاء رقم UIN الخاص بك لمعرف التسجيل: $!RID بنجاح وسيصل قريباً إلى عنوانك البريدي.</t>
   </si>
   <si>
     <t>عزيزي $name ،
-OTP لـ UIN $uin هو $otp وهو صالح لمدة $validTime دقيقة. (التي تم إنشاؤها على $date في $time ساعات)</t>
-  </si>
-  <si>
-    <t>I understand that the data collected about me during pre-registration by the said authority includes my -  
-•                     Name
-•                     Date of birth
-•                     Gender
-•                     Address
-•                     Contact details
-•                     Documents
-I also understand that this information will be stored and processed for the purpose of verifying my identity in order to access various services, or to comply with a legal obligation. I give my consent for the collection of this data for this purpose.</t>
-  </si>
-  <si>
-    <t>وأنا أفهم أن البيانات التي تم جمعها عني خلال التسجيل المسبق من قبل السلطة المذكورة تشمل بلدي -
-• الاسم
-• تاريخ الميلاد
-• نوع الجنس
-• العنوان
-• تفاصيل الاتصال
-• الوثائق
-كما أفهم أنه سيتم تخزين هذه المعلومات ومعالجتها بغرض التحقق من هويتي من أجل الوصول إلى خدمات مختلفة، أو الامتثال لالتزام قانوني. وأوافق على جمع هذه البيانات لهذا الغرض.</t>
-  </si>
-  <si>
-    <t>Je comprends que les données recueillies à mon sujet lors de la pré-enregistrèrent par ladite autorité comprennent mon -
-•                     nom
-•                     Date de naissance
-•                     genre
-•                     adresse
-•                     coordonnées
-•                     Documents
-Je comprends également que ces informations seront stockées et traitées dans le but de vérifier mon identité afin d'accéder à divers services, ou de se conformer à une obligation légale. Je donne mon consentement pour la collecte de ces données à cette fin.</t>
+مصادقة UIN $uin باستخدام $authType على $date في $time Hrs $status على جهاز تم نشره بواسطة "خدمات MOSIP".</t>
+  </si>
+  <si>
+    <t>مصادقتك على UIN $uin باستخدام $authType في $date في $time Hrs $status على جهاز تم نشره بواسطة "خدمات MOSIP".</t>
+  </si>
+  <si>
+    <t>Service d'authentification OTP</t>
+  </si>
+  <si>
+    <t>التسجيل</t>
+  </si>
+  <si>
+    <t>Inscription</t>
+  </si>
+  <si>
+    <t>Registration</t>
   </si>
 </sst>
 </file>
@@ -2489,7 +2492,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2848,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2857,7 +2860,7 @@
     <col min="1" max="1" width="6.453125" style="1" customWidth="1"/>
     <col min="2" max="3" width="55.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.7265625" style="1"/>
-    <col min="6" max="6" width="99.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.1796875" style="1" bestFit="1" customWidth="1"/>
@@ -3021,7 +3024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1101</v>
       </c>
@@ -3034,8 +3037,8 @@
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>259</v>
+      <c r="F5" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="G5" s="1">
         <v>10004</v>
@@ -3073,7 +3076,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G6" s="1">
         <v>10004</v>
@@ -3097,7 +3100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1103</v>
       </c>
@@ -3110,8 +3113,8 @@
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>261</v>
+      <c r="F7" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="G7" s="1">
         <v>10004</v>
@@ -3249,7 +3252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1107</v>
       </c>
@@ -3262,8 +3265,8 @@
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>371</v>
+      <c r="F11" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="G11" s="1">
         <v>10003</v>
@@ -3287,7 +3290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1108</v>
       </c>
@@ -3300,8 +3303,8 @@
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>372</v>
+      <c r="F12" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="G12" s="1">
         <v>10003</v>
@@ -3325,7 +3328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="114.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="126" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1109</v>
       </c>
@@ -3338,8 +3341,8 @@
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>373</v>
+      <c r="F13" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="G13" s="1">
         <v>10003</v>
@@ -3376,8 +3379,8 @@
       <c r="D14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>374</v>
+      <c r="F14" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="G14" s="1">
         <v>10003</v>
@@ -3401,7 +3404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1111</v>
       </c>
@@ -3414,8 +3417,8 @@
       <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>348</v>
+      <c r="F15" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="G15" s="1">
         <v>10003</v>
@@ -3439,7 +3442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1112</v>
       </c>
@@ -3452,8 +3455,8 @@
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>349</v>
+      <c r="F16" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="G16" s="1">
         <v>10003</v>
@@ -3490,8 +3493,8 @@
       <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>375</v>
+      <c r="F17" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="G17" s="1">
         <v>10003</v>
@@ -3528,8 +3531,8 @@
       <c r="D18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>376</v>
+      <c r="F18" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="G18" s="1">
         <v>10003</v>
@@ -3553,7 +3556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1107</v>
       </c>
@@ -3566,8 +3569,8 @@
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>344</v>
+      <c r="F19" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="G19" s="1">
         <v>10003</v>
@@ -3591,7 +3594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1108</v>
       </c>
@@ -3604,8 +3607,8 @@
       <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>345</v>
+      <c r="F20" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="G20" s="1">
         <v>10003</v>
@@ -3629,7 +3632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1109</v>
       </c>
@@ -3642,8 +3645,8 @@
       <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>346</v>
+      <c r="F21" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="G21" s="1">
         <v>10003</v>
@@ -3667,7 +3670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1110</v>
       </c>
@@ -3680,8 +3683,8 @@
       <c r="D22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>347</v>
+      <c r="F22" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="G22" s="1">
         <v>10003</v>
@@ -3705,7 +3708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1111</v>
       </c>
@@ -3718,8 +3721,8 @@
       <c r="D23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>340</v>
+      <c r="F23" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="G23" s="1">
         <v>10003</v>
@@ -3743,7 +3746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1112</v>
       </c>
@@ -3756,8 +3759,8 @@
       <c r="D24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>332</v>
+      <c r="F24" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="G24" s="1">
         <v>10003</v>
@@ -3781,7 +3784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1113</v>
       </c>
@@ -3795,7 +3798,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G25" s="1">
         <v>10003</v>
@@ -3819,7 +3822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1114</v>
       </c>
@@ -3832,8 +3835,8 @@
       <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>351</v>
+      <c r="F26" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="G26" s="1">
         <v>10003</v>
@@ -3857,7 +3860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1107</v>
       </c>
@@ -3870,8 +3873,8 @@
       <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>362</v>
+      <c r="F27" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="G27" s="1">
         <v>10003</v>
@@ -3895,7 +3898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1108</v>
       </c>
@@ -3908,8 +3911,8 @@
       <c r="D28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>363</v>
+      <c r="F28" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="G28" s="1">
         <v>10003</v>
@@ -3933,7 +3936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="145" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1109</v>
       </c>
@@ -3946,8 +3949,8 @@
       <c r="D29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>364</v>
+      <c r="F29" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="G29" s="1">
         <v>10003</v>
@@ -3971,7 +3974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1110</v>
       </c>
@@ -3984,8 +3987,8 @@
       <c r="D30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>365</v>
+      <c r="F30" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="G30" s="1">
         <v>10003</v>
@@ -4009,7 +4012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1111</v>
       </c>
@@ -4022,8 +4025,8 @@
       <c r="D31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>366</v>
+      <c r="F31" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="G31" s="1">
         <v>10003</v>
@@ -4047,7 +4050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1112</v>
       </c>
@@ -4060,8 +4063,8 @@
       <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>367</v>
+      <c r="F32" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="G32" s="1">
         <v>10003</v>
@@ -4085,7 +4088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1113</v>
       </c>
@@ -4098,8 +4101,8 @@
       <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>368</v>
+      <c r="F33" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="G33" s="1">
         <v>10003</v>
@@ -4123,7 +4126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1114</v>
       </c>
@@ -4136,8 +4139,8 @@
       <c r="D34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>369</v>
+      <c r="F34" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="G34" s="1">
         <v>10003</v>
@@ -4161,7 +4164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1115</v>
       </c>
@@ -4174,7 +4177,7 @@
       <c r="D35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G35" s="1">
@@ -5985,7 +5988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>1131</v>
       </c>
@@ -5998,8 +6001,8 @@
       <c r="D83" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>336</v>
+      <c r="F83" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="G83" s="1">
         <v>10003</v>
@@ -6023,7 +6026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>1131</v>
       </c>
@@ -6036,8 +6039,8 @@
       <c r="D84" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>337</v>
+      <c r="F84" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="G84" s="1">
         <v>10003</v>
@@ -6061,7 +6064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>1131</v>
       </c>
@@ -6074,8 +6077,8 @@
       <c r="D85" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>337</v>
+      <c r="F85" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="G85" s="1">
         <v>10003</v>
@@ -6099,7 +6102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>1132</v>
       </c>
@@ -6112,8 +6115,8 @@
       <c r="D86" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>353</v>
+      <c r="F86" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="G86" s="1">
         <v>10003</v>
@@ -6137,7 +6140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>1132</v>
       </c>
@@ -6150,8 +6153,8 @@
       <c r="D87" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>333</v>
+      <c r="F87" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="G87" s="1">
         <v>10003</v>
@@ -6175,7 +6178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>1132</v>
       </c>
@@ -6188,8 +6191,8 @@
       <c r="D88" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>352</v>
+      <c r="F88" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="G88" s="1">
         <v>10003</v>
@@ -6213,7 +6216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>1133</v>
       </c>
@@ -6226,8 +6229,8 @@
       <c r="D89" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>354</v>
+      <c r="F89" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="G89" s="1">
         <v>10003</v>
@@ -6251,7 +6254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>1133</v>
       </c>
@@ -6264,8 +6267,8 @@
       <c r="D90" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>341</v>
+      <c r="F90" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="G90" s="1">
         <v>10003</v>
@@ -6289,7 +6292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>1133</v>
       </c>
@@ -6302,8 +6305,8 @@
       <c r="D91" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>355</v>
+      <c r="F91" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="G91" s="1">
         <v>10003</v>
@@ -6327,7 +6330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>1134</v>
       </c>
@@ -6340,8 +6343,8 @@
       <c r="D92" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>377</v>
+      <c r="F92" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="G92" s="1">
         <v>10003</v>
@@ -6365,7 +6368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>1134</v>
       </c>
@@ -6378,8 +6381,8 @@
       <c r="D93" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>358</v>
+      <c r="F93" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="G93" s="1">
         <v>10003</v>
@@ -6403,7 +6406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>1134</v>
       </c>
@@ -6416,8 +6419,8 @@
       <c r="D94" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>357</v>
+      <c r="F94" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="G94" s="1">
         <v>10003</v>
@@ -6441,7 +6444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>1135</v>
       </c>
@@ -6454,8 +6457,8 @@
       <c r="D95" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>356</v>
+      <c r="F95" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="G95" s="1">
         <v>10003</v>
@@ -6479,7 +6482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>1135</v>
       </c>
@@ -6492,8 +6495,8 @@
       <c r="D96" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>342</v>
+      <c r="F96" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="G96" s="1">
         <v>10003</v>
@@ -6517,7 +6520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>1135</v>
       </c>
@@ -6530,8 +6533,8 @@
       <c r="D97" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>370</v>
+      <c r="F97" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="G97" s="1">
         <v>10003</v>
@@ -6572,16 +6575,16 @@
         <v>216</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G98" s="1">
         <v>10005</v>
       </c>
       <c r="H98" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>18</v>
@@ -6596,15 +6599,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>1136</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>14</v>
@@ -6612,17 +6615,17 @@
       <c r="E99" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>327</v>
+      <c r="F99" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="G99" s="1">
         <v>10005</v>
       </c>
       <c r="H99" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I99" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>34</v>
@@ -6642,10 +6645,10 @@
         <v>1136</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>14</v>
@@ -6654,16 +6657,16 @@
         <v>216</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G100" s="1">
         <v>10005</v>
       </c>
       <c r="H100" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I100" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>43</v>
@@ -6683,7 +6686,7 @@
         <v>1137</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>215</v>
@@ -6695,16 +6698,16 @@
         <v>216</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G101" s="1">
         <v>10005</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>217</v>
+        <v>388</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>18</v>
@@ -6719,15 +6722,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>1137</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>14</v>
@@ -6735,17 +6738,17 @@
       <c r="E102" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>327</v>
+      <c r="F102" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="G102" s="1">
         <v>10005</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>217</v>
+        <v>386</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>34</v>
@@ -6765,10 +6768,10 @@
         <v>1137</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>14</v>
@@ -6777,16 +6780,16 @@
         <v>216</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G103" s="1">
         <v>10005</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>217</v>
+        <v>387</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>43</v>
@@ -6806,10 +6809,10 @@
         <v>1138</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>14</v>
@@ -6818,16 +6821,16 @@
         <v>216</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="G104" s="1">
         <v>10005</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>217</v>
+        <v>388</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>18</v>
@@ -6847,10 +6850,10 @@
         <v>1138</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>14</v>
@@ -6859,16 +6862,16 @@
         <v>216</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="G105" s="1">
         <v>10005</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>217</v>
+        <v>386</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>34</v>
@@ -6888,10 +6891,10 @@
         <v>1138</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>14</v>
@@ -6900,16 +6903,16 @@
         <v>216</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="G106" s="1">
         <v>10005</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>217</v>
+        <v>387</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>43</v>
@@ -6929,10 +6932,10 @@
         <v>1139</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>14</v>
@@ -6941,16 +6944,16 @@
         <v>216</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G107" s="1">
         <v>10005</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>217</v>
+        <v>388</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>18</v>
@@ -6970,10 +6973,10 @@
         <v>1139</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>14</v>
@@ -6982,16 +6985,16 @@
         <v>216</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G108" s="1">
         <v>10005</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>217</v>
+        <v>386</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>34</v>
@@ -7011,10 +7014,10 @@
         <v>1139</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>14</v>
@@ -7023,16 +7026,16 @@
         <v>216</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G109" s="1">
         <v>10005</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>217</v>
+        <v>387</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>43</v>
@@ -7052,10 +7055,10 @@
         <v>1140</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>14</v>
@@ -7064,16 +7067,16 @@
         <v>216</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G110" s="1">
         <v>10005</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>217</v>
+        <v>388</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>18</v>
@@ -7093,10 +7096,10 @@
         <v>1140</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>14</v>
@@ -7105,16 +7108,16 @@
         <v>216</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G111" s="1">
         <v>10005</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>217</v>
+        <v>386</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>34</v>
@@ -7134,10 +7137,10 @@
         <v>1140</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>14</v>
@@ -7146,16 +7149,16 @@
         <v>216</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G112" s="1">
         <v>10005</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>217</v>
+        <v>387</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>43</v>
@@ -7171,35 +7174,35 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
+      <c r="A113" t="s">
+        <v>248</v>
+      </c>
+      <c r="B113" t="s">
         <v>249</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" t="s">
         <v>250</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E113" s="1" t="s">
+      <c r="F113" t="s">
         <v>252</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G113" s="1">
+      <c r="G113">
         <v>10001</v>
       </c>
       <c r="H113" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I113" t="s">
+        <v>162</v>
+      </c>
+      <c r="J113" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="K113" s="1" t="b">
         <v>1</v>
@@ -7213,116 +7216,116 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B114" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" t="s">
+        <v>250</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F114" t="s">
+        <v>252</v>
+      </c>
+      <c r="G114">
+        <v>10002</v>
+      </c>
+      <c r="H114" t="s">
+        <v>253</v>
+      </c>
+      <c r="I114" t="s">
+        <v>162</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K114" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>256</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" t="s">
+        <v>249</v>
+      </c>
+      <c r="C115" t="s">
         <v>250</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114" s="1" t="s">
+      <c r="F115" t="s">
+        <v>336</v>
+      </c>
+      <c r="G115">
+        <v>10003</v>
+      </c>
+      <c r="H115" t="s">
+        <v>253</v>
+      </c>
+      <c r="I115" t="s">
+        <v>162</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K115" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>257</v>
+      </c>
+      <c r="B116" t="s">
+        <v>249</v>
+      </c>
+      <c r="C116" t="s">
+        <v>250</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F116" t="s">
         <v>252</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G114" s="1">
-        <v>10002</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="K114" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M114" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G115" s="1">
-        <v>10003</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="K115" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G116" s="1">
+      <c r="G116">
         <v>10004</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I116" s="1" t="s">
+      <c r="I116" t="s">
         <v>162</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K116" s="1" t="b">
         <v>1</v>
@@ -7339,10 +7342,10 @@
         <v>1141</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>14</v>
@@ -7351,19 +7354,19 @@
         <v>216</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G117" s="1">
         <v>10005</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>217</v>
+        <v>388</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K117" s="1" t="b">
         <v>1</v>
@@ -7380,10 +7383,10 @@
         <v>1141</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>14</v>
@@ -7392,16 +7395,16 @@
         <v>216</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G118" s="1">
         <v>10005</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>217</v>
+        <v>386</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>34</v>
@@ -7421,10 +7424,10 @@
         <v>1141</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>14</v>
@@ -7433,16 +7436,16 @@
         <v>216</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G119" s="1">
         <v>10005</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>217</v>
+        <v>387</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>43</v>
@@ -7458,772 +7461,772 @@
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A120" s="1">
+      <c r="A120">
         <v>1142</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" t="s">
         <v>278</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" t="s">
         <v>279</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" s="1" t="s">
+      <c r="D120" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" t="s">
         <v>216</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F120" t="s">
         <v>280</v>
       </c>
-      <c r="G120" s="1">
+      <c r="G120">
         <v>10001</v>
       </c>
       <c r="H120" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I120" t="s">
+        <v>281</v>
+      </c>
+      <c r="J120" t="s">
+        <v>34</v>
+      </c>
+      <c r="K120" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>1142</v>
+      </c>
+      <c r="B121" t="s">
+        <v>278</v>
+      </c>
+      <c r="C121" t="s">
+        <v>279</v>
+      </c>
+      <c r="D121" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" t="s">
+        <v>216</v>
+      </c>
+      <c r="F121" t="s">
+        <v>283</v>
+      </c>
+      <c r="G121">
+        <v>10001</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I121" t="s">
+        <v>281</v>
+      </c>
+      <c r="J121" t="s">
+        <v>18</v>
+      </c>
+      <c r="K121" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>1142</v>
+      </c>
+      <c r="B122" t="s">
+        <v>278</v>
+      </c>
+      <c r="C122" t="s">
+        <v>279</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s">
+        <v>216</v>
+      </c>
+      <c r="F122" t="s">
+        <v>283</v>
+      </c>
+      <c r="G122">
+        <v>10001</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I122" t="s">
+        <v>281</v>
+      </c>
+      <c r="J122" t="s">
+        <v>43</v>
+      </c>
+      <c r="K122" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>1143</v>
+      </c>
+      <c r="B123" t="s">
         <v>284</v>
       </c>
-      <c r="I120" s="1" t="s">
+      <c r="C123" t="s">
+        <v>284</v>
+      </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" t="s">
+        <v>216</v>
+      </c>
+      <c r="F123" t="s">
+        <v>285</v>
+      </c>
+      <c r="G123">
+        <v>10001</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I123" t="s">
+        <v>286</v>
+      </c>
+      <c r="J123" t="s">
+        <v>34</v>
+      </c>
+      <c r="K123" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>1143</v>
+      </c>
+      <c r="B124" t="s">
+        <v>284</v>
+      </c>
+      <c r="C124" t="s">
+        <v>284</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s">
+        <v>216</v>
+      </c>
+      <c r="F124" t="s">
+        <v>287</v>
+      </c>
+      <c r="G124">
+        <v>10001</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I124" t="s">
+        <v>286</v>
+      </c>
+      <c r="J124" t="s">
+        <v>18</v>
+      </c>
+      <c r="K124" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>1143</v>
+      </c>
+      <c r="B125" t="s">
+        <v>284</v>
+      </c>
+      <c r="C125" t="s">
+        <v>284</v>
+      </c>
+      <c r="D125" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" t="s">
+        <v>216</v>
+      </c>
+      <c r="F125" t="s">
+        <v>287</v>
+      </c>
+      <c r="G125">
+        <v>10001</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I125" t="s">
+        <v>286</v>
+      </c>
+      <c r="J125" t="s">
+        <v>43</v>
+      </c>
+      <c r="K125" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>1144</v>
+      </c>
+      <c r="B126" t="s">
+        <v>284</v>
+      </c>
+      <c r="C126" t="s">
+        <v>284</v>
+      </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" t="s">
+        <v>216</v>
+      </c>
+      <c r="F126" t="s">
+        <v>280</v>
+      </c>
+      <c r="G126">
+        <v>10001</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I126" t="s">
+        <v>288</v>
+      </c>
+      <c r="J126" t="s">
+        <v>34</v>
+      </c>
+      <c r="K126" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>1144</v>
+      </c>
+      <c r="B127" t="s">
+        <v>284</v>
+      </c>
+      <c r="C127" t="s">
+        <v>284</v>
+      </c>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" t="s">
+        <v>216</v>
+      </c>
+      <c r="F127" t="s">
+        <v>283</v>
+      </c>
+      <c r="G127">
+        <v>10001</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I127" t="s">
+        <v>288</v>
+      </c>
+      <c r="J127" t="s">
+        <v>18</v>
+      </c>
+      <c r="K127" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>1144</v>
+      </c>
+      <c r="B128" t="s">
+        <v>284</v>
+      </c>
+      <c r="C128" t="s">
+        <v>284</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" t="s">
+        <v>216</v>
+      </c>
+      <c r="F128" t="s">
+        <v>283</v>
+      </c>
+      <c r="G128">
+        <v>10001</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I128" t="s">
+        <v>288</v>
+      </c>
+      <c r="J128" t="s">
+        <v>43</v>
+      </c>
+      <c r="K128" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>1145</v>
+      </c>
+      <c r="B129" t="s">
+        <v>278</v>
+      </c>
+      <c r="C129" t="s">
+        <v>279</v>
+      </c>
+      <c r="D129" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" t="s">
+        <v>216</v>
+      </c>
+      <c r="F129" t="s">
+        <v>280</v>
+      </c>
+      <c r="G129">
+        <v>10002</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I129" t="s">
         <v>281</v>
       </c>
-      <c r="J120" s="1" t="s">
+      <c r="J129" t="s">
         <v>34</v>
       </c>
-      <c r="K120" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M120" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A121" s="1">
-        <v>1142</v>
-      </c>
-      <c r="B121" s="1" t="s">
+      <c r="K129" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>1145</v>
+      </c>
+      <c r="B130" t="s">
+        <v>385</v>
+      </c>
+      <c r="C130" t="s">
+        <v>279</v>
+      </c>
+      <c r="D130" t="s">
+        <v>14</v>
+      </c>
+      <c r="E130" t="s">
+        <v>216</v>
+      </c>
+      <c r="F130" t="s">
+        <v>282</v>
+      </c>
+      <c r="G130">
+        <v>10002</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I130" t="s">
+        <v>281</v>
+      </c>
+      <c r="J130" t="s">
+        <v>43</v>
+      </c>
+      <c r="K130" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>1145</v>
+      </c>
+      <c r="B131" t="s">
         <v>278</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C131" t="s">
         <v>279</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E121" s="1" t="s">
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" t="s">
         <v>216</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F131" t="s">
         <v>283</v>
       </c>
-      <c r="G121" s="1">
-        <v>10001</v>
-      </c>
-      <c r="H121" s="1" t="s">
+      <c r="G131">
+        <v>10002</v>
+      </c>
+      <c r="H131" t="s">
+        <v>90</v>
+      </c>
+      <c r="I131" t="s">
+        <v>281</v>
+      </c>
+      <c r="J131" t="s">
+        <v>18</v>
+      </c>
+      <c r="K131" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>1146</v>
+      </c>
+      <c r="B132" t="s">
         <v>284</v>
       </c>
-      <c r="I121" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="J121" s="1" t="s">
+      <c r="C132" t="s">
+        <v>284</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" t="s">
+        <v>216</v>
+      </c>
+      <c r="F132" t="s">
+        <v>285</v>
+      </c>
+      <c r="G132">
+        <v>10002</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I132" t="s">
+        <v>286</v>
+      </c>
+      <c r="J132" t="s">
+        <v>34</v>
+      </c>
+      <c r="K132" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>1146</v>
+      </c>
+      <c r="B133" t="s">
+        <v>284</v>
+      </c>
+      <c r="C133" t="s">
+        <v>284</v>
+      </c>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" t="s">
+        <v>216</v>
+      </c>
+      <c r="F133" t="s">
+        <v>289</v>
+      </c>
+      <c r="G133">
+        <v>10002</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I133" t="s">
+        <v>286</v>
+      </c>
+      <c r="J133" t="s">
+        <v>43</v>
+      </c>
+      <c r="K133" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>1146</v>
+      </c>
+      <c r="B134" t="s">
+        <v>284</v>
+      </c>
+      <c r="C134" t="s">
+        <v>284</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" t="s">
+        <v>216</v>
+      </c>
+      <c r="F134" t="s">
+        <v>287</v>
+      </c>
+      <c r="G134">
+        <v>10002</v>
+      </c>
+      <c r="H134" t="s">
+        <v>90</v>
+      </c>
+      <c r="I134" t="s">
+        <v>286</v>
+      </c>
+      <c r="J134" t="s">
         <v>18</v>
       </c>
-      <c r="K121" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M121" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A122" s="1">
-        <v>1142</v>
-      </c>
-      <c r="B122" s="1" t="s">
+      <c r="K134" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>1147</v>
+      </c>
+      <c r="B135" t="s">
+        <v>284</v>
+      </c>
+      <c r="C135" t="s">
+        <v>284</v>
+      </c>
+      <c r="D135" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" t="s">
+        <v>216</v>
+      </c>
+      <c r="F135" t="s">
+        <v>280</v>
+      </c>
+      <c r="G135">
+        <v>10002</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I135" t="s">
+        <v>288</v>
+      </c>
+      <c r="J135" t="s">
+        <v>34</v>
+      </c>
+      <c r="K135" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>1147</v>
+      </c>
+      <c r="B136" t="s">
+        <v>284</v>
+      </c>
+      <c r="C136" t="s">
+        <v>284</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" t="s">
+        <v>216</v>
+      </c>
+      <c r="F136" t="s">
+        <v>283</v>
+      </c>
+      <c r="G136">
+        <v>10002</v>
+      </c>
+      <c r="H136" t="s">
+        <v>90</v>
+      </c>
+      <c r="I136" t="s">
+        <v>288</v>
+      </c>
+      <c r="J136" t="s">
+        <v>18</v>
+      </c>
+      <c r="K136" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>1147</v>
+      </c>
+      <c r="B137" t="s">
+        <v>284</v>
+      </c>
+      <c r="C137" t="s">
+        <v>284</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" t="s">
+        <v>216</v>
+      </c>
+      <c r="F137" t="s">
+        <v>282</v>
+      </c>
+      <c r="G137">
+        <v>10002</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I137" t="s">
+        <v>288</v>
+      </c>
+      <c r="J137" t="s">
+        <v>43</v>
+      </c>
+      <c r="K137" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>1148</v>
+      </c>
+      <c r="B138" t="s">
         <v>278</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C138" t="s">
         <v>279</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E122" s="1" t="s">
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" t="s">
         <v>216</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G122" s="1">
-        <v>10001</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K122" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M122" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A123" s="1">
-        <v>1143</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G123" s="1">
-        <v>10001</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K123" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M123" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A124" s="1">
-        <v>1143</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G124" s="1">
-        <v>10001</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K124" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A125" s="1">
-        <v>1143</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G125" s="1">
-        <v>10001</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K125" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L125" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M125" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A126" s="1">
-        <v>1144</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F126" s="1" t="s">
+      <c r="F138" t="s">
         <v>280</v>
       </c>
-      <c r="G126" s="1">
-        <v>10001</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K126" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L126" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A127" s="1">
-        <v>1144</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G127" s="1">
-        <v>10001</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K127" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L127" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M127" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A128" s="1">
-        <v>1144</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F128" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G128" s="1">
-        <v>10001</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K128" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L128" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M128" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A129" s="1">
-        <v>1145</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G129" s="1">
-        <v>10002</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K129" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L129" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M129" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A130" s="1">
-        <v>1145</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G130" s="1">
-        <v>10002</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K130" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L130" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M130" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A131" s="1">
-        <v>1145</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G131" s="1">
-        <v>10002</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K131" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L131" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M131" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A132" s="1">
-        <v>1146</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G132" s="1">
-        <v>10002</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K132" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L132" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M132" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A133" s="1">
-        <v>1146</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G133" s="1">
-        <v>10002</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K133" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M133" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A134" s="1">
-        <v>1146</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G134" s="1">
-        <v>10002</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K134" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M134" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A135" s="1">
-        <v>1147</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G135" s="1">
-        <v>10002</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K135" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A136" s="1">
-        <v>1147</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G136" s="1">
-        <v>10002</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K136" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M136" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A137" s="1">
-        <v>1147</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G137" s="1">
-        <v>10002</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K137" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L137" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M137" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A138" s="1">
-        <v>1148</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G138" s="1">
+      <c r="G138">
         <v>10004</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I138" s="1" t="s">
+      <c r="I138" t="s">
         <v>281</v>
       </c>
-      <c r="J138" s="1" t="s">
+      <c r="J138" t="s">
         <v>34</v>
       </c>
       <c r="K138" s="1" t="b">
@@ -8237,34 +8240,34 @@
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A139" s="1">
+      <c r="A139">
         <v>1148</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" t="s">
         <v>278</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C139" t="s">
         <v>279</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E139" s="1" t="s">
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" t="s">
         <v>216</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F139" t="s">
         <v>282</v>
       </c>
-      <c r="G139" s="1">
+      <c r="G139">
         <v>10004</v>
       </c>
-      <c r="H139" s="1" t="s">
+      <c r="H139" t="s">
         <v>42</v>
       </c>
-      <c r="I139" s="1" t="s">
+      <c r="I139" t="s">
         <v>281</v>
       </c>
-      <c r="J139" s="1" t="s">
+      <c r="J139" t="s">
         <v>43</v>
       </c>
       <c r="K139" s="1" t="b">
@@ -8278,34 +8281,34 @@
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A140" s="1">
+      <c r="A140">
         <v>1148</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" t="s">
         <v>278</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" t="s">
         <v>279</v>
       </c>
-      <c r="D140" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E140" s="1" t="s">
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
+      <c r="E140" t="s">
         <v>216</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="F140" t="s">
         <v>283</v>
       </c>
-      <c r="G140" s="1">
+      <c r="G140">
         <v>10004</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I140" s="1" t="s">
+      <c r="I140" t="s">
         <v>281</v>
       </c>
-      <c r="J140" s="1" t="s">
+      <c r="J140" t="s">
         <v>18</v>
       </c>
       <c r="K140" s="1" t="b">
@@ -8319,116 +8322,116 @@
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A141" s="1">
+      <c r="A141">
         <v>1149</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" t="s">
+        <v>284</v>
+      </c>
+      <c r="C141" t="s">
+        <v>284</v>
+      </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s">
+        <v>216</v>
+      </c>
+      <c r="F141" t="s">
         <v>285</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F141" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G141" s="1">
+      <c r="G141">
         <v>10004</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I141" s="1" t="s">
+      <c r="I141" t="s">
+        <v>286</v>
+      </c>
+      <c r="J141" t="s">
+        <v>34</v>
+      </c>
+      <c r="K141" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>1149</v>
+      </c>
+      <c r="B142" t="s">
+        <v>284</v>
+      </c>
+      <c r="C142" t="s">
+        <v>284</v>
+      </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" t="s">
+        <v>216</v>
+      </c>
+      <c r="F142" t="s">
+        <v>289</v>
+      </c>
+      <c r="G142">
+        <v>10004</v>
+      </c>
+      <c r="H142" t="s">
+        <v>42</v>
+      </c>
+      <c r="I142" t="s">
+        <v>286</v>
+      </c>
+      <c r="J142" t="s">
+        <v>43</v>
+      </c>
+      <c r="K142" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>1149</v>
+      </c>
+      <c r="B143" t="s">
+        <v>284</v>
+      </c>
+      <c r="C143" t="s">
+        <v>284</v>
+      </c>
+      <c r="D143" t="s">
+        <v>14</v>
+      </c>
+      <c r="E143" t="s">
+        <v>216</v>
+      </c>
+      <c r="F143" t="s">
         <v>287</v>
       </c>
-      <c r="J141" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K141" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M141" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A142" s="1">
-        <v>1149</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G142" s="1">
-        <v>10004</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K142" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M142" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A143" s="1">
-        <v>1149</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G143" s="1">
+      <c r="G143">
         <v>10004</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I143" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="J143" s="1" t="s">
+      <c r="I143" t="s">
+        <v>286</v>
+      </c>
+      <c r="J143" t="s">
         <v>18</v>
       </c>
       <c r="K143" s="1" t="b">
@@ -8442,34 +8445,34 @@
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A144" s="1">
+      <c r="A144">
         <v>1150</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E144" s="1" t="s">
+      <c r="B144" t="s">
+        <v>284</v>
+      </c>
+      <c r="C144" t="s">
+        <v>284</v>
+      </c>
+      <c r="D144" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" t="s">
         <v>216</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="F144" t="s">
         <v>280</v>
       </c>
-      <c r="G144" s="1">
+      <c r="G144">
         <v>10004</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I144" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="J144" s="1" t="s">
+      <c r="I144" t="s">
+        <v>288</v>
+      </c>
+      <c r="J144" t="s">
         <v>34</v>
       </c>
       <c r="K144" s="1" t="b">
@@ -8483,34 +8486,34 @@
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A145" s="1">
+      <c r="A145">
         <v>1150</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" s="1" t="s">
+      <c r="B145" t="s">
+        <v>284</v>
+      </c>
+      <c r="C145" t="s">
+        <v>284</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" t="s">
         <v>216</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F145" t="s">
         <v>283</v>
       </c>
-      <c r="G145" s="1">
+      <c r="G145">
         <v>10004</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I145" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="J145" s="1" t="s">
+      <c r="I145" t="s">
+        <v>288</v>
+      </c>
+      <c r="J145" t="s">
         <v>18</v>
       </c>
       <c r="K145" s="1" t="b">
@@ -8524,34 +8527,34 @@
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A146" s="1">
+      <c r="A146">
         <v>1150</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E146" s="1" t="s">
+      <c r="B146" t="s">
+        <v>284</v>
+      </c>
+      <c r="C146" t="s">
+        <v>284</v>
+      </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" t="s">
         <v>216</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F146" t="s">
         <v>282</v>
       </c>
-      <c r="G146" s="1">
+      <c r="G146">
         <v>10004</v>
       </c>
-      <c r="H146" s="1" t="s">
+      <c r="H146" t="s">
         <v>42</v>
       </c>
-      <c r="I146" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="J146" s="1" t="s">
+      <c r="I146" t="s">
+        <v>288</v>
+      </c>
+      <c r="J146" t="s">
         <v>43</v>
       </c>
       <c r="K146" s="1" t="b">
@@ -8568,31 +8571,31 @@
       <c r="A147" s="1">
         <v>1151</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" t="s">
         <v>27</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" t="s">
         <v>27</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E147" s="1" t="s">
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" t="s">
         <v>4</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G147" s="1">
+      <c r="F147" t="s">
+        <v>292</v>
+      </c>
+      <c r="G147">
         <v>10004</v>
       </c>
-      <c r="H147" s="1" t="s">
+      <c r="H147" t="s">
         <v>16</v>
       </c>
-      <c r="I147" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="J147" s="1" t="s">
+      <c r="I147" t="s">
+        <v>270</v>
+      </c>
+      <c r="J147" t="s">
         <v>18</v>
       </c>
       <c r="K147" s="1" t="b">
@@ -8609,31 +8612,31 @@
       <c r="A148" s="1">
         <v>1151</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" t="s">
         <v>37</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" t="s">
         <v>37</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E148" s="1" t="s">
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" t="s">
         <v>4</v>
       </c>
-      <c r="F148" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="G148" s="1">
+      <c r="F148" t="s">
+        <v>291</v>
+      </c>
+      <c r="G148">
         <v>10004</v>
       </c>
-      <c r="H148" s="1" t="s">
+      <c r="H148" t="s">
         <v>33</v>
       </c>
-      <c r="I148" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="J148" s="1" t="s">
+      <c r="I148" t="s">
+        <v>270</v>
+      </c>
+      <c r="J148" t="s">
         <v>34</v>
       </c>
       <c r="K148" s="1" t="b">
@@ -8650,28 +8653,29 @@
       <c r="A149" s="1">
         <v>1151</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" t="s">
         <v>48</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" t="s">
         <v>48</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="G149" s="1">
+      <c r="D149" t="s">
+        <v>14</v>
+      </c>
+      <c r="E149"/>
+      <c r="F149" t="s">
+        <v>290</v>
+      </c>
+      <c r="G149">
         <v>10004</v>
       </c>
-      <c r="H149" s="1" t="s">
+      <c r="H149" t="s">
         <v>42</v>
       </c>
-      <c r="I149" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="J149" s="1" t="s">
+      <c r="I149" t="s">
+        <v>270</v>
+      </c>
+      <c r="J149" t="s">
         <v>43</v>
       </c>
       <c r="K149" s="1" t="b">
@@ -8688,31 +8692,31 @@
       <c r="A150" s="1">
         <v>1152</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" t="s">
         <v>28</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" t="s">
         <v>28</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E150" s="1" t="s">
+      <c r="D150" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" t="s">
         <v>4</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F150" t="s">
         <v>29</v>
       </c>
-      <c r="G150" s="1">
+      <c r="G150">
         <v>10004</v>
       </c>
-      <c r="H150" s="1" t="s">
+      <c r="H150" t="s">
         <v>16</v>
       </c>
-      <c r="I150" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="J150" s="1" t="s">
+      <c r="I150" t="s">
+        <v>269</v>
+      </c>
+      <c r="J150" t="s">
         <v>18</v>
       </c>
       <c r="K150" s="1" t="b">
@@ -8729,31 +8733,31 @@
       <c r="A151" s="1">
         <v>1152</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" t="s">
         <v>38</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" t="s">
         <v>38</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E151" s="1" t="s">
+      <c r="D151" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" t="s">
         <v>4</v>
       </c>
-      <c r="F151" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G151" s="1">
+      <c r="F151" t="s">
+        <v>259</v>
+      </c>
+      <c r="G151">
         <v>10004</v>
       </c>
-      <c r="H151" s="1" t="s">
+      <c r="H151" t="s">
         <v>33</v>
       </c>
-      <c r="I151" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="J151" s="1" t="s">
+      <c r="I151" t="s">
+        <v>269</v>
+      </c>
+      <c r="J151" t="s">
         <v>34</v>
       </c>
       <c r="K151" s="1" t="b">
@@ -8770,31 +8774,31 @@
       <c r="A152" s="1">
         <v>1152</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" t="s">
         <v>49</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" t="s">
         <v>49</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E152" s="1" t="s">
+      <c r="D152" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" t="s">
         <v>4</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F152" t="s">
         <v>50</v>
       </c>
-      <c r="G152" s="1">
+      <c r="G152">
         <v>10004</v>
       </c>
-      <c r="H152" s="1" t="s">
+      <c r="H152" t="s">
         <v>42</v>
       </c>
-      <c r="I152" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="J152" s="1" t="s">
+      <c r="I152" t="s">
+        <v>269</v>
+      </c>
+      <c r="J152" t="s">
         <v>43</v>
       </c>
       <c r="K152" s="1" t="b">
@@ -8808,34 +8812,34 @@
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A153" s="1">
+      <c r="A153">
         <v>1153</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" t="s">
         <v>30</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" t="s">
         <v>30</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E153" s="1" t="s">
+      <c r="D153" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" t="s">
         <v>4</v>
       </c>
-      <c r="F153" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G153" s="1">
+      <c r="F153" t="s">
+        <v>293</v>
+      </c>
+      <c r="G153">
         <v>10004</v>
       </c>
-      <c r="H153" s="1" t="s">
+      <c r="H153" t="s">
         <v>16</v>
       </c>
-      <c r="I153" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J153" s="1" t="s">
+      <c r="I153" t="s">
+        <v>268</v>
+      </c>
+      <c r="J153" t="s">
         <v>18</v>
       </c>
       <c r="K153" s="1" t="b">
@@ -8852,31 +8856,31 @@
       <c r="A154" s="1">
         <v>1153</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" t="s">
         <v>39</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C154" t="s">
         <v>39</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E154" s="1" t="s">
+      <c r="D154" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" t="s">
         <v>4</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="F154" t="s">
         <v>32</v>
       </c>
-      <c r="G154" s="1">
+      <c r="G154">
         <v>10004</v>
       </c>
-      <c r="H154" s="1" t="s">
+      <c r="H154" t="s">
         <v>33</v>
       </c>
-      <c r="I154" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J154" s="1" t="s">
+      <c r="I154" t="s">
+        <v>268</v>
+      </c>
+      <c r="J154" t="s">
         <v>34</v>
       </c>
       <c r="K154" s="1" t="b">
@@ -8893,31 +8897,31 @@
       <c r="A155" s="1">
         <v>1153</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" t="s">
         <v>51</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" t="s">
         <v>51</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E155" s="1" t="s">
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" t="s">
         <v>4</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="F155" t="s">
         <v>52</v>
       </c>
-      <c r="G155" s="1">
+      <c r="G155">
         <v>10004</v>
       </c>
-      <c r="H155" s="1" t="s">
+      <c r="H155" t="s">
         <v>42</v>
       </c>
-      <c r="I155" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J155" s="1" t="s">
+      <c r="I155" t="s">
+        <v>268</v>
+      </c>
+      <c r="J155" t="s">
         <v>43</v>
       </c>
       <c r="K155" s="1" t="b">
@@ -8930,21 +8934,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="145" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>1154</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>274</v>
+      <c r="B156" t="s">
+        <v>271</v>
+      </c>
+      <c r="C156" t="s">
+        <v>271</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F156" s="2" t="s">
-        <v>382</v>
+      <c r="F156" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="G156" s="1">
         <v>10001</v>
@@ -8953,10 +8957,10 @@
         <v>150</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K156" s="1" t="b">
         <v>1</v>
@@ -8968,21 +8972,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>1154</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>275</v>
+      <c r="B157" t="s">
+        <v>272</v>
+      </c>
+      <c r="C157" t="s">
+        <v>272</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F157" s="2" t="s">
-        <v>383</v>
+      <c r="F157" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="G157" s="1">
         <v>10001</v>
@@ -8991,7 +8995,7 @@
         <v>168</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>34</v>
@@ -9006,21 +9010,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>1154</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>276</v>
+      <c r="B158" t="s">
+        <v>273</v>
+      </c>
+      <c r="C158" t="s">
+        <v>273</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F158" s="2" t="s">
-        <v>384</v>
+      <c r="F158" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="G158" s="1">
         <v>10001</v>
@@ -9029,7 +9033,7 @@
         <v>180</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>43</v>
@@ -9045,488 +9049,488 @@
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A159" s="1">
+      <c r="A159">
         <v>1155</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E159" s="1" t="s">
+      <c r="B159" t="s">
+        <v>295</v>
+      </c>
+      <c r="C159" t="s">
+        <v>296</v>
+      </c>
+      <c r="D159" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" t="s">
         <v>216</v>
       </c>
       <c r="F159" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G159">
+        <v>10005</v>
+      </c>
+      <c r="H159" t="s">
+        <v>386</v>
+      </c>
+      <c r="I159" t="s">
+        <v>298</v>
+      </c>
+      <c r="J159" t="s">
+        <v>34</v>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M159" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>1155</v>
+      </c>
+      <c r="B160" t="s">
+        <v>222</v>
+      </c>
+      <c r="C160" t="s">
+        <v>215</v>
+      </c>
+      <c r="D160" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" t="s">
+        <v>216</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G160">
+        <v>10005</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I160" t="s">
+        <v>298</v>
+      </c>
+      <c r="J160" t="s">
+        <v>18</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>1155</v>
+      </c>
+      <c r="B161" t="s">
+        <v>300</v>
+      </c>
+      <c r="C161" t="s">
+        <v>301</v>
+      </c>
+      <c r="D161" t="s">
+        <v>14</v>
+      </c>
+      <c r="E161" t="s">
+        <v>216</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G161">
+        <v>10005</v>
+      </c>
+      <c r="H161" t="s">
+        <v>387</v>
+      </c>
+      <c r="I161" t="s">
+        <v>298</v>
+      </c>
+      <c r="J161" t="s">
+        <v>43</v>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>1156</v>
+      </c>
+      <c r="B162" t="s">
+        <v>328</v>
+      </c>
+      <c r="C162" t="s">
+        <v>296</v>
+      </c>
+      <c r="D162" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" t="s">
+        <v>216</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G162">
+        <v>10005</v>
+      </c>
+      <c r="H162" t="s">
+        <v>386</v>
+      </c>
+      <c r="I162" t="s">
+        <v>304</v>
+      </c>
+      <c r="J162" t="s">
+        <v>34</v>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>1156</v>
+      </c>
+      <c r="B163" t="s">
+        <v>214</v>
+      </c>
+      <c r="C163" t="s">
+        <v>215</v>
+      </c>
+      <c r="D163" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" t="s">
+        <v>216</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G163">
+        <v>10005</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I163" t="s">
+        <v>304</v>
+      </c>
+      <c r="J163" t="s">
+        <v>18</v>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>1156</v>
+      </c>
+      <c r="B164" t="s">
+        <v>305</v>
+      </c>
+      <c r="C164" t="s">
+        <v>301</v>
+      </c>
+      <c r="D164" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" t="s">
+        <v>216</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G164">
+        <v>10005</v>
+      </c>
+      <c r="H164" t="s">
+        <v>387</v>
+      </c>
+      <c r="I164" t="s">
+        <v>304</v>
+      </c>
+      <c r="J164" t="s">
+        <v>43</v>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>1157</v>
+      </c>
+      <c r="B165" t="s">
         <v>295</v>
       </c>
-      <c r="G159" s="1">
+      <c r="C165" t="s">
+        <v>296</v>
+      </c>
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" t="s">
+        <v>216</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G165">
         <v>10005</v>
       </c>
-      <c r="H159" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I159" s="1" t="s">
+      <c r="H165" t="s">
+        <v>386</v>
+      </c>
+      <c r="I165" t="s">
+        <v>307</v>
+      </c>
+      <c r="J165" t="s">
+        <v>34</v>
+      </c>
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>1157</v>
+      </c>
+      <c r="B166" t="s">
+        <v>222</v>
+      </c>
+      <c r="C166" t="s">
+        <v>215</v>
+      </c>
+      <c r="D166" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" t="s">
+        <v>216</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G166">
+        <v>10005</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I166" t="s">
+        <v>307</v>
+      </c>
+      <c r="J166" t="s">
+        <v>18</v>
+      </c>
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>1157</v>
+      </c>
+      <c r="B167" t="s">
+        <v>300</v>
+      </c>
+      <c r="C167" t="s">
+        <v>301</v>
+      </c>
+      <c r="D167" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" t="s">
+        <v>216</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G167">
+        <v>10005</v>
+      </c>
+      <c r="H167" t="s">
+        <v>387</v>
+      </c>
+      <c r="I167" t="s">
+        <v>307</v>
+      </c>
+      <c r="J167" t="s">
+        <v>43</v>
+      </c>
+      <c r="K167" t="b">
+        <v>1</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>1158</v>
+      </c>
+      <c r="B168" t="s">
+        <v>303</v>
+      </c>
+      <c r="C168" t="s">
         <v>296</v>
       </c>
-      <c r="J159" s="1" t="s">
+      <c r="D168" t="s">
+        <v>14</v>
+      </c>
+      <c r="E168" t="s">
+        <v>216</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G168">
+        <v>10005</v>
+      </c>
+      <c r="H168" t="s">
+        <v>386</v>
+      </c>
+      <c r="I168" t="s">
+        <v>310</v>
+      </c>
+      <c r="J168" t="s">
         <v>34</v>
       </c>
-      <c r="K159" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L159" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M159" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A160" s="1">
-        <v>1155</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C160" s="1" t="s">
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>1158</v>
+      </c>
+      <c r="B169" t="s">
+        <v>214</v>
+      </c>
+      <c r="C169" t="s">
         <v>215</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E160" s="1" t="s">
+      <c r="D169" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" t="s">
         <v>216</v>
       </c>
-      <c r="F160" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G160" s="1">
+      <c r="F169" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G169">
         <v>10005</v>
       </c>
-      <c r="H160" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J160" s="1" t="s">
+      <c r="H169" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="I169" t="s">
+        <v>310</v>
+      </c>
+      <c r="J169" t="s">
         <v>18</v>
       </c>
-      <c r="K160" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L160" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M160" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A161" s="1">
-        <v>1155</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E161" s="1" t="s">
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>1158</v>
+      </c>
+      <c r="B170" t="s">
+        <v>305</v>
+      </c>
+      <c r="C170" t="s">
+        <v>301</v>
+      </c>
+      <c r="D170" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170" t="s">
         <v>216</v>
       </c>
-      <c r="F161" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G161" s="1">
+      <c r="F170" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G170">
         <v>10005</v>
       </c>
-      <c r="H161" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J161" s="1" t="s">
+      <c r="H170" t="s">
+        <v>387</v>
+      </c>
+      <c r="I170" t="s">
+        <v>310</v>
+      </c>
+      <c r="J170" t="s">
         <v>43</v>
       </c>
-      <c r="K161" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L161" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M161" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A162" s="1">
-        <v>1156</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G162" s="1">
-        <v>10005</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K162" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L162" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M162" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A163" s="1">
-        <v>1156</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G163" s="1">
-        <v>10005</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J163" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K163" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L163" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M163" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A164" s="1">
-        <v>1156</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G164" s="1">
-        <v>10005</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I164" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="J164" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K164" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L164" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M164" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A165" s="1">
-        <v>1157</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G165" s="1">
-        <v>10005</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I165" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J165" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K165" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L165" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M165" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A166" s="1">
-        <v>1157</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G166" s="1">
-        <v>10005</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J166" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K166" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L166" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M166" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A167" s="1">
-        <v>1157</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G167" s="1">
-        <v>10005</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J167" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K167" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L167" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M167" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A168" s="1">
-        <v>1158</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G168" s="1">
-        <v>10005</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="J168" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K168" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L168" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M168" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A169" s="1">
-        <v>1158</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G169" s="1">
-        <v>10005</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="J169" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K169" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L169" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M169" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A170" s="1">
-        <v>1158</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G170" s="1">
-        <v>10005</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="J170" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K170" s="1" t="b">
+      <c r="K170" t="b">
         <v>1</v>
       </c>
       <c r="L170" s="1" t="s">
@@ -9540,20 +9544,20 @@
       <c r="A171" s="1">
         <v>1159</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E171" s="1" t="s">
+      <c r="B171" t="s">
+        <v>312</v>
+      </c>
+      <c r="C171" t="s">
+        <v>312</v>
+      </c>
+      <c r="D171" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" t="s">
         <v>216</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G171" s="1">
         <v>10001</v>
@@ -9561,13 +9565,13 @@
       <c r="H171" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I171" s="1" t="s">
-        <v>313</v>
+      <c r="I171" t="s">
+        <v>315</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K171" s="1" t="b">
+      <c r="K171" t="b">
         <v>1</v>
       </c>
       <c r="L171" s="1" t="s">
@@ -9581,20 +9585,20 @@
       <c r="A172" s="1">
         <v>1159</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E172" s="1" t="s">
+      <c r="B172" t="s">
+        <v>313</v>
+      </c>
+      <c r="C172" t="s">
+        <v>313</v>
+      </c>
+      <c r="D172" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" t="s">
         <v>216</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G172" s="1">
         <v>10001</v>
@@ -9602,13 +9606,13 @@
       <c r="H172" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I172" s="1" t="s">
-        <v>313</v>
+      <c r="I172" t="s">
+        <v>315</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K172" s="1" t="b">
+      <c r="K172" t="b">
         <v>1</v>
       </c>
       <c r="L172" s="1" t="s">
@@ -9622,20 +9626,20 @@
       <c r="A173" s="1">
         <v>1159</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E173" s="1" t="s">
+      <c r="B173" t="s">
+        <v>314</v>
+      </c>
+      <c r="C173" t="s">
+        <v>314</v>
+      </c>
+      <c r="D173" t="s">
+        <v>14</v>
+      </c>
+      <c r="E173" t="s">
         <v>216</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G173" s="1">
         <v>10001</v>
@@ -9643,13 +9647,13 @@
       <c r="H173" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I173" s="1" t="s">
-        <v>313</v>
+      <c r="I173" t="s">
+        <v>315</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K173" s="1" t="b">
+      <c r="K173" t="b">
         <v>1</v>
       </c>
       <c r="L173" s="1" t="s">
@@ -9659,24 +9663,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>1160</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E174" s="1" t="s">
+      <c r="B174" t="s">
+        <v>321</v>
+      </c>
+      <c r="C174" t="s">
+        <v>321</v>
+      </c>
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" t="s">
         <v>216</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>359</v>
+      <c r="F174" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="G174" s="1">
         <v>10003</v>
@@ -9685,12 +9689,12 @@
         <v>54</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K174" s="1" t="b">
+      <c r="K174" t="b">
         <v>1</v>
       </c>
       <c r="L174" s="1" t="s">
@@ -9700,24 +9704,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>1160</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E175" s="1" t="s">
+      <c r="B175" t="s">
+        <v>322</v>
+      </c>
+      <c r="C175" t="s">
+        <v>322</v>
+      </c>
+      <c r="D175" t="s">
+        <v>14</v>
+      </c>
+      <c r="E175" t="s">
         <v>216</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>361</v>
+      <c r="F175" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="G175" s="1">
         <v>10003</v>
@@ -9726,12 +9730,12 @@
         <v>71</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K175" s="1" t="b">
+      <c r="K175" t="b">
         <v>1</v>
       </c>
       <c r="L175" s="1" t="s">
@@ -9741,24 +9745,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>1160</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E176" s="1" t="s">
+      <c r="B176" t="s">
+        <v>323</v>
+      </c>
+      <c r="C176" t="s">
+        <v>323</v>
+      </c>
+      <c r="D176" t="s">
+        <v>14</v>
+      </c>
+      <c r="E176" t="s">
         <v>216</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>360</v>
+      <c r="F176" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="G176" s="1">
         <v>10003</v>
@@ -9767,12 +9771,12 @@
         <v>80</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K176" s="1" t="b">
+      <c r="K176" t="b">
         <v>1</v>
       </c>
       <c r="L176" s="1" t="s">
@@ -9782,24 +9786,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>1161</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E177" s="1" t="s">
+      <c r="B177" t="s">
+        <v>324</v>
+      </c>
+      <c r="C177" t="s">
+        <v>324</v>
+      </c>
+      <c r="D177" t="s">
+        <v>14</v>
+      </c>
+      <c r="E177" t="s">
         <v>216</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>343</v>
+      <c r="F177" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="G177" s="1">
         <v>10003</v>
@@ -9808,12 +9812,12 @@
         <v>54</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K177" s="1" t="b">
+      <c r="K177" t="b">
         <v>1</v>
       </c>
       <c r="L177" s="1" t="s">
@@ -9823,24 +9827,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>1161</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E178" s="1" t="s">
+      <c r="B178" t="s">
+        <v>325</v>
+      </c>
+      <c r="C178" t="s">
+        <v>325</v>
+      </c>
+      <c r="D178" t="s">
+        <v>14</v>
+      </c>
+      <c r="E178" t="s">
         <v>216</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>361</v>
+      <c r="F178" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="G178" s="1">
         <v>10003</v>
@@ -9849,12 +9853,12 @@
         <v>71</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K178" s="1" t="b">
+      <c r="K178" t="b">
         <v>1</v>
       </c>
       <c r="L178" s="1" t="s">
@@ -9864,24 +9868,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>1161</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E179" s="1" t="s">
+      <c r="B179" t="s">
+        <v>326</v>
+      </c>
+      <c r="C179" t="s">
+        <v>326</v>
+      </c>
+      <c r="D179" t="s">
+        <v>14</v>
+      </c>
+      <c r="E179" t="s">
         <v>216</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>360</v>
+      <c r="F179" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="G179" s="1">
         <v>10003</v>
@@ -9890,12 +9894,12 @@
         <v>80</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K179" s="1" t="b">
+      <c r="K179" t="b">
         <v>1</v>
       </c>
       <c r="L179" s="1" t="s">
@@ -9905,24 +9909,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>1162</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="E180" t="s">
         <v>216</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>338</v>
+      <c r="F180" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="G180" s="1">
         <v>10003</v>
@@ -9931,12 +9935,12 @@
         <v>54</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K180" s="1" t="b">
+      <c r="K180" t="b">
         <v>1</v>
       </c>
       <c r="L180" s="1" t="s">
@@ -9946,24 +9950,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>1162</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="E181" t="s">
         <v>216</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>339</v>
+      <c r="F181" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="G181" s="1">
         <v>10003</v>
@@ -9972,12 +9976,12 @@
         <v>71</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K181" s="1" t="b">
+      <c r="K181" t="b">
         <v>1</v>
       </c>
       <c r="L181" s="1" t="s">
@@ -9987,24 +9991,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>1162</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="E182" t="s">
         <v>216</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>339</v>
+      <c r="F182" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="G182" s="1">
         <v>10003</v>
@@ -10013,12 +10017,12 @@
         <v>80</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K182" s="1" t="b">
+      <c r="K182" t="b">
         <v>1</v>
       </c>
       <c r="L182" s="1" t="s">

--- a/_files/requirements/master_data/master-template.xlsx
+++ b/_files/requirements/master_data/master-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1681A9-30B1-4E79-BF96-F4E355E9F071}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FE006D-0FD0-4AD2-9785-016982C063CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1191,6 +1191,217 @@
   </si>
   <si>
     <t>RPR_MASKED_UIN_CARD_TEMPLATE</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+تم إلغاء تنشيط UIN الخاص بك.
+إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.
+شكرا</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+تمت إعادة تنشيط UIN الخاص بك.
+إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.
+شكرا</t>
+  </si>
+  <si>
+    <t>Dear $name_eng,
+Your UIN for Registration ID: $!RID has been successfully generated and will reach soon at your postal address.
+Thank You</t>
+  </si>
+  <si>
+    <t>Dear $name_eng,
+Your UIN for Registration ID: $!RID has been successfully generated and will reach soon at your postal address.</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+تم تحديث تفاصيل UIN المطابقة لمعرف التسجيل: $!RID وسوف تصل إليك نسخة مادية من UIN في عنوانك البريدي قريبًا.
+شكرا</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+تم تحديث تفاصيل UIN المطابقة لمعرف التسجيل: $!RID وسوف تصل إليك نسخة مادية من UIN في عنوانك البريدي قريبًا.</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Votre UIN a été désactivé.
+Si vous avez des intérêts, veuillez vous rendre au centre d’enregistrement le plus proche.</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your UIN has been de-activated. 
+If you have any conserns please visit the nearest Registration Center.</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your UIN has been de-activated. 
+If you have any conserns please visit the nearest Registration Center.
+Thank You</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Votre UIN a été désactivé.
+Si vous avez des intérêts, veuillez vous rendre au centre d’enregistrement le plus proche.
+Merci</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your UIN has been re-activated. 
+If you have any conserns please visit the nearest Registration Center.
+Thank You</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Votre UIN a été réactivé.
+Si vous avez des intérêts, veuillez vous rendre au centre d’enregistrement le plus proche.</t>
+  </si>
+  <si>
+    <t>$!name_ara ،
+تمت إعادة تنشيط UIN الخاص بك.
+إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.</t>
+  </si>
+  <si>
+    <t>Dear $name_eng,
+Your UIN is Found. You will receive your UIN Card soon at your Postal Address.
+Thank You</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Votre UIN est trouvé. Vous recevrez bientôt votre carte UIN à votre adresse postale.
+Merci</t>
+  </si>
+  <si>
+    <t>$!name_ara،
+تم العثور على UIN الخاص بك. ستتلقى بطاقة UIN الخاصة بك قريبًا على عنوانك البريدي.
+شكرا</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Votre UIN pour ID d’enregistrement: $!RID a été généré avec succès et vous parviendra sous peu à votre adresse postale.
+Merci</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Votre UIN pour ID d’enregistrement: $!RID a été généré avec succès et vous parviendra sous peu à votre adresse postale.</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Les détails de votre UIN correspondant à l’ID d’enregistrement: $!RID ont été mis à jour. Une copie physique de votre UIN vous parviendra sous peu à votre adresse postale.
+Merci</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Les détails de votre UIN correspondant à l’ID d’enregistrement: $!RID ont été mis à jour. Une copie physique de votre UIN vous parviendra sous peu à votre adresse postale.</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Votre UIN a été réactivé.
+Si vous avez des intérêts, veuillez vous rendre au centre d’enregistrement le plus proche.
+Merci</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your request for UIN for Registration ID: $!RID has failed because a duplicate UIN has been found against your details. Please visit your nearest Registration office or visit https://mosip.io/grievances
+Thank You</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your request for UIN for Registration ID: $!RID has failed because a duplicate UIN has been found against your details. Please visit your nearest Registration office or visit https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your UIN details for the Registration ID: $!RID have been updated and a physical copy of your UIN card will reach you soon at your postal address.
+Thank You</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your UIN details for the Registration ID: $!RID have been updated and a physical copy of your UIN card will reach you soon at your postal address.</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your UIN has been re-activated. 
+If you have any conserns please visit the nearest Registration Center.</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your request for UIN for Registration ID: $!RID has failed because of a technical issue. Please visit your nearest Registration office or visit https://mosip.io/grievances
+Thank You</t>
+  </si>
+  <si>
+    <t>Dear $!name_eng,
+Your request for UIN for Registration ID: $!RID has failed because of a technical issue. Please visit your nearest Registration office or visit https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>Dear $name_eng,
+Your UIN is Found. You will receive your UIN Card soon at your Postal Address.</t>
+  </si>
+  <si>
+    <t>$!name_ara،
+لقد فشل طلبك الخاص بـ UIN لمعرف التسجيل: $!RID لأنه تم العثور على UIN مكرر مقابل تفاصيلك. يرجى زيارة أقرب مكتب للتسجيل أو زيارة https://mosip.io/grievances
+شكرا جزيلا</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Votre demande d'UIN pour l'ID d'enregistrement: $!RID a échoué car un duplicata d'UIN a été trouvé par rapport à vos informations. Veuillez vous rendre au bureau d’enregistrement le plus proche ou sur https://mosip.io/grievances
+Merci</t>
+  </si>
+  <si>
+    <t>$!name_ara،
+لقد فشل طلبك الخاص بـ UIN لمعرف التسجيل: $!RID لأنه تم العثور على UIN مكرر مقابل تفاصيلك. يرجى زيارة أقرب مكتب للتسجيل أو زيارة https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Votre demande d'UIN pour l'ID d'enregistrement: $!RID a échoué car un duplicata d'UIN a été trouvé par rapport à vos informations. Veuillez vous rendre au bureau d’enregistrement le plus proche ou sur https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>$!name_ara،
+تم العثور على UIN الخاص بك. ستتلقى بطاقة UIN الخاصة بك قريبًا على عنوانك البريدي.</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Votre demande d'UIN pour l'ID d'enregistrement: $!RID a échoué en raison d'un problème technique. Veuillez vous rendre au bureau d’enregistrement le plus proche ou sur https://mosip.io/grievances
+Merci</t>
+  </si>
+  <si>
+    <t>$!name_ara،
+طلبك لـ UIN لمعرف التسجيل: $!RID فشل بسبب مشكلة فنية. يرجى زيارة أقرب مكتب للتسجيل أو زيارة https://mosip.io/grievances
+شكرا جزيلا</t>
+  </si>
+  <si>
+    <t>$!name_ara،
+طلبك لـ UIN لمعرف التسجيل: $!RID فشل بسبب مشكلة فنية. يرجى زيارة أقرب مكتب للتسجيل أو زيارة https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>Cher $!name_fra,
+Votre demande d'UIN pour l'ID d'enregistrement: $!RID a échoué en raison d'un problème technique. Veuillez vous rendre au bureau d’enregistrement le plus proche ou sur https://mosip.io/grievances</t>
+  </si>
+  <si>
+    <t>$name_ara،
+تم إنشاء رقم UIN الخاص بك لمعرف التسجيل: $!RID بنجاح وسيصل قريباً إلى عنوانك البريدي.
+شكرا جزيلا</t>
+  </si>
+  <si>
+    <t>$name_ara،
+تم إنشاء رقم UIN الخاص بك لمعرف التسجيل: $!RID بنجاح وسيصل قريباً إلى عنوانك البريدي.</t>
+  </si>
+  <si>
+    <t>عزيزي $name ،
+مصادقة UIN $uin باستخدام $authType على $date في $time Hrs $status على جهاز تم نشره بواسطة "خدمات MOSIP".</t>
+  </si>
+  <si>
+    <t>مصادقتك على UIN $uin باستخدام $authType في $date في $time Hrs $status على جهاز تم نشره بواسطة "خدمات MOSIP".</t>
+  </si>
+  <si>
+    <t>Service d'authentification OTP</t>
+  </si>
+  <si>
+    <t>التسجيل</t>
+  </si>
+  <si>
+    <t>Inscription</t>
+  </si>
+  <si>
+    <t>Registration</t>
   </si>
   <si>
     <t>&lt;!DOCTYPE html&gt;
@@ -1254,7 +1465,7 @@
 &lt;td rowspan="1"&gt;
 &lt;div class="block top-buffer"&gt;
 &lt;label class="name-head-color"&gt;&lt;b&gt;Name&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; 
-&lt;span class="name-color"&gt; $!name_eng&lt;/span&gt;
+&lt;span class="name-color"&gt; $!fullName_eng&lt;/span&gt;
 &lt;/div&gt;
 &lt;/td&gt;
 &lt;/tr&gt;
@@ -1262,15 +1473,15 @@
 &lt;td rowspan="1"&gt;
 &lt;div class="block top-buffer"&gt;
 &lt;label class="name-head-color"&gt;&lt;b&gt;اسم&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; 
-&lt;span&gt;$!name_ara&lt;/span&gt;
+&lt;span&gt;$!fullName_ara&lt;/span&gt;
 &lt;/div&gt;
 &lt;/td&gt;
 &lt;/tr&gt;
 &lt;tr&gt;
 &lt;td rowspan="1"&gt;
 &lt;div class="block top-buffer"&gt;
-&lt;label class="name-head-color"&gt;&lt;b&gt;Date/تاريخ&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-&lt;span&gt;$!dob&lt;/span&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;DOB/تاريخ&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
+&lt;span&gt;$!dateOfBirth&lt;/span&gt;
 &lt;/div&gt;
 &lt;/td&gt;
 &lt;/tr&gt;
@@ -1400,7 +1611,7 @@
 &lt;td rowspan="1"&gt;
 &lt;div class="block top-buffer"&gt;
 &lt;label class="name-head-color"&gt;&lt;b&gt;Prénom&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; 
-&lt;span class="name-color"&gt; $!name_eng&lt;/span&gt;
+&lt;span class="name-color"&gt; $!fullName_fra&lt;/span&gt;
 &lt;/div&gt;
 &lt;/td&gt;
 &lt;/tr&gt;
@@ -1408,7 +1619,7 @@
 &lt;td rowspan="1"&gt;
 &lt;div class="block top-buffer"&gt;
 &lt;label class="name-head-color"&gt;&lt;b&gt;اسم&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; 
-&lt;span&gt;$!name_ara&lt;/span&gt;
+&lt;span&gt;$!fullName_ara&lt;/span&gt;
 &lt;/div&gt;
 &lt;/td&gt;
 &lt;/tr&gt;
@@ -1416,14 +1627,14 @@
 &lt;td rowspan="1"&gt;
 &lt;div class="block top-buffer"&gt;
 &lt;label class="name-head-color"&gt;&lt;b&gt;Rendez-vous amoureux/تاريخ&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-&lt;span&gt;$!dob&lt;/span&gt;
+&lt;span&gt;$!dateOfBirth&lt;/span&gt;
 &lt;/div&gt;
 &lt;/td&gt;
 &lt;/tr&gt;
 &lt;tr&gt;
 &lt;td colspan="2"&gt;
 &lt;div class="block top-buffer"&gt;
-&lt;label class="name-head-color"&gt;&lt;b&gt;Le sexe&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$!gender_eng&lt;/span&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;Le sexe&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt;$!gender_fra&lt;/span&gt;
 &amp;nbsp;&amp;nbsp; &lt;label class="name-head-color"&gt;&lt;b&gt;جنس&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
 &lt;span&gt;$!gender_ara&lt;/span&gt;
 &lt;/div&gt;
@@ -1438,8 +1649,8 @@
 &lt;tr&gt;
 &lt;td&gt;&lt;label class="name-head-color"&gt;&lt;b&gt;Adresse&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
 &lt;/td&gt;
-&lt;td&gt;&lt;span&gt;$!addressLine1_eng, $!addressLine2_eng,
-		$!addressLine3_eng, $!region_eng, $!province_eng, $!city_eng,
+&lt;td&gt;&lt;span&gt;$!addressLine1_fra, $!addressLine2_fra,
+		$!addressLine3_fra, $!region_fra, $!province_fra, $!city_fra,
 		$!postalCode &lt;/span&gt;&lt;/td&gt;
 &lt;/tr&gt;
 &lt;tr&gt;
@@ -1483,6 +1694,10 @@
 &lt;/table&gt;
 &lt;/body&gt;
 &lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>Cher $!name_fr+F180a,
+Votre UIN est trouvé. Vous recevrez bientôt votre carte UIN à votre adresse postale.</t>
   </si>
   <si>
     <t>&lt;!DOCTYPE html&gt;
@@ -1554,14 +1769,14 @@
 &lt;tr&gt;
 &lt;td rowspan="1"&gt;
 &lt;div class="block top-buffer"&gt;
-&lt;label class="name-head-color"&gt;&lt;b&gt;Name&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span class="name-color"&gt; $!name_eng&lt;/span&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;Name&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span class="name-color"&gt; $!fullName_eng&lt;/span&gt;
 &lt;/div&gt;
 &lt;/td&gt;
 &lt;/tr&gt;
 &lt;tr&gt;
 &lt;td rowspan="1"&gt;
 &lt;div class="block top-buffer"&gt;
-&lt;label class="name-head-color"&gt;&lt;b&gt;اسم&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt; $!name_ara&lt;/span&gt;
+&lt;label class="name-head-color"&gt;&lt;b&gt;اسم&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; &lt;span&gt; $!fullName_ara&lt;/span&gt;
 &lt;/div&gt;
 &lt;/td&gt;
 &lt;/tr&gt;
@@ -1704,7 +1919,7 @@
 &lt;td rowspan="1"&gt;
 &lt;div class="block top-buffer"&gt;
 &lt;label class="name-head-color"&gt;&lt;b&gt;Prénom&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; 
-&lt;span class="name-color"&gt; $!name_eng&lt;/span&gt;
+&lt;span class="name-color"&gt; $!fullName_fra&lt;/span&gt;
 &lt;/div&gt;
 &lt;/td&gt;
 &lt;/tr&gt;
@@ -1712,7 +1927,7 @@
 &lt;td rowspan="1"&gt;
 &lt;div class="block top-buffer"&gt;
 &lt;label class="name-head-color"&gt;&lt;b&gt;اسم&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt; 
-&lt;span&gt;$!name_ara&lt;/span&gt;
+&lt;span&gt;$!fullName_ara&lt;/span&gt;
 &lt;/div&gt;
 &lt;/td&gt;
 &lt;/tr&gt;
@@ -1720,7 +1935,7 @@
 &lt;td rowspan="1"&gt;
 &lt;div class="block top-buffer"&gt;
 &lt;label class="name-head-color"&gt;&lt;b&gt;Rendez-vous amoureux/تاريخ&amp;nbsp;:&amp;nbsp;&lt;/b&gt;&lt;/label&gt;
-&lt;span&gt;$!dob&lt;/span&gt;
+&lt;span&gt;$!dateOfBirth&lt;/span&gt;
 &lt;/div&gt;
 &lt;/td&gt;
 &lt;/tr&gt;
@@ -1787,221 +2002,6 @@
 &lt;/table&gt;
 &lt;/body&gt;
 &lt;/html&gt;</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
-تم إلغاء تنشيط UIN الخاص بك.
-إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.
-شكرا</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
-تمت إعادة تنشيط UIN الخاص بك.
-إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.
-شكرا</t>
-  </si>
-  <si>
-    <t>Dear $name_eng,
-Your UIN for Registration ID: $!RID has been successfully generated and will reach soon at your postal address.
-Thank You</t>
-  </si>
-  <si>
-    <t>Dear $name_eng,
-Your UIN for Registration ID: $!RID has been successfully generated and will reach soon at your postal address.</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
-تم تحديث تفاصيل UIN المطابقة لمعرف التسجيل: $!RID وسوف تصل إليك نسخة مادية من UIN في عنوانك البريدي قريبًا.
-شكرا</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
-تم تحديث تفاصيل UIN المطابقة لمعرف التسجيل: $!RID وسوف تصل إليك نسخة مادية من UIN في عنوانك البريدي قريبًا.</t>
-  </si>
-  <si>
-    <t>Cher $!name_fra,
-Votre UIN a été désactivé.
-Si vous avez des intérêts, veuillez vous rendre au centre d’enregistrement le plus proche.</t>
-  </si>
-  <si>
-    <t>Dear $!name_eng,
-Your UIN has been de-activated. 
-If you have any conserns please visit the nearest Registration Center.</t>
-  </si>
-  <si>
-    <t>Dear $!name_eng,
-Your UIN has been de-activated. 
-If you have any conserns please visit the nearest Registration Center.
-Thank You</t>
-  </si>
-  <si>
-    <t>Cher $!name_fra,
-Votre UIN a été désactivé.
-Si vous avez des intérêts, veuillez vous rendre au centre d’enregistrement le plus proche.
-Merci</t>
-  </si>
-  <si>
-    <t>Dear $!name_eng,
-Your UIN has been re-activated. 
-If you have any conserns please visit the nearest Registration Center.
-Thank You</t>
-  </si>
-  <si>
-    <t>Cher $!name_fra,
-Votre UIN a été réactivé.
-Si vous avez des intérêts, veuillez vous rendre au centre d’enregistrement le plus proche.</t>
-  </si>
-  <si>
-    <t>$!name_ara ،
-تمت إعادة تنشيط UIN الخاص بك.
-إذا كان لديك أي مواصلات ، يرجى زيارة أقرب مركز للتسجيل.</t>
-  </si>
-  <si>
-    <t>Dear $name_eng,
-Your UIN is Found. You will receive your UIN Card soon at your Postal Address.
-Thank You</t>
-  </si>
-  <si>
-    <t>Cher $!name_fra,
-Votre UIN est trouvé. Vous recevrez bientôt votre carte UIN à votre adresse postale.
-Merci</t>
-  </si>
-  <si>
-    <t>$!name_ara،
-تم العثور على UIN الخاص بك. ستتلقى بطاقة UIN الخاصة بك قريبًا على عنوانك البريدي.
-شكرا</t>
-  </si>
-  <si>
-    <t>Cher $!name_fra,
-Votre UIN pour ID d’enregistrement: $!RID a été généré avec succès et vous parviendra sous peu à votre adresse postale.
-Merci</t>
-  </si>
-  <si>
-    <t>Cher $!name_fra,
-Votre UIN pour ID d’enregistrement: $!RID a été généré avec succès et vous parviendra sous peu à votre adresse postale.</t>
-  </si>
-  <si>
-    <t>Cher $!name_fra,
-Les détails de votre UIN correspondant à l’ID d’enregistrement: $!RID ont été mis à jour. Une copie physique de votre UIN vous parviendra sous peu à votre adresse postale.
-Merci</t>
-  </si>
-  <si>
-    <t>Cher $!name_fra,
-Les détails de votre UIN correspondant à l’ID d’enregistrement: $!RID ont été mis à jour. Une copie physique de votre UIN vous parviendra sous peu à votre adresse postale.</t>
-  </si>
-  <si>
-    <t>Cher $!name_fra,
-Votre UIN a été réactivé.
-Si vous avez des intérêts, veuillez vous rendre au centre d’enregistrement le plus proche.
-Merci</t>
-  </si>
-  <si>
-    <t>Dear $!name_eng,
-Your request for UIN for Registration ID: $!RID has failed because a duplicate UIN has been found against your details. Please visit your nearest Registration office or visit https://mosip.io/grievances
-Thank You</t>
-  </si>
-  <si>
-    <t>Dear $!name_eng,
-Your request for UIN for Registration ID: $!RID has failed because a duplicate UIN has been found against your details. Please visit your nearest Registration office or visit https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>Dear $!name_eng,
-Your UIN details for the Registration ID: $!RID have been updated and a physical copy of your UIN card will reach you soon at your postal address.
-Thank You</t>
-  </si>
-  <si>
-    <t>Dear $!name_eng,
-Your UIN details for the Registration ID: $!RID have been updated and a physical copy of your UIN card will reach you soon at your postal address.</t>
-  </si>
-  <si>
-    <t>Dear $!name_eng,
-Your UIN has been re-activated. 
-If you have any conserns please visit the nearest Registration Center.</t>
-  </si>
-  <si>
-    <t>Dear $!name_eng,
-Your request for UIN for Registration ID: $!RID has failed because of a technical issue. Please visit your nearest Registration office or visit https://mosip.io/grievances
-Thank You</t>
-  </si>
-  <si>
-    <t>Dear $!name_eng,
-Your request for UIN for Registration ID: $!RID has failed because of a technical issue. Please visit your nearest Registration office or visit https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>Dear $name_eng,
-Your UIN is Found. You will receive your UIN Card soon at your Postal Address.</t>
-  </si>
-  <si>
-    <t>$!name_ara،
-لقد فشل طلبك الخاص بـ UIN لمعرف التسجيل: $!RID لأنه تم العثور على UIN مكرر مقابل تفاصيلك. يرجى زيارة أقرب مكتب للتسجيل أو زيارة https://mosip.io/grievances
-شكرا جزيلا</t>
-  </si>
-  <si>
-    <t>Cher $!name_fra,
-Votre demande d'UIN pour l'ID d'enregistrement: $!RID a échoué car un duplicata d'UIN a été trouvé par rapport à vos informations. Veuillez vous rendre au bureau d’enregistrement le plus proche ou sur https://mosip.io/grievances
-Merci</t>
-  </si>
-  <si>
-    <t>$!name_ara،
-لقد فشل طلبك الخاص بـ UIN لمعرف التسجيل: $!RID لأنه تم العثور على UIN مكرر مقابل تفاصيلك. يرجى زيارة أقرب مكتب للتسجيل أو زيارة https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>Cher $!name_fra,
-Votre demande d'UIN pour l'ID d'enregistrement: $!RID a échoué car un duplicata d'UIN a été trouvé par rapport à vos informations. Veuillez vous rendre au bureau d’enregistrement le plus proche ou sur https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>Cher $!name_fra,
-Votre UIN est trouvé. Vous recevrez bientôt votre carte UIN à votre adresse postale.</t>
-  </si>
-  <si>
-    <t>$!name_ara،
-تم العثور على UIN الخاص بك. ستتلقى بطاقة UIN الخاصة بك قريبًا على عنوانك البريدي.</t>
-  </si>
-  <si>
-    <t>Cher $!name_fra,
-Votre demande d'UIN pour l'ID d'enregistrement: $!RID a échoué en raison d'un problème technique. Veuillez vous rendre au bureau d’enregistrement le plus proche ou sur https://mosip.io/grievances
-Merci</t>
-  </si>
-  <si>
-    <t>$!name_ara،
-طلبك لـ UIN لمعرف التسجيل: $!RID فشل بسبب مشكلة فنية. يرجى زيارة أقرب مكتب للتسجيل أو زيارة https://mosip.io/grievances
-شكرا جزيلا</t>
-  </si>
-  <si>
-    <t>$!name_ara،
-طلبك لـ UIN لمعرف التسجيل: $!RID فشل بسبب مشكلة فنية. يرجى زيارة أقرب مكتب للتسجيل أو زيارة https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>Cher $!name_fra,
-Votre demande d'UIN pour l'ID d'enregistrement: $!RID a échoué en raison d'un problème technique. Veuillez vous rendre au bureau d’enregistrement le plus proche ou sur https://mosip.io/grievances</t>
-  </si>
-  <si>
-    <t>$name_ara،
-تم إنشاء رقم UIN الخاص بك لمعرف التسجيل: $!RID بنجاح وسيصل قريباً إلى عنوانك البريدي.
-شكرا جزيلا</t>
-  </si>
-  <si>
-    <t>$name_ara،
-تم إنشاء رقم UIN الخاص بك لمعرف التسجيل: $!RID بنجاح وسيصل قريباً إلى عنوانك البريدي.</t>
-  </si>
-  <si>
-    <t>عزيزي $name ،
-مصادقة UIN $uin باستخدام $authType على $date في $time Hrs $status على جهاز تم نشره بواسطة "خدمات MOSIP".</t>
-  </si>
-  <si>
-    <t>مصادقتك على UIN $uin باستخدام $authType في $date في $time Hrs $status على جهاز تم نشره بواسطة "خدمات MOSIP".</t>
-  </si>
-  <si>
-    <t>Service d'authentification OTP</t>
-  </si>
-  <si>
-    <t>التسجيل</t>
-  </si>
-  <si>
-    <t>Inscription</t>
-  </si>
-  <si>
-    <t>Registration</t>
   </si>
 </sst>
 </file>
@@ -2852,7 +2852,7 @@
   <dimension ref="A1:M182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3038,7 +3038,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G5" s="1">
         <v>10004</v>
@@ -3114,7 +3114,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G7" s="1">
         <v>10004</v>
@@ -3266,7 +3266,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G11" s="1">
         <v>10003</v>
@@ -3304,7 +3304,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G12" s="1">
         <v>10003</v>
@@ -3342,7 +3342,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G13" s="1">
         <v>10003</v>
@@ -3380,7 +3380,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G14" s="1">
         <v>10003</v>
@@ -3418,7 +3418,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G15" s="1">
         <v>10003</v>
@@ -3456,7 +3456,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G16" s="1">
         <v>10003</v>
@@ -3494,7 +3494,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G17" s="1">
         <v>10003</v>
@@ -3532,7 +3532,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G18" s="1">
         <v>10003</v>
@@ -3570,7 +3570,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G19" s="1">
         <v>10003</v>
@@ -3608,7 +3608,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G20" s="1">
         <v>10003</v>
@@ -3646,7 +3646,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G21" s="1">
         <v>10003</v>
@@ -3684,7 +3684,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G22" s="1">
         <v>10003</v>
@@ -3722,7 +3722,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G23" s="1">
         <v>10003</v>
@@ -3760,7 +3760,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G24" s="1">
         <v>10003</v>
@@ -3798,7 +3798,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G25" s="1">
         <v>10003</v>
@@ -3836,7 +3836,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G26" s="1">
         <v>10003</v>
@@ -3874,7 +3874,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G27" s="1">
         <v>10003</v>
@@ -3912,7 +3912,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G28" s="1">
         <v>10003</v>
@@ -3950,7 +3950,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G29" s="1">
         <v>10003</v>
@@ -3988,7 +3988,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G30" s="1">
         <v>10003</v>
@@ -4026,7 +4026,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G31" s="1">
         <v>10003</v>
@@ -4064,7 +4064,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G32" s="1">
         <v>10003</v>
@@ -4102,7 +4102,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G33" s="1">
         <v>10003</v>
@@ -4140,7 +4140,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G34" s="1">
         <v>10003</v>
@@ -6002,7 +6002,7 @@
         <v>198</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="G83" s="1">
         <v>10003</v>
@@ -6040,7 +6040,7 @@
         <v>198</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="G84" s="1">
         <v>10003</v>
@@ -6078,7 +6078,7 @@
         <v>198</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="G85" s="1">
         <v>10003</v>
@@ -6116,7 +6116,7 @@
         <v>14</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G86" s="1">
         <v>10003</v>
@@ -6192,7 +6192,7 @@
         <v>14</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G88" s="1">
         <v>10003</v>
@@ -6230,7 +6230,7 @@
         <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G89" s="1">
         <v>10003</v>
@@ -6268,7 +6268,7 @@
         <v>14</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G90" s="1">
         <v>10003</v>
@@ -6306,7 +6306,7 @@
         <v>14</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G91" s="1">
         <v>10003</v>
@@ -6344,7 +6344,7 @@
         <v>14</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G92" s="1">
         <v>10003</v>
@@ -6382,7 +6382,7 @@
         <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G93" s="1">
         <v>10003</v>
@@ -6420,7 +6420,7 @@
         <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G94" s="1">
         <v>10003</v>
@@ -6458,7 +6458,7 @@
         <v>14</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G95" s="1">
         <v>10003</v>
@@ -6496,7 +6496,7 @@
         <v>14</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G96" s="1">
         <v>10003</v>
@@ -6534,7 +6534,7 @@
         <v>14</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G97" s="1">
         <v>10003</v>
@@ -6581,7 +6581,7 @@
         <v>10005</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>217</v>
@@ -6622,7 +6622,7 @@
         <v>10005</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>217</v>
@@ -6663,7 +6663,7 @@
         <v>10005</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>217</v>
@@ -6704,7 +6704,7 @@
         <v>10005</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>223</v>
@@ -6745,7 +6745,7 @@
         <v>10005</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>223</v>
@@ -6786,7 +6786,7 @@
         <v>10005</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>223</v>
@@ -6827,7 +6827,7 @@
         <v>10005</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>229</v>
@@ -6868,7 +6868,7 @@
         <v>10005</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>229</v>
@@ -6909,7 +6909,7 @@
         <v>10005</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>229</v>
@@ -6950,7 +6950,7 @@
         <v>10005</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>230</v>
@@ -6991,7 +6991,7 @@
         <v>10005</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>230</v>
@@ -7032,7 +7032,7 @@
         <v>10005</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>230</v>
@@ -7073,7 +7073,7 @@
         <v>10005</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>231</v>
@@ -7114,7 +7114,7 @@
         <v>10005</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>231</v>
@@ -7155,7 +7155,7 @@
         <v>10005</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>231</v>
@@ -7360,7 +7360,7 @@
         <v>10005</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>263</v>
@@ -7401,7 +7401,7 @@
         <v>10005</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>263</v>
@@ -7442,7 +7442,7 @@
         <v>10005</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>263</v>
@@ -7875,7 +7875,7 @@
         <v>1145</v>
       </c>
       <c r="B130" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C130" t="s">
         <v>279</v>
@@ -9071,7 +9071,7 @@
         <v>10005</v>
       </c>
       <c r="H159" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I159" t="s">
         <v>298</v>
@@ -9112,7 +9112,7 @@
         <v>10005</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I160" t="s">
         <v>298</v>
@@ -9153,7 +9153,7 @@
         <v>10005</v>
       </c>
       <c r="H161" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I161" t="s">
         <v>298</v>
@@ -9194,7 +9194,7 @@
         <v>10005</v>
       </c>
       <c r="H162" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I162" t="s">
         <v>304</v>
@@ -9235,7 +9235,7 @@
         <v>10005</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I163" t="s">
         <v>304</v>
@@ -9276,7 +9276,7 @@
         <v>10005</v>
       </c>
       <c r="H164" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I164" t="s">
         <v>304</v>
@@ -9317,7 +9317,7 @@
         <v>10005</v>
       </c>
       <c r="H165" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I165" t="s">
         <v>307</v>
@@ -9358,7 +9358,7 @@
         <v>10005</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I166" t="s">
         <v>307</v>
@@ -9399,7 +9399,7 @@
         <v>10005</v>
       </c>
       <c r="H167" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I167" t="s">
         <v>307</v>
@@ -9440,7 +9440,7 @@
         <v>10005</v>
       </c>
       <c r="H168" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I168" t="s">
         <v>310</v>
@@ -9481,7 +9481,7 @@
         <v>10005</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I169" t="s">
         <v>310</v>
@@ -9522,7 +9522,7 @@
         <v>10005</v>
       </c>
       <c r="H170" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I170" t="s">
         <v>310</v>
@@ -9680,7 +9680,7 @@
         <v>216</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G174" s="1">
         <v>10003</v>
@@ -9721,7 +9721,7 @@
         <v>216</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G175" s="1">
         <v>10003</v>
@@ -9762,7 +9762,7 @@
         <v>216</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="G176" s="1">
         <v>10003</v>
@@ -9803,7 +9803,7 @@
         <v>216</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G177" s="1">
         <v>10003</v>
@@ -9844,7 +9844,7 @@
         <v>216</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G178" s="1">
         <v>10003</v>
@@ -9885,7 +9885,7 @@
         <v>216</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G179" s="1">
         <v>10003</v>
@@ -9926,7 +9926,7 @@
         <v>216</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>340</v>
+        <v>387</v>
       </c>
       <c r="G180" s="1">
         <v>10003</v>
@@ -9967,7 +9967,7 @@
         <v>216</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="G181" s="1">
         <v>10003</v>
@@ -10008,7 +10008,7 @@
         <v>216</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="G182" s="1">
         <v>10003</v>

--- a/_files/requirements/master_data/master-template.xlsx
+++ b/_files/requirements/master_data/master-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip-docs.wiki\_files\requirements\master_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FE006D-0FD0-4AD2-9785-016982C063CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BA8A66-433D-4842-B05C-B2D56CFAAFA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -920,15 +920,6 @@
   </si>
   <si>
     <t>consent</t>
-  </si>
-  <si>
-    <t>To provide consent for storage and utilization of personal information as given</t>
-  </si>
-  <si>
-    <t>لتقديم موافقة لتخزين واستخدام المعلومات الشخصية على النحو الوارد</t>
-  </si>
-  <si>
-    <t>Donner son ement pour le stockage et l'utilisation des informations personnelles telles qu'elles sont données</t>
   </si>
   <si>
     <t>auth otp service</t>
@@ -2002,6 +1993,36 @@
 &lt;/table&gt;
 &lt;/body&gt;
 &lt;/html&gt;</t>
+  </si>
+  <si>
+    <t>I understand that the data collected about me during pre-registration by the said authority includes my -  
+•                     Name
+•                     Date of birth
+•                     Gender
+•                     Address
+•                     Contact details
+•                     Documents
+I also understand that this information will be stored and processed for the purpose of verifying my identity in order to access various services, or to comply with a legal obligation. I give my consent for the collection of this data for this purpose.</t>
+  </si>
+  <si>
+    <t>وأنا أفهم أن البيانات التي تم جمعها عني خلال التسجيل المسبق من قبل السلطة المذكورة تشمل بلدي -
+• الاسم
+• تاريخ الميلاد
+• نوع الجنس
+• العنوان
+• تفاصيل الاتصال
+• الوثائق
+كما أفهم أنه سيتم تخزين هذه المعلومات ومعالجتها بغرض التحقق من هويتي من أجل الوصول إلى خدمات مختلفة، أو الامتثال لالتزام قانوني. وأوافق على جمع هذه البيانات لهذا الغرض.</t>
+  </si>
+  <si>
+    <t>Je comprends que les données recueillies à mon sujet lors de la pré-enregistrèrent par ladite autorité comprennent mon -
+•                     nom
+•                     Date de naissance
+•                     genre
+•                     adresse
+•                     coordonnées
+•                     Documents
+Je comprends également que ces informations seront stockées et traitées dans le but de vérifier mon identité afin d'accéder à divers services, ou de se conformer à une obligation légale. Je donne mon consentement pour la collecte de ces données à cette fin.</t>
   </si>
 </sst>
 </file>
@@ -2852,7 +2873,7 @@
   <dimension ref="A1:M182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3038,7 +3059,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G5" s="1">
         <v>10004</v>
@@ -3114,7 +3135,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G7" s="1">
         <v>10004</v>
@@ -3266,7 +3287,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G11" s="1">
         <v>10003</v>
@@ -3304,7 +3325,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G12" s="1">
         <v>10003</v>
@@ -3342,7 +3363,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G13" s="1">
         <v>10003</v>
@@ -3380,7 +3401,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G14" s="1">
         <v>10003</v>
@@ -3418,7 +3439,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G15" s="1">
         <v>10003</v>
@@ -3456,7 +3477,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G16" s="1">
         <v>10003</v>
@@ -3494,7 +3515,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G17" s="1">
         <v>10003</v>
@@ -3532,7 +3553,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G18" s="1">
         <v>10003</v>
@@ -3570,7 +3591,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G19" s="1">
         <v>10003</v>
@@ -3608,7 +3629,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G20" s="1">
         <v>10003</v>
@@ -3646,7 +3667,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G21" s="1">
         <v>10003</v>
@@ -3684,7 +3705,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G22" s="1">
         <v>10003</v>
@@ -3722,7 +3743,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G23" s="1">
         <v>10003</v>
@@ -3760,7 +3781,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G24" s="1">
         <v>10003</v>
@@ -3798,7 +3819,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G25" s="1">
         <v>10003</v>
@@ -3836,7 +3857,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G26" s="1">
         <v>10003</v>
@@ -3874,7 +3895,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G27" s="1">
         <v>10003</v>
@@ -3912,7 +3933,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G28" s="1">
         <v>10003</v>
@@ -3950,7 +3971,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G29" s="1">
         <v>10003</v>
@@ -3988,7 +4009,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G30" s="1">
         <v>10003</v>
@@ -4026,7 +4047,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G31" s="1">
         <v>10003</v>
@@ -4064,7 +4085,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G32" s="1">
         <v>10003</v>
@@ -4102,7 +4123,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G33" s="1">
         <v>10003</v>
@@ -4140,7 +4161,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G34" s="1">
         <v>10003</v>
@@ -6002,7 +6023,7 @@
         <v>198</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G83" s="1">
         <v>10003</v>
@@ -6040,7 +6061,7 @@
         <v>198</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G84" s="1">
         <v>10003</v>
@@ -6078,7 +6099,7 @@
         <v>198</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G85" s="1">
         <v>10003</v>
@@ -6116,7 +6137,7 @@
         <v>14</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G86" s="1">
         <v>10003</v>
@@ -6154,7 +6175,7 @@
         <v>14</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G87" s="1">
         <v>10003</v>
@@ -6192,7 +6213,7 @@
         <v>14</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G88" s="1">
         <v>10003</v>
@@ -6230,7 +6251,7 @@
         <v>14</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G89" s="1">
         <v>10003</v>
@@ -6268,7 +6289,7 @@
         <v>14</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G90" s="1">
         <v>10003</v>
@@ -6306,7 +6327,7 @@
         <v>14</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G91" s="1">
         <v>10003</v>
@@ -6344,7 +6365,7 @@
         <v>14</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G92" s="1">
         <v>10003</v>
@@ -6382,7 +6403,7 @@
         <v>14</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G93" s="1">
         <v>10003</v>
@@ -6420,7 +6441,7 @@
         <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G94" s="1">
         <v>10003</v>
@@ -6458,7 +6479,7 @@
         <v>14</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G95" s="1">
         <v>10003</v>
@@ -6496,7 +6517,7 @@
         <v>14</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G96" s="1">
         <v>10003</v>
@@ -6534,7 +6555,7 @@
         <v>14</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G97" s="1">
         <v>10003</v>
@@ -6575,13 +6596,13 @@
         <v>216</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G98" s="1">
         <v>10005</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>217</v>
@@ -6616,13 +6637,13 @@
         <v>216</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G99" s="1">
         <v>10005</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>217</v>
@@ -6657,13 +6678,13 @@
         <v>216</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G100" s="1">
         <v>10005</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>217</v>
@@ -6698,13 +6719,13 @@
         <v>216</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G101" s="1">
         <v>10005</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>223</v>
@@ -6739,13 +6760,13 @@
         <v>216</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G102" s="1">
         <v>10005</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>223</v>
@@ -6780,13 +6801,13 @@
         <v>216</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G103" s="1">
         <v>10005</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>223</v>
@@ -6821,13 +6842,13 @@
         <v>216</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G104" s="1">
         <v>10005</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>229</v>
@@ -6862,13 +6883,13 @@
         <v>216</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G105" s="1">
         <v>10005</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>229</v>
@@ -6903,13 +6924,13 @@
         <v>216</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G106" s="1">
         <v>10005</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>229</v>
@@ -6944,13 +6965,13 @@
         <v>216</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G107" s="1">
         <v>10005</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>230</v>
@@ -6985,13 +7006,13 @@
         <v>216</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G108" s="1">
         <v>10005</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>230</v>
@@ -7026,13 +7047,13 @@
         <v>216</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G109" s="1">
         <v>10005</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>230</v>
@@ -7073,7 +7094,7 @@
         <v>10005</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>231</v>
@@ -7114,7 +7135,7 @@
         <v>10005</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>231</v>
@@ -7155,7 +7176,7 @@
         <v>10005</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>231</v>
@@ -7272,7 +7293,7 @@
         <v>251</v>
       </c>
       <c r="F115" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G115">
         <v>10003</v>
@@ -7354,13 +7375,13 @@
         <v>216</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G117" s="1">
         <v>10005</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>263</v>
@@ -7395,13 +7416,13 @@
         <v>216</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G118" s="1">
         <v>10005</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>263</v>
@@ -7436,13 +7457,13 @@
         <v>216</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G119" s="1">
         <v>10005</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>263</v>
@@ -7465,10 +7486,10 @@
         <v>1142</v>
       </c>
       <c r="B120" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C120" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D120" t="s">
         <v>14</v>
@@ -7477,7 +7498,7 @@
         <v>216</v>
       </c>
       <c r="F120" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G120">
         <v>10001</v>
@@ -7486,7 +7507,7 @@
         <v>168</v>
       </c>
       <c r="I120" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J120" t="s">
         <v>34</v>
@@ -7506,10 +7527,10 @@
         <v>1142</v>
       </c>
       <c r="B121" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C121" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D121" t="s">
         <v>14</v>
@@ -7518,7 +7539,7 @@
         <v>216</v>
       </c>
       <c r="F121" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G121">
         <v>10001</v>
@@ -7527,7 +7548,7 @@
         <v>150</v>
       </c>
       <c r="I121" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J121" t="s">
         <v>18</v>
@@ -7547,10 +7568,10 @@
         <v>1142</v>
       </c>
       <c r="B122" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C122" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D122" t="s">
         <v>14</v>
@@ -7559,7 +7580,7 @@
         <v>216</v>
       </c>
       <c r="F122" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G122">
         <v>10001</v>
@@ -7568,7 +7589,7 @@
         <v>180</v>
       </c>
       <c r="I122" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J122" t="s">
         <v>43</v>
@@ -7588,10 +7609,10 @@
         <v>1143</v>
       </c>
       <c r="B123" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C123" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D123" t="s">
         <v>14</v>
@@ -7600,7 +7621,7 @@
         <v>216</v>
       </c>
       <c r="F123" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G123">
         <v>10001</v>
@@ -7609,7 +7630,7 @@
         <v>168</v>
       </c>
       <c r="I123" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J123" t="s">
         <v>34</v>
@@ -7629,10 +7650,10 @@
         <v>1143</v>
       </c>
       <c r="B124" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C124" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D124" t="s">
         <v>14</v>
@@ -7641,7 +7662,7 @@
         <v>216</v>
       </c>
       <c r="F124" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G124">
         <v>10001</v>
@@ -7650,7 +7671,7 @@
         <v>150</v>
       </c>
       <c r="I124" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J124" t="s">
         <v>18</v>
@@ -7670,10 +7691,10 @@
         <v>1143</v>
       </c>
       <c r="B125" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C125" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D125" t="s">
         <v>14</v>
@@ -7682,7 +7703,7 @@
         <v>216</v>
       </c>
       <c r="F125" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G125">
         <v>10001</v>
@@ -7691,7 +7712,7 @@
         <v>180</v>
       </c>
       <c r="I125" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J125" t="s">
         <v>43</v>
@@ -7711,10 +7732,10 @@
         <v>1144</v>
       </c>
       <c r="B126" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C126" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D126" t="s">
         <v>14</v>
@@ -7723,7 +7744,7 @@
         <v>216</v>
       </c>
       <c r="F126" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G126">
         <v>10001</v>
@@ -7732,7 +7753,7 @@
         <v>168</v>
       </c>
       <c r="I126" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J126" t="s">
         <v>34</v>
@@ -7752,10 +7773,10 @@
         <v>1144</v>
       </c>
       <c r="B127" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C127" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D127" t="s">
         <v>14</v>
@@ -7764,7 +7785,7 @@
         <v>216</v>
       </c>
       <c r="F127" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G127">
         <v>10001</v>
@@ -7773,7 +7794,7 @@
         <v>150</v>
       </c>
       <c r="I127" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J127" t="s">
         <v>18</v>
@@ -7793,10 +7814,10 @@
         <v>1144</v>
       </c>
       <c r="B128" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C128" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D128" t="s">
         <v>14</v>
@@ -7805,7 +7826,7 @@
         <v>216</v>
       </c>
       <c r="F128" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G128">
         <v>10001</v>
@@ -7814,7 +7835,7 @@
         <v>180</v>
       </c>
       <c r="I128" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J128" t="s">
         <v>43</v>
@@ -7834,10 +7855,10 @@
         <v>1145</v>
       </c>
       <c r="B129" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C129" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D129" t="s">
         <v>14</v>
@@ -7846,7 +7867,7 @@
         <v>216</v>
       </c>
       <c r="F129" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G129">
         <v>10002</v>
@@ -7855,7 +7876,7 @@
         <v>116</v>
       </c>
       <c r="I129" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J129" t="s">
         <v>34</v>
@@ -7875,10 +7896,10 @@
         <v>1145</v>
       </c>
       <c r="B130" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C130" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D130" t="s">
         <v>14</v>
@@ -7887,7 +7908,7 @@
         <v>216</v>
       </c>
       <c r="F130" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G130">
         <v>10002</v>
@@ -7896,7 +7917,7 @@
         <v>133</v>
       </c>
       <c r="I130" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J130" t="s">
         <v>43</v>
@@ -7916,10 +7937,10 @@
         <v>1145</v>
       </c>
       <c r="B131" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C131" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D131" t="s">
         <v>14</v>
@@ -7928,7 +7949,7 @@
         <v>216</v>
       </c>
       <c r="F131" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G131">
         <v>10002</v>
@@ -7937,7 +7958,7 @@
         <v>90</v>
       </c>
       <c r="I131" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J131" t="s">
         <v>18</v>
@@ -7957,10 +7978,10 @@
         <v>1146</v>
       </c>
       <c r="B132" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C132" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D132" t="s">
         <v>14</v>
@@ -7969,7 +7990,7 @@
         <v>216</v>
       </c>
       <c r="F132" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G132">
         <v>10002</v>
@@ -7978,7 +7999,7 @@
         <v>116</v>
       </c>
       <c r="I132" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J132" t="s">
         <v>34</v>
@@ -7998,10 +8019,10 @@
         <v>1146</v>
       </c>
       <c r="B133" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C133" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D133" t="s">
         <v>14</v>
@@ -8010,7 +8031,7 @@
         <v>216</v>
       </c>
       <c r="F133" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G133">
         <v>10002</v>
@@ -8019,7 +8040,7 @@
         <v>133</v>
       </c>
       <c r="I133" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J133" t="s">
         <v>43</v>
@@ -8039,10 +8060,10 @@
         <v>1146</v>
       </c>
       <c r="B134" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C134" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D134" t="s">
         <v>14</v>
@@ -8051,7 +8072,7 @@
         <v>216</v>
       </c>
       <c r="F134" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G134">
         <v>10002</v>
@@ -8060,7 +8081,7 @@
         <v>90</v>
       </c>
       <c r="I134" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J134" t="s">
         <v>18</v>
@@ -8080,10 +8101,10 @@
         <v>1147</v>
       </c>
       <c r="B135" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C135" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D135" t="s">
         <v>14</v>
@@ -8092,7 +8113,7 @@
         <v>216</v>
       </c>
       <c r="F135" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G135">
         <v>10002</v>
@@ -8101,7 +8122,7 @@
         <v>116</v>
       </c>
       <c r="I135" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J135" t="s">
         <v>34</v>
@@ -8121,10 +8142,10 @@
         <v>1147</v>
       </c>
       <c r="B136" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C136" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D136" t="s">
         <v>14</v>
@@ -8133,7 +8154,7 @@
         <v>216</v>
       </c>
       <c r="F136" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G136">
         <v>10002</v>
@@ -8142,7 +8163,7 @@
         <v>90</v>
       </c>
       <c r="I136" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J136" t="s">
         <v>18</v>
@@ -8162,10 +8183,10 @@
         <v>1147</v>
       </c>
       <c r="B137" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C137" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D137" t="s">
         <v>14</v>
@@ -8174,7 +8195,7 @@
         <v>216</v>
       </c>
       <c r="F137" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G137">
         <v>10002</v>
@@ -8183,7 +8204,7 @@
         <v>133</v>
       </c>
       <c r="I137" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J137" t="s">
         <v>43</v>
@@ -8203,10 +8224,10 @@
         <v>1148</v>
       </c>
       <c r="B138" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C138" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D138" t="s">
         <v>14</v>
@@ -8215,7 +8236,7 @@
         <v>216</v>
       </c>
       <c r="F138" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G138">
         <v>10004</v>
@@ -8224,7 +8245,7 @@
         <v>33</v>
       </c>
       <c r="I138" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J138" t="s">
         <v>34</v>
@@ -8244,10 +8265,10 @@
         <v>1148</v>
       </c>
       <c r="B139" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C139" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D139" t="s">
         <v>14</v>
@@ -8256,7 +8277,7 @@
         <v>216</v>
       </c>
       <c r="F139" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G139">
         <v>10004</v>
@@ -8265,7 +8286,7 @@
         <v>42</v>
       </c>
       <c r="I139" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J139" t="s">
         <v>43</v>
@@ -8285,10 +8306,10 @@
         <v>1148</v>
       </c>
       <c r="B140" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C140" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D140" t="s">
         <v>14</v>
@@ -8297,7 +8318,7 @@
         <v>216</v>
       </c>
       <c r="F140" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G140">
         <v>10004</v>
@@ -8306,7 +8327,7 @@
         <v>16</v>
       </c>
       <c r="I140" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J140" t="s">
         <v>18</v>
@@ -8326,10 +8347,10 @@
         <v>1149</v>
       </c>
       <c r="B141" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C141" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D141" t="s">
         <v>14</v>
@@ -8338,7 +8359,7 @@
         <v>216</v>
       </c>
       <c r="F141" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G141">
         <v>10004</v>
@@ -8347,7 +8368,7 @@
         <v>33</v>
       </c>
       <c r="I141" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J141" t="s">
         <v>34</v>
@@ -8367,10 +8388,10 @@
         <v>1149</v>
       </c>
       <c r="B142" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C142" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D142" t="s">
         <v>14</v>
@@ -8379,7 +8400,7 @@
         <v>216</v>
       </c>
       <c r="F142" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G142">
         <v>10004</v>
@@ -8388,7 +8409,7 @@
         <v>42</v>
       </c>
       <c r="I142" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J142" t="s">
         <v>43</v>
@@ -8408,10 +8429,10 @@
         <v>1149</v>
       </c>
       <c r="B143" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C143" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D143" t="s">
         <v>14</v>
@@ -8420,7 +8441,7 @@
         <v>216</v>
       </c>
       <c r="F143" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G143">
         <v>10004</v>
@@ -8429,7 +8450,7 @@
         <v>16</v>
       </c>
       <c r="I143" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J143" t="s">
         <v>18</v>
@@ -8449,10 +8470,10 @@
         <v>1150</v>
       </c>
       <c r="B144" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C144" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D144" t="s">
         <v>14</v>
@@ -8461,7 +8482,7 @@
         <v>216</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G144">
         <v>10004</v>
@@ -8470,7 +8491,7 @@
         <v>33</v>
       </c>
       <c r="I144" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J144" t="s">
         <v>34</v>
@@ -8490,10 +8511,10 @@
         <v>1150</v>
       </c>
       <c r="B145" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C145" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D145" t="s">
         <v>14</v>
@@ -8502,7 +8523,7 @@
         <v>216</v>
       </c>
       <c r="F145" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G145">
         <v>10004</v>
@@ -8511,7 +8532,7 @@
         <v>16</v>
       </c>
       <c r="I145" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J145" t="s">
         <v>18</v>
@@ -8531,10 +8552,10 @@
         <v>1150</v>
       </c>
       <c r="B146" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C146" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D146" t="s">
         <v>14</v>
@@ -8543,7 +8564,7 @@
         <v>216</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G146">
         <v>10004</v>
@@ -8552,7 +8573,7 @@
         <v>42</v>
       </c>
       <c r="I146" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J146" t="s">
         <v>43</v>
@@ -8584,7 +8605,7 @@
         <v>4</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G147">
         <v>10004</v>
@@ -8625,7 +8646,7 @@
         <v>4</v>
       </c>
       <c r="F148" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G148">
         <v>10004</v>
@@ -8664,7 +8685,7 @@
       </c>
       <c r="E149"/>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G149">
         <v>10004</v>
@@ -8828,7 +8849,7 @@
         <v>4</v>
       </c>
       <c r="F153" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G153">
         <v>10004</v>
@@ -8934,7 +8955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" ht="232" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>1154</v>
       </c>
@@ -8947,8 +8968,8 @@
       <c r="D156" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F156" s="1" t="s">
-        <v>275</v>
+      <c r="F156" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="G156" s="1">
         <v>10001</v>
@@ -8972,7 +8993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>1154</v>
       </c>
@@ -8985,8 +9006,8 @@
       <c r="D157" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>276</v>
+      <c r="F157" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="G157" s="1">
         <v>10001</v>
@@ -9010,7 +9031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" ht="232" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>1154</v>
       </c>
@@ -9023,8 +9044,8 @@
       <c r="D158" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F158" s="1" t="s">
-        <v>277</v>
+      <c r="F158" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="G158" s="1">
         <v>10001</v>
@@ -9053,10 +9074,10 @@
         <v>1155</v>
       </c>
       <c r="B159" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C159" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D159" t="s">
         <v>14</v>
@@ -9065,16 +9086,16 @@
         <v>216</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G159">
         <v>10005</v>
       </c>
       <c r="H159" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I159" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J159" t="s">
         <v>34</v>
@@ -9106,16 +9127,16 @@
         <v>216</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G160">
         <v>10005</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I160" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J160" t="s">
         <v>18</v>
@@ -9135,10 +9156,10 @@
         <v>1155</v>
       </c>
       <c r="B161" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C161" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D161" t="s">
         <v>14</v>
@@ -9147,16 +9168,16 @@
         <v>216</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G161">
         <v>10005</v>
       </c>
       <c r="H161" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I161" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J161" t="s">
         <v>43</v>
@@ -9176,10 +9197,10 @@
         <v>1156</v>
       </c>
       <c r="B162" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C162" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D162" t="s">
         <v>14</v>
@@ -9188,16 +9209,16 @@
         <v>216</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G162">
         <v>10005</v>
       </c>
       <c r="H162" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I162" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J162" t="s">
         <v>34</v>
@@ -9229,16 +9250,16 @@
         <v>216</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G163">
         <v>10005</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I163" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J163" t="s">
         <v>18</v>
@@ -9258,10 +9279,10 @@
         <v>1156</v>
       </c>
       <c r="B164" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C164" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D164" t="s">
         <v>14</v>
@@ -9270,16 +9291,16 @@
         <v>216</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G164">
         <v>10005</v>
       </c>
       <c r="H164" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I164" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J164" t="s">
         <v>43</v>
@@ -9299,10 +9320,10 @@
         <v>1157</v>
       </c>
       <c r="B165" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C165" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D165" t="s">
         <v>14</v>
@@ -9311,16 +9332,16 @@
         <v>216</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G165">
         <v>10005</v>
       </c>
       <c r="H165" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I165" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J165" t="s">
         <v>34</v>
@@ -9352,16 +9373,16 @@
         <v>216</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G166">
         <v>10005</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I166" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J166" t="s">
         <v>18</v>
@@ -9381,10 +9402,10 @@
         <v>1157</v>
       </c>
       <c r="B167" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C167" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D167" t="s">
         <v>14</v>
@@ -9393,16 +9414,16 @@
         <v>216</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G167">
         <v>10005</v>
       </c>
       <c r="H167" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I167" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J167" t="s">
         <v>43</v>
@@ -9422,10 +9443,10 @@
         <v>1158</v>
       </c>
       <c r="B168" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C168" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D168" t="s">
         <v>14</v>
@@ -9434,16 +9455,16 @@
         <v>216</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G168">
         <v>10005</v>
       </c>
       <c r="H168" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I168" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J168" t="s">
         <v>34</v>
@@ -9475,16 +9496,16 @@
         <v>216</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G169">
         <v>10005</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I169" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J169" t="s">
         <v>18</v>
@@ -9504,10 +9525,10 @@
         <v>1158</v>
       </c>
       <c r="B170" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C170" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D170" t="s">
         <v>14</v>
@@ -9516,16 +9537,16 @@
         <v>216</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G170">
         <v>10005</v>
       </c>
       <c r="H170" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I170" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J170" t="s">
         <v>43</v>
@@ -9545,10 +9566,10 @@
         <v>1159</v>
       </c>
       <c r="B171" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C171" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D171" t="s">
         <v>14</v>
@@ -9557,7 +9578,7 @@
         <v>216</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G171" s="1">
         <v>10001</v>
@@ -9566,7 +9587,7 @@
         <v>150</v>
       </c>
       <c r="I171" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>18</v>
@@ -9586,10 +9607,10 @@
         <v>1159</v>
       </c>
       <c r="B172" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C172" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D172" t="s">
         <v>14</v>
@@ -9598,7 +9619,7 @@
         <v>216</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G172" s="1">
         <v>10001</v>
@@ -9607,7 +9628,7 @@
         <v>168</v>
       </c>
       <c r="I172" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>34</v>
@@ -9627,10 +9648,10 @@
         <v>1159</v>
       </c>
       <c r="B173" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C173" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D173" t="s">
         <v>14</v>
@@ -9639,7 +9660,7 @@
         <v>216</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G173" s="1">
         <v>10001</v>
@@ -9648,7 +9669,7 @@
         <v>180</v>
       </c>
       <c r="I173" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>43</v>
@@ -9668,10 +9689,10 @@
         <v>1160</v>
       </c>
       <c r="B174" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C174" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D174" t="s">
         <v>14</v>
@@ -9680,7 +9701,7 @@
         <v>216</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G174" s="1">
         <v>10003</v>
@@ -9689,7 +9710,7 @@
         <v>54</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>18</v>
@@ -9709,10 +9730,10 @@
         <v>1160</v>
       </c>
       <c r="B175" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C175" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D175" t="s">
         <v>14</v>
@@ -9721,7 +9742,7 @@
         <v>216</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G175" s="1">
         <v>10003</v>
@@ -9730,7 +9751,7 @@
         <v>71</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>34</v>
@@ -9750,10 +9771,10 @@
         <v>1160</v>
       </c>
       <c r="B176" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C176" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D176" t="s">
         <v>14</v>
@@ -9762,7 +9783,7 @@
         <v>216</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G176" s="1">
         <v>10003</v>
@@ -9771,7 +9792,7 @@
         <v>80</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>43</v>
@@ -9791,10 +9812,10 @@
         <v>1161</v>
       </c>
       <c r="B177" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C177" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D177" t="s">
         <v>14</v>
@@ -9803,7 +9824,7 @@
         <v>216</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G177" s="1">
         <v>10003</v>
@@ -9812,7 +9833,7 @@
         <v>54</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>18</v>
@@ -9832,10 +9853,10 @@
         <v>1161</v>
       </c>
       <c r="B178" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C178" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D178" t="s">
         <v>14</v>
@@ -9844,7 +9865,7 @@
         <v>216</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G178" s="1">
         <v>10003</v>
@@ -9853,7 +9874,7 @@
         <v>71</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>34</v>
@@ -9873,10 +9894,10 @@
         <v>1161</v>
       </c>
       <c r="B179" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C179" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D179" t="s">
         <v>14</v>
@@ -9885,7 +9906,7 @@
         <v>216</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G179" s="1">
         <v>10003</v>
@@ -9894,7 +9915,7 @@
         <v>80</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>43</v>
@@ -9914,10 +9935,10 @@
         <v>1162</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>14</v>
@@ -9926,7 +9947,7 @@
         <v>216</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G180" s="1">
         <v>10003</v>
@@ -9935,7 +9956,7 @@
         <v>54</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>18</v>
@@ -9955,10 +9976,10 @@
         <v>1162</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>14</v>
@@ -9967,7 +9988,7 @@
         <v>216</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G181" s="1">
         <v>10003</v>
@@ -9976,7 +9997,7 @@
         <v>71</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>34</v>
@@ -9996,10 +10017,10 @@
         <v>1162</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>14</v>
@@ -10008,7 +10029,7 @@
         <v>216</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G182" s="1">
         <v>10003</v>
@@ -10017,7 +10038,7 @@
         <v>80</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>43</v>
